--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/AAV-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485A3CFA-16F6-4841-8569-B9DDD65D51FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513CB1CC-02E6-E24C-A102-A12EA320778F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3799,7 +3799,7 @@
   <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:W57"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513CB1CC-02E6-E24C-A102-A12EA320778F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3979B9E-11A4-6343-A2BB-79859C9BB1D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13400" yWindow="540" windowWidth="32040" windowHeight="20020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimal refset" sheetId="2" r:id="rId1"/>
@@ -20,8 +20,16 @@
     <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
     <sheet name="bats" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="413">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -1031,12 +1039,6 @@
     <t>epv-dependo.62-sarcophilus</t>
   </si>
   <si>
-    <t>epv-dependo.65-passeriformes</t>
-  </si>
-  <si>
-    <t>epv-dependo.66-passeriformes</t>
-  </si>
-  <si>
     <t>dependo.35-rhinolophidae-con</t>
   </si>
   <si>
@@ -1227,6 +1229,54 @@
   </si>
   <si>
     <t>ncbi-refseqs-dependo-epv</t>
+  </si>
+  <si>
+    <t>dependo.165-passeriformes-con</t>
+  </si>
+  <si>
+    <t>dependo.166-passeriformes-con</t>
+  </si>
+  <si>
+    <t>dependo.165-passeriformes</t>
+  </si>
+  <si>
+    <t>epv-dependo.165-passeriformes</t>
+  </si>
+  <si>
+    <t>epv-dependo.166-passeriformes</t>
+  </si>
+  <si>
+    <t>Pelecanus</t>
+  </si>
+  <si>
+    <t>Thamnophis</t>
+  </si>
+  <si>
+    <t>Gekko</t>
+  </si>
+  <si>
+    <t>dependo.202-gekko</t>
+  </si>
+  <si>
+    <t>dependo.201.1-thamnophis</t>
+  </si>
+  <si>
+    <t>dependo.201.2-thamnophis</t>
+  </si>
+  <si>
+    <t>PCGF5</t>
+  </si>
+  <si>
+    <t>ANKRD1</t>
+  </si>
+  <si>
+    <t>AFF1</t>
+  </si>
+  <si>
+    <t>PTPN13</t>
+  </si>
+  <si>
+    <t>dependo.170-pelecanus</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1348,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1443,6 +1493,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2394,7 +2450,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2511,6 +2567,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="939">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3798,8 +3855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G55" sqref="A1:W61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3833,7 +3890,7 @@
         <v>209</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -3842,10 +3899,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>261</v>
@@ -3904,7 +3961,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D2" s="59" t="s">
         <v>2</v>
@@ -3913,19 +3970,19 @@
         <v>3</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G2" s="61" t="s">
         <v>137</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I2" s="61" t="s">
         <v>137</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K2" s="61" t="s">
         <v>137</v>
@@ -3973,7 +4030,7 @@
         <v>78</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D3" s="59" t="s">
         <v>2</v>
@@ -3982,19 +4039,19 @@
         <v>3</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>246</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>246</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>246</v>
@@ -4023,7 +4080,9 @@
       <c r="S3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="11"/>
+      <c r="T3" s="11">
+        <v>32913662</v>
+      </c>
       <c r="U3" s="11" t="s">
         <v>7</v>
       </c>
@@ -4042,7 +4101,7 @@
         <v>85</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D4" s="59" t="s">
         <v>2</v>
@@ -4051,22 +4110,22 @@
         <v>3</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G4" s="49" t="s">
         <v>280</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I4" s="49" t="s">
         <v>280</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K4" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>244</v>
@@ -4090,7 +4149,9 @@
       <c r="S4" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="T4" s="11"/>
+      <c r="T4" s="11">
+        <v>32913662</v>
+      </c>
       <c r="U4" s="12" t="s">
         <v>109</v>
       </c>
@@ -4109,7 +4170,7 @@
         <v>86</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D5" s="59" t="s">
         <v>2</v>
@@ -4118,22 +4179,22 @@
         <v>3</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G5" s="49" t="s">
         <v>280</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I5" s="49" t="s">
         <v>280</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K5" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>244</v>
@@ -4159,7 +4220,9 @@
       <c r="S5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="T5" s="11"/>
+      <c r="T5" s="11">
+        <v>32913662</v>
+      </c>
       <c r="U5" s="11" t="s">
         <v>10</v>
       </c>
@@ -4178,7 +4241,7 @@
         <v>95</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D6" s="59" t="s">
         <v>2</v>
@@ -4187,19 +4250,19 @@
         <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>246</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>246</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>246</v>
@@ -4247,7 +4310,7 @@
         <v>193</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>2</v>
@@ -4256,10 +4319,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H7" s="44" t="s">
         <v>94</v>
@@ -4268,10 +4331,10 @@
         <v>94</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K7" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>244</v>
@@ -4316,7 +4379,7 @@
         <v>235</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D8" s="59" t="s">
         <v>2</v>
@@ -4325,16 +4388,16 @@
         <v>3</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J8" s="44" t="s">
         <v>94</v>
@@ -4383,7 +4446,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D9" s="59" t="s">
         <v>2</v>
@@ -4392,16 +4455,16 @@
         <v>3</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I9" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J9" s="44" t="s">
         <v>94</v>
@@ -4450,7 +4513,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D10" s="59" t="s">
         <v>2</v>
@@ -4459,10 +4522,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H10" s="44" t="s">
         <v>94</v>
@@ -4471,10 +4534,10 @@
         <v>94</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K10" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>244</v>
@@ -4517,7 +4580,7 @@
         <v>236</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D11" s="59" t="s">
         <v>2</v>
@@ -4526,16 +4589,16 @@
         <v>3</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J11" s="44" t="s">
         <v>94</v>
@@ -4570,7 +4633,7 @@
         <v>236</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W11" s="30" t="s">
         <v>3</v>
@@ -4584,7 +4647,7 @@
         <v>107</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D12" s="59" t="s">
         <v>2</v>
@@ -4593,16 +4656,16 @@
         <v>3</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G12" s="57" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H12" s="57" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J12" s="44" t="s">
         <v>94</v>
@@ -4651,7 +4714,7 @@
         <v>104</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D13" s="59" t="s">
         <v>2</v>
@@ -4660,16 +4723,16 @@
         <v>3</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I13" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J13" s="44" t="s">
         <v>94</v>
@@ -4718,7 +4781,7 @@
         <v>192</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D14" s="59" t="s">
         <v>2</v>
@@ -4727,22 +4790,22 @@
         <v>3</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G14" s="49" t="s">
         <v>280</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I14" s="49" t="s">
         <v>280</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K14" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>244</v>
@@ -4785,7 +4848,7 @@
         <v>90</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D15" s="59" t="s">
         <v>2</v>
@@ -4794,22 +4857,22 @@
         <v>3</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K15" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L15" s="50" t="s">
         <v>282</v>
@@ -4854,7 +4917,7 @@
         <v>113</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>2</v>
@@ -4863,16 +4926,16 @@
         <v>3</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J16" s="44" t="s">
         <v>94</v>
@@ -4923,7 +4986,7 @@
         <v>237</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D17" s="59" t="s">
         <v>2</v>
@@ -4932,16 +4995,16 @@
         <v>3</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J17" s="44" t="s">
         <v>94</v>
@@ -4992,7 +5055,7 @@
         <v>214</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D18" s="59" t="s">
         <v>2</v>
@@ -5001,7 +5064,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>246</v>
@@ -5013,7 +5076,7 @@
         <v>94</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>246</v>
@@ -5059,7 +5122,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D19" s="59" t="s">
         <v>2</v>
@@ -5068,16 +5131,16 @@
         <v>3</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G19" s="57" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H19" s="57" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I19" s="57" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J19" s="44" t="s">
         <v>94</v>
@@ -5109,7 +5172,7 @@
       </c>
       <c r="T19" s="12"/>
       <c r="U19" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V19" s="11" t="s">
         <v>312</v>
@@ -5126,7 +5189,7 @@
         <v>238</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D20" s="59" t="s">
         <v>2</v>
@@ -5135,16 +5198,16 @@
         <v>3</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G20" s="57" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H20" s="57" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I20" s="57" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J20" s="44" t="s">
         <v>94</v>
@@ -5195,7 +5258,7 @@
         <v>101</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D21" s="59" t="s">
         <v>2</v>
@@ -5204,7 +5267,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>246</v>
@@ -5216,7 +5279,7 @@
         <v>94</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>246</v>
@@ -5266,7 +5329,7 @@
         <v>89</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D22" s="59" t="s">
         <v>2</v>
@@ -5275,7 +5338,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>246</v>
@@ -5287,7 +5350,7 @@
         <v>94</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>246</v>
@@ -5337,7 +5400,7 @@
         <v>176</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D23" s="59" t="s">
         <v>2</v>
@@ -5346,16 +5409,16 @@
         <v>3</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G23" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I23" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J23" s="44" t="s">
         <v>94</v>
@@ -5404,7 +5467,7 @@
         <v>216</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D24" s="59" t="s">
         <v>2</v>
@@ -5413,19 +5476,19 @@
         <v>3</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>246</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>246</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>246</v>
@@ -5468,10 +5531,10 @@
         <v>30</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D25" s="59" t="s">
         <v>2</v>
@@ -5480,19 +5543,19 @@
         <v>3</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>246</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>246</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>246</v>
@@ -5521,10 +5584,10 @@
       </c>
       <c r="T25" s="11"/>
       <c r="U25" s="48" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V25" s="48" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="W25" s="13" t="s">
         <v>3</v>
@@ -5535,10 +5598,10 @@
         <v>31</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D26" s="59" t="s">
         <v>2</v>
@@ -5559,7 +5622,7 @@
         <v>145</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>246</v>
@@ -5588,10 +5651,10 @@
       </c>
       <c r="T26" s="11"/>
       <c r="U26" s="48" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="V26" s="48" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>3</v>
@@ -5602,10 +5665,10 @@
         <v>32</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D27" s="59" t="s">
         <v>2</v>
@@ -5614,19 +5677,19 @@
         <v>3</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>246</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>246</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>246</v>
@@ -5655,10 +5718,10 @@
       </c>
       <c r="T27" s="11"/>
       <c r="U27" s="48" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="V27" s="48" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="W27" s="13" t="s">
         <v>3</v>
@@ -5669,10 +5732,10 @@
         <v>33</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D28" s="59" t="s">
         <v>2</v>
@@ -5681,13 +5744,13 @@
         <v>3</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>246</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>246</v>
@@ -5722,10 +5785,10 @@
       </c>
       <c r="T28" s="11"/>
       <c r="U28" s="48" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="V28" s="48" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="W28" s="13" t="s">
         <v>3</v>
@@ -5736,10 +5799,10 @@
         <v>34</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D29" s="59" t="s">
         <v>2</v>
@@ -5785,14 +5848,14 @@
         <v>242</v>
       </c>
       <c r="S29" s="48" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="T29" s="11"/>
       <c r="U29" s="48" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="V29" s="48" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="W29" s="13" t="s">
         <v>3</v>
@@ -5803,10 +5866,10 @@
         <v>35</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D30" s="59" t="s">
         <v>2</v>
@@ -5815,22 +5878,22 @@
         <v>3</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G30" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I30" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K30" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L30" s="48" t="s">
         <v>244</v>
@@ -5852,14 +5915,14 @@
         <v>75</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="T30" s="11"/>
       <c r="U30" s="48" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="V30" s="48" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="W30" s="13" t="s">
         <v>3</v>
@@ -5870,10 +5933,10 @@
         <v>36</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D31" s="59" t="s">
         <v>2</v>
@@ -5882,16 +5945,16 @@
         <v>3</v>
       </c>
       <c r="F31" s="57" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G31" s="57" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H31" s="57" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I31" s="57" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J31" s="44" t="s">
         <v>94</v>
@@ -5919,14 +5982,14 @@
         <v>75</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="T31" s="11"/>
       <c r="U31" s="48" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="V31" s="48" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="W31" s="13" t="s">
         <v>3</v>
@@ -5937,10 +6000,10 @@
         <v>39</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D32" s="59" t="s">
         <v>2</v>
@@ -5949,13 +6012,13 @@
         <v>3</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>246</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>246</v>
@@ -5993,7 +6056,7 @@
         <v>287</v>
       </c>
       <c r="V32" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="W32" s="13" t="s">
         <v>3</v>
@@ -6004,10 +6067,10 @@
         <v>39</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D33" s="59" t="s">
         <v>2</v>
@@ -6016,13 +6079,13 @@
         <v>3</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>246</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>246</v>
@@ -6057,7 +6120,7 @@
       </c>
       <c r="T33" s="11"/>
       <c r="U33" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="V33" s="11" t="s">
         <v>323</v>
@@ -6071,10 +6134,10 @@
         <v>40</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D34" s="59" t="s">
         <v>2</v>
@@ -6083,13 +6146,13 @@
         <v>3</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>246</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>246</v>
@@ -6138,10 +6201,10 @@
         <v>42</v>
       </c>
       <c r="B35" s="59" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D35" s="59" t="s">
         <v>2</v>
@@ -6150,16 +6213,16 @@
         <v>3</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G35" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I35" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J35" s="44" t="s">
         <v>94</v>
@@ -6187,14 +6250,14 @@
         <v>74</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="T35" s="11"/>
       <c r="U35" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="V35" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="W35" s="30" t="s">
         <v>3</v>
@@ -6205,10 +6268,10 @@
         <v>43</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D36" s="59" t="s">
         <v>2</v>
@@ -6217,13 +6280,13 @@
         <v>3</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G36" s="49" t="s">
         <v>280</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I36" s="49" t="s">
         <v>280</v>
@@ -6258,10 +6321,10 @@
       </c>
       <c r="T36" s="12"/>
       <c r="U36" s="59" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="V36" s="59" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="W36" s="30" t="s">
         <v>3</v>
@@ -6275,7 +6338,7 @@
         <v>105</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D37" s="59" t="s">
         <v>2</v>
@@ -6341,10 +6404,10 @@
         <v>45</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D38" s="59" t="s">
         <v>2</v>
@@ -6353,13 +6416,13 @@
         <v>3</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G38" s="49" t="s">
         <v>280</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I38" s="49" t="s">
         <v>280</v>
@@ -6394,10 +6457,10 @@
       </c>
       <c r="T38" s="12"/>
       <c r="U38" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="V38" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="W38" s="30" t="s">
         <v>3</v>
@@ -6411,7 +6474,7 @@
         <v>274</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D39" s="59" t="s">
         <v>2</v>
@@ -6420,22 +6483,22 @@
         <v>3</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G39" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I39" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J39" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K39" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L39" s="46" t="s">
         <v>244</v>
@@ -6478,7 +6541,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D40" s="59" t="s">
         <v>2</v>
@@ -6487,16 +6550,16 @@
         <v>3</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G40" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I40" s="60" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>145</v>
@@ -6528,10 +6591,10 @@
       </c>
       <c r="T40" s="11"/>
       <c r="U40" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="V40" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="W40" s="30" t="s">
         <v>3</v>
@@ -6542,10 +6605,10 @@
         <v>50</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D41" s="59" t="s">
         <v>2</v>
@@ -6594,10 +6657,10 @@
         <v>70</v>
       </c>
       <c r="U41" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="V41" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="W41" s="13" t="s">
         <v>3</v>
@@ -6608,10 +6671,10 @@
         <v>51</v>
       </c>
       <c r="B42" s="59" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D42" s="59" t="s">
         <v>2</v>
@@ -6661,10 +6724,10 @@
       </c>
       <c r="T42" s="11"/>
       <c r="U42" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="V42" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W42" s="30" t="s">
         <v>3</v>
@@ -6675,10 +6738,10 @@
         <v>53</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D43" s="59" t="s">
         <v>2</v>
@@ -6687,13 +6750,13 @@
         <v>3</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G43" s="49" t="s">
         <v>280</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I43" s="49" t="s">
         <v>280</v>
@@ -6728,10 +6791,10 @@
       </c>
       <c r="T43" s="11"/>
       <c r="U43" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="V43" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="W43" s="13" t="s">
         <v>3</v>
@@ -6742,10 +6805,10 @@
         <v>54</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C44" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D44" s="59" t="s">
         <v>2</v>
@@ -6754,13 +6817,13 @@
         <v>3</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G44" s="49" t="s">
         <v>280</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I44" s="49" t="s">
         <v>280</v>
@@ -6795,10 +6858,10 @@
       </c>
       <c r="T44" s="11"/>
       <c r="U44" s="59" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="V44" s="59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="W44" s="13" t="s">
         <v>3</v>
@@ -6812,7 +6875,7 @@
         <v>267</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D45" s="59" t="s">
         <v>2</v>
@@ -6865,7 +6928,7 @@
         <v>267</v>
       </c>
       <c r="V45" s="46" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="W45" s="13" t="s">
         <v>3</v>
@@ -6876,10 +6939,10 @@
         <v>56</v>
       </c>
       <c r="B46" s="59" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D46" s="59" t="s">
         <v>2</v>
@@ -6888,13 +6951,13 @@
         <v>3</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G46" s="49" t="s">
         <v>280</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I46" s="49" t="s">
         <v>280</v>
@@ -6928,10 +6991,10 @@
       </c>
       <c r="T46" s="11"/>
       <c r="U46" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="V46" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="W46" s="13" t="s">
         <v>3</v>
@@ -6945,7 +7008,7 @@
         <v>222</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D47" s="59" t="s">
         <v>2</v>
@@ -6954,13 +7017,13 @@
         <v>3</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>246</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>246</v>
@@ -7012,7 +7075,7 @@
         <v>221</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D48" s="59" t="s">
         <v>2</v>
@@ -7021,16 +7084,16 @@
         <v>3</v>
       </c>
       <c r="F48" s="57" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G48" s="57" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H48" s="57" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I48" s="57" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J48" s="44" t="s">
         <v>94</v>
@@ -7078,7 +7141,7 @@
         <v>103</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D49" s="59" t="s">
         <v>2</v>
@@ -7087,13 +7150,13 @@
         <v>3</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>246</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>246</v>
@@ -7145,7 +7208,7 @@
         <v>157</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D50" s="59" t="s">
         <v>2</v>
@@ -7212,7 +7275,7 @@
         <v>158</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D51" s="59" t="s">
         <v>2</v>
@@ -7279,7 +7342,7 @@
         <v>159</v>
       </c>
       <c r="C52" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D52" s="59" t="s">
         <v>2</v>
@@ -7340,13 +7403,13 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="59">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="B53" s="59" t="s">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="C53" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D53" s="59" t="s">
         <v>2</v>
@@ -7378,11 +7441,11 @@
       <c r="M53" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="N53" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="O53" s="36" t="s">
-        <v>145</v>
+      <c r="N53" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="O53" s="35" t="s">
+        <v>408</v>
       </c>
       <c r="P53" s="32" t="s">
         <v>145</v>
@@ -7396,10 +7459,10 @@
       </c>
       <c r="T53" s="31"/>
       <c r="U53" s="33" t="s">
-        <v>13</v>
+        <v>399</v>
       </c>
       <c r="V53" s="33" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="W53" s="34" t="s">
         <v>3</v>
@@ -7407,13 +7470,13 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="59">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="B54" s="59" t="s">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="C54" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D54" s="59" t="s">
         <v>2</v>
@@ -7445,11 +7508,11 @@
       <c r="M54" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="N54" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="O54" s="36" t="s">
-        <v>145</v>
+      <c r="N54" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="O54" s="35" t="s">
+        <v>410</v>
       </c>
       <c r="P54" s="32" t="s">
         <v>145</v>
@@ -7463,10 +7526,10 @@
       </c>
       <c r="T54" s="31"/>
       <c r="U54" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="V54" s="33" t="s">
-        <v>334</v>
+        <v>401</v>
+      </c>
+      <c r="V54" s="62" t="s">
+        <v>401</v>
       </c>
       <c r="W54" s="34" t="s">
         <v>3</v>
@@ -7477,10 +7540,10 @@
         <v>500</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C55" s="59" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D55" s="59" t="s">
         <v>2</v>
@@ -7489,16 +7552,16 @@
         <v>3</v>
       </c>
       <c r="F55" s="43" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G55" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="H55" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="H55" s="43" t="s">
-        <v>382</v>
-      </c>
       <c r="I55" s="43" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J55" s="44" t="s">
         <v>94</v>
@@ -7526,14 +7589,14 @@
         <v>74</v>
       </c>
       <c r="S55" s="58" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="T55" s="11"/>
       <c r="U55" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="V55" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="W55" s="13" t="s">
         <v>3</v>
@@ -7544,10 +7607,10 @@
         <v>500</v>
       </c>
       <c r="B56" s="59" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D56" s="59" t="s">
         <v>2</v>
@@ -7556,16 +7619,16 @@
         <v>3</v>
       </c>
       <c r="F56" s="43" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G56" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="H56" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="H56" s="43" t="s">
-        <v>382</v>
-      </c>
       <c r="I56" s="43" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J56" s="44" t="s">
         <v>94</v>
@@ -7593,14 +7656,14 @@
         <v>74</v>
       </c>
       <c r="S56" s="58" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="T56" s="11"/>
       <c r="U56" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="V56" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="W56" s="30" t="s">
         <v>3</v>
@@ -7610,11 +7673,11 @@
       <c r="A57" s="59">
         <v>500</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="59" t="s">
+        <v>393</v>
+      </c>
+      <c r="C57" s="59" t="s">
         <v>395</v>
-      </c>
-      <c r="C57" s="59" t="s">
-        <v>397</v>
       </c>
       <c r="D57" s="59" t="s">
         <v>2</v>
@@ -7623,16 +7686,16 @@
         <v>3</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G57" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="H57" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="H57" s="43" t="s">
-        <v>382</v>
-      </c>
       <c r="I57" s="43" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J57" s="44" t="s">
         <v>94</v>
@@ -7660,29 +7723,281 @@
         <v>74</v>
       </c>
       <c r="S57" s="58" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="U57" t="s">
+        <v>393</v>
+      </c>
+      <c r="V57" t="s">
+        <v>394</v>
+      </c>
+      <c r="W57" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A58" s="59">
+        <v>202</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="C58" s="59" t="s">
         <v>395</v>
       </c>
-      <c r="V57" t="s">
-        <v>396</v>
-      </c>
-      <c r="W57" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A58"/>
+      <c r="D58" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J58" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K58" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L58" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M58" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="N58" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O58" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P58" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S58" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="U58" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="V58" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="W58" s="34" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A59"/>
+      <c r="A59" s="59">
+        <v>201.1</v>
+      </c>
+      <c r="B59" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="C59" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="D59" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J59" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K59" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L59" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M59" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="N59" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O59" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P59" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S59" s="58" t="s">
+        <v>403</v>
+      </c>
+      <c r="U59" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="V59" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="W59" s="13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A60"/>
+      <c r="A60" s="59">
+        <v>201.2</v>
+      </c>
+      <c r="B60" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="C60" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="D60" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J60" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K60" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L60" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M60" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="N60" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O60" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P60" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S60" s="58" t="s">
+        <v>403</v>
+      </c>
+      <c r="U60" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="V60" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="W60" s="30" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A61"/>
+      <c r="A61" s="59">
+        <v>170</v>
+      </c>
+      <c r="B61" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="D61" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J61" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K61" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L61" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M61" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="N61" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O61" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P61" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S61" s="58" t="s">
+        <v>402</v>
+      </c>
+      <c r="U61" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="V61" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="W61" s="30" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62"/>
@@ -7736,7 +8051,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>244</v>
@@ -7777,10 +8092,10 @@
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="48" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="R3" s="48" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="S3" s="13" t="s">
         <v>3</v>
@@ -10188,7 +10503,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B35" s="29">
         <v>48</v>
@@ -11194,7 +11509,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>244</v>
@@ -11308,7 +11623,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>244</v>
@@ -11366,7 +11681,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>244</v>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3979B9E-11A4-6343-A2BB-79859C9BB1D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B6C473-FB30-1541-B030-27E60C2A3EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13400" yWindow="540" windowWidth="32040" windowHeight="20020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11680" yWindow="3160" windowWidth="37760" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimal refset" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="422">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -1277,6 +1277,33 @@
   </si>
   <si>
     <t>dependo.170-pelecanus</t>
+  </si>
+  <si>
+    <t>dependo.221-pelusios</t>
+  </si>
+  <si>
+    <t>dependo.220-pelusios</t>
+  </si>
+  <si>
+    <t>Pelusios</t>
+  </si>
+  <si>
+    <t>dependo.81-muscardinus</t>
+  </si>
+  <si>
+    <t>dependo.80-graphiurus</t>
+  </si>
+  <si>
+    <t>dependo.82-thryonomys</t>
+  </si>
+  <si>
+    <t>Graphiurus</t>
+  </si>
+  <si>
+    <t>Muscardinus</t>
+  </si>
+  <si>
+    <t>Thryonomys</t>
   </si>
 </sst>
 </file>
@@ -3853,10 +3880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G55" sqref="A1:W61"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7403,10 +7430,10 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="59">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="B53" s="59" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="C53" s="59" t="s">
         <v>395</v>
@@ -7435,45 +7462,46 @@
       <c r="K53" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="L53" s="31" t="s">
+      <c r="L53" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M53" s="34" t="s">
+      <c r="M53" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="N53" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="O53" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="P53" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="S53" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="T53" s="31"/>
-      <c r="U53" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="V53" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="W53" s="34" t="s">
-        <v>3</v>
-      </c>
+      <c r="N53" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O53" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P53" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S53" s="59" t="s">
+        <v>419</v>
+      </c>
+      <c r="U53" s="59" t="s">
+        <v>417</v>
+      </c>
+      <c r="V53" s="59" t="s">
+        <v>417</v>
+      </c>
+      <c r="W53" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="59">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="B54" s="59" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="C54" s="59" t="s">
         <v>395</v>
@@ -7502,48 +7530,49 @@
       <c r="K54" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="L54" s="31" t="s">
+      <c r="L54" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M54" s="34" t="s">
+      <c r="M54" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="N54" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="O54" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="P54" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="S54" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="T54" s="31"/>
-      <c r="U54" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="V54" s="62" t="s">
-        <v>401</v>
-      </c>
-      <c r="W54" s="34" t="s">
-        <v>3</v>
-      </c>
+      <c r="N54" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O54" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P54" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S54" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="U54" s="59" t="s">
+        <v>416</v>
+      </c>
+      <c r="V54" s="59" t="s">
+        <v>416</v>
+      </c>
+      <c r="W54" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="59">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="C55" s="59" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D55" s="59" t="s">
         <v>2</v>
@@ -7551,17 +7580,17 @@
       <c r="E55" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="G55" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="H55" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="I55" s="43" t="s">
-        <v>378</v>
+      <c r="F55" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="J55" s="44" t="s">
         <v>94</v>
@@ -7569,10 +7598,10 @@
       <c r="K55" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="L55" s="31" t="s">
+      <c r="L55" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M55" s="34" t="s">
+      <c r="M55" s="30" t="s">
         <v>285</v>
       </c>
       <c r="N55" s="36" t="s">
@@ -7586,28 +7615,29 @@
       </c>
       <c r="Q55" s="11"/>
       <c r="R55" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="S55" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="T55" s="11"/>
-      <c r="U55" t="s">
-        <v>375</v>
-      </c>
-      <c r="V55" t="s">
-        <v>376</v>
+        <v>58</v>
+      </c>
+      <c r="S55" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="U55" s="59" t="s">
+        <v>418</v>
+      </c>
+      <c r="V55" s="59" t="s">
+        <v>418</v>
       </c>
       <c r="W55" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="59">
-        <v>500</v>
+        <v>165</v>
       </c>
       <c r="B56" s="59" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="C56" s="59" t="s">
         <v>395</v>
@@ -7618,17 +7648,17 @@
       <c r="E56" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F56" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="G56" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="H56" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="I56" s="43" t="s">
-        <v>378</v>
+      <c r="F56" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="J56" s="44" t="s">
         <v>94</v>
@@ -7642,39 +7672,39 @@
       <c r="M56" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="N56" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="O56" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="P56" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="S56" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="T56" s="11"/>
-      <c r="U56" t="s">
-        <v>374</v>
-      </c>
-      <c r="V56" t="s">
-        <v>377</v>
-      </c>
-      <c r="W56" s="30" t="s">
+      <c r="N56" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="O56" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="P56" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="S56" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="T56" s="31"/>
+      <c r="U56" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="V56" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="W56" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="59">
-        <v>500</v>
+        <v>166</v>
       </c>
       <c r="B57" s="59" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C57" s="59" t="s">
         <v>395</v>
@@ -7685,17 +7715,17 @@
       <c r="E57" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F57" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="G57" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="H57" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="I57" s="43" t="s">
-        <v>378</v>
+      <c r="F57" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="J57" s="44" t="s">
         <v>94</v>
@@ -7709,38 +7739,39 @@
       <c r="M57" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="N57" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="O57" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="P57" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="S57" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="U57" t="s">
-        <v>393</v>
-      </c>
-      <c r="V57" t="s">
-        <v>394</v>
-      </c>
-      <c r="W57" s="30" t="s">
+      <c r="N57" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="O57" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="P57" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="S57" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="T57" s="31"/>
+      <c r="U57" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="V57" s="62" t="s">
+        <v>401</v>
+      </c>
+      <c r="W57" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="59">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="B58" s="59" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C58" s="59" t="s">
         <v>395</v>
@@ -7751,11 +7782,11 @@
       <c r="E58" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>145</v>
+      <c r="F58" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="G58" s="60" t="s">
+        <v>383</v>
       </c>
       <c r="H58" s="11" t="s">
         <v>145</v>
@@ -7789,15 +7820,15 @@
         <v>58</v>
       </c>
       <c r="S58" s="58" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="U58" s="59" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="V58" s="59" t="s">
-        <v>405</v>
-      </c>
-      <c r="W58" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="W58" s="30" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7824,10 +7855,10 @@
         <v>145</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>145</v>
+        <v>371</v>
+      </c>
+      <c r="I59" s="57" t="s">
+        <v>372</v>
       </c>
       <c r="J59" s="44" t="s">
         <v>94</v>
@@ -7890,10 +7921,10 @@
         <v>145</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>145</v>
+        <v>371</v>
+      </c>
+      <c r="I60" s="57" t="s">
+        <v>372</v>
       </c>
       <c r="J60" s="44" t="s">
         <v>94</v>
@@ -7935,10 +7966,10 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="59">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="B61" s="59" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C61" s="59" t="s">
         <v>395</v>
@@ -7987,39 +8018,371 @@
         <v>58</v>
       </c>
       <c r="S61" s="58" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="U61" s="59" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="V61" s="59" t="s">
-        <v>412</v>
-      </c>
-      <c r="W61" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="W61" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A62"/>
+      <c r="A62" s="59">
+        <v>220</v>
+      </c>
+      <c r="B62" s="59" t="s">
+        <v>414</v>
+      </c>
+      <c r="C62" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="D62" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="I62" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="J62" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K62" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L62" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M62" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="N62" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O62" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P62" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S62" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="U62" s="59" t="s">
+        <v>414</v>
+      </c>
+      <c r="V62" s="59" t="s">
+        <v>414</v>
+      </c>
+      <c r="W62" s="34" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A63"/>
+      <c r="A63" s="59">
+        <v>221</v>
+      </c>
+      <c r="B63" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="C63" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="D63" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="I63" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="J63" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K63" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L63" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M63" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="N63" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O63" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P63" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S63" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="U63" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="V63" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="W63" s="34" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A64"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="59">
+        <v>500</v>
+      </c>
+      <c r="B64" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="C64" s="59" t="s">
+        <v>396</v>
+      </c>
+      <c r="D64" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="G64" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="H64" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="I64" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="J64" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K64" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L64" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M64" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="N64" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O64" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P64" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S64" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="T64" s="11"/>
+      <c r="U64" t="s">
+        <v>375</v>
+      </c>
+      <c r="V64" t="s">
+        <v>376</v>
+      </c>
+      <c r="W64" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A65" s="59">
+        <v>500</v>
+      </c>
+      <c r="B65" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="C65" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="D65" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="G65" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="H65" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="I65" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="J65" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K65" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L65" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M65" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="N65" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O65" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P65" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S65" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="T65" s="11"/>
+      <c r="U65" t="s">
+        <v>374</v>
+      </c>
+      <c r="V65" t="s">
+        <v>377</v>
+      </c>
+      <c r="W65" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A66" s="59">
+        <v>500</v>
+      </c>
+      <c r="B66" s="59" t="s">
+        <v>393</v>
+      </c>
+      <c r="C66" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="D66" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="G66" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="H66" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="I66" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="J66" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K66" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L66" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M66" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="N66" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O66" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P66" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S66" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="U66" t="s">
+        <v>393</v>
+      </c>
+      <c r="V66" t="s">
+        <v>394</v>
+      </c>
+      <c r="W66" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A68"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A69"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A70"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A71"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A72"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W56">
-    <sortCondition ref="A2:A56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W66">
+    <sortCondition ref="A2:A66"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B6C473-FB30-1541-B030-27E60C2A3EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779CB772-600F-2D4E-AAC6-75BF52BAAC67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11680" yWindow="3160" windowWidth="37760" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3883,7 +3883,7 @@
   <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="D15" sqref="A1:W66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779CB772-600F-2D4E-AAC6-75BF52BAAC67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E8F6F6-0332-FC48-8A88-A62192B310F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11680" yWindow="3160" windowWidth="37760" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="432">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -1304,6 +1304,36 @@
   </si>
   <si>
     <t>Thryonomys</t>
+  </si>
+  <si>
+    <t>dependo.166-passeriformes</t>
+  </si>
+  <si>
+    <t>epv-dependo.81-muscardinus</t>
+  </si>
+  <si>
+    <t>epv-dependo.80-graphiurus</t>
+  </si>
+  <si>
+    <t>epv-dependo.170-pelecanus</t>
+  </si>
+  <si>
+    <t>epv-dependo.201.2-thamnophis</t>
+  </si>
+  <si>
+    <t>epv-dependo.202-gekko</t>
+  </si>
+  <si>
+    <t>epv-dependo.220-pelusios</t>
+  </si>
+  <si>
+    <t>epv-dependo.221-pelusios</t>
+  </si>
+  <si>
+    <t>epv-dependo.82-thryonomys</t>
+  </si>
+  <si>
+    <t>dependo.2-rhinovesper</t>
   </si>
 </sst>
 </file>
@@ -3883,7 +3913,7 @@
   <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="A1:W66"/>
+      <selection activeCell="N2" sqref="N2:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4180,7 +4210,7 @@
         <v>32913662</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>109</v>
+        <v>431</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>298</v>
@@ -7488,7 +7518,7 @@
         <v>417</v>
       </c>
       <c r="V53" s="59" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="W53" s="13" t="s">
         <v>3</v>
@@ -7556,7 +7586,7 @@
         <v>416</v>
       </c>
       <c r="V54" s="59" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="W54" s="13" t="s">
         <v>3</v>
@@ -7624,7 +7654,7 @@
         <v>418</v>
       </c>
       <c r="V55" s="59" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="W55" s="13" t="s">
         <v>3</v>
@@ -7757,7 +7787,7 @@
       </c>
       <c r="T57" s="31"/>
       <c r="U57" s="33" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="V57" s="62" t="s">
         <v>401</v>
@@ -7826,7 +7856,7 @@
         <v>412</v>
       </c>
       <c r="V58" s="59" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="W58" s="30" t="s">
         <v>3</v>
@@ -7958,7 +7988,7 @@
         <v>407</v>
       </c>
       <c r="V60" s="59" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="W60" s="30" t="s">
         <v>3</v>
@@ -8024,7 +8054,7 @@
         <v>405</v>
       </c>
       <c r="V61" s="59" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="W61" s="34" t="s">
         <v>3</v>
@@ -8090,7 +8120,7 @@
         <v>414</v>
       </c>
       <c r="V62" s="59" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="W62" s="34" t="s">
         <v>3</v>
@@ -8156,7 +8186,7 @@
         <v>413</v>
       </c>
       <c r="V63" s="59" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="W63" s="34" t="s">
         <v>3</v>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E8F6F6-0332-FC48-8A88-A62192B310F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50D229B-3ECB-7346-91A9-EC31A9A024B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="3160" windowWidth="37760" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4960" yWindow="13380" windowWidth="37760" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimal refset" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="435">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -1334,6 +1334,15 @@
   </si>
   <si>
     <t>dependo.2-rhinovesper</t>
+  </si>
+  <si>
+    <t>dependo.63-gymnobelideus</t>
+  </si>
+  <si>
+    <t>epv-dependo.63-gymnobelideus</t>
+  </si>
+  <si>
+    <t>Gymnobelideus</t>
   </si>
 </sst>
 </file>
@@ -3910,10 +3919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:O22"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3936,10 +3945,9 @@
     <col min="20" max="20" width="12.1640625" customWidth="1"/>
     <col min="21" max="21" width="27.5" customWidth="1"/>
     <col min="22" max="22" width="30" customWidth="1"/>
-    <col min="23" max="23" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>97</v>
       </c>
@@ -4006,11 +4014,8 @@
       <c r="V1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="59">
         <v>0</v>
       </c>
@@ -4075,11 +4080,8 @@
       <c r="V2" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="W2" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="59">
         <v>1</v>
       </c>
@@ -4146,11 +4148,8 @@
       <c r="V3" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="W3" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="59">
         <v>2</v>
       </c>
@@ -4215,11 +4214,8 @@
       <c r="V4" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="W4" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="59">
         <v>3</v>
       </c>
@@ -4286,11 +4282,8 @@
       <c r="V5" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="W5" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="59">
         <v>4</v>
       </c>
@@ -4355,11 +4348,8 @@
       <c r="V6" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="W6" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="59">
         <v>5</v>
       </c>
@@ -4424,11 +4414,8 @@
       <c r="V7" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="W7" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="59">
         <v>6</v>
       </c>
@@ -4491,11 +4478,8 @@
       <c r="V8" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="W8" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="59">
         <v>7</v>
       </c>
@@ -4558,11 +4542,8 @@
       <c r="V9" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="W9" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="59">
         <v>8</v>
       </c>
@@ -4625,11 +4606,8 @@
       <c r="V10" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="W10" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="59">
         <v>9</v>
       </c>
@@ -4692,11 +4670,8 @@
       <c r="V11" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="W11" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="59">
         <v>10</v>
       </c>
@@ -4759,11 +4734,8 @@
       <c r="V12" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="W12" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="59">
         <v>11</v>
       </c>
@@ -4826,11 +4798,8 @@
       <c r="V13" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="W13" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="59">
         <v>12</v>
       </c>
@@ -4893,11 +4862,8 @@
       <c r="V14" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="W14" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="59">
         <v>13</v>
       </c>
@@ -4962,11 +4928,8 @@
       <c r="V15" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="W15" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="59">
         <v>14</v>
       </c>
@@ -5031,11 +4994,8 @@
       <c r="V16" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="W16" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="59">
         <v>15</v>
       </c>
@@ -5100,11 +5060,8 @@
       <c r="V17" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="W17" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="59">
         <v>16</v>
       </c>
@@ -5167,11 +5124,8 @@
       <c r="V18" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="59">
         <v>20</v>
       </c>
@@ -5234,11 +5188,8 @@
       <c r="V19" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="W19" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="59">
         <v>22</v>
       </c>
@@ -5303,11 +5254,8 @@
       <c r="V20" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="W20" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="59">
         <v>23</v>
       </c>
@@ -5374,11 +5322,8 @@
       <c r="V21" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="W21" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="59">
         <v>26</v>
       </c>
@@ -5445,11 +5390,8 @@
       <c r="V22" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="W22" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="59">
         <v>27</v>
       </c>
@@ -5512,11 +5454,8 @@
       <c r="V23" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="W23" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="59">
         <v>28</v>
       </c>
@@ -5579,11 +5518,8 @@
       <c r="V24" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="W24" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="59">
         <v>30</v>
       </c>
@@ -5646,11 +5582,8 @@
       <c r="V25" s="48" t="s">
         <v>344</v>
       </c>
-      <c r="W25" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="59">
         <v>31</v>
       </c>
@@ -5713,11 +5646,8 @@
       <c r="V26" s="48" t="s">
         <v>340</v>
       </c>
-      <c r="W26" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="59">
         <v>32</v>
       </c>
@@ -5780,11 +5710,8 @@
       <c r="V27" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="W27" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="59">
         <v>33</v>
       </c>
@@ -5847,11 +5774,8 @@
       <c r="V28" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="W28" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="59">
         <v>34</v>
       </c>
@@ -5914,11 +5838,8 @@
       <c r="V29" s="48" t="s">
         <v>347</v>
       </c>
-      <c r="W29" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="59">
         <v>35</v>
       </c>
@@ -5981,11 +5902,8 @@
       <c r="V30" s="48" t="s">
         <v>342</v>
       </c>
-      <c r="W30" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="59">
         <v>36</v>
       </c>
@@ -6048,11 +5966,8 @@
       <c r="V31" s="48" t="s">
         <v>343</v>
       </c>
-      <c r="W31" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="59">
         <v>39</v>
       </c>
@@ -6115,11 +6030,8 @@
       <c r="V32" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="W32" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="59">
         <v>39</v>
       </c>
@@ -6182,11 +6094,8 @@
       <c r="V33" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="W33" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="59">
         <v>40</v>
       </c>
@@ -6249,11 +6158,8 @@
       <c r="V34" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="W34" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="59">
         <v>42</v>
       </c>
@@ -6316,11 +6222,8 @@
       <c r="V35" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="W35" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="59">
         <v>43</v>
       </c>
@@ -6383,11 +6286,8 @@
       <c r="V36" s="59" t="s">
         <v>390</v>
       </c>
-      <c r="W36" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="59">
         <v>44</v>
       </c>
@@ -6452,11 +6352,8 @@
       <c r="V37" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="W37" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="59">
         <v>45</v>
       </c>
@@ -6519,11 +6416,8 @@
       <c r="V38" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="W38" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="59">
         <v>46</v>
       </c>
@@ -6586,11 +6480,8 @@
       <c r="V39" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="W39" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="59">
         <v>46</v>
       </c>
@@ -6653,11 +6544,8 @@
       <c r="V40" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="W40" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="59">
         <v>50</v>
       </c>
@@ -6719,11 +6607,8 @@
       <c r="V41" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="W41" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="59">
         <v>51</v>
       </c>
@@ -6786,11 +6671,8 @@
       <c r="V42" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="W42" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="59">
         <v>53</v>
       </c>
@@ -6853,11 +6735,8 @@
       <c r="V43" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="W43" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="59">
         <v>54</v>
       </c>
@@ -6920,11 +6799,8 @@
       <c r="V44" s="59" t="s">
         <v>388</v>
       </c>
-      <c r="W44" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="59">
         <v>55</v>
       </c>
@@ -6987,11 +6863,8 @@
       <c r="V45" s="46" t="s">
         <v>389</v>
       </c>
-      <c r="W45" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="59">
         <v>56</v>
       </c>
@@ -7053,11 +6926,8 @@
       <c r="V46" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="W46" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="59">
         <v>57</v>
       </c>
@@ -7120,11 +6990,8 @@
       <c r="V47" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="W47" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="59">
         <v>58</v>
       </c>
@@ -7186,11 +7053,8 @@
       <c r="V48" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="W48" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="59">
         <v>59</v>
       </c>
@@ -7253,11 +7117,8 @@
       <c r="V49" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="W49" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="59">
         <v>60</v>
       </c>
@@ -7320,11 +7181,8 @@
       <c r="V50" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="W50" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="59">
         <v>61</v>
       </c>
@@ -7387,11 +7245,8 @@
       <c r="V51" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="W51" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="59">
         <v>62</v>
       </c>
@@ -7452,18 +7307,15 @@
       <c r="V52" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="W52" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="W52" s="12"/>
       <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="59">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B53" s="59" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="C53" s="59" t="s">
         <v>395</v>
@@ -7492,11 +7344,11 @@
       <c r="K53" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="L53" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="M53" s="30" t="s">
-        <v>285</v>
+      <c r="L53" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="M53" s="44" t="s">
+        <v>94</v>
       </c>
       <c r="N53" s="36" t="s">
         <v>145</v>
@@ -7507,31 +7359,27 @@
       <c r="P53" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q53" s="11"/>
       <c r="R53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="S53" s="59" t="s">
-        <v>419</v>
-      </c>
-      <c r="U53" s="59" t="s">
+      <c r="S53" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="U53" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="V53" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A54" s="59">
+        <v>80</v>
+      </c>
+      <c r="B54" s="59" t="s">
         <v>417</v>
-      </c>
-      <c r="V53" s="59" t="s">
-        <v>424</v>
-      </c>
-      <c r="W53" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="12"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A54" s="59">
-        <v>81</v>
-      </c>
-      <c r="B54" s="59" t="s">
-        <v>416</v>
       </c>
       <c r="C54" s="59" t="s">
         <v>395</v>
@@ -7580,26 +7428,23 @@
         <v>58</v>
       </c>
       <c r="S54" s="59" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U54" s="59" t="s">
+        <v>417</v>
+      </c>
+      <c r="V54" s="59" t="s">
+        <v>424</v>
+      </c>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A55" s="59">
+        <v>81</v>
+      </c>
+      <c r="B55" s="59" t="s">
         <v>416</v>
-      </c>
-      <c r="V54" s="59" t="s">
-        <v>423</v>
-      </c>
-      <c r="W54" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A55" s="59">
-        <v>82</v>
-      </c>
-      <c r="B55" s="59" t="s">
-        <v>418</v>
       </c>
       <c r="C55" s="59" t="s">
         <v>395</v>
@@ -7648,26 +7493,23 @@
         <v>58</v>
       </c>
       <c r="S55" s="59" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U55" s="59" t="s">
+        <v>416</v>
+      </c>
+      <c r="V55" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A56" s="59">
+        <v>82</v>
+      </c>
+      <c r="B56" s="59" t="s">
         <v>418</v>
-      </c>
-      <c r="V55" s="59" t="s">
-        <v>430</v>
-      </c>
-      <c r="W55" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="X55" s="12"/>
-      <c r="Y55" s="12"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A56" s="59">
-        <v>165</v>
-      </c>
-      <c r="B56" s="59" t="s">
-        <v>397</v>
       </c>
       <c r="C56" s="59" t="s">
         <v>395</v>
@@ -7696,45 +7538,43 @@
       <c r="K56" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="L56" s="31" t="s">
+      <c r="L56" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M56" s="34" t="s">
+      <c r="M56" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="N56" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="O56" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="P56" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="S56" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="T56" s="31"/>
-      <c r="U56" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="V56" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="W56" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N56" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O56" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P56" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S56" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="U56" s="59" t="s">
+        <v>418</v>
+      </c>
+      <c r="V56" s="59" t="s">
+        <v>430</v>
+      </c>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="59">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B57" s="59" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C57" s="59" t="s">
         <v>395</v>
@@ -7770,10 +7610,10 @@
         <v>285</v>
       </c>
       <c r="N57" s="35" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="O57" s="35" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P57" s="32" t="s">
         <v>145</v>
@@ -7787,21 +7627,18 @@
       </c>
       <c r="T57" s="31"/>
       <c r="U57" s="33" t="s">
-        <v>422</v>
-      </c>
-      <c r="V57" s="62" t="s">
-        <v>401</v>
-      </c>
-      <c r="W57" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="V57" s="33" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="59">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B58" s="59" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C58" s="59" t="s">
         <v>395</v>
@@ -7812,11 +7649,11 @@
       <c r="E58" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="43" t="s">
-        <v>362</v>
-      </c>
-      <c r="G58" s="60" t="s">
-        <v>383</v>
+      <c r="F58" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="H58" s="11" t="s">
         <v>145</v>
@@ -7836,38 +7673,36 @@
       <c r="M58" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="N58" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="O58" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="P58" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S58" s="58" t="s">
-        <v>402</v>
-      </c>
-      <c r="U58" s="59" t="s">
+      <c r="N58" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="O58" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="P58" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="S58" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="T58" s="31"/>
+      <c r="U58" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="V58" s="62" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A59" s="59">
+        <v>170</v>
+      </c>
+      <c r="B59" s="59" t="s">
         <v>412</v>
-      </c>
-      <c r="V58" s="59" t="s">
-        <v>425</v>
-      </c>
-      <c r="W58" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A59" s="59">
-        <v>201.1</v>
-      </c>
-      <c r="B59" s="59" t="s">
-        <v>406</v>
       </c>
       <c r="C59" s="59" t="s">
         <v>395</v>
@@ -7878,17 +7713,17 @@
       <c r="E59" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F59" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>145</v>
+      <c r="F59" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="G59" s="60" t="s">
+        <v>383</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="I59" s="57" t="s">
-        <v>372</v>
+        <v>145</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="J59" s="44" t="s">
         <v>94</v>
@@ -7916,24 +7751,21 @@
         <v>58</v>
       </c>
       <c r="S59" s="58" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U59" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="V59" s="59" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A60" s="59">
+        <v>201.1</v>
+      </c>
+      <c r="B60" s="59" t="s">
         <v>406</v>
-      </c>
-      <c r="V59" s="59" t="s">
-        <v>406</v>
-      </c>
-      <c r="W59" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A60" s="59">
-        <v>201.2</v>
-      </c>
-      <c r="B60" s="59" t="s">
-        <v>407</v>
       </c>
       <c r="C60" s="59" t="s">
         <v>395</v>
@@ -7985,21 +7817,18 @@
         <v>403</v>
       </c>
       <c r="U60" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="V60" s="59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A61" s="59">
+        <v>201.2</v>
+      </c>
+      <c r="B61" s="59" t="s">
         <v>407</v>
-      </c>
-      <c r="V60" s="59" t="s">
-        <v>426</v>
-      </c>
-      <c r="W60" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A61" s="59">
-        <v>202</v>
-      </c>
-      <c r="B61" s="59" t="s">
-        <v>405</v>
       </c>
       <c r="C61" s="59" t="s">
         <v>395</v>
@@ -8017,10 +7846,10 @@
         <v>145</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>145</v>
+        <v>371</v>
+      </c>
+      <c r="I61" s="57" t="s">
+        <v>372</v>
       </c>
       <c r="J61" s="44" t="s">
         <v>94</v>
@@ -8048,24 +7877,21 @@
         <v>58</v>
       </c>
       <c r="S61" s="58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U61" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="V61" s="59" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A62" s="59">
+        <v>202</v>
+      </c>
+      <c r="B62" s="59" t="s">
         <v>405</v>
-      </c>
-      <c r="V61" s="59" t="s">
-        <v>427</v>
-      </c>
-      <c r="W61" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A62" s="59">
-        <v>220</v>
-      </c>
-      <c r="B62" s="59" t="s">
-        <v>414</v>
       </c>
       <c r="C62" s="59" t="s">
         <v>395</v>
@@ -8083,10 +7909,10 @@
         <v>145</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="I62" s="57" t="s">
-        <v>372</v>
+        <v>145</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="J62" s="44" t="s">
         <v>94</v>
@@ -8114,24 +7940,21 @@
         <v>58</v>
       </c>
       <c r="S62" s="58" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="U62" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="V62" s="59" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A63" s="59">
+        <v>220</v>
+      </c>
+      <c r="B63" s="59" t="s">
         <v>414</v>
-      </c>
-      <c r="V62" s="59" t="s">
-        <v>428</v>
-      </c>
-      <c r="W62" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A63" s="59">
-        <v>221</v>
-      </c>
-      <c r="B63" s="59" t="s">
-        <v>413</v>
       </c>
       <c r="C63" s="59" t="s">
         <v>395</v>
@@ -8183,24 +8006,21 @@
         <v>415</v>
       </c>
       <c r="U63" s="59" t="s">
+        <v>414</v>
+      </c>
+      <c r="V63" s="59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A64" s="59">
+        <v>221</v>
+      </c>
+      <c r="B64" s="59" t="s">
         <v>413</v>
       </c>
-      <c r="V63" s="59" t="s">
-        <v>429</v>
-      </c>
-      <c r="W63" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A64" s="59">
-        <v>500</v>
-      </c>
-      <c r="B64" s="59" t="s">
-        <v>373</v>
-      </c>
       <c r="C64" s="59" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D64" s="59" t="s">
         <v>2</v>
@@ -8208,17 +8028,17 @@
       <c r="E64" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="G64" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="H64" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="I64" s="43" t="s">
-        <v>378</v>
+      <c r="F64" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="I64" s="57" t="s">
+        <v>372</v>
       </c>
       <c r="J64" s="44" t="s">
         <v>94</v>
@@ -8243,31 +8063,27 @@
       </c>
       <c r="Q64" s="11"/>
       <c r="R64" s="11" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="S64" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="T64" s="11"/>
-      <c r="U64" t="s">
-        <v>375</v>
-      </c>
-      <c r="V64" t="s">
-        <v>376</v>
-      </c>
-      <c r="W64" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+      <c r="U64" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="V64" s="59" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="59">
         <v>500</v>
       </c>
       <c r="B65" s="59" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C65" s="59" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D65" s="59" t="s">
         <v>2</v>
@@ -8317,21 +8133,18 @@
       </c>
       <c r="T65" s="11"/>
       <c r="U65" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="V65" t="s">
-        <v>377</v>
-      </c>
-      <c r="W65" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="59">
         <v>500</v>
       </c>
       <c r="B66" s="59" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="C66" s="59" t="s">
         <v>395</v>
@@ -8382,37 +8195,98 @@
       <c r="S66" s="58" t="s">
         <v>378</v>
       </c>
+      <c r="T66" s="11"/>
       <c r="U66" t="s">
+        <v>374</v>
+      </c>
+      <c r="V66" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A67" s="59">
+        <v>500</v>
+      </c>
+      <c r="B67" s="59" t="s">
         <v>393</v>
       </c>
-      <c r="V66" t="s">
+      <c r="C67" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="D67" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="G67" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="H67" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="I67" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="J67" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K67" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L67" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M67" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="N67" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O67" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P67" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S67" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="U67" t="s">
+        <v>393</v>
+      </c>
+      <c r="V67" t="s">
         <v>394</v>
       </c>
-      <c r="W66" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A67"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72"/>
     </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A73"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W66">
-    <sortCondition ref="A2:A66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V67">
+    <sortCondition ref="A2:A67"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50D229B-3ECB-7346-91A9-EC31A9A024B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CA9F68-6890-A449-8F94-16B610A179A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="13380" windowWidth="37760" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="3700" windowWidth="37760" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimal refset" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="433">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -1229,12 +1229,6 @@
   </si>
   <si>
     <t>ncbi-refseqs-dependo-epv</t>
-  </si>
-  <si>
-    <t>dependo.165-passeriformes-con</t>
-  </si>
-  <si>
-    <t>dependo.166-passeriformes-con</t>
   </si>
   <si>
     <t>dependo.165-passeriformes</t>
@@ -3921,8 +3915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4209,7 +4203,7 @@
         <v>32913662</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>298</v>
@@ -7315,7 +7309,7 @@
         <v>63</v>
       </c>
       <c r="B53" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C53" s="59" t="s">
         <v>395</v>
@@ -7363,13 +7357,13 @@
         <v>58</v>
       </c>
       <c r="S53" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U53" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="V53" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W53" s="12"/>
       <c r="X53" s="12"/>
@@ -7379,7 +7373,7 @@
         <v>80</v>
       </c>
       <c r="B54" s="59" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C54" s="59" t="s">
         <v>395</v>
@@ -7428,13 +7422,13 @@
         <v>58</v>
       </c>
       <c r="S54" s="59" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="U54" s="59" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="V54" s="59" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
@@ -7444,7 +7438,7 @@
         <v>81</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C55" s="59" t="s">
         <v>395</v>
@@ -7493,13 +7487,13 @@
         <v>58</v>
       </c>
       <c r="S55" s="59" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U55" s="59" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="V55" s="59" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="W55" s="12"/>
       <c r="X55" s="12"/>
@@ -7509,7 +7503,7 @@
         <v>82</v>
       </c>
       <c r="B56" s="59" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C56" s="59" t="s">
         <v>395</v>
@@ -7558,13 +7552,13 @@
         <v>58</v>
       </c>
       <c r="S56" s="59" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="U56" s="59" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="V56" s="59" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="W56" s="12"/>
       <c r="X56" s="12"/>
@@ -7610,10 +7604,10 @@
         <v>285</v>
       </c>
       <c r="N57" s="35" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O57" s="35" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P57" s="32" t="s">
         <v>145</v>
@@ -7627,10 +7621,10 @@
       </c>
       <c r="T57" s="31"/>
       <c r="U57" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="V57" s="33" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
@@ -7638,7 +7632,7 @@
         <v>166</v>
       </c>
       <c r="B58" s="59" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="C58" s="59" t="s">
         <v>395</v>
@@ -7674,10 +7668,10 @@
         <v>285</v>
       </c>
       <c r="N58" s="35" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="O58" s="35" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P58" s="32" t="s">
         <v>145</v>
@@ -7691,10 +7685,10 @@
       </c>
       <c r="T58" s="31"/>
       <c r="U58" s="33" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="V58" s="62" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
@@ -7702,7 +7696,7 @@
         <v>170</v>
       </c>
       <c r="B59" s="59" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C59" s="59" t="s">
         <v>395</v>
@@ -7751,13 +7745,13 @@
         <v>58</v>
       </c>
       <c r="S59" s="58" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="U59" s="59" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="V59" s="59" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
@@ -7765,7 +7759,7 @@
         <v>201.1</v>
       </c>
       <c r="B60" s="59" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C60" s="59" t="s">
         <v>395</v>
@@ -7814,13 +7808,13 @@
         <v>58</v>
       </c>
       <c r="S60" s="58" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="U60" s="59" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="V60" s="59" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
@@ -7828,7 +7822,7 @@
         <v>201.2</v>
       </c>
       <c r="B61" s="59" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C61" s="59" t="s">
         <v>395</v>
@@ -7877,13 +7871,13 @@
         <v>58</v>
       </c>
       <c r="S61" s="58" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="U61" s="59" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="V61" s="59" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
@@ -7891,7 +7885,7 @@
         <v>202</v>
       </c>
       <c r="B62" s="59" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C62" s="59" t="s">
         <v>395</v>
@@ -7940,13 +7934,13 @@
         <v>58</v>
       </c>
       <c r="S62" s="58" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="U62" s="59" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="V62" s="59" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
@@ -7954,7 +7948,7 @@
         <v>220</v>
       </c>
       <c r="B63" s="59" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C63" s="59" t="s">
         <v>395</v>
@@ -8003,13 +7997,13 @@
         <v>58</v>
       </c>
       <c r="S63" s="58" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="U63" s="59" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="V63" s="59" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
@@ -8017,7 +8011,7 @@
         <v>221</v>
       </c>
       <c r="B64" s="59" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C64" s="59" t="s">
         <v>395</v>
@@ -8066,13 +8060,13 @@
         <v>58</v>
       </c>
       <c r="S64" s="58" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="U64" s="59" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="V64" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CA9F68-6890-A449-8F94-16B610A179A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00DD767-F5DF-8A4F-8C59-3D23C0CC0F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6560" yWindow="3700" windowWidth="37760" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3915,8 +3915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C59" sqref="A1:V67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00DD767-F5DF-8A4F-8C59-3D23C0CC0F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A2C56F-3FEE-B840-B063-825D2E53190B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6560" yWindow="3700" windowWidth="37760" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1225,9 +1225,6 @@
     <t>epv-dependo.500-eHV.mustela</t>
   </si>
   <si>
-    <t>fasta-refseqs-dependo-epv-con</t>
-  </si>
-  <si>
     <t>ncbi-refseqs-dependo-epv</t>
   </si>
   <si>
@@ -1337,6 +1334,9 @@
   </si>
   <si>
     <t>Gymnobelideus</t>
+  </si>
+  <si>
+    <t>fasta-refseqs-dependo-epv</t>
   </si>
 </sst>
 </file>
@@ -3915,8 +3915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="A1:V67"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4017,7 +4017,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D2" s="59" t="s">
         <v>2</v>
@@ -4083,7 +4083,7 @@
         <v>78</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D3" s="59" t="s">
         <v>2</v>
@@ -4151,7 +4151,7 @@
         <v>85</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D4" s="59" t="s">
         <v>2</v>
@@ -4203,7 +4203,7 @@
         <v>32913662</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>298</v>
@@ -4217,7 +4217,7 @@
         <v>86</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D5" s="59" t="s">
         <v>2</v>
@@ -4285,7 +4285,7 @@
         <v>95</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D6" s="59" t="s">
         <v>2</v>
@@ -4351,7 +4351,7 @@
         <v>193</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>2</v>
@@ -4417,7 +4417,7 @@
         <v>235</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D8" s="59" t="s">
         <v>2</v>
@@ -4481,7 +4481,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D9" s="59" t="s">
         <v>2</v>
@@ -4545,7 +4545,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D10" s="59" t="s">
         <v>2</v>
@@ -4609,7 +4609,7 @@
         <v>236</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D11" s="59" t="s">
         <v>2</v>
@@ -4673,7 +4673,7 @@
         <v>107</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D12" s="59" t="s">
         <v>2</v>
@@ -4737,7 +4737,7 @@
         <v>104</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D13" s="59" t="s">
         <v>2</v>
@@ -4801,7 +4801,7 @@
         <v>192</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D14" s="59" t="s">
         <v>2</v>
@@ -4865,7 +4865,7 @@
         <v>90</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D15" s="59" t="s">
         <v>2</v>
@@ -4931,7 +4931,7 @@
         <v>113</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>2</v>
@@ -4997,7 +4997,7 @@
         <v>237</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D17" s="59" t="s">
         <v>2</v>
@@ -5063,7 +5063,7 @@
         <v>214</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D18" s="59" t="s">
         <v>2</v>
@@ -5127,7 +5127,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D19" s="59" t="s">
         <v>2</v>
@@ -5191,7 +5191,7 @@
         <v>238</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D20" s="59" t="s">
         <v>2</v>
@@ -5257,7 +5257,7 @@
         <v>101</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D21" s="59" t="s">
         <v>2</v>
@@ -5325,7 +5325,7 @@
         <v>89</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D22" s="59" t="s">
         <v>2</v>
@@ -5393,7 +5393,7 @@
         <v>176</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D23" s="59" t="s">
         <v>2</v>
@@ -5457,7 +5457,7 @@
         <v>216</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D24" s="59" t="s">
         <v>2</v>
@@ -5521,7 +5521,7 @@
         <v>344</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D25" s="59" t="s">
         <v>2</v>
@@ -5585,7 +5585,7 @@
         <v>340</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D26" s="59" t="s">
         <v>2</v>
@@ -5649,7 +5649,7 @@
         <v>341</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D27" s="59" t="s">
         <v>2</v>
@@ -5713,7 +5713,7 @@
         <v>345</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D28" s="59" t="s">
         <v>2</v>
@@ -5777,7 +5777,7 @@
         <v>347</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D29" s="59" t="s">
         <v>2</v>
@@ -5841,7 +5841,7 @@
         <v>342</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D30" s="59" t="s">
         <v>2</v>
@@ -5905,7 +5905,7 @@
         <v>343</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D31" s="59" t="s">
         <v>2</v>
@@ -5969,7 +5969,7 @@
         <v>368</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D32" s="59" t="s">
         <v>2</v>
@@ -6033,7 +6033,7 @@
         <v>334</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D33" s="59" t="s">
         <v>2</v>
@@ -6097,7 +6097,7 @@
         <v>335</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D34" s="59" t="s">
         <v>2</v>
@@ -6161,7 +6161,7 @@
         <v>337</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D35" s="59" t="s">
         <v>2</v>
@@ -6225,7 +6225,7 @@
         <v>336</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D36" s="59" t="s">
         <v>2</v>
@@ -6289,7 +6289,7 @@
         <v>105</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D37" s="59" t="s">
         <v>2</v>
@@ -6355,7 +6355,7 @@
         <v>351</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D38" s="59" t="s">
         <v>2</v>
@@ -6419,7 +6419,7 @@
         <v>274</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D39" s="59" t="s">
         <v>2</v>
@@ -6483,7 +6483,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D40" s="59" t="s">
         <v>2</v>
@@ -6547,7 +6547,7 @@
         <v>364</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D41" s="59" t="s">
         <v>2</v>
@@ -6610,7 +6610,7 @@
         <v>354</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D42" s="59" t="s">
         <v>2</v>
@@ -6674,7 +6674,7 @@
         <v>357</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D43" s="59" t="s">
         <v>2</v>
@@ -6738,7 +6738,7 @@
         <v>358</v>
       </c>
       <c r="C44" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D44" s="59" t="s">
         <v>2</v>
@@ -6802,7 +6802,7 @@
         <v>267</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D45" s="59" t="s">
         <v>2</v>
@@ -6866,7 +6866,7 @@
         <v>359</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D46" s="59" t="s">
         <v>2</v>
@@ -6929,7 +6929,7 @@
         <v>222</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D47" s="59" t="s">
         <v>2</v>
@@ -6993,7 +6993,7 @@
         <v>221</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D48" s="59" t="s">
         <v>2</v>
@@ -7056,7 +7056,7 @@
         <v>103</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D49" s="59" t="s">
         <v>2</v>
@@ -7120,7 +7120,7 @@
         <v>157</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D50" s="59" t="s">
         <v>2</v>
@@ -7184,7 +7184,7 @@
         <v>158</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D51" s="59" t="s">
         <v>2</v>
@@ -7248,7 +7248,7 @@
         <v>159</v>
       </c>
       <c r="C52" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D52" s="59" t="s">
         <v>2</v>
@@ -7309,10 +7309,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="59" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C53" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D53" s="59" t="s">
         <v>2</v>
@@ -7357,13 +7357,13 @@
         <v>58</v>
       </c>
       <c r="S53" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U53" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="V53" s="11" t="s">
         <v>430</v>
-      </c>
-      <c r="V53" s="11" t="s">
-        <v>431</v>
       </c>
       <c r="W53" s="12"/>
       <c r="X53" s="12"/>
@@ -7373,10 +7373,10 @@
         <v>80</v>
       </c>
       <c r="B54" s="59" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C54" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D54" s="59" t="s">
         <v>2</v>
@@ -7422,13 +7422,13 @@
         <v>58</v>
       </c>
       <c r="S54" s="59" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U54" s="59" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="V54" s="59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
@@ -7438,10 +7438,10 @@
         <v>81</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C55" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D55" s="59" t="s">
         <v>2</v>
@@ -7487,13 +7487,13 @@
         <v>58</v>
       </c>
       <c r="S55" s="59" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U55" s="59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="V55" s="59" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W55" s="12"/>
       <c r="X55" s="12"/>
@@ -7503,10 +7503,10 @@
         <v>82</v>
       </c>
       <c r="B56" s="59" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D56" s="59" t="s">
         <v>2</v>
@@ -7552,13 +7552,13 @@
         <v>58</v>
       </c>
       <c r="S56" s="59" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U56" s="59" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V56" s="59" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="W56" s="12"/>
       <c r="X56" s="12"/>
@@ -7568,10 +7568,10 @@
         <v>165</v>
       </c>
       <c r="B57" s="59" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C57" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D57" s="59" t="s">
         <v>2</v>
@@ -7604,10 +7604,10 @@
         <v>285</v>
       </c>
       <c r="N57" s="35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O57" s="35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P57" s="32" t="s">
         <v>145</v>
@@ -7621,10 +7621,10 @@
       </c>
       <c r="T57" s="31"/>
       <c r="U57" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="V57" s="33" t="s">
         <v>397</v>
-      </c>
-      <c r="V57" s="33" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
@@ -7632,10 +7632,10 @@
         <v>166</v>
       </c>
       <c r="B58" s="59" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C58" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D58" s="59" t="s">
         <v>2</v>
@@ -7668,10 +7668,10 @@
         <v>285</v>
       </c>
       <c r="N58" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O58" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P58" s="32" t="s">
         <v>145</v>
@@ -7685,10 +7685,10 @@
       </c>
       <c r="T58" s="31"/>
       <c r="U58" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="V58" s="62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
@@ -7696,10 +7696,10 @@
         <v>170</v>
       </c>
       <c r="B59" s="59" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C59" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D59" s="59" t="s">
         <v>2</v>
@@ -7745,13 +7745,13 @@
         <v>58</v>
       </c>
       <c r="S59" s="58" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U59" s="59" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="V59" s="59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
@@ -7759,10 +7759,10 @@
         <v>201.1</v>
       </c>
       <c r="B60" s="59" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C60" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D60" s="59" t="s">
         <v>2</v>
@@ -7808,13 +7808,13 @@
         <v>58</v>
       </c>
       <c r="S60" s="58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="U60" s="59" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V60" s="59" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
@@ -7822,10 +7822,10 @@
         <v>201.2</v>
       </c>
       <c r="B61" s="59" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C61" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D61" s="59" t="s">
         <v>2</v>
@@ -7871,13 +7871,13 @@
         <v>58</v>
       </c>
       <c r="S61" s="58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="U61" s="59" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="V61" s="59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
@@ -7885,10 +7885,10 @@
         <v>202</v>
       </c>
       <c r="B62" s="59" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C62" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D62" s="59" t="s">
         <v>2</v>
@@ -7934,13 +7934,13 @@
         <v>58</v>
       </c>
       <c r="S62" s="58" t="s">
+        <v>401</v>
+      </c>
+      <c r="U62" s="59" t="s">
         <v>402</v>
       </c>
-      <c r="U62" s="59" t="s">
-        <v>403</v>
-      </c>
       <c r="V62" s="59" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
@@ -7948,10 +7948,10 @@
         <v>220</v>
       </c>
       <c r="B63" s="59" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C63" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D63" s="59" t="s">
         <v>2</v>
@@ -7997,13 +7997,13 @@
         <v>58</v>
       </c>
       <c r="S63" s="58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U63" s="59" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="V63" s="59" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
@@ -8011,10 +8011,10 @@
         <v>221</v>
       </c>
       <c r="B64" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C64" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D64" s="59" t="s">
         <v>2</v>
@@ -8060,13 +8060,13 @@
         <v>58</v>
       </c>
       <c r="S64" s="58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U64" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="V64" s="59" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
@@ -8077,7 +8077,7 @@
         <v>373</v>
       </c>
       <c r="C65" s="59" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D65" s="59" t="s">
         <v>2</v>
@@ -8141,7 +8141,7 @@
         <v>374</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D66" s="59" t="s">
         <v>2</v>
@@ -8205,7 +8205,7 @@
         <v>393</v>
       </c>
       <c r="C67" s="59" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D67" s="59" t="s">
         <v>2</v>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A2C56F-3FEE-B840-B063-825D2E53190B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23606DE-4F42-3043-BC94-1F4011F3203C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6560" yWindow="3700" windowWidth="37760" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimal refset" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
-    <sheet name="FULL" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
-    <sheet name="bats" sheetId="9" r:id="rId6"/>
+    <sheet name="removed" sheetId="10" r:id="rId3"/>
+    <sheet name="FULL" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
+    <sheet name="bats" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="432">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -1327,16 +1328,13 @@
     <t>dependo.2-rhinovesper</t>
   </si>
   <si>
-    <t>dependo.63-gymnobelideus</t>
-  </si>
-  <si>
-    <t>epv-dependo.63-gymnobelideus</t>
-  </si>
-  <si>
     <t>Gymnobelideus</t>
   </si>
   <si>
     <t>fasta-refseqs-dependo-epv</t>
+  </si>
+  <si>
+    <t>dependo.60-gymnobelideus</t>
   </si>
 </sst>
 </file>
@@ -3913,10 +3911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X73"/>
+  <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G62" sqref="A1:V66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4017,7 +4015,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D2" s="59" t="s">
         <v>2</v>
@@ -4083,7 +4081,7 @@
         <v>78</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D3" s="59" t="s">
         <v>2</v>
@@ -4151,7 +4149,7 @@
         <v>85</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D4" s="59" t="s">
         <v>2</v>
@@ -4217,7 +4215,7 @@
         <v>86</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D5" s="59" t="s">
         <v>2</v>
@@ -4285,7 +4283,7 @@
         <v>95</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D6" s="59" t="s">
         <v>2</v>
@@ -4351,7 +4349,7 @@
         <v>193</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>2</v>
@@ -4417,7 +4415,7 @@
         <v>235</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D8" s="59" t="s">
         <v>2</v>
@@ -4481,7 +4479,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D9" s="59" t="s">
         <v>2</v>
@@ -4545,7 +4543,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D10" s="59" t="s">
         <v>2</v>
@@ -4609,7 +4607,7 @@
         <v>236</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D11" s="59" t="s">
         <v>2</v>
@@ -4673,7 +4671,7 @@
         <v>107</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D12" s="59" t="s">
         <v>2</v>
@@ -4737,7 +4735,7 @@
         <v>104</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D13" s="59" t="s">
         <v>2</v>
@@ -4801,7 +4799,7 @@
         <v>192</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D14" s="59" t="s">
         <v>2</v>
@@ -4865,7 +4863,7 @@
         <v>90</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D15" s="59" t="s">
         <v>2</v>
@@ -4931,7 +4929,7 @@
         <v>113</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>2</v>
@@ -4997,7 +4995,7 @@
         <v>237</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D17" s="59" t="s">
         <v>2</v>
@@ -5063,7 +5061,7 @@
         <v>214</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D18" s="59" t="s">
         <v>2</v>
@@ -5127,7 +5125,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D19" s="59" t="s">
         <v>2</v>
@@ -5191,7 +5189,7 @@
         <v>238</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D20" s="59" t="s">
         <v>2</v>
@@ -5257,7 +5255,7 @@
         <v>101</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D21" s="59" t="s">
         <v>2</v>
@@ -5325,7 +5323,7 @@
         <v>89</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D22" s="59" t="s">
         <v>2</v>
@@ -5393,7 +5391,7 @@
         <v>176</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D23" s="59" t="s">
         <v>2</v>
@@ -5457,7 +5455,7 @@
         <v>216</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D24" s="59" t="s">
         <v>2</v>
@@ -5521,7 +5519,7 @@
         <v>344</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D25" s="59" t="s">
         <v>2</v>
@@ -5585,7 +5583,7 @@
         <v>340</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D26" s="59" t="s">
         <v>2</v>
@@ -5649,7 +5647,7 @@
         <v>341</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D27" s="59" t="s">
         <v>2</v>
@@ -5713,7 +5711,7 @@
         <v>345</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D28" s="59" t="s">
         <v>2</v>
@@ -5777,7 +5775,7 @@
         <v>347</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D29" s="59" t="s">
         <v>2</v>
@@ -5841,7 +5839,7 @@
         <v>342</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D30" s="59" t="s">
         <v>2</v>
@@ -5905,7 +5903,7 @@
         <v>343</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D31" s="59" t="s">
         <v>2</v>
@@ -5969,7 +5967,7 @@
         <v>368</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D32" s="59" t="s">
         <v>2</v>
@@ -6033,7 +6031,7 @@
         <v>334</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D33" s="59" t="s">
         <v>2</v>
@@ -6097,7 +6095,7 @@
         <v>335</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D34" s="59" t="s">
         <v>2</v>
@@ -6161,7 +6159,7 @@
         <v>337</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D35" s="59" t="s">
         <v>2</v>
@@ -6225,7 +6223,7 @@
         <v>336</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D36" s="59" t="s">
         <v>2</v>
@@ -6289,7 +6287,7 @@
         <v>105</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D37" s="59" t="s">
         <v>2</v>
@@ -6355,7 +6353,7 @@
         <v>351</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D38" s="59" t="s">
         <v>2</v>
@@ -6419,7 +6417,7 @@
         <v>274</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D39" s="59" t="s">
         <v>2</v>
@@ -6483,7 +6481,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D40" s="59" t="s">
         <v>2</v>
@@ -6547,7 +6545,7 @@
         <v>364</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D41" s="59" t="s">
         <v>2</v>
@@ -6610,7 +6608,7 @@
         <v>354</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D42" s="59" t="s">
         <v>2</v>
@@ -6674,7 +6672,7 @@
         <v>357</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D43" s="59" t="s">
         <v>2</v>
@@ -6738,7 +6736,7 @@
         <v>358</v>
       </c>
       <c r="C44" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D44" s="59" t="s">
         <v>2</v>
@@ -6802,7 +6800,7 @@
         <v>267</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D45" s="59" t="s">
         <v>2</v>
@@ -6866,7 +6864,7 @@
         <v>359</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D46" s="59" t="s">
         <v>2</v>
@@ -6929,7 +6927,7 @@
         <v>222</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D47" s="59" t="s">
         <v>2</v>
@@ -6993,7 +6991,7 @@
         <v>221</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D48" s="59" t="s">
         <v>2</v>
@@ -7056,7 +7054,7 @@
         <v>103</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D49" s="59" t="s">
         <v>2</v>
@@ -7114,13 +7112,13 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="59">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" s="59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D50" s="59" t="s">
         <v>2</v>
@@ -7153,38 +7151,38 @@
         <v>285</v>
       </c>
       <c r="N50" s="35" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O50" s="35" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="P50" s="29" t="s">
         <v>145</v>
       </c>
       <c r="Q50" s="18"/>
       <c r="R50" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S50" s="11" t="s">
         <v>133</v>
       </c>
       <c r="T50" s="11"/>
       <c r="U50" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V50" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="59">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" s="59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D51" s="59" t="s">
         <v>2</v>
@@ -7217,38 +7215,38 @@
         <v>285</v>
       </c>
       <c r="N51" s="35" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="O51" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P51" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q51" s="18"/>
       <c r="R51" s="11" t="s">
         <v>57</v>
       </c>
       <c r="S51" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="T51" s="11"/>
       <c r="U51" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V51" s="11" t="s">
-        <v>331</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="59">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B52" s="59" t="s">
-        <v>159</v>
+        <v>431</v>
       </c>
       <c r="C52" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D52" s="59" t="s">
         <v>2</v>
@@ -7274,45 +7272,45 @@
       <c r="K52" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="L52" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="M52" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="N52" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="O52" s="35" t="s">
-        <v>206</v>
+      <c r="L52" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="M52" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="N52" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O52" s="36" t="s">
+        <v>145</v>
       </c>
       <c r="P52" s="29" t="s">
         <v>145</v>
       </c>
       <c r="R52" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="U52" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="V52" s="11" t="s">
-        <v>332</v>
+        <v>429</v>
+      </c>
+      <c r="U52" s="59" t="s">
+        <v>431</v>
+      </c>
+      <c r="V52" s="59" t="s">
+        <v>431</v>
       </c>
       <c r="W52" s="12"/>
       <c r="X52" s="12"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="59">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B53" s="59" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="C53" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D53" s="59" t="s">
         <v>2</v>
@@ -7338,11 +7336,11 @@
       <c r="K53" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="L53" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="M53" s="44" t="s">
-        <v>94</v>
+      <c r="L53" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M53" s="30" t="s">
+        <v>285</v>
       </c>
       <c r="N53" s="36" t="s">
         <v>145</v>
@@ -7353,30 +7351,31 @@
       <c r="P53" s="29" t="s">
         <v>145</v>
       </c>
+      <c r="Q53" s="11"/>
       <c r="R53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="S53" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="U53" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="V53" s="11" t="s">
-        <v>430</v>
+      <c r="S53" s="59" t="s">
+        <v>416</v>
+      </c>
+      <c r="U53" s="59" t="s">
+        <v>414</v>
+      </c>
+      <c r="V53" s="59" t="s">
+        <v>421</v>
       </c>
       <c r="W53" s="12"/>
       <c r="X53" s="12"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="59">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B54" s="59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C54" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D54" s="59" t="s">
         <v>2</v>
@@ -7422,26 +7421,26 @@
         <v>58</v>
       </c>
       <c r="S54" s="59" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="U54" s="59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="V54" s="59" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="59">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C55" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D55" s="59" t="s">
         <v>2</v>
@@ -7487,26 +7486,26 @@
         <v>58</v>
       </c>
       <c r="S55" s="59" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="U55" s="59" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="V55" s="59" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="W55" s="12"/>
       <c r="X55" s="12"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="59">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="B56" s="59" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D56" s="59" t="s">
         <v>2</v>
@@ -7532,46 +7531,45 @@
       <c r="K56" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="L56" s="11" t="s">
+      <c r="L56" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="M56" s="30" t="s">
+      <c r="M56" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="N56" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="O56" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="P56" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S56" s="59" t="s">
-        <v>418</v>
-      </c>
-      <c r="U56" s="59" t="s">
-        <v>415</v>
-      </c>
-      <c r="V56" s="59" t="s">
-        <v>427</v>
-      </c>
-      <c r="W56" s="12"/>
-      <c r="X56" s="12"/>
+      <c r="N56" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="O56" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="P56" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="S56" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="T56" s="31"/>
+      <c r="U56" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="V56" s="33" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="59">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B57" s="59" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="C57" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D57" s="59" t="s">
         <v>2</v>
@@ -7604,10 +7602,10 @@
         <v>285</v>
       </c>
       <c r="N57" s="35" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="O57" s="35" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P57" s="32" t="s">
         <v>145</v>
@@ -7621,21 +7619,21 @@
       </c>
       <c r="T57" s="31"/>
       <c r="U57" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="V57" s="33" t="s">
-        <v>397</v>
+        <v>419</v>
+      </c>
+      <c r="V57" s="62" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="59">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B58" s="59" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C58" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D58" s="59" t="s">
         <v>2</v>
@@ -7643,11 +7641,11 @@
       <c r="E58" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>145</v>
+      <c r="F58" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="G58" s="60" t="s">
+        <v>383</v>
       </c>
       <c r="H58" s="11" t="s">
         <v>145</v>
@@ -7667,39 +7665,38 @@
       <c r="M58" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="N58" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="O58" s="35" t="s">
-        <v>407</v>
-      </c>
-      <c r="P58" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="S58" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="T58" s="31"/>
-      <c r="U58" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="V58" s="62" t="s">
-        <v>398</v>
+      <c r="N58" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O58" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P58" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S58" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="U58" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="V58" s="59" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="59">
-        <v>170</v>
+        <v>201.1</v>
       </c>
       <c r="B59" s="59" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C59" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D59" s="59" t="s">
         <v>2</v>
@@ -7707,17 +7704,17 @@
       <c r="E59" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F59" s="43" t="s">
-        <v>362</v>
-      </c>
-      <c r="G59" s="60" t="s">
-        <v>383</v>
+      <c r="F59" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>145</v>
+        <v>371</v>
+      </c>
+      <c r="I59" s="57" t="s">
+        <v>372</v>
       </c>
       <c r="J59" s="44" t="s">
         <v>94</v>
@@ -7745,24 +7742,24 @@
         <v>58</v>
       </c>
       <c r="S59" s="58" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="U59" s="59" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="V59" s="59" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="59">
-        <v>201.1</v>
+        <v>201.2</v>
       </c>
       <c r="B60" s="59" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C60" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D60" s="59" t="s">
         <v>2</v>
@@ -7811,21 +7808,21 @@
         <v>400</v>
       </c>
       <c r="U60" s="59" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="V60" s="59" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="59">
-        <v>201.2</v>
+        <v>202</v>
       </c>
       <c r="B61" s="59" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C61" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D61" s="59" t="s">
         <v>2</v>
@@ -7840,10 +7837,10 @@
         <v>145</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="I61" s="57" t="s">
-        <v>372</v>
+        <v>145</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="J61" s="44" t="s">
         <v>94</v>
@@ -7871,24 +7868,24 @@
         <v>58</v>
       </c>
       <c r="S61" s="58" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U61" s="59" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="V61" s="59" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="59">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="B62" s="59" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C62" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D62" s="59" t="s">
         <v>2</v>
@@ -7903,10 +7900,10 @@
         <v>145</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>145</v>
+        <v>371</v>
+      </c>
+      <c r="I62" s="57" t="s">
+        <v>372</v>
       </c>
       <c r="J62" s="44" t="s">
         <v>94</v>
@@ -7934,24 +7931,24 @@
         <v>58</v>
       </c>
       <c r="S62" s="58" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="U62" s="59" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="V62" s="59" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="59">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B63" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C63" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D63" s="59" t="s">
         <v>2</v>
@@ -8000,21 +7997,21 @@
         <v>412</v>
       </c>
       <c r="U63" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="V63" s="59" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="59">
-        <v>221</v>
+        <v>500</v>
       </c>
       <c r="B64" s="59" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="C64" s="59" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="D64" s="59" t="s">
         <v>2</v>
@@ -8022,17 +8019,17 @@
       <c r="E64" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="I64" s="57" t="s">
-        <v>372</v>
+      <c r="F64" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="G64" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="H64" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="I64" s="43" t="s">
+        <v>378</v>
       </c>
       <c r="J64" s="44" t="s">
         <v>94</v>
@@ -8057,16 +8054,17 @@
       </c>
       <c r="Q64" s="11"/>
       <c r="R64" s="11" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="S64" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="U64" s="59" t="s">
-        <v>410</v>
-      </c>
-      <c r="V64" s="59" t="s">
-        <v>426</v>
+        <v>378</v>
+      </c>
+      <c r="T64" s="11"/>
+      <c r="U64" t="s">
+        <v>375</v>
+      </c>
+      <c r="V64" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
@@ -8074,10 +8072,10 @@
         <v>500</v>
       </c>
       <c r="B65" s="59" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C65" s="59" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="D65" s="59" t="s">
         <v>2</v>
@@ -8127,10 +8125,10 @@
       </c>
       <c r="T65" s="11"/>
       <c r="U65" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="V65" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
@@ -8138,10 +8136,10 @@
         <v>500</v>
       </c>
       <c r="B66" s="59" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D66" s="59" t="s">
         <v>2</v>
@@ -8189,76 +8187,15 @@
       <c r="S66" s="58" t="s">
         <v>378</v>
       </c>
-      <c r="T66" s="11"/>
       <c r="U66" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="V66" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A67" s="59">
-        <v>500</v>
-      </c>
-      <c r="B67" s="59" t="s">
-        <v>393</v>
-      </c>
-      <c r="C67" s="59" t="s">
-        <v>432</v>
-      </c>
-      <c r="D67" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="G67" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="H67" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="I67" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="J67" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="K67" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="L67" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="M67" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="N67" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="O67" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="P67" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="S67" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="U67" t="s">
-        <v>393</v>
-      </c>
-      <c r="V67" t="s">
-        <v>394</v>
-      </c>
+      <c r="A67"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68"/>
@@ -8275,12 +8212,9 @@
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A73"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V67">
-    <sortCondition ref="A2:A67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V66">
+    <sortCondition ref="A2:A66"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8368,6 +8302,85 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8E0BF9-318F-0642-8339-B98935DFFB53}">
+  <dimension ref="A1:V1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="59">
+        <v>60</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>430</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
@@ -9209,7 +9222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780123B6-1F01-CA41-846C-8AC92DAE4B90}">
   <dimension ref="A1:P47"/>
   <sheetViews>
@@ -11335,7 +11348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A30171-4A67-A648-8EBA-C23443774FC3}">
   <dimension ref="A1:P5"/>
   <sheetViews>
@@ -11575,7 +11588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51A6214-76DF-0A44-98D7-6140E9D0A5D9}">
   <dimension ref="A1:T7"/>
   <sheetViews>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23606DE-4F42-3043-BC94-1F4011F3203C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DF35A9-5234-904C-8CB5-FC0E0C2EFCC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6560" yWindow="3700" windowWidth="37760" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3913,8 +3913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G62" sqref="A1:V66"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DF35A9-5234-904C-8CB5-FC0E0C2EFCC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF0D7A8-A9F4-3F4D-BA24-9DBF556A976C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="3700" windowWidth="37760" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13420" yWindow="6680" windowWidth="37760" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimal refset" sheetId="2" r:id="rId1"/>
@@ -3913,8 +3913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E83EE7D-AB40-5140-9BEE-B83C6592604A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37C0583-B485-3649-82A4-DF9AAB4C47D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="21160" windowHeight="23940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="43620" windowHeight="27440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimal refset" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4262" uniqueCount="880">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -2389,12 +2389,6 @@
     <t>dependo.121-Gymnobelideus-leadbeateri</t>
   </si>
   <si>
-    <t>dependo.121-pelusios</t>
-  </si>
-  <si>
-    <t>is that dependo.221-pelusios?</t>
-  </si>
-  <si>
     <t>dependo.122-Gymnobelideus-leadbeateri</t>
   </si>
   <si>
@@ -2684,6 +2678,9 @@
   </si>
   <si>
     <t>dependo.99-Cuniculus-paca</t>
+  </si>
+  <si>
+    <t>Rhinolophus-sinicus</t>
   </si>
 </sst>
 </file>
@@ -3887,7 +3884,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -4034,6 +4031,12 @@
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="939">
@@ -5320,11 +5323,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V224"/>
+  <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S67" sqref="S67:T67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5424,7 +5427,7 @@
       <c r="B2" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="77">
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -5490,7 +5493,7 @@
       <c r="B3" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="77">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -5558,7 +5561,7 @@
       <c r="B4" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="77">
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -5624,7 +5627,7 @@
       <c r="B5" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="77">
         <v>3</v>
       </c>
       <c r="D5" s="64" t="s">
@@ -5692,7 +5695,7 @@
       <c r="B6" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="77">
         <v>4</v>
       </c>
       <c r="D6" s="64" t="s">
@@ -5758,7 +5761,7 @@
       <c r="B7" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="77">
         <v>5</v>
       </c>
       <c r="D7" s="64" t="s">
@@ -5824,7 +5827,7 @@
       <c r="B8" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="77">
         <v>6</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -5888,7 +5891,7 @@
       <c r="B9" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="77">
         <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -5952,7 +5955,7 @@
       <c r="B10" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="77">
         <v>8</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -6016,7 +6019,7 @@
       <c r="B11" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="77">
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -6080,7 +6083,7 @@
       <c r="B12" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="77">
         <v>10</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -6144,7 +6147,7 @@
       <c r="B13" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="77">
         <v>11</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -6208,7 +6211,7 @@
       <c r="B14" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="77">
         <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -6272,7 +6275,7 @@
       <c r="B15" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="77">
         <v>13</v>
       </c>
       <c r="D15" s="64" t="s">
@@ -6338,7 +6341,7 @@
       <c r="B16" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="77">
         <v>14</v>
       </c>
       <c r="D16" s="64" t="s">
@@ -6404,7 +6407,7 @@
       <c r="B17" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="77">
         <v>15</v>
       </c>
       <c r="D17" s="64" t="s">
@@ -6470,7 +6473,7 @@
       <c r="B18" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="77">
         <v>16</v>
       </c>
       <c r="D18" s="64" t="s">
@@ -6534,7 +6537,7 @@
       <c r="B19" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C19" s="58">
+      <c r="C19" s="77">
         <v>20</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -6598,7 +6601,7 @@
       <c r="B20" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="77">
         <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -6664,7 +6667,7 @@
       <c r="B21" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="77">
         <v>23</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -6732,7 +6735,7 @@
       <c r="B22" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C22" s="58">
+      <c r="C22" s="77">
         <v>26</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -6800,7 +6803,7 @@
       <c r="B23" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23" s="77">
         <v>27</v>
       </c>
       <c r="D23" s="64" t="s">
@@ -6864,7 +6867,7 @@
       <c r="B24" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C24" s="58">
+      <c r="C24" s="77">
         <v>28</v>
       </c>
       <c r="D24" s="64" t="s">
@@ -6928,7 +6931,7 @@
       <c r="B25" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="77">
         <v>30</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -6992,7 +6995,7 @@
       <c r="B26" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C26" s="58">
+      <c r="C26" s="77">
         <v>31</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -7056,7 +7059,7 @@
       <c r="B27" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C27" s="58">
+      <c r="C27" s="77">
         <v>32</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -7120,7 +7123,7 @@
       <c r="B28" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C28" s="58">
+      <c r="C28" s="77">
         <v>33</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -7184,7 +7187,7 @@
       <c r="B29" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C29" s="58">
+      <c r="C29" s="77">
         <v>34</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -7248,7 +7251,7 @@
       <c r="B30" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C30" s="58">
+      <c r="C30" s="77">
         <v>35</v>
       </c>
       <c r="D30" s="65" t="s">
@@ -7312,7 +7315,7 @@
       <c r="B31" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C31" s="58">
+      <c r="C31" s="77">
         <v>36</v>
       </c>
       <c r="D31" s="65" t="s">
@@ -7376,7 +7379,7 @@
       <c r="B32" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C32" s="58">
+      <c r="C32" s="77">
         <v>39</v>
       </c>
       <c r="D32" s="65" t="s">
@@ -7440,7 +7443,7 @@
       <c r="B33" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C33" s="58">
+      <c r="C33" s="77">
         <v>39</v>
       </c>
       <c r="D33" s="65" t="s">
@@ -7504,7 +7507,7 @@
       <c r="B34" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C34" s="58">
+      <c r="C34" s="77">
         <v>40</v>
       </c>
       <c r="D34" s="65" t="s">
@@ -7568,7 +7571,7 @@
       <c r="B35" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C35" s="58">
+      <c r="C35" s="77">
         <v>42</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -7632,7 +7635,7 @@
       <c r="B36" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C36" s="58">
+      <c r="C36" s="77">
         <v>43</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -7696,7 +7699,7 @@
       <c r="B37" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C37" s="58">
+      <c r="C37" s="77">
         <v>44</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -7762,7 +7765,7 @@
       <c r="B38" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C38" s="58">
+      <c r="C38" s="77">
         <v>45</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -7826,7 +7829,7 @@
       <c r="B39" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C39" s="58">
+      <c r="C39" s="77">
         <v>46</v>
       </c>
       <c r="D39" s="7" t="s">
@@ -7890,7 +7893,7 @@
       <c r="B40" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C40" s="58">
+      <c r="C40" s="77">
         <v>46</v>
       </c>
       <c r="D40" s="7" t="s">
@@ -7954,7 +7957,7 @@
       <c r="B41" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C41" s="58">
+      <c r="C41" s="77">
         <v>50</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -8017,7 +8020,7 @@
       <c r="B42" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C42" s="58">
+      <c r="C42" s="77">
         <v>51</v>
       </c>
       <c r="D42" s="7" t="s">
@@ -8081,7 +8084,7 @@
       <c r="B43" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C43" s="58">
+      <c r="C43" s="77">
         <v>53</v>
       </c>
       <c r="D43" s="7" t="s">
@@ -8145,7 +8148,7 @@
       <c r="B44" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C44" s="58">
+      <c r="C44" s="77">
         <v>54</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -8209,7 +8212,7 @@
       <c r="B45" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C45" s="58">
+      <c r="C45" s="77">
         <v>55</v>
       </c>
       <c r="D45" s="7" t="s">
@@ -8273,7 +8276,7 @@
       <c r="B46" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C46" s="58">
+      <c r="C46" s="77">
         <v>56</v>
       </c>
       <c r="D46" s="7" t="s">
@@ -8336,7 +8339,7 @@
       <c r="B47" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C47" s="58">
+      <c r="C47" s="77">
         <v>57</v>
       </c>
       <c r="D47" s="64" t="s">
@@ -8400,7 +8403,7 @@
       <c r="B48" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C48" s="58">
+      <c r="C48" s="77">
         <v>58</v>
       </c>
       <c r="D48" s="64" t="s">
@@ -8463,7 +8466,7 @@
       <c r="B49" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C49" s="58">
+      <c r="C49" s="77">
         <v>59</v>
       </c>
       <c r="D49" s="64" t="s">
@@ -8527,7 +8530,7 @@
       <c r="B50" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C50" s="58">
+      <c r="C50" s="77">
         <v>61</v>
       </c>
       <c r="D50" s="64" t="s">
@@ -8591,7 +8594,7 @@
       <c r="B51" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C51" s="58">
+      <c r="C51" s="77">
         <v>62</v>
       </c>
       <c r="D51" s="64" t="s">
@@ -8653,7 +8656,7 @@
       <c r="B52" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C52" s="58">
+      <c r="C52" s="77">
         <v>60</v>
       </c>
       <c r="D52" s="64" t="s">
@@ -8715,7 +8718,7 @@
       <c r="B53" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C53" s="58">
+      <c r="C53" s="77">
         <v>80</v>
       </c>
       <c r="D53" s="64" t="s">
@@ -8778,7 +8781,7 @@
       <c r="B54" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C54" s="58">
+      <c r="C54" s="77">
         <v>81</v>
       </c>
       <c r="D54" s="64" t="s">
@@ -8841,7 +8844,7 @@
       <c r="B55" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C55" s="58">
+      <c r="C55" s="77">
         <v>82</v>
       </c>
       <c r="D55" s="64" t="s">
@@ -8904,7 +8907,7 @@
       <c r="B56" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C56" s="58">
+      <c r="C56" s="77">
         <v>365</v>
       </c>
       <c r="D56" s="64" t="s">
@@ -8968,7 +8971,7 @@
       <c r="B57" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C57" s="58">
+      <c r="C57" s="77">
         <v>366</v>
       </c>
       <c r="D57" s="64" t="s">
@@ -9032,7 +9035,7 @@
       <c r="B58" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C58" s="58">
+      <c r="C58" s="77">
         <v>170</v>
       </c>
       <c r="D58" s="64" t="s">
@@ -9095,7 +9098,7 @@
       <c r="B59" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C59" s="58">
+      <c r="C59" s="77">
         <v>201.1</v>
       </c>
       <c r="D59" s="64" t="s">
@@ -9158,7 +9161,7 @@
       <c r="B60" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C60" s="58">
+      <c r="C60" s="77">
         <v>201.2</v>
       </c>
       <c r="D60" s="64" t="s">
@@ -9221,7 +9224,7 @@
       <c r="B61" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C61" s="58">
+      <c r="C61" s="77">
         <v>202</v>
       </c>
       <c r="D61" s="64" t="s">
@@ -9284,7 +9287,7 @@
       <c r="B62" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C62" s="58">
+      <c r="C62" s="77">
         <v>220</v>
       </c>
       <c r="D62" s="64" t="s">
@@ -9347,7 +9350,7 @@
       <c r="B63" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C63" s="58">
+      <c r="C63" s="77">
         <v>221</v>
       </c>
       <c r="D63" s="64" t="s">
@@ -9410,7 +9413,7 @@
       <c r="B64" s="58" t="s">
         <v>393</v>
       </c>
-      <c r="C64" s="58">
+      <c r="C64" s="77">
         <v>500</v>
       </c>
       <c r="D64" s="64" t="s">
@@ -9474,7 +9477,7 @@
       <c r="B65" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C65" s="58">
+      <c r="C65" s="77">
         <v>500</v>
       </c>
       <c r="D65" s="64" t="s">
@@ -9538,7 +9541,7 @@
       <c r="B66" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C66" s="58">
+      <c r="C66" s="77">
         <v>500</v>
       </c>
       <c r="D66" s="58" t="s">
@@ -9602,7 +9605,7 @@
       <c r="B67" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C67" s="58">
+      <c r="C67" s="77">
         <v>83</v>
       </c>
       <c r="D67" s="66" t="s">
@@ -9667,8 +9670,10 @@
       <c r="A68" t="s">
         <v>764</v>
       </c>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58">
+      <c r="B68" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C68" s="77">
         <v>100</v>
       </c>
       <c r="D68" s="66" t="s">
@@ -9683,24 +9688,44 @@
       <c r="I68" s="11"/>
       <c r="J68" s="44"/>
       <c r="K68" s="44"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="57"/>
-      <c r="R68" s="57"/>
+      <c r="L68" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M68" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N68" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O68" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P68" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q68" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R68" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S68" s="57"/>
       <c r="T68" s="57"/>
-      <c r="U68" s="58"/>
-      <c r="V68" s="58"/>
+      <c r="U68" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V68" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>765</v>
       </c>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58">
+      <c r="B69" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C69" s="77">
         <v>102</v>
       </c>
       <c r="D69" s="66" t="s">
@@ -9715,24 +9740,44 @@
       <c r="I69" s="11"/>
       <c r="J69" s="44"/>
       <c r="K69" s="44"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="57"/>
-      <c r="R69" s="57"/>
+      <c r="L69" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M69" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N69" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O69" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P69" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q69" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R69" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S69" s="57"/>
       <c r="T69" s="57"/>
-      <c r="U69" s="58"/>
-      <c r="V69" s="58"/>
+      <c r="U69" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V69" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>766</v>
       </c>
-      <c r="B70" s="58"/>
-      <c r="C70" s="58">
+      <c r="B70" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C70" s="77">
         <v>103</v>
       </c>
       <c r="D70" s="66" t="s">
@@ -9747,24 +9792,44 @@
       <c r="I70" s="11"/>
       <c r="J70" s="44"/>
       <c r="K70" s="44"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="29"/>
-      <c r="Q70" s="57"/>
-      <c r="R70" s="57"/>
+      <c r="L70" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M70" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N70" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O70" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P70" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q70" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R70" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S70" s="57"/>
       <c r="T70" s="57"/>
-      <c r="U70" s="58"/>
-      <c r="V70" s="58"/>
+      <c r="U70" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V70" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>767</v>
       </c>
-      <c r="B71" s="58"/>
-      <c r="C71" s="58">
+      <c r="B71" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C71" s="77">
         <v>104</v>
       </c>
       <c r="D71" s="66" t="s">
@@ -9779,24 +9844,44 @@
       <c r="I71" s="11"/>
       <c r="J71" s="44"/>
       <c r="K71" s="44"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="36"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="57"/>
-      <c r="R71" s="57"/>
+      <c r="L71" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M71" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N71" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O71" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P71" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q71" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R71" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S71" s="57"/>
       <c r="T71" s="57"/>
-      <c r="U71" s="58"/>
-      <c r="V71" s="58"/>
+      <c r="U71" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V71" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>768</v>
       </c>
-      <c r="B72" s="58"/>
-      <c r="C72" s="58">
+      <c r="B72" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C72" s="77">
         <v>105</v>
       </c>
       <c r="D72" s="66" t="s">
@@ -9811,24 +9896,44 @@
       <c r="I72" s="11"/>
       <c r="J72" s="44"/>
       <c r="K72" s="44"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="36"/>
-      <c r="O72" s="36"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="57"/>
-      <c r="R72" s="57"/>
+      <c r="L72" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M72" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N72" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O72" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P72" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q72" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R72" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S72" s="57"/>
       <c r="T72" s="57"/>
-      <c r="U72" s="58"/>
-      <c r="V72" s="58"/>
+      <c r="U72" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V72" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>769</v>
       </c>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58">
+      <c r="B73" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C73" s="77">
         <v>106</v>
       </c>
       <c r="D73" s="66" t="s">
@@ -9843,24 +9948,44 @@
       <c r="I73" s="11"/>
       <c r="J73" s="44"/>
       <c r="K73" s="44"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="30"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="36"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="57"/>
-      <c r="R73" s="57"/>
+      <c r="L73" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M73" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N73" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O73" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P73" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q73" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R73" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S73" s="57"/>
       <c r="T73" s="57"/>
-      <c r="U73" s="58"/>
-      <c r="V73" s="58"/>
+      <c r="U73" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V73" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>770</v>
       </c>
-      <c r="B74" s="58"/>
-      <c r="C74" s="58">
+      <c r="B74" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C74" s="77">
         <v>107</v>
       </c>
       <c r="D74" s="66" t="s">
@@ -9875,24 +10000,44 @@
       <c r="I74" s="11"/>
       <c r="J74" s="44"/>
       <c r="K74" s="44"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="36"/>
-      <c r="O74" s="36"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="57"/>
-      <c r="R74" s="57"/>
+      <c r="L74" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M74" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N74" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O74" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P74" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q74" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R74" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S74" s="57"/>
       <c r="T74" s="57"/>
-      <c r="U74" s="58"/>
-      <c r="V74" s="58"/>
+      <c r="U74" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V74" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>771</v>
       </c>
-      <c r="B75" s="58"/>
-      <c r="C75" s="58">
+      <c r="B75" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C75" s="77">
         <v>109</v>
       </c>
       <c r="D75" s="66" t="s">
@@ -9907,24 +10052,44 @@
       <c r="I75" s="11"/>
       <c r="J75" s="44"/>
       <c r="K75" s="44"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="30"/>
-      <c r="N75" s="36"/>
-      <c r="O75" s="36"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="57"/>
-      <c r="R75" s="57"/>
+      <c r="L75" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M75" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N75" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O75" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P75" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q75" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R75" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S75" s="57"/>
       <c r="T75" s="57"/>
-      <c r="U75" s="58"/>
-      <c r="V75" s="58"/>
+      <c r="U75" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V75" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="70" t="s">
         <v>772</v>
       </c>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58">
+      <c r="B76" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C76" s="77">
         <v>110</v>
       </c>
       <c r="D76" s="66" t="s">
@@ -9939,24 +10104,44 @@
       <c r="I76" s="11"/>
       <c r="J76" s="44"/>
       <c r="K76" s="44"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="30"/>
-      <c r="N76" s="36"/>
-      <c r="O76" s="36"/>
-      <c r="P76" s="29"/>
-      <c r="Q76" s="57"/>
-      <c r="R76" s="57"/>
+      <c r="L76" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M76" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N76" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O76" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P76" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q76" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R76" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S76" s="57"/>
       <c r="T76" s="57"/>
-      <c r="U76" s="58"/>
-      <c r="V76" s="58"/>
+      <c r="U76" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V76" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="70" t="s">
         <v>773</v>
       </c>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58">
+      <c r="B77" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C77" s="77">
         <v>111</v>
       </c>
       <c r="D77" s="66" t="s">
@@ -9971,17 +10156,35 @@
       <c r="I77" s="11"/>
       <c r="J77" s="44"/>
       <c r="K77" s="44"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="30"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="57"/>
-      <c r="R77" s="57"/>
+      <c r="L77" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M77" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N77" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O77" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P77" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q77" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R77" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S77" s="57"/>
       <c r="T77" s="57"/>
-      <c r="U77" s="58"/>
-      <c r="V77" s="58"/>
+      <c r="U77" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V77" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="72" t="s">
@@ -9990,7 +10193,7 @@
       <c r="B78" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C78" s="58">
+      <c r="C78" s="77">
         <v>111.1</v>
       </c>
       <c r="D78" s="64" t="s">
@@ -10005,24 +10208,44 @@
       <c r="I78" s="11"/>
       <c r="J78" s="44"/>
       <c r="K78" s="44"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="30"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="57"/>
-      <c r="R78" s="57"/>
+      <c r="L78" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M78" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N78" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O78" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P78" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q78" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R78" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S78" s="57"/>
       <c r="T78" s="57"/>
-      <c r="U78" s="58"/>
-      <c r="V78" s="58"/>
+      <c r="U78" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V78" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="70" t="s">
         <v>775</v>
       </c>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58">
+      <c r="B79" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C79" s="77">
         <v>112</v>
       </c>
       <c r="D79" s="66" t="s">
@@ -10037,24 +10260,44 @@
       <c r="I79" s="11"/>
       <c r="J79" s="44"/>
       <c r="K79" s="44"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="30"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="57"/>
-      <c r="R79" s="57"/>
+      <c r="L79" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M79" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N79" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O79" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P79" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q79" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R79" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S79" s="57"/>
       <c r="T79" s="57"/>
-      <c r="U79" s="58"/>
-      <c r="V79" s="58"/>
+      <c r="U79" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V79" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="B80" s="58"/>
-      <c r="C80" s="58">
+      <c r="B80" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C80" s="77">
         <v>113</v>
       </c>
       <c r="D80" s="66"/>
@@ -10065,24 +10308,44 @@
       <c r="I80" s="11"/>
       <c r="J80" s="44"/>
       <c r="K80" s="44"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="30"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="36"/>
-      <c r="P80" s="29"/>
-      <c r="Q80" s="57"/>
-      <c r="R80" s="57"/>
+      <c r="L80" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M80" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N80" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O80" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P80" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q80" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R80" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S80" s="57"/>
       <c r="T80" s="57"/>
-      <c r="U80" s="58"/>
-      <c r="V80" s="58"/>
+      <c r="U80" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V80" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="70" t="s">
         <v>777</v>
       </c>
-      <c r="B81" s="58"/>
-      <c r="C81" s="58">
+      <c r="B81" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C81" s="77">
         <v>116</v>
       </c>
       <c r="D81" s="66" t="s">
@@ -10097,24 +10360,44 @@
       <c r="I81" s="11"/>
       <c r="J81" s="44"/>
       <c r="K81" s="44"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="30"/>
-      <c r="N81" s="36"/>
-      <c r="O81" s="36"/>
-      <c r="P81" s="29"/>
-      <c r="Q81" s="57"/>
-      <c r="R81" s="57"/>
+      <c r="L81" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M81" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N81" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O81" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P81" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q81" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R81" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S81" s="57"/>
       <c r="T81" s="57"/>
-      <c r="U81" s="58"/>
-      <c r="V81" s="58"/>
+      <c r="U81" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V81" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>778</v>
       </c>
-      <c r="B82" s="58"/>
-      <c r="C82" s="58">
+      <c r="B82" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C82" s="77">
         <v>117</v>
       </c>
       <c r="D82" s="66" t="s">
@@ -10129,24 +10412,44 @@
       <c r="I82" s="11"/>
       <c r="J82" s="44"/>
       <c r="K82" s="44"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="36"/>
-      <c r="P82" s="29"/>
-      <c r="Q82" s="57"/>
-      <c r="R82" s="57"/>
+      <c r="L82" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M82" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N82" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O82" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P82" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q82" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R82" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S82" s="57"/>
       <c r="T82" s="57"/>
-      <c r="U82" s="58"/>
-      <c r="V82" s="58"/>
+      <c r="U82" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V82" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="70" t="s">
         <v>779</v>
       </c>
-      <c r="B83" s="58"/>
-      <c r="C83" s="58">
+      <c r="B83" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C83" s="77">
         <v>119</v>
       </c>
       <c r="D83" s="66" t="s">
@@ -10161,24 +10464,44 @@
       <c r="I83" s="11"/>
       <c r="J83" s="44"/>
       <c r="K83" s="44"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="57"/>
-      <c r="R83" s="57"/>
+      <c r="L83" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M83" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N83" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O83" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P83" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q83" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R83" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S83" s="57"/>
       <c r="T83" s="57"/>
-      <c r="U83" s="58"/>
-      <c r="V83" s="58"/>
+      <c r="U83" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V83" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="70" t="s">
         <v>780</v>
       </c>
-      <c r="B84" s="58"/>
-      <c r="C84" s="58">
+      <c r="B84" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C84" s="77">
         <v>120</v>
       </c>
       <c r="D84" s="66" t="s">
@@ -10193,24 +10516,44 @@
       <c r="I84" s="11"/>
       <c r="J84" s="44"/>
       <c r="K84" s="44"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="29"/>
-      <c r="Q84" s="57"/>
-      <c r="R84" s="57"/>
+      <c r="L84" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M84" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N84" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O84" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P84" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q84" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R84" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S84" s="57"/>
       <c r="T84" s="57"/>
-      <c r="U84" s="58"/>
-      <c r="V84" s="58"/>
+      <c r="U84" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V84" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="74" t="s">
         <v>781</v>
       </c>
-      <c r="B85" s="58"/>
-      <c r="C85" s="58">
+      <c r="B85" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C85" s="77">
         <v>121</v>
       </c>
       <c r="D85" s="66" t="s">
@@ -10225,27 +10568,45 @@
       <c r="I85" s="11"/>
       <c r="J85" s="44"/>
       <c r="K85" s="44"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="36"/>
-      <c r="O85" s="36"/>
-      <c r="P85" s="29"/>
-      <c r="Q85" s="57"/>
-      <c r="R85" s="57"/>
+      <c r="L85" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M85" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N85" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O85" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P85" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q85" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R85" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S85" s="57"/>
       <c r="T85" s="57"/>
-      <c r="U85" s="58"/>
-      <c r="V85" s="58"/>
+      <c r="U85" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V85" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="70" t="s">
-        <v>782</v>
-      </c>
-      <c r="B86" s="70" t="s">
-        <v>783</v>
-      </c>
-      <c r="C86" s="36">
-        <v>121</v>
+        <v>408</v>
+      </c>
+      <c r="B86" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C86" s="77">
+        <v>221</v>
       </c>
       <c r="D86" s="66" t="s">
         <v>58</v>
@@ -10253,12 +10614,50 @@
       <c r="E86" s="66" t="s">
         <v>410</v>
       </c>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M86" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N86" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O86" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P86" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q86" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R86" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S86" s="57"/>
+      <c r="T86" s="57"/>
+      <c r="U86" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V86" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>784</v>
-      </c>
-      <c r="C87" s="16">
+        <v>782</v>
+      </c>
+      <c r="B87" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C87" s="77">
         <v>122</v>
       </c>
       <c r="D87" s="66" t="s">
@@ -10267,12 +10666,50 @@
       <c r="E87" s="66" t="s">
         <v>427</v>
       </c>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M87" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N87" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O87" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P87" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q87" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R87" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S87" s="57"/>
+      <c r="T87" s="57"/>
+      <c r="U87" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V87" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="74" t="s">
-        <v>785</v>
-      </c>
-      <c r="C88" s="16">
+        <v>783</v>
+      </c>
+      <c r="B88" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C88" s="77">
         <v>123</v>
       </c>
       <c r="D88" s="66" t="s">
@@ -10281,26 +10718,102 @@
       <c r="E88" s="66" t="s">
         <v>645</v>
       </c>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M88" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N88" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O88" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P88" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q88" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R88" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S88" s="57"/>
+      <c r="T88" s="57"/>
+      <c r="U88" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V88" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="70" t="s">
-        <v>786</v>
-      </c>
-      <c r="C89" s="16">
+        <v>784</v>
+      </c>
+      <c r="B89" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C89" s="77">
         <v>124</v>
       </c>
       <c r="D89" s="66" t="s">
         <v>75</v>
       </c>
       <c r="E89" s="66" t="s">
-        <v>787</v>
+        <v>785</v>
+      </c>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M89" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N89" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O89" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P89" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q89" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R89" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S89" s="57"/>
+      <c r="T89" s="57"/>
+      <c r="U89" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V89" s="58" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="74" t="s">
-        <v>788</v>
-      </c>
-      <c r="C90" s="16">
+        <v>786</v>
+      </c>
+      <c r="B90" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C90" s="77">
         <v>125</v>
       </c>
       <c r="D90" s="66" t="s">
@@ -10309,12 +10822,50 @@
       <c r="E90" s="66" t="s">
         <v>710</v>
       </c>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M90" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N90" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O90" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P90" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q90" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R90" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S90" s="57"/>
+      <c r="T90" s="57"/>
+      <c r="U90" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V90" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="73" t="s">
-        <v>789</v>
-      </c>
-      <c r="C91" s="16">
+        <v>787</v>
+      </c>
+      <c r="B91" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C91" s="77">
         <v>126</v>
       </c>
       <c r="D91" s="66" t="s">
@@ -10323,12 +10874,50 @@
       <c r="E91" s="66" t="s">
         <v>241</v>
       </c>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M91" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N91" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O91" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P91" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q91" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R91" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S91" s="57"/>
+      <c r="T91" s="57"/>
+      <c r="U91" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V91" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="70" t="s">
-        <v>790</v>
-      </c>
-      <c r="C92" s="16">
+        <v>788</v>
+      </c>
+      <c r="B92" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C92" s="77">
         <v>128</v>
       </c>
       <c r="D92" s="66" t="s">
@@ -10337,12 +10926,50 @@
       <c r="E92" s="66" t="s">
         <v>70</v>
       </c>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M92" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N92" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O92" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P92" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q92" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R92" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S92" s="57"/>
+      <c r="T92" s="57"/>
+      <c r="U92" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V92" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="70" t="s">
-        <v>791</v>
-      </c>
-      <c r="C93" s="16">
+        <v>789</v>
+      </c>
+      <c r="B93" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C93" s="77">
         <v>129</v>
       </c>
       <c r="D93" s="66" t="s">
@@ -10351,12 +10978,50 @@
       <c r="E93" s="66" t="s">
         <v>70</v>
       </c>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M93" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N93" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O93" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P93" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q93" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R93" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S93" s="57"/>
+      <c r="T93" s="57"/>
+      <c r="U93" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V93" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="70" t="s">
-        <v>792</v>
-      </c>
-      <c r="C94" s="16">
+        <v>790</v>
+      </c>
+      <c r="B94" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C94" s="77">
         <v>130</v>
       </c>
       <c r="D94" s="66" t="s">
@@ -10365,12 +11030,50 @@
       <c r="E94" s="66" t="s">
         <v>70</v>
       </c>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M94" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N94" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O94" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P94" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q94" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R94" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S94" s="57"/>
+      <c r="T94" s="57"/>
+      <c r="U94" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V94" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="74" t="s">
-        <v>793</v>
-      </c>
-      <c r="C95" s="16">
+        <v>791</v>
+      </c>
+      <c r="B95" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C95" s="77">
         <v>131</v>
       </c>
       <c r="D95" s="66" t="s">
@@ -10379,12 +11082,50 @@
       <c r="E95" s="66" t="s">
         <v>680</v>
       </c>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M95" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N95" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O95" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P95" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q95" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R95" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S95" s="57"/>
+      <c r="T95" s="57"/>
+      <c r="U95" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V95" s="58" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="74" t="s">
-        <v>794</v>
-      </c>
-      <c r="C96" s="16">
+        <v>792</v>
+      </c>
+      <c r="B96" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C96" s="77">
         <v>132</v>
       </c>
       <c r="D96" s="66" t="s">
@@ -10393,12 +11134,50 @@
       <c r="E96" s="66" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="44"/>
+      <c r="K96" s="44"/>
+      <c r="L96" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M96" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N96" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O96" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P96" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q96" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R96" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S96" s="57"/>
+      <c r="T96" s="57"/>
+      <c r="U96" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V96" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="74" t="s">
-        <v>795</v>
-      </c>
-      <c r="C97" s="16">
+        <v>793</v>
+      </c>
+      <c r="B97" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C97" s="77">
         <v>133</v>
       </c>
       <c r="D97" s="66" t="s">
@@ -10407,36 +11186,150 @@
       <c r="E97" s="66" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="44"/>
+      <c r="L97" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M97" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N97" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O97" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P97" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q97" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R97" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S97" s="57"/>
+      <c r="T97" s="57"/>
+      <c r="U97" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V97" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="74" t="s">
-        <v>796</v>
-      </c>
-      <c r="C98" s="16">
+        <v>794</v>
+      </c>
+      <c r="B98" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C98" s="77">
         <v>134</v>
       </c>
       <c r="D98" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E98" s="66" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+        <v>795</v>
+      </c>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="44"/>
+      <c r="L98" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M98" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N98" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O98" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P98" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q98" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R98" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S98" s="57"/>
+      <c r="T98" s="57"/>
+      <c r="U98" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V98" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="70" t="s">
-        <v>798</v>
-      </c>
-      <c r="C99" s="16">
+        <v>796</v>
+      </c>
+      <c r="B99" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C99" s="77">
         <v>136</v>
       </c>
       <c r="D99" s="66"/>
       <c r="E99" s="66"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M99" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N99" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O99" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P99" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q99" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R99" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S99" s="57"/>
+      <c r="T99" s="57"/>
+      <c r="U99" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V99" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="74" t="s">
-        <v>799</v>
-      </c>
-      <c r="C100" s="16">
+        <v>797</v>
+      </c>
+      <c r="B100" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C100" s="77">
         <v>137</v>
       </c>
       <c r="D100" s="66" t="s">
@@ -10445,15 +11338,50 @@
       <c r="E100" s="66" t="s">
         <v>688</v>
       </c>
-      <c r="N100"/>
-      <c r="O100"/>
-      <c r="Q100"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="44"/>
+      <c r="K100" s="44"/>
+      <c r="L100" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M100" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N100" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O100" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P100" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q100" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R100" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S100" s="57"/>
+      <c r="T100" s="57"/>
+      <c r="U100" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V100" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="74" t="s">
-        <v>800</v>
-      </c>
-      <c r="C101" s="16">
+        <v>798</v>
+      </c>
+      <c r="B101" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C101" s="77">
         <v>138</v>
       </c>
       <c r="D101" s="66" t="s">
@@ -10462,12 +11390,50 @@
       <c r="E101" s="66" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="44"/>
+      <c r="K101" s="44"/>
+      <c r="L101" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M101" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N101" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O101" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P101" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q101" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R101" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S101" s="57"/>
+      <c r="T101" s="57"/>
+      <c r="U101" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V101" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="74" t="s">
-        <v>801</v>
-      </c>
-      <c r="C102" s="16">
+        <v>799</v>
+      </c>
+      <c r="B102" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C102" s="77">
         <v>139</v>
       </c>
       <c r="D102" s="66" t="s">
@@ -10476,12 +11442,50 @@
       <c r="E102" s="66" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M102" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N102" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O102" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P102" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q102" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R102" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S102" s="57"/>
+      <c r="T102" s="57"/>
+      <c r="U102" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V102" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="74" t="s">
-        <v>802</v>
-      </c>
-      <c r="C103" s="16">
+        <v>800</v>
+      </c>
+      <c r="B103" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C103" s="77">
         <v>140</v>
       </c>
       <c r="D103" s="66" t="s">
@@ -10490,12 +11494,50 @@
       <c r="E103" s="66" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="44"/>
+      <c r="L103" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M103" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N103" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O103" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P103" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q103" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R103" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S103" s="57"/>
+      <c r="T103" s="57"/>
+      <c r="U103" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V103" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>803</v>
-      </c>
-      <c r="C104" s="16">
+        <v>801</v>
+      </c>
+      <c r="B104" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C104" s="77">
         <v>141</v>
       </c>
       <c r="D104" s="66" t="s">
@@ -10504,12 +11546,50 @@
       <c r="E104" s="66" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="44"/>
+      <c r="K104" s="44"/>
+      <c r="L104" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M104" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N104" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O104" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P104" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q104" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R104" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S104" s="57"/>
+      <c r="T104" s="57"/>
+      <c r="U104" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V104" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>804</v>
-      </c>
-      <c r="C105" s="16">
+        <v>802</v>
+      </c>
+      <c r="B105" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C105" s="77">
         <v>142</v>
       </c>
       <c r="D105" s="66" t="s">
@@ -10518,12 +11598,50 @@
       <c r="E105" s="66" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="44"/>
+      <c r="K105" s="44"/>
+      <c r="L105" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M105" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N105" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O105" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P105" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q105" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R105" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S105" s="57"/>
+      <c r="T105" s="57"/>
+      <c r="U105" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V105" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="74" t="s">
-        <v>805</v>
-      </c>
-      <c r="C106" s="16">
+        <v>803</v>
+      </c>
+      <c r="B106" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C106" s="77">
         <v>143</v>
       </c>
       <c r="D106" s="66" t="s">
@@ -10532,12 +11650,50 @@
       <c r="E106" s="66" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="44"/>
+      <c r="K106" s="44"/>
+      <c r="L106" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M106" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N106" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O106" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P106" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q106" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R106" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S106" s="57"/>
+      <c r="T106" s="57"/>
+      <c r="U106" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V106" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="74" t="s">
-        <v>806</v>
-      </c>
-      <c r="C107" s="16">
+        <v>804</v>
+      </c>
+      <c r="B107" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C107" s="77">
         <v>144</v>
       </c>
       <c r="D107" s="66" t="s">
@@ -10546,12 +11702,50 @@
       <c r="E107" s="66" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="44"/>
+      <c r="K107" s="44"/>
+      <c r="L107" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M107" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N107" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O107" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P107" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q107" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R107" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S107" s="57"/>
+      <c r="T107" s="57"/>
+      <c r="U107" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V107" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="74" t="s">
-        <v>807</v>
-      </c>
-      <c r="C108" s="16">
+        <v>805</v>
+      </c>
+      <c r="B108" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C108" s="77">
         <v>145</v>
       </c>
       <c r="D108" s="66" t="s">
@@ -10560,12 +11754,50 @@
       <c r="E108" s="66" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="44"/>
+      <c r="K108" s="44"/>
+      <c r="L108" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M108" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N108" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O108" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P108" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q108" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R108" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S108" s="57"/>
+      <c r="T108" s="57"/>
+      <c r="U108" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V108" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="74" t="s">
-        <v>808</v>
-      </c>
-      <c r="C109" s="16">
+        <v>806</v>
+      </c>
+      <c r="B109" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C109" s="77">
         <v>146</v>
       </c>
       <c r="D109" s="66" t="s">
@@ -10574,12 +11806,50 @@
       <c r="E109" s="66" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="44"/>
+      <c r="K109" s="44"/>
+      <c r="L109" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M109" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N109" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O109" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P109" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q109" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R109" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S109" s="57"/>
+      <c r="T109" s="57"/>
+      <c r="U109" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V109" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="74" t="s">
-        <v>809</v>
-      </c>
-      <c r="C110" s="16">
+        <v>807</v>
+      </c>
+      <c r="B110" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C110" s="77">
         <v>147</v>
       </c>
       <c r="D110" s="66" t="s">
@@ -10588,1058 +11858,3397 @@
       <c r="E110" s="66" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="44"/>
+      <c r="K110" s="44"/>
+      <c r="L110" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M110" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N110" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O110" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P110" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q110" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R110" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S110" s="57"/>
+      <c r="T110" s="57"/>
+      <c r="U110" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V110" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="74" t="s">
-        <v>810</v>
-      </c>
-      <c r="C111" s="16">
+        <v>808</v>
+      </c>
+      <c r="B111" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C111" s="77">
         <v>148</v>
       </c>
       <c r="D111" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="66" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="44"/>
+      <c r="K111" s="44"/>
+      <c r="L111" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M111" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N111" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O111" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P111" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q111" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R111" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S111" s="57"/>
+      <c r="T111" s="57"/>
+      <c r="U111" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V111" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="74" t="s">
-        <v>811</v>
-      </c>
-      <c r="C112" s="16">
+        <v>809</v>
+      </c>
+      <c r="B112" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C112" s="77">
         <v>149</v>
       </c>
       <c r="D112" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="66" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="44"/>
+      <c r="K112" s="44"/>
+      <c r="L112" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M112" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N112" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O112" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P112" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q112" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R112" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S112" s="57"/>
+      <c r="T112" s="57"/>
+      <c r="U112" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V112" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>812</v>
-      </c>
-      <c r="C113" s="16">
+        <v>810</v>
+      </c>
+      <c r="B113" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C113" s="77">
         <v>150</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E113" s="66" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="44"/>
+      <c r="K113" s="44"/>
+      <c r="L113" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M113" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N113" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O113" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P113" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q113" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R113" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S113" s="57"/>
+      <c r="T113" s="57"/>
+      <c r="U113" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V113" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>813</v>
-      </c>
-      <c r="C114" s="16">
+        <v>811</v>
+      </c>
+      <c r="B114" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C114" s="77">
         <v>151</v>
       </c>
       <c r="D114" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="66" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="44"/>
+      <c r="K114" s="44"/>
+      <c r="L114" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M114" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N114" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O114" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P114" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q114" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R114" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S114" s="57"/>
+      <c r="T114" s="57"/>
+      <c r="U114" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V114" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>814</v>
-      </c>
-      <c r="C115" s="16">
+        <v>812</v>
+      </c>
+      <c r="B115" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C115" s="77">
         <v>153</v>
       </c>
       <c r="D115" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="E115" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E115" s="66" t="s">
+        <v>813</v>
+      </c>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="44"/>
+      <c r="K115" s="44"/>
+      <c r="L115" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M115" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N115" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O115" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P115" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q115" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R115" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S115" s="57"/>
+      <c r="T115" s="57"/>
+      <c r="U115" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V115" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>816</v>
-      </c>
-      <c r="C116" s="16">
+        <v>814</v>
+      </c>
+      <c r="B116" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C116" s="77">
         <v>154</v>
       </c>
       <c r="D116" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="66" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="44"/>
+      <c r="K116" s="44"/>
+      <c r="L116" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M116" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N116" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O116" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P116" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q116" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R116" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S116" s="57"/>
+      <c r="T116" s="57"/>
+      <c r="U116" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V116" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>817</v>
-      </c>
-      <c r="C117" s="16">
+        <v>815</v>
+      </c>
+      <c r="B117" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C117" s="77">
         <v>155</v>
       </c>
       <c r="D117" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="66" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="44"/>
+      <c r="K117" s="44"/>
+      <c r="L117" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M117" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N117" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O117" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P117" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q117" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R117" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S117" s="57"/>
+      <c r="T117" s="57"/>
+      <c r="U117" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V117" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>818</v>
-      </c>
-      <c r="C118" s="16">
+        <v>816</v>
+      </c>
+      <c r="B118" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C118" s="77">
         <v>156</v>
       </c>
       <c r="D118" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="66" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="44"/>
+      <c r="K118" s="44"/>
+      <c r="L118" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M118" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N118" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O118" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P118" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q118" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R118" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S118" s="57"/>
+      <c r="T118" s="57"/>
+      <c r="U118" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V118" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>819</v>
-      </c>
-      <c r="C119" s="16">
+        <v>817</v>
+      </c>
+      <c r="B119" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C119" s="77">
         <v>157</v>
       </c>
       <c r="D119" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="E119" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E119" s="66" t="s">
+        <v>818</v>
+      </c>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="44"/>
+      <c r="K119" s="44"/>
+      <c r="L119" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M119" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N119" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O119" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P119" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q119" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R119" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S119" s="57"/>
+      <c r="T119" s="57"/>
+      <c r="U119" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V119" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>821</v>
-      </c>
-      <c r="C120" s="16">
+        <v>819</v>
+      </c>
+      <c r="B120" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C120" s="77">
         <v>158</v>
       </c>
       <c r="D120" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="66" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="44"/>
+      <c r="K120" s="44"/>
+      <c r="L120" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M120" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N120" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O120" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P120" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q120" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R120" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S120" s="57"/>
+      <c r="T120" s="57"/>
+      <c r="U120" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V120" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>822</v>
-      </c>
-      <c r="C121" s="16">
+        <v>820</v>
+      </c>
+      <c r="B121" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C121" s="77">
         <v>159</v>
       </c>
       <c r="D121" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="66" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="44"/>
+      <c r="K121" s="44"/>
+      <c r="L121" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M121" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N121" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O121" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P121" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q121" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R121" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S121" s="57"/>
+      <c r="T121" s="57"/>
+      <c r="U121" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V121" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>823</v>
-      </c>
-      <c r="C122" s="16">
+        <v>821</v>
+      </c>
+      <c r="B122" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C122" s="77">
         <v>160</v>
       </c>
       <c r="D122" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E122" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E122" s="66" t="s">
+        <v>822</v>
+      </c>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="44"/>
+      <c r="K122" s="44"/>
+      <c r="L122" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M122" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N122" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O122" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P122" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q122" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R122" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S122" s="57"/>
+      <c r="T122" s="57"/>
+      <c r="U122" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V122" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>825</v>
-      </c>
-      <c r="C123" s="16">
+        <v>823</v>
+      </c>
+      <c r="B123" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C123" s="77">
         <v>160</v>
       </c>
       <c r="D123" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="66" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="44"/>
+      <c r="K123" s="44"/>
+      <c r="L123" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M123" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N123" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O123" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P123" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q123" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R123" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S123" s="57"/>
+      <c r="T123" s="57"/>
+      <c r="U123" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V123" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>826</v>
-      </c>
-      <c r="C124" s="16">
+        <v>824</v>
+      </c>
+      <c r="B124" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C124" s="77">
         <v>161</v>
       </c>
       <c r="D124" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="66" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="44"/>
+      <c r="K124" s="44"/>
+      <c r="L124" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M124" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N124" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O124" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P124" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q124" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R124" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S124" s="57"/>
+      <c r="T124" s="57"/>
+      <c r="U124" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V124" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>827</v>
-      </c>
-      <c r="C125" s="16">
+        <v>825</v>
+      </c>
+      <c r="B125" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C125" s="77">
         <v>162</v>
       </c>
       <c r="D125" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="66" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="44"/>
+      <c r="K125" s="44"/>
+      <c r="L125" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M125" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N125" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O125" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P125" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q125" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R125" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S125" s="57"/>
+      <c r="T125" s="57"/>
+      <c r="U125" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V125" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="70" t="s">
-        <v>828</v>
-      </c>
-      <c r="C126" s="16">
+        <v>826</v>
+      </c>
+      <c r="B126" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C126" s="77">
         <v>163</v>
       </c>
       <c r="D126" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="66" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="44"/>
+      <c r="K126" s="44"/>
+      <c r="L126" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M126" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N126" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O126" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P126" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q126" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R126" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S126" s="57"/>
+      <c r="T126" s="57"/>
+      <c r="U126" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V126" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>829</v>
-      </c>
-      <c r="C127" s="16">
+        <v>827</v>
+      </c>
+      <c r="B127" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C127" s="77">
         <v>165</v>
       </c>
       <c r="D127" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E127" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E127" s="66" t="s">
+        <v>828</v>
+      </c>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="44"/>
+      <c r="K127" s="44"/>
+      <c r="L127" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M127" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N127" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O127" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P127" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q127" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R127" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S127" s="57"/>
+      <c r="T127" s="57"/>
+      <c r="U127" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V127" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>831</v>
-      </c>
-      <c r="C128" s="16">
+        <v>829</v>
+      </c>
+      <c r="B128" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C128" s="77">
         <v>166</v>
       </c>
       <c r="D128" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="66" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="44"/>
+      <c r="K128" s="44"/>
+      <c r="L128" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M128" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N128" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O128" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P128" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q128" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R128" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S128" s="57"/>
+      <c r="T128" s="57"/>
+      <c r="U128" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V128" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>832</v>
-      </c>
-      <c r="C129" s="16">
+        <v>830</v>
+      </c>
+      <c r="B129" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C129" s="77">
         <v>168</v>
       </c>
       <c r="D129" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="66" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="44"/>
+      <c r="K129" s="44"/>
+      <c r="L129" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M129" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N129" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O129" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P129" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q129" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R129" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S129" s="57"/>
+      <c r="T129" s="57"/>
+      <c r="U129" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V129" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="75" t="s">
-        <v>833</v>
-      </c>
-      <c r="C130" s="16">
+        <v>831</v>
+      </c>
+      <c r="B130" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C130" s="77">
         <v>169</v>
       </c>
       <c r="D130" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="66" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="44"/>
+      <c r="K130" s="44"/>
+      <c r="L130" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M130" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N130" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O130" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P130" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q130" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R130" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S130" s="57"/>
+      <c r="T130" s="57"/>
+      <c r="U130" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V130" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>834</v>
-      </c>
-      <c r="C131" s="16">
+        <v>832</v>
+      </c>
+      <c r="B131" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C131" s="77">
         <v>170</v>
       </c>
       <c r="D131" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="66" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="44"/>
+      <c r="K131" s="44"/>
+      <c r="L131" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M131" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N131" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O131" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P131" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q131" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R131" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S131" s="57"/>
+      <c r="T131" s="57"/>
+      <c r="U131" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V131" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>835</v>
-      </c>
-      <c r="C132" s="16">
+        <v>833</v>
+      </c>
+      <c r="B132" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C132" s="77">
         <v>174</v>
       </c>
       <c r="D132" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="66" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="44"/>
+      <c r="K132" s="44"/>
+      <c r="L132" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M132" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N132" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O132" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P132" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q132" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R132" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S132" s="57"/>
+      <c r="T132" s="57"/>
+      <c r="U132" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V132" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>836</v>
-      </c>
-      <c r="C133" s="16">
+        <v>834</v>
+      </c>
+      <c r="B133" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C133" s="77">
         <v>175</v>
       </c>
       <c r="D133" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E133" s="76" t="s">
+      <c r="E133" s="66" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="44"/>
+      <c r="K133" s="44"/>
+      <c r="L133" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M133" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N133" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O133" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P133" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q133" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R133" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S133" s="57"/>
+      <c r="T133" s="57"/>
+      <c r="U133" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V133" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>837</v>
-      </c>
-      <c r="C134" s="16">
+        <v>835</v>
+      </c>
+      <c r="B134" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C134" s="77">
         <v>177</v>
       </c>
       <c r="D134" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="66" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="44"/>
+      <c r="K134" s="44"/>
+      <c r="L134" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M134" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N134" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O134" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P134" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q134" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R134" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S134" s="57"/>
+      <c r="T134" s="57"/>
+      <c r="U134" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V134" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>838</v>
-      </c>
-      <c r="C135" s="16">
+        <v>836</v>
+      </c>
+      <c r="B135" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C135" s="77">
         <v>178</v>
       </c>
       <c r="D135" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="E135" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E135" s="66" t="s">
+        <v>837</v>
+      </c>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="44"/>
+      <c r="K135" s="44"/>
+      <c r="L135" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M135" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N135" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O135" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P135" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q135" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R135" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S135" s="57"/>
+      <c r="T135" s="57"/>
+      <c r="U135" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V135" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>840</v>
-      </c>
-      <c r="C136" s="16">
+        <v>838</v>
+      </c>
+      <c r="B136" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C136" s="77">
         <v>179</v>
       </c>
       <c r="D136" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="66" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="44"/>
+      <c r="K136" s="44"/>
+      <c r="L136" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M136" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N136" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O136" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P136" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q136" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R136" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S136" s="57"/>
+      <c r="T136" s="57"/>
+      <c r="U136" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V136" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>841</v>
-      </c>
-      <c r="C137" s="16">
+        <v>839</v>
+      </c>
+      <c r="B137" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C137" s="77">
         <v>180</v>
       </c>
       <c r="D137" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E137" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E137" s="66" t="s">
+        <v>879</v>
+      </c>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="44"/>
+      <c r="K137" s="44"/>
+      <c r="L137" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M137" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N137" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O137" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P137" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q137" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R137" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S137" s="57"/>
+      <c r="T137" s="57"/>
+      <c r="U137" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V137" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>842</v>
-      </c>
-      <c r="C138" s="16">
+        <v>840</v>
+      </c>
+      <c r="B138" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C138" s="77">
         <v>181</v>
       </c>
       <c r="D138" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="66" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="44"/>
+      <c r="K138" s="44"/>
+      <c r="L138" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M138" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N138" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O138" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P138" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q138" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R138" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S138" s="57"/>
+      <c r="T138" s="57"/>
+      <c r="U138" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V138" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
-        <v>843</v>
-      </c>
-      <c r="C139" s="16">
+        <v>841</v>
+      </c>
+      <c r="B139" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C139" s="77">
         <v>182</v>
       </c>
       <c r="D139" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="66" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="44"/>
+      <c r="K139" s="44"/>
+      <c r="L139" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M139" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N139" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O139" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P139" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q139" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R139" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S139" s="57"/>
+      <c r="T139" s="57"/>
+      <c r="U139" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V139" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="70" t="s">
-        <v>844</v>
-      </c>
-      <c r="C140" s="16">
+        <v>842</v>
+      </c>
+      <c r="B140" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C140" s="77">
         <v>183</v>
       </c>
       <c r="D140" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="E140" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E140" s="66" t="s">
+        <v>843</v>
+      </c>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="44"/>
+      <c r="K140" s="44"/>
+      <c r="L140" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M140" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N140" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O140" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P140" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q140" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R140" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S140" s="57"/>
+      <c r="T140" s="57"/>
+      <c r="U140" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V140" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="70" t="s">
-        <v>846</v>
-      </c>
-      <c r="C141" s="16">
+        <v>844</v>
+      </c>
+      <c r="B141" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C141" s="77">
         <v>184</v>
       </c>
       <c r="D141" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="66" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="44"/>
+      <c r="K141" s="44"/>
+      <c r="L141" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M141" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N141" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O141" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P141" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q141" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R141" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S141" s="57"/>
+      <c r="T141" s="57"/>
+      <c r="U141" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V141" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>847</v>
-      </c>
-      <c r="C142" s="16">
+        <v>845</v>
+      </c>
+      <c r="B142" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C142" s="77">
         <v>185</v>
       </c>
       <c r="D142" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="66" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="44"/>
+      <c r="K142" s="44"/>
+      <c r="L142" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M142" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N142" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O142" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P142" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q142" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R142" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S142" s="57"/>
+      <c r="T142" s="57"/>
+      <c r="U142" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V142" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="15" t="s">
-        <v>848</v>
-      </c>
-      <c r="C143" s="16">
+        <v>846</v>
+      </c>
+      <c r="B143" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C143" s="77">
         <v>186</v>
       </c>
       <c r="D143" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="66" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="44"/>
+      <c r="K143" s="44"/>
+      <c r="L143" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M143" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N143" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O143" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P143" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q143" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R143" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S143" s="57"/>
+      <c r="T143" s="57"/>
+      <c r="U143" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V143" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
-        <v>849</v>
-      </c>
-      <c r="C144" s="16">
+        <v>847</v>
+      </c>
+      <c r="B144" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C144" s="77">
         <v>187</v>
       </c>
       <c r="D144" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="66" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="44"/>
+      <c r="K144" s="44"/>
+      <c r="L144" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M144" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N144" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O144" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P144" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q144" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R144" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S144" s="57"/>
+      <c r="T144" s="57"/>
+      <c r="U144" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V144" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="70" t="s">
-        <v>850</v>
-      </c>
-      <c r="C145" s="16">
+        <v>848</v>
+      </c>
+      <c r="B145" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C145" s="77">
         <v>188</v>
       </c>
       <c r="D145" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="66" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="44"/>
+      <c r="K145" s="44"/>
+      <c r="L145" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M145" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N145" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O145" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P145" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q145" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R145" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S145" s="57"/>
+      <c r="T145" s="57"/>
+      <c r="U145" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V145" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>851</v>
-      </c>
-      <c r="C146" s="16">
+        <v>849</v>
+      </c>
+      <c r="B146" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C146" s="77">
         <v>189</v>
       </c>
       <c r="D146" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="66" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="44"/>
+      <c r="K146" s="44"/>
+      <c r="L146" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M146" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N146" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O146" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P146" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q146" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R146" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S146" s="57"/>
+      <c r="T146" s="57"/>
+      <c r="U146" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V146" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>852</v>
-      </c>
-      <c r="C147" s="16">
+        <v>850</v>
+      </c>
+      <c r="B147" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C147" s="77">
         <v>190</v>
       </c>
       <c r="D147" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="66" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="44"/>
+      <c r="K147" s="44"/>
+      <c r="L147" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M147" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N147" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O147" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P147" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q147" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R147" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S147" s="57"/>
+      <c r="T147" s="57"/>
+      <c r="U147" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V147" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>853</v>
-      </c>
-      <c r="C148" s="16">
+        <v>851</v>
+      </c>
+      <c r="B148" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C148" s="77">
         <v>191</v>
       </c>
       <c r="D148" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="66" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="44"/>
+      <c r="K148" s="44"/>
+      <c r="L148" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M148" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N148" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O148" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P148" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q148" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R148" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S148" s="57"/>
+      <c r="T148" s="57"/>
+      <c r="U148" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V148" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>854</v>
-      </c>
-      <c r="C149" s="16">
+        <v>852</v>
+      </c>
+      <c r="B149" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C149" s="77">
         <v>201</v>
       </c>
       <c r="D149" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="66" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="44"/>
+      <c r="K149" s="44"/>
+      <c r="L149" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M149" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N149" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O149" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P149" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q149" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R149" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S149" s="57"/>
+      <c r="T149" s="57"/>
+      <c r="U149" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V149" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>855</v>
-      </c>
-      <c r="C150" s="16">
+        <v>853</v>
+      </c>
+      <c r="B150" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C150" s="77">
         <v>301</v>
       </c>
       <c r="D150" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="E150" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E150" s="66" t="s">
+        <v>854</v>
+      </c>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="44"/>
+      <c r="K150" s="44"/>
+      <c r="L150" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M150" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N150" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O150" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P150" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q150" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R150" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S150" s="57"/>
+      <c r="T150" s="57"/>
+      <c r="U150" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V150" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>857</v>
-      </c>
-      <c r="C151" s="16">
+        <v>855</v>
+      </c>
+      <c r="B151" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C151" s="77">
         <v>302</v>
       </c>
       <c r="D151" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="66" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
+      <c r="J151" s="44"/>
+      <c r="K151" s="44"/>
+      <c r="L151" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M151" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N151" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O151" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P151" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q151" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R151" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S151" s="57"/>
+      <c r="T151" s="57"/>
+      <c r="U151" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V151" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" s="15" t="s">
-        <v>858</v>
-      </c>
-      <c r="C152" s="16">
+        <v>856</v>
+      </c>
+      <c r="B152" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C152" s="77">
         <v>303</v>
       </c>
       <c r="D152" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="66" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="44"/>
+      <c r="K152" s="44"/>
+      <c r="L152" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M152" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N152" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O152" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P152" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q152" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R152" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S152" s="57"/>
+      <c r="T152" s="57"/>
+      <c r="U152" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V152" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>859</v>
-      </c>
-      <c r="C153" s="16">
+        <v>857</v>
+      </c>
+      <c r="B153" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C153" s="77">
         <v>304</v>
       </c>
       <c r="D153" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="66" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="44"/>
+      <c r="K153" s="44"/>
+      <c r="L153" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M153" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N153" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O153" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P153" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q153" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R153" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S153" s="57"/>
+      <c r="T153" s="57"/>
+      <c r="U153" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V153" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
-        <v>860</v>
-      </c>
-      <c r="C154" s="16">
+        <v>858</v>
+      </c>
+      <c r="B154" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C154" s="77">
         <v>305</v>
       </c>
       <c r="D154" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="66" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="44"/>
+      <c r="K154" s="44"/>
+      <c r="L154" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M154" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N154" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O154" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P154" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q154" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R154" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S154" s="57"/>
+      <c r="T154" s="57"/>
+      <c r="U154" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V154" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>861</v>
-      </c>
-      <c r="C155" s="16">
+        <v>859</v>
+      </c>
+      <c r="B155" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C155" s="77">
         <v>306</v>
       </c>
       <c r="D155" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="66" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="44"/>
+      <c r="K155" s="44"/>
+      <c r="L155" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M155" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N155" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O155" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P155" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q155" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R155" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S155" s="57"/>
+      <c r="T155" s="57"/>
+      <c r="U155" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V155" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A156" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="C156" s="16">
+      <c r="B156" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C156" s="77">
         <v>365</v>
       </c>
       <c r="D156" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="66" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="44"/>
+      <c r="K156" s="44"/>
+      <c r="L156" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M156" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N156" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O156" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P156" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q156" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R156" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S156" s="57"/>
+      <c r="T156" s="57"/>
+      <c r="U156" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V156" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>763</v>
       </c>
-      <c r="C157" s="16">
+      <c r="B157" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C157" s="77">
         <v>366</v>
       </c>
       <c r="D157" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="66" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="44"/>
+      <c r="K157" s="44"/>
+      <c r="L157" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M157" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N157" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O157" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P157" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q157" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R157" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S157" s="57"/>
+      <c r="T157" s="57"/>
+      <c r="U157" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V157" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>862</v>
-      </c>
-      <c r="C158" s="16">
+        <v>860</v>
+      </c>
+      <c r="B158" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C158" s="77">
         <v>368</v>
       </c>
       <c r="D158" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E158" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E158" s="66" t="s">
+        <v>861</v>
+      </c>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="44"/>
+      <c r="K158" s="44"/>
+      <c r="L158" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M158" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N158" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O158" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P158" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q158" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R158" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S158" s="57"/>
+      <c r="T158" s="57"/>
+      <c r="U158" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V158" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>864</v>
-      </c>
-      <c r="C159" s="16">
+        <v>862</v>
+      </c>
+      <c r="B159" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C159" s="77">
         <v>370</v>
       </c>
       <c r="D159" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E159" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E159" s="66" t="s">
+        <v>863</v>
+      </c>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="44"/>
+      <c r="K159" s="44"/>
+      <c r="L159" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M159" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N159" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O159" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P159" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q159" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R159" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S159" s="57"/>
+      <c r="T159" s="57"/>
+      <c r="U159" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V159" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>391</v>
       </c>
-      <c r="C160" s="16">
+      <c r="B160" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C160" s="77">
         <v>500</v>
       </c>
       <c r="D160" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E160" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E160" s="66" t="s">
+        <v>864</v>
+      </c>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11"/>
+      <c r="J160" s="44"/>
+      <c r="K160" s="44"/>
+      <c r="L160" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M160" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N160" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O160" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P160" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q160" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R160" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S160" s="57"/>
+      <c r="T160" s="57"/>
+      <c r="U160" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V160" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>867</v>
-      </c>
-      <c r="C161" s="16">
+        <v>865</v>
+      </c>
+      <c r="B161" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C161" s="77">
         <v>83</v>
       </c>
       <c r="D161" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="66" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="44"/>
+      <c r="K161" s="44"/>
+      <c r="L161" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M161" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N161" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O161" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P161" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q161" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R161" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S161" s="57"/>
+      <c r="T161" s="57"/>
+      <c r="U161" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V161" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>868</v>
-      </c>
-      <c r="C162" s="16">
+        <v>866</v>
+      </c>
+      <c r="B162" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C162" s="77">
         <v>84</v>
       </c>
       <c r="D162" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="66" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11"/>
+      <c r="J162" s="44"/>
+      <c r="K162" s="44"/>
+      <c r="L162" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M162" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N162" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O162" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P162" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q162" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R162" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S162" s="57"/>
+      <c r="T162" s="57"/>
+      <c r="U162" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V162" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>869</v>
-      </c>
-      <c r="C163" s="16">
+        <v>867</v>
+      </c>
+      <c r="B163" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C163" s="77">
         <v>85</v>
       </c>
       <c r="D163" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="66" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11"/>
+      <c r="J163" s="44"/>
+      <c r="K163" s="44"/>
+      <c r="L163" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M163" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N163" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O163" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P163" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q163" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R163" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S163" s="57"/>
+      <c r="T163" s="57"/>
+      <c r="U163" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V163" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>870</v>
-      </c>
-      <c r="C164" s="16">
+        <v>868</v>
+      </c>
+      <c r="B164" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C164" s="77">
         <v>86</v>
       </c>
       <c r="D164" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="66" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="11"/>
+      <c r="J164" s="44"/>
+      <c r="K164" s="44"/>
+      <c r="L164" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M164" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N164" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O164" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P164" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q164" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R164" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S164" s="57"/>
+      <c r="T164" s="57"/>
+      <c r="U164" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V164" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>871</v>
-      </c>
-      <c r="C165" s="16">
+        <v>869</v>
+      </c>
+      <c r="B165" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C165" s="77">
         <v>87</v>
       </c>
       <c r="D165" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="66" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="11"/>
+      <c r="J165" s="44"/>
+      <c r="K165" s="44"/>
+      <c r="L165" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M165" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N165" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O165" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P165" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q165" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R165" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S165" s="57"/>
+      <c r="T165" s="57"/>
+      <c r="U165" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V165" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>872</v>
-      </c>
-      <c r="C166" s="16">
+        <v>870</v>
+      </c>
+      <c r="B166" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C166" s="77">
         <v>88</v>
       </c>
       <c r="D166" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="66" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="11"/>
+      <c r="J166" s="44"/>
+      <c r="K166" s="44"/>
+      <c r="L166" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M166" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N166" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O166" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P166" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q166" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R166" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S166" s="57"/>
+      <c r="T166" s="57"/>
+      <c r="U166" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V166" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A167" s="70" t="s">
-        <v>873</v>
-      </c>
-      <c r="C167" s="16">
+        <v>871</v>
+      </c>
+      <c r="B167" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C167" s="77">
         <v>89</v>
       </c>
       <c r="D167" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="66" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="11"/>
+      <c r="J167" s="44"/>
+      <c r="K167" s="44"/>
+      <c r="L167" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M167" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N167" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O167" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P167" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q167" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R167" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S167" s="57"/>
+      <c r="T167" s="57"/>
+      <c r="U167" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V167" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>874</v>
-      </c>
-      <c r="C168" s="16">
+        <v>872</v>
+      </c>
+      <c r="B168" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C168" s="77">
         <v>90</v>
       </c>
       <c r="D168" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="66" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="11"/>
+      <c r="J168" s="44"/>
+      <c r="K168" s="44"/>
+      <c r="L168" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M168" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N168" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O168" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P168" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q168" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R168" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S168" s="57"/>
+      <c r="T168" s="57"/>
+      <c r="U168" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V168" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>875</v>
-      </c>
-      <c r="C169" s="16">
+        <v>873</v>
+      </c>
+      <c r="B169" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C169" s="77">
         <v>92</v>
       </c>
       <c r="D169" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="66" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="11"/>
+      <c r="J169" s="44"/>
+      <c r="K169" s="44"/>
+      <c r="L169" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M169" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N169" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O169" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P169" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q169" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R169" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S169" s="57"/>
+      <c r="T169" s="57"/>
+      <c r="U169" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V169" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>876</v>
-      </c>
-      <c r="C170" s="16">
+        <v>874</v>
+      </c>
+      <c r="B170" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C170" s="77">
         <v>93</v>
       </c>
       <c r="D170" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="66" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="11"/>
+      <c r="J170" s="44"/>
+      <c r="K170" s="44"/>
+      <c r="L170" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M170" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N170" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O170" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P170" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q170" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R170" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S170" s="57"/>
+      <c r="T170" s="57"/>
+      <c r="U170" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V170" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>877</v>
-      </c>
-      <c r="C171" s="16">
+        <v>875</v>
+      </c>
+      <c r="B171" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C171" s="77">
         <v>95</v>
       </c>
       <c r="D171" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="66" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="11"/>
+      <c r="J171" s="44"/>
+      <c r="K171" s="44"/>
+      <c r="L171" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M171" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N171" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O171" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P171" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q171" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R171" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S171" s="57"/>
+      <c r="T171" s="57"/>
+      <c r="U171" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V171" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>878</v>
-      </c>
-      <c r="C172" s="16">
+        <v>876</v>
+      </c>
+      <c r="B172" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C172" s="77">
         <v>96</v>
       </c>
       <c r="D172" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="66" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="11"/>
+      <c r="I172" s="11"/>
+      <c r="J172" s="44"/>
+      <c r="K172" s="44"/>
+      <c r="L172" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M172" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N172" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O172" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P172" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q172" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R172" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S172" s="57"/>
+      <c r="T172" s="57"/>
+      <c r="U172" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V172" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>879</v>
-      </c>
-      <c r="C173" s="16">
+        <v>877</v>
+      </c>
+      <c r="B173" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C173" s="77">
         <v>97</v>
       </c>
       <c r="D173" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="66" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="44"/>
+      <c r="K173" s="44"/>
+      <c r="L173" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M173" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N173" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O173" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P173" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q173" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R173" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S173" s="57"/>
+      <c r="T173" s="57"/>
+      <c r="U173" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V173" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>880</v>
-      </c>
-      <c r="C174" s="16">
+        <v>878</v>
+      </c>
+      <c r="B174" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="C174" s="77">
         <v>99</v>
       </c>
       <c r="D174" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="66" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D175" s="66"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D176" s="66"/>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D177" s="66"/>
-    </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D178" s="66"/>
-    </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D179" s="66"/>
-    </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D180" s="66"/>
-    </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D181" s="66"/>
-    </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D182" s="66"/>
-    </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D183" s="66"/>
-    </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D184" s="66"/>
-    </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D185" s="66"/>
-    </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D186" s="66"/>
-    </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D187" s="66"/>
-    </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D188" s="66"/>
-    </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D189" s="66"/>
-    </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D190" s="66"/>
-    </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D191" s="66"/>
-    </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D192" s="66"/>
-    </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D193" s="66"/>
-    </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D194" s="66"/>
-    </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D195" s="66"/>
-    </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D196" s="66"/>
-    </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D197" s="66"/>
-    </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D198" s="66"/>
-    </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D199" s="66"/>
-    </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D200" s="66"/>
-    </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D201" s="66"/>
-    </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D202" s="66"/>
-    </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D203" s="66"/>
-    </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D204" s="66"/>
-    </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D205" s="66"/>
-    </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D206" s="66"/>
-    </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D207" s="66"/>
-    </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D208" s="66"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D209" s="66"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D210" s="66"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D211" s="66"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D212" s="66"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D213" s="66"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D214" s="66"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D215" s="66"/>
-    </row>
-    <row r="216" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D216" s="66"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D217" s="66"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D218" s="66"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D219" s="66"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="15"/>
-      <c r="B221" s="58" t="s">
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
+      <c r="J174" s="44"/>
+      <c r="K174" s="44"/>
+      <c r="L174" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M174" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N174" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O174" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P174" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q174" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R174" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S174" s="57"/>
+      <c r="T174" s="57"/>
+      <c r="U174" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="V174" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C175" s="78"/>
+      <c r="D175" s="76"/>
+      <c r="E175" s="74"/>
+      <c r="F175" s="74"/>
+      <c r="G175" s="74"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="15"/>
+      <c r="B177" s="58" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="69"/>
-      <c r="B222" s="58" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="69"/>
+      <c r="B178" s="58" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="70"/>
-      <c r="B223" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="70"/>
+      <c r="B179" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>760</v>
       </c>
     </row>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37C0583-B485-3649-82A4-DF9AAB4C47D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D129694-98C2-EA49-AA84-E210B0D1461A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="43620" windowHeight="27440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2320" yWindow="5400" windowWidth="43620" windowHeight="27440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimal refset" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4262" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4287" uniqueCount="880">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -2599,9 +2599,6 @@
     <t>dependo.191-Grammomys_surdaster</t>
   </si>
   <si>
-    <t>dependo.201-Hystrix</t>
-  </si>
-  <si>
     <t>dependo.301-Chlamydotis_macqueenii</t>
   </si>
   <si>
@@ -2681,6 +2678,9 @@
   </si>
   <si>
     <t>Rhinolophus-sinicus</t>
+  </si>
+  <si>
+    <t>dependo.192-Hystrix</t>
   </si>
 </sst>
 </file>
@@ -5326,8 +5326,8 @@
   <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S67" sqref="S67:T67"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7358,7 +7358,9 @@
         <v>145</v>
       </c>
       <c r="Q31" s="29"/>
-      <c r="R31" s="11"/>
+      <c r="R31" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S31" s="48" t="s">
         <v>347</v>
       </c>
@@ -7422,7 +7424,9 @@
         <v>145</v>
       </c>
       <c r="Q32" s="29"/>
-      <c r="R32" s="11"/>
+      <c r="R32" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S32" s="11" t="s">
         <v>285</v>
       </c>
@@ -7486,7 +7490,9 @@
         <v>145</v>
       </c>
       <c r="Q33" s="29"/>
-      <c r="R33" s="11"/>
+      <c r="R33" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S33" s="11" t="s">
         <v>367</v>
       </c>
@@ -7550,7 +7556,9 @@
         <v>145</v>
       </c>
       <c r="Q34" s="29"/>
-      <c r="R34" s="11"/>
+      <c r="R34" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S34" s="11" t="s">
         <v>290</v>
       </c>
@@ -7614,7 +7622,9 @@
         <v>145</v>
       </c>
       <c r="Q35" s="18"/>
-      <c r="R35" s="11"/>
+      <c r="R35" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S35" s="11" t="s">
         <v>335</v>
       </c>
@@ -7678,7 +7688,9 @@
         <v>145</v>
       </c>
       <c r="Q36" s="29"/>
-      <c r="R36" s="12"/>
+      <c r="R36" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S36" s="58" t="s">
         <v>334</v>
       </c>
@@ -7744,7 +7756,9 @@
       <c r="Q37" s="29">
         <v>34</v>
       </c>
-      <c r="R37" s="12"/>
+      <c r="R37" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S37" s="11" t="s">
         <v>106</v>
       </c>
@@ -7808,7 +7822,9 @@
         <v>145</v>
       </c>
       <c r="Q38" s="29"/>
-      <c r="R38" s="12"/>
+      <c r="R38" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S38" s="11" t="s">
         <v>350</v>
       </c>
@@ -7872,7 +7888,9 @@
         <v>145</v>
       </c>
       <c r="Q39" s="29"/>
-      <c r="R39" s="11"/>
+      <c r="R39" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S39" s="11" t="s">
         <v>224</v>
       </c>
@@ -7936,7 +7954,9 @@
         <v>145</v>
       </c>
       <c r="Q40" s="29"/>
-      <c r="R40" s="11"/>
+      <c r="R40" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S40" s="11" t="s">
         <v>364</v>
       </c>
@@ -8000,6 +8020,9 @@
         <v>145</v>
       </c>
       <c r="Q41" s="29"/>
+      <c r="R41" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S41" s="11" t="s">
         <v>379</v>
       </c>
@@ -8063,7 +8086,9 @@
         <v>145</v>
       </c>
       <c r="Q42" s="29"/>
-      <c r="R42" s="11"/>
+      <c r="R42" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S42" s="11" t="s">
         <v>353</v>
       </c>
@@ -8127,7 +8152,9 @@
         <v>145</v>
       </c>
       <c r="Q43" s="29"/>
-      <c r="R43" s="11"/>
+      <c r="R43" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S43" s="11" t="s">
         <v>358</v>
       </c>
@@ -8191,7 +8218,9 @@
         <v>145</v>
       </c>
       <c r="Q44" s="29"/>
-      <c r="R44" s="11"/>
+      <c r="R44" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S44" s="58" t="s">
         <v>385</v>
       </c>
@@ -8255,7 +8284,9 @@
         <v>145</v>
       </c>
       <c r="Q45" s="29"/>
-      <c r="R45" s="12"/>
+      <c r="R45" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S45" s="46" t="s">
         <v>265</v>
       </c>
@@ -8318,7 +8349,9 @@
       <c r="P46" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="R46" s="11"/>
+      <c r="R46" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S46" s="11" t="s">
         <v>358</v>
       </c>
@@ -8382,7 +8415,9 @@
         <v>145</v>
       </c>
       <c r="Q47" s="18"/>
-      <c r="R47" s="11"/>
+      <c r="R47" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S47" s="11" t="s">
         <v>222</v>
       </c>
@@ -8445,7 +8480,9 @@
       <c r="P48" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="R48" s="11"/>
+      <c r="R48" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S48" s="11" t="s">
         <v>221</v>
       </c>
@@ -8509,7 +8546,9 @@
         <v>145</v>
       </c>
       <c r="Q49" s="18"/>
-      <c r="R49" s="11"/>
+      <c r="R49" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S49" s="11" t="s">
         <v>103</v>
       </c>
@@ -8524,14 +8563,14 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A50" s="71" t="s">
-        <v>158</v>
+      <c r="A50" s="48" t="s">
+        <v>429</v>
       </c>
       <c r="B50" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C50" s="77">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" s="64" t="s">
         <v>57</v>
@@ -8557,28 +8596,29 @@
       <c r="K50" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="L50" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="M50" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="N50" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="O50" s="35" t="s">
-        <v>208</v>
+      <c r="L50" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="M50" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="N50" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O50" s="36" t="s">
+        <v>145</v>
       </c>
       <c r="P50" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="T50" s="11" t="s">
-        <v>329</v>
+      <c r="R50" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S50" s="58" t="s">
+        <v>429</v>
+      </c>
+      <c r="T50" s="58" t="s">
+        <v>429</v>
       </c>
       <c r="U50" s="58" t="s">
         <v>2</v>
@@ -8589,13 +8629,13 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B51" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C51" s="77">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51" s="64" t="s">
         <v>57</v>
@@ -8628,19 +8668,23 @@
         <v>283</v>
       </c>
       <c r="N51" s="35" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="O51" s="35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P51" s="29" t="s">
         <v>145</v>
       </c>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S51" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U51" s="58" t="s">
         <v>2</v>
@@ -8650,14 +8694,14 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A52" s="48" t="s">
-        <v>429</v>
+      <c r="A52" s="71" t="s">
+        <v>159</v>
       </c>
       <c r="B52" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C52" s="77">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D52" s="64" t="s">
         <v>57</v>
@@ -8683,26 +8727,29 @@
       <c r="K52" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="L52" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="M52" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="N52" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="O52" s="36" t="s">
-        <v>145</v>
+      <c r="L52" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M52" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="N52" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="O52" s="35" t="s">
+        <v>206</v>
       </c>
       <c r="P52" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="S52" s="58" t="s">
-        <v>429</v>
-      </c>
-      <c r="T52" s="58" t="s">
-        <v>429</v>
+      <c r="R52" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>330</v>
       </c>
       <c r="U52" s="58" t="s">
         <v>2</v>
@@ -8761,6 +8808,9 @@
         <v>145</v>
       </c>
       <c r="Q53" s="11"/>
+      <c r="R53" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S53" s="58" t="s">
         <v>412</v>
       </c>
@@ -8824,6 +8874,9 @@
         <v>145</v>
       </c>
       <c r="Q54" s="11"/>
+      <c r="R54" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S54" s="58" t="s">
         <v>411</v>
       </c>
@@ -8887,6 +8940,9 @@
         <v>145</v>
       </c>
       <c r="Q55" s="11"/>
+      <c r="R55" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="S55" s="58" t="s">
         <v>413</v>
       </c>
@@ -8901,20 +8957,20 @@
       </c>
     </row>
     <row r="56" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="58" t="s">
-        <v>762</v>
+      <c r="A56" s="69" t="s">
+        <v>751</v>
       </c>
       <c r="B56" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C56" s="77">
-        <v>365</v>
-      </c>
-      <c r="D56" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="E56" s="64" t="s">
-        <v>256</v>
+        <v>83</v>
+      </c>
+      <c r="D56" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="66" t="s">
+        <v>145</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>145</v>
@@ -8934,28 +8990,32 @@
       <c r="K56" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="L56" s="31" t="s">
+      <c r="L56" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M56" s="34" t="s">
+      <c r="M56" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="N56" s="35" t="s">
-        <v>404</v>
-      </c>
-      <c r="O56" s="35" t="s">
-        <v>403</v>
-      </c>
-      <c r="P56" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="33" t="s">
-        <v>394</v>
-      </c>
-      <c r="T56" s="33" t="s">
-        <v>395</v>
+      <c r="N56" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O56" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P56" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q56" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R56" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S56" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="T56" s="57" t="s">
+        <v>145</v>
       </c>
       <c r="U56" s="58" t="s">
         <v>2</v>
@@ -8965,62 +9025,50 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A57" s="58" t="s">
-        <v>763</v>
+      <c r="A57" t="s">
+        <v>864</v>
       </c>
       <c r="B57" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C57" s="77">
-        <v>366</v>
-      </c>
-      <c r="D57" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="E57" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J57" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="K57" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="L57" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M57" s="34" t="s">
+      <c r="M57" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="N57" s="35" t="s">
-        <v>406</v>
-      </c>
-      <c r="O57" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="P57" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="T57" s="61" t="s">
-        <v>396</v>
-      </c>
+      <c r="N57" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O57" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P57" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q57" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R57" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S57" s="57"/>
+      <c r="T57" s="57"/>
       <c r="U57" s="58" t="s">
         <v>2</v>
       </c>
@@ -9029,43 +9077,31 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A58" s="71" t="s">
-        <v>407</v>
+      <c r="A58" t="s">
+        <v>865</v>
       </c>
       <c r="B58" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C58" s="77">
-        <v>170</v>
-      </c>
-      <c r="D58" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E58" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="F58" s="43" t="s">
-        <v>360</v>
-      </c>
-      <c r="G58" s="59" t="s">
-        <v>381</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J58" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="K58" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="L58" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M58" s="34" t="s">
+      <c r="M58" s="30" t="s">
         <v>283</v>
       </c>
       <c r="N58" s="36" t="s">
@@ -9077,13 +9113,14 @@
       <c r="P58" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q58" s="11"/>
-      <c r="S58" s="58" t="s">
-        <v>407</v>
-      </c>
-      <c r="T58" s="58" t="s">
-        <v>420</v>
-      </c>
+      <c r="Q58" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R58" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S58" s="57"/>
+      <c r="T58" s="57"/>
       <c r="U58" s="58" t="s">
         <v>2</v>
       </c>
@@ -9092,43 +9129,31 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A59" s="71" t="s">
-        <v>401</v>
+      <c r="A59" t="s">
+        <v>866</v>
       </c>
       <c r="B59" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C59" s="77">
-        <v>201.1</v>
-      </c>
-      <c r="D59" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E59" s="66" t="s">
-        <v>398</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="I59" s="56" t="s">
-        <v>370</v>
-      </c>
-      <c r="J59" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="K59" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="L59" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M59" s="34" t="s">
+      <c r="M59" s="30" t="s">
         <v>283</v>
       </c>
       <c r="N59" s="36" t="s">
@@ -9140,13 +9165,14 @@
       <c r="P59" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q59" s="11"/>
-      <c r="S59" s="58" t="s">
-        <v>401</v>
-      </c>
-      <c r="T59" s="58" t="s">
-        <v>401</v>
-      </c>
+      <c r="Q59" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R59" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S59" s="57"/>
+      <c r="T59" s="57"/>
       <c r="U59" s="58" t="s">
         <v>2</v>
       </c>
@@ -9155,43 +9181,31 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A60" s="71" t="s">
-        <v>402</v>
+      <c r="A60" t="s">
+        <v>867</v>
       </c>
       <c r="B60" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C60" s="77">
-        <v>201.2</v>
-      </c>
-      <c r="D60" s="64" t="s">
-        <v>58</v>
+        <v>86</v>
+      </c>
+      <c r="D60" s="66" t="s">
+        <v>75</v>
       </c>
       <c r="E60" s="66" t="s">
-        <v>398</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="I60" s="56" t="s">
-        <v>370</v>
-      </c>
-      <c r="J60" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="K60" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="L60" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M60" s="34" t="s">
+      <c r="M60" s="30" t="s">
         <v>283</v>
       </c>
       <c r="N60" s="36" t="s">
@@ -9203,13 +9217,14 @@
       <c r="P60" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q60" s="11"/>
-      <c r="S60" s="58" t="s">
-        <v>402</v>
-      </c>
-      <c r="T60" s="58" t="s">
-        <v>421</v>
-      </c>
+      <c r="Q60" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R60" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S60" s="57"/>
+      <c r="T60" s="57"/>
       <c r="U60" s="58" t="s">
         <v>2</v>
       </c>
@@ -9218,43 +9233,31 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A61" s="71" t="s">
-        <v>400</v>
+      <c r="A61" t="s">
+        <v>868</v>
       </c>
       <c r="B61" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C61" s="77">
-        <v>202</v>
-      </c>
-      <c r="D61" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E61" s="66" t="s">
-        <v>399</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J61" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="K61" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="L61" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M61" s="34" t="s">
+      <c r="M61" s="30" t="s">
         <v>283</v>
       </c>
       <c r="N61" s="36" t="s">
@@ -9266,13 +9269,14 @@
       <c r="P61" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q61" s="11"/>
-      <c r="S61" s="58" t="s">
-        <v>400</v>
-      </c>
-      <c r="T61" s="58" t="s">
-        <v>422</v>
-      </c>
+      <c r="Q61" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R61" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S61" s="57"/>
+      <c r="T61" s="57"/>
       <c r="U61" s="58" t="s">
         <v>2</v>
       </c>
@@ -9281,43 +9285,31 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A62" s="71" t="s">
-        <v>409</v>
+      <c r="A62" t="s">
+        <v>869</v>
       </c>
       <c r="B62" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C62" s="77">
-        <v>220</v>
-      </c>
-      <c r="D62" s="64" t="s">
-        <v>58</v>
+        <v>88</v>
+      </c>
+      <c r="D62" s="66" t="s">
+        <v>74</v>
       </c>
       <c r="E62" s="66" t="s">
-        <v>410</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="I62" s="56" t="s">
-        <v>370</v>
-      </c>
-      <c r="J62" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="K62" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="L62" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M62" s="34" t="s">
+      <c r="M62" s="30" t="s">
         <v>283</v>
       </c>
       <c r="N62" s="36" t="s">
@@ -9329,13 +9321,14 @@
       <c r="P62" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q62" s="11"/>
-      <c r="S62" s="58" t="s">
-        <v>409</v>
-      </c>
-      <c r="T62" s="58" t="s">
-        <v>423</v>
-      </c>
+      <c r="Q62" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R62" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S62" s="57"/>
+      <c r="T62" s="57"/>
       <c r="U62" s="58" t="s">
         <v>2</v>
       </c>
@@ -9344,43 +9337,31 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A63" s="71" t="s">
-        <v>408</v>
+      <c r="A63" s="70" t="s">
+        <v>870</v>
       </c>
       <c r="B63" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C63" s="77">
-        <v>221</v>
-      </c>
-      <c r="D63" s="64" t="s">
-        <v>58</v>
+        <v>89</v>
+      </c>
+      <c r="D63" s="66" t="s">
+        <v>57</v>
       </c>
       <c r="E63" s="66" t="s">
-        <v>410</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="I63" s="56" t="s">
-        <v>370</v>
-      </c>
-      <c r="J63" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="K63" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="L63" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M63" s="34" t="s">
+      <c r="M63" s="30" t="s">
         <v>283</v>
       </c>
       <c r="N63" s="36" t="s">
@@ -9392,13 +9373,14 @@
       <c r="P63" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q63" s="11"/>
-      <c r="S63" s="58" t="s">
-        <v>408</v>
-      </c>
-      <c r="T63" s="58" t="s">
-        <v>424</v>
-      </c>
+      <c r="Q63" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R63" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S63" s="57"/>
+      <c r="T63" s="57"/>
       <c r="U63" s="58" t="s">
         <v>2</v>
       </c>
@@ -9407,43 +9389,31 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A64" s="71" t="s">
-        <v>371</v>
+      <c r="A64" t="s">
+        <v>871</v>
       </c>
       <c r="B64" s="58" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="C64" s="77">
-        <v>500</v>
-      </c>
-      <c r="D64" s="64" t="s">
-        <v>74</v>
+        <v>90</v>
+      </c>
+      <c r="D64" s="66" t="s">
+        <v>57</v>
       </c>
       <c r="E64" s="66" t="s">
-        <v>376</v>
-      </c>
-      <c r="F64" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="G64" s="43" t="s">
-        <v>376</v>
-      </c>
-      <c r="H64" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="I64" s="43" t="s">
-        <v>376</v>
-      </c>
-      <c r="J64" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="K64" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="L64" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M64" s="34" t="s">
+      <c r="M64" s="30" t="s">
         <v>283</v>
       </c>
       <c r="N64" s="36" t="s">
@@ -9455,14 +9425,14 @@
       <c r="P64" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" t="s">
-        <v>373</v>
-      </c>
-      <c r="T64" t="s">
-        <v>374</v>
-      </c>
+      <c r="Q64" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R64" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S64" s="57"/>
+      <c r="T64" s="57"/>
       <c r="U64" s="58" t="s">
         <v>2</v>
       </c>
@@ -9471,43 +9441,31 @@
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A65" s="71" t="s">
-        <v>372</v>
+      <c r="A65" t="s">
+        <v>872</v>
       </c>
       <c r="B65" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C65" s="77">
-        <v>500</v>
-      </c>
-      <c r="D65" s="64" t="s">
-        <v>74</v>
+        <v>92</v>
+      </c>
+      <c r="D65" s="66" t="s">
+        <v>58</v>
       </c>
       <c r="E65" s="66" t="s">
-        <v>376</v>
-      </c>
-      <c r="F65" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="G65" s="43" t="s">
-        <v>376</v>
-      </c>
-      <c r="H65" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="I65" s="43" t="s">
-        <v>376</v>
-      </c>
-      <c r="J65" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="K65" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="L65" s="31" t="s">
+        <v>747</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M65" s="34" t="s">
+      <c r="M65" s="30" t="s">
         <v>283</v>
       </c>
       <c r="N65" s="36" t="s">
@@ -9519,14 +9477,14 @@
       <c r="P65" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" t="s">
-        <v>372</v>
-      </c>
-      <c r="T65" t="s">
-        <v>375</v>
-      </c>
+      <c r="Q65" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R65" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S65" s="57"/>
+      <c r="T65" s="57"/>
       <c r="U65" s="58" t="s">
         <v>2</v>
       </c>
@@ -9535,43 +9493,31 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A66" s="71" t="s">
-        <v>391</v>
+      <c r="A66" t="s">
+        <v>873</v>
       </c>
       <c r="B66" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C66" s="77">
-        <v>500</v>
-      </c>
-      <c r="D66" s="58" t="s">
-        <v>74</v>
+        <v>93</v>
+      </c>
+      <c r="D66" s="66" t="s">
+        <v>58</v>
       </c>
       <c r="E66" s="66" t="s">
-        <v>376</v>
-      </c>
-      <c r="F66" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="G66" s="43" t="s">
-        <v>376</v>
-      </c>
-      <c r="H66" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="I66" s="43" t="s">
-        <v>376</v>
-      </c>
-      <c r="J66" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="K66" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="L66" s="31" t="s">
+        <v>747</v>
+      </c>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M66" s="34" t="s">
+      <c r="M66" s="30" t="s">
         <v>283</v>
       </c>
       <c r="N66" s="36" t="s">
@@ -9583,14 +9529,14 @@
       <c r="P66" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q66" s="62"/>
-      <c r="R66" s="63"/>
-      <c r="S66" s="63" t="s">
-        <v>391</v>
-      </c>
-      <c r="T66" s="63" t="s">
-        <v>392</v>
-      </c>
+      <c r="Q66" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="R66" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="S66" s="57"/>
+      <c r="T66" s="57"/>
       <c r="U66" s="58" t="s">
         <v>2</v>
       </c>
@@ -9599,39 +9545,27 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A67" s="69" t="s">
-        <v>751</v>
+      <c r="A67" t="s">
+        <v>874</v>
       </c>
       <c r="B67" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C67" s="77">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D67" s="66" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="E67" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J67" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="K67" s="44" t="s">
-        <v>94</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
       <c r="L67" s="11" t="s">
         <v>244</v>
       </c>
@@ -9653,12 +9587,8 @@
       <c r="R67" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="S67" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="T67" s="57" t="s">
-        <v>145</v>
-      </c>
+      <c r="S67" s="57"/>
+      <c r="T67" s="57"/>
       <c r="U67" s="58" t="s">
         <v>2</v>
       </c>
@@ -9668,19 +9598,19 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>764</v>
+        <v>875</v>
       </c>
       <c r="B68" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C68" s="77">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D68" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E68" s="66" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
@@ -9720,19 +9650,19 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>765</v>
+        <v>876</v>
       </c>
       <c r="B69" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C69" s="77">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D69" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E69" s="66" t="s">
-        <v>254</v>
+        <v>686</v>
       </c>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
@@ -9772,19 +9702,19 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>766</v>
+        <v>877</v>
       </c>
       <c r="B70" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C70" s="77">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D70" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E70" s="66" t="s">
-        <v>742</v>
+        <v>674</v>
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
@@ -9824,19 +9754,19 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B71" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C71" s="77">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D71" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E71" s="66" t="s">
-        <v>716</v>
+        <v>674</v>
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
@@ -9876,19 +9806,19 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B72" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C72" s="77">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D72" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E72" s="66" t="s">
-        <v>716</v>
+        <v>254</v>
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
@@ -9928,19 +9858,19 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B73" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C73" s="77">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D73" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E73" s="66" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
@@ -9980,13 +9910,13 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B74" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C74" s="77">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D74" s="66" t="s">
         <v>58</v>
@@ -10032,19 +9962,19 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B75" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C75" s="77">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D75" s="66" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E75" s="66" t="s">
-        <v>647</v>
+        <v>716</v>
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
@@ -10083,20 +10013,20 @@
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A76" s="70" t="s">
-        <v>772</v>
+      <c r="A76" t="s">
+        <v>769</v>
       </c>
       <c r="B76" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C76" s="77">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D76" s="66" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E76" s="66" t="s">
-        <v>268</v>
+        <v>716</v>
       </c>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
@@ -10135,20 +10065,20 @@
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A77" s="70" t="s">
-        <v>773</v>
+      <c r="A77" t="s">
+        <v>770</v>
       </c>
       <c r="B77" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C77" s="77">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D77" s="66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E77" s="66" t="s">
-        <v>70</v>
+        <v>716</v>
       </c>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
@@ -10187,20 +10117,20 @@
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A78" s="72" t="s">
-        <v>774</v>
+      <c r="A78" t="s">
+        <v>771</v>
       </c>
       <c r="B78" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C78" s="77">
-        <v>111.1</v>
-      </c>
-      <c r="D78" s="64" t="s">
-        <v>58</v>
+        <v>109</v>
+      </c>
+      <c r="D78" s="66" t="s">
+        <v>74</v>
       </c>
       <c r="E78" s="66" t="s">
-        <v>398</v>
+        <v>647</v>
       </c>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
@@ -10240,19 +10170,19 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="70" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B79" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C79" s="77">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D79" s="66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E79" s="66" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
@@ -10291,17 +10221,21 @@
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A80" s="15" t="s">
-        <v>776</v>
+      <c r="A80" s="70" t="s">
+        <v>773</v>
       </c>
       <c r="B80" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C80" s="77">
-        <v>113</v>
-      </c>
-      <c r="D80" s="66"/>
-      <c r="E80" s="66"/>
+        <v>111</v>
+      </c>
+      <c r="D80" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E80" s="66" t="s">
+        <v>70</v>
+      </c>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -10339,20 +10273,20 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="70" t="s">
-        <v>777</v>
+      <c r="A81" s="72" t="s">
+        <v>774</v>
       </c>
       <c r="B81" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C81" s="77">
-        <v>116</v>
-      </c>
-      <c r="D81" s="66" t="s">
-        <v>75</v>
+        <v>111.1</v>
+      </c>
+      <c r="D81" s="64" t="s">
+        <v>58</v>
       </c>
       <c r="E81" s="66" t="s">
-        <v>273</v>
+        <v>398</v>
       </c>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
@@ -10391,20 +10325,20 @@
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>778</v>
+      <c r="A82" s="70" t="s">
+        <v>775</v>
       </c>
       <c r="B82" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C82" s="77">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D82" s="66" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E82" s="66" t="s">
-        <v>414</v>
+        <v>253</v>
       </c>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
@@ -10443,21 +10377,17 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="70" t="s">
-        <v>779</v>
+      <c r="A83" s="15" t="s">
+        <v>776</v>
       </c>
       <c r="B83" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C83" s="77">
-        <v>119</v>
-      </c>
-      <c r="D83" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="E83" s="66" t="s">
-        <v>70</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
@@ -10496,19 +10426,19 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="70" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B84" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C84" s="77">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D84" s="66" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E84" s="66" t="s">
-        <v>414</v>
+        <v>273</v>
       </c>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
@@ -10547,20 +10477,20 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A85" s="74" t="s">
-        <v>781</v>
+      <c r="A85" t="s">
+        <v>778</v>
       </c>
       <c r="B85" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C85" s="77">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D85" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E85" s="66" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
@@ -10600,19 +10530,19 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="70" t="s">
-        <v>408</v>
+        <v>779</v>
       </c>
       <c r="B86" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C86" s="77">
-        <v>221</v>
+        <v>119</v>
       </c>
       <c r="D86" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E86" s="66" t="s">
-        <v>410</v>
+        <v>70</v>
       </c>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
@@ -10651,20 +10581,20 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="15" t="s">
-        <v>782</v>
+      <c r="A87" s="70" t="s">
+        <v>780</v>
       </c>
       <c r="B87" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C87" s="77">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D87" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E87" s="66" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
@@ -10704,19 +10634,19 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="74" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B88" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C88" s="77">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D88" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E88" s="66" t="s">
-        <v>645</v>
+        <v>427</v>
       </c>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
@@ -10755,20 +10685,20 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A89" s="70" t="s">
-        <v>784</v>
+      <c r="A89" s="15" t="s">
+        <v>782</v>
       </c>
       <c r="B89" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C89" s="77">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D89" s="66" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E89" s="66" t="s">
-        <v>785</v>
+        <v>427</v>
       </c>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
@@ -10808,19 +10738,19 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="74" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B90" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C90" s="77">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D90" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E90" s="66" t="s">
-        <v>710</v>
+        <v>645</v>
       </c>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
@@ -10859,20 +10789,20 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A91" s="73" t="s">
-        <v>787</v>
+      <c r="A91" s="70" t="s">
+        <v>784</v>
       </c>
       <c r="B91" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C91" s="77">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D91" s="66" t="s">
-        <v>274</v>
+        <v>75</v>
       </c>
       <c r="E91" s="66" t="s">
-        <v>241</v>
+        <v>785</v>
       </c>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
@@ -10911,20 +10841,20 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A92" s="70" t="s">
-        <v>788</v>
+      <c r="A92" s="74" t="s">
+        <v>786</v>
       </c>
       <c r="B92" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C92" s="77">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D92" s="66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E92" s="66" t="s">
-        <v>70</v>
+        <v>710</v>
       </c>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
@@ -10963,20 +10893,20 @@
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A93" s="70" t="s">
-        <v>789</v>
+      <c r="A93" s="73" t="s">
+        <v>787</v>
       </c>
       <c r="B93" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C93" s="77">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D93" s="66" t="s">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="E93" s="66" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
@@ -11016,13 +10946,13 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="70" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B94" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C94" s="77">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D94" s="66" t="s">
         <v>57</v>
@@ -11067,20 +10997,20 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A95" s="74" t="s">
-        <v>791</v>
+      <c r="A95" s="70" t="s">
+        <v>789</v>
       </c>
       <c r="B95" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C95" s="77">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D95" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E95" s="66" t="s">
-        <v>680</v>
+        <v>70</v>
       </c>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
@@ -11119,14 +11049,14 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A96" s="74" t="s">
-        <v>792</v>
+      <c r="A96" s="70" t="s">
+        <v>790</v>
       </c>
       <c r="B96" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C96" s="77">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D96" s="66" t="s">
         <v>57</v>
@@ -11172,13 +11102,13 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="74" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B97" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C97" s="77">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D97" s="66" t="s">
         <v>58</v>
@@ -11224,19 +11154,19 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="74" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B98" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C98" s="77">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D98" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E98" s="66" t="s">
-        <v>795</v>
+        <v>70</v>
       </c>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
@@ -11275,17 +11205,21 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A99" s="70" t="s">
-        <v>796</v>
+      <c r="A99" s="74" t="s">
+        <v>793</v>
       </c>
       <c r="B99" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C99" s="77">
-        <v>136</v>
-      </c>
-      <c r="D99" s="66"/>
-      <c r="E99" s="66"/>
+        <v>133</v>
+      </c>
+      <c r="D99" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="E99" s="66" t="s">
+        <v>680</v>
+      </c>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -11324,19 +11258,19 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="74" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B100" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C100" s="77">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D100" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E100" s="66" t="s">
-        <v>688</v>
+        <v>795</v>
       </c>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
@@ -11375,21 +11309,17 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A101" s="74" t="s">
-        <v>798</v>
+      <c r="A101" s="70" t="s">
+        <v>796</v>
       </c>
       <c r="B101" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C101" s="77">
-        <v>138</v>
-      </c>
-      <c r="D101" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="E101" s="66" t="s">
-        <v>688</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D101" s="66"/>
+      <c r="E101" s="66"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
@@ -11428,13 +11358,13 @@
     </row>
     <row r="102" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="74" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B102" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C102" s="77">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D102" s="66" t="s">
         <v>58</v>
@@ -11480,13 +11410,13 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="74" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B103" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C103" s="77">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D103" s="66" t="s">
         <v>58</v>
@@ -11531,14 +11461,14 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A104" s="15" t="s">
-        <v>801</v>
+      <c r="A104" s="74" t="s">
+        <v>799</v>
       </c>
       <c r="B104" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C104" s="77">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D104" s="66" t="s">
         <v>58</v>
@@ -11583,14 +11513,14 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A105" s="15" t="s">
-        <v>802</v>
+      <c r="A105" s="74" t="s">
+        <v>800</v>
       </c>
       <c r="B105" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C105" s="77">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D105" s="66" t="s">
         <v>58</v>
@@ -11635,14 +11565,14 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A106" s="74" t="s">
-        <v>803</v>
+      <c r="A106" s="15" t="s">
+        <v>801</v>
       </c>
       <c r="B106" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C106" s="77">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D106" s="66" t="s">
         <v>58</v>
@@ -11687,14 +11617,14 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A107" s="74" t="s">
-        <v>804</v>
+      <c r="A107" s="15" t="s">
+        <v>802</v>
       </c>
       <c r="B107" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C107" s="77">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D107" s="66" t="s">
         <v>58</v>
@@ -11740,13 +11670,13 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="74" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B108" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C108" s="77">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D108" s="66" t="s">
         <v>58</v>
@@ -11792,13 +11722,13 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="74" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B109" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C109" s="77">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D109" s="66" t="s">
         <v>58</v>
@@ -11844,13 +11774,13 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="74" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B110" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C110" s="77">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D110" s="66" t="s">
         <v>58</v>
@@ -11896,19 +11826,19 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="74" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B111" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C111" s="77">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D111" s="66" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E111" s="66" t="s">
-        <v>287</v>
+        <v>688</v>
       </c>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
@@ -11948,19 +11878,19 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="74" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B112" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C112" s="77">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D112" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E112" s="66" t="s">
-        <v>723</v>
+        <v>688</v>
       </c>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
@@ -11999,20 +11929,20 @@
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>810</v>
+      <c r="A113" s="74" t="s">
+        <v>808</v>
       </c>
       <c r="B113" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C113" s="77">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D113" s="66" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E113" s="66" t="s">
-        <v>712</v>
+        <v>287</v>
       </c>
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
@@ -12051,20 +11981,20 @@
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>811</v>
+      <c r="A114" s="74" t="s">
+        <v>809</v>
       </c>
       <c r="B114" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C114" s="77">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D114" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E114" s="66" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
@@ -12104,19 +12034,19 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B115" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C115" s="77">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D115" s="66" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E115" s="66" t="s">
-        <v>813</v>
+        <v>712</v>
       </c>
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
@@ -12156,19 +12086,19 @@
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B116" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C116" s="77">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D116" s="66" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E116" s="66" t="s">
-        <v>287</v>
+        <v>706</v>
       </c>
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
@@ -12208,19 +12138,19 @@
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B117" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C117" s="77">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D117" s="66" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E117" s="66" t="s">
-        <v>739</v>
+        <v>813</v>
       </c>
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
@@ -12260,19 +12190,19 @@
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B118" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C118" s="77">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D118" s="66" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E118" s="66" t="s">
-        <v>660</v>
+        <v>287</v>
       </c>
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
@@ -12312,19 +12242,19 @@
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B119" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C119" s="77">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D119" s="66" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E119" s="66" t="s">
-        <v>818</v>
+        <v>739</v>
       </c>
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
@@ -12364,19 +12294,19 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B120" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C120" s="77">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D120" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E120" s="66" t="s">
-        <v>415</v>
+        <v>660</v>
       </c>
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
@@ -12416,19 +12346,19 @@
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B121" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C121" s="77">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D121" s="66" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E121" s="66" t="s">
-        <v>415</v>
+        <v>818</v>
       </c>
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
@@ -12468,19 +12398,19 @@
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B122" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C122" s="77">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D122" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E122" s="66" t="s">
-        <v>822</v>
+        <v>415</v>
       </c>
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
@@ -12520,13 +12450,13 @@
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B123" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C123" s="77">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D123" s="66" t="s">
         <v>58</v>
@@ -12572,19 +12502,19 @@
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B124" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C124" s="77">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D124" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E124" s="66" t="s">
-        <v>415</v>
+        <v>822</v>
       </c>
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
@@ -12624,19 +12554,19 @@
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B125" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C125" s="77">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D125" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E125" s="66" t="s">
-        <v>720</v>
+        <v>415</v>
       </c>
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
@@ -12675,20 +12605,20 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A126" s="70" t="s">
-        <v>826</v>
+      <c r="A126" t="s">
+        <v>824</v>
       </c>
       <c r="B126" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C126" s="77">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D126" s="66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E126" s="66" t="s">
-        <v>70</v>
+        <v>415</v>
       </c>
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
@@ -12727,20 +12657,20 @@
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A127" s="15" t="s">
-        <v>827</v>
+      <c r="A127" t="s">
+        <v>825</v>
       </c>
       <c r="B127" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C127" s="77">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D127" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E127" s="66" t="s">
-        <v>828</v>
+        <v>720</v>
       </c>
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
@@ -12779,20 +12709,20 @@
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>829</v>
+      <c r="A128" s="70" t="s">
+        <v>826</v>
       </c>
       <c r="B128" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C128" s="77">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D128" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E128" s="66" t="s">
-        <v>651</v>
+        <v>813</v>
       </c>
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
@@ -12832,19 +12762,19 @@
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B129" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C129" s="77">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D129" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E129" s="66" t="s">
-        <v>734</v>
+        <v>828</v>
       </c>
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
@@ -12883,20 +12813,20 @@
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A130" s="75" t="s">
-        <v>831</v>
+      <c r="A130" t="s">
+        <v>829</v>
       </c>
       <c r="B130" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C130" s="77">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D130" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E130" s="66" t="s">
-        <v>737</v>
+        <v>651</v>
       </c>
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
@@ -12935,20 +12865,20 @@
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>832</v>
+      <c r="A131" s="15" t="s">
+        <v>830</v>
       </c>
       <c r="B131" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C131" s="77">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D131" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E131" s="66" t="s">
-        <v>653</v>
+        <v>734</v>
       </c>
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
@@ -12987,20 +12917,20 @@
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>833</v>
+      <c r="A132" s="75" t="s">
+        <v>831</v>
       </c>
       <c r="B132" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C132" s="77">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D132" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E132" s="66" t="s">
-        <v>638</v>
+        <v>737</v>
       </c>
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
@@ -13039,31 +12969,43 @@
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>834</v>
+      <c r="A133" s="71" t="s">
+        <v>407</v>
       </c>
       <c r="B133" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C133" s="77">
-        <v>175</v>
-      </c>
-      <c r="D133" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="D133" s="64" t="s">
         <v>58</v>
       </c>
       <c r="E133" s="66" t="s">
-        <v>703</v>
-      </c>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="11"/>
-      <c r="J133" s="44"/>
-      <c r="K133" s="44"/>
-      <c r="L133" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F133" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="G133" s="59" t="s">
+        <v>381</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I133" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J133" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K133" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L133" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="M133" s="30" t="s">
+      <c r="M133" s="34" t="s">
         <v>283</v>
       </c>
       <c r="N133" s="36" t="s">
@@ -13075,14 +13017,13 @@
       <c r="P133" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q133" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="R133" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="S133" s="57"/>
-      <c r="T133" s="57"/>
+      <c r="Q133" s="11"/>
+      <c r="S133" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="T133" s="58" t="s">
+        <v>420</v>
+      </c>
       <c r="U133" s="58" t="s">
         <v>2</v>
       </c>
@@ -13092,19 +13033,19 @@
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B134" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C134" s="77">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D134" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E134" s="66" t="s">
-        <v>292</v>
+        <v>653</v>
       </c>
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
@@ -13144,19 +13085,19 @@
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B135" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C135" s="77">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D135" s="66" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E135" s="66" t="s">
-        <v>837</v>
+        <v>638</v>
       </c>
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
@@ -13196,19 +13137,19 @@
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B136" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C136" s="77">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D136" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E136" s="66" t="s">
-        <v>649</v>
+        <v>703</v>
       </c>
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
@@ -13248,19 +13189,19 @@
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B137" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C137" s="77">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D137" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E137" s="66" t="s">
-        <v>879</v>
+        <v>292</v>
       </c>
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
@@ -13300,19 +13241,19 @@
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B138" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C138" s="77">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D138" s="66" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E138" s="66" t="s">
-        <v>708</v>
+        <v>837</v>
       </c>
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
@@ -13351,20 +13292,20 @@
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A139" s="15" t="s">
-        <v>841</v>
+      <c r="A139" t="s">
+        <v>838</v>
       </c>
       <c r="B139" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C139" s="77">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D139" s="66" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E139" s="66" t="s">
-        <v>699</v>
+        <v>649</v>
       </c>
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
@@ -13403,20 +13344,20 @@
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A140" s="70" t="s">
-        <v>842</v>
+      <c r="A140" t="s">
+        <v>839</v>
       </c>
       <c r="B140" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C140" s="77">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D140" s="66" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E140" s="66" t="s">
-        <v>843</v>
+        <v>878</v>
       </c>
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
@@ -13455,20 +13396,20 @@
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A141" s="70" t="s">
-        <v>844</v>
+      <c r="A141" t="s">
+        <v>840</v>
       </c>
       <c r="B141" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C141" s="77">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D141" s="66" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E141" s="66" t="s">
-        <v>287</v>
+        <v>708</v>
       </c>
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
@@ -13507,20 +13448,20 @@
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>845</v>
+      <c r="A142" s="15" t="s">
+        <v>841</v>
       </c>
       <c r="B142" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C142" s="77">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D142" s="66" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E142" s="66" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
@@ -13559,20 +13500,20 @@
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A143" s="15" t="s">
-        <v>846</v>
+      <c r="A143" s="70" t="s">
+        <v>842</v>
       </c>
       <c r="B143" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C143" s="77">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D143" s="66" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E143" s="66" t="s">
-        <v>745</v>
+        <v>843</v>
       </c>
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
@@ -13611,20 +13552,20 @@
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A144" s="15" t="s">
-        <v>847</v>
+      <c r="A144" s="70" t="s">
+        <v>844</v>
       </c>
       <c r="B144" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C144" s="77">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D144" s="66" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E144" s="66" t="s">
-        <v>676</v>
+        <v>287</v>
       </c>
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
@@ -13663,20 +13604,20 @@
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A145" s="70" t="s">
-        <v>848</v>
+      <c r="A145" t="s">
+        <v>845</v>
       </c>
       <c r="B145" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C145" s="77">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D145" s="66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E145" s="66" t="s">
-        <v>63</v>
+        <v>714</v>
       </c>
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
@@ -13715,20 +13656,20 @@
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>849</v>
+      <c r="A146" s="15" t="s">
+        <v>846</v>
       </c>
       <c r="B146" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C146" s="77">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D146" s="66" t="s">
-        <v>274</v>
+        <v>58</v>
       </c>
       <c r="E146" s="66" t="s">
-        <v>241</v>
+        <v>745</v>
       </c>
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
@@ -13767,20 +13708,20 @@
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>850</v>
+      <c r="A147" s="15" t="s">
+        <v>847</v>
       </c>
       <c r="B147" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C147" s="77">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D147" s="66" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E147" s="66" t="s">
-        <v>269</v>
+        <v>676</v>
       </c>
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
@@ -13819,20 +13760,20 @@
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>851</v>
+      <c r="A148" s="70" t="s">
+        <v>848</v>
       </c>
       <c r="B148" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C148" s="77">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D148" s="66" t="s">
         <v>57</v>
       </c>
       <c r="E148" s="66" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
@@ -13872,19 +13813,19 @@
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B149" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C149" s="77">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D149" s="66" t="s">
-        <v>58</v>
+        <v>274</v>
       </c>
       <c r="E149" s="66" t="s">
-        <v>749</v>
+        <v>241</v>
       </c>
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
@@ -13924,19 +13865,19 @@
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B150" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C150" s="77">
-        <v>301</v>
+        <v>190</v>
       </c>
       <c r="D150" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E150" s="66" t="s">
-        <v>854</v>
+        <v>269</v>
       </c>
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
@@ -13976,19 +13917,19 @@
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B151" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C151" s="77">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="D151" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E151" s="66" t="s">
-        <v>678</v>
+        <v>70</v>
       </c>
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
@@ -14027,20 +13968,20 @@
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A152" s="15" t="s">
-        <v>856</v>
+      <c r="A152" t="s">
+        <v>879</v>
       </c>
       <c r="B152" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C152" s="77">
-        <v>303</v>
+        <v>192</v>
       </c>
       <c r="D152" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E152" s="66" t="s">
-        <v>668</v>
+        <v>749</v>
       </c>
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
@@ -14079,31 +14020,43 @@
       </c>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>857</v>
+      <c r="A153" s="71" t="s">
+        <v>401</v>
       </c>
       <c r="B153" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C153" s="77">
-        <v>304</v>
-      </c>
-      <c r="D153" s="66" t="s">
+        <v>201.1</v>
+      </c>
+      <c r="D153" s="64" t="s">
         <v>58</v>
       </c>
       <c r="E153" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11"/>
-      <c r="H153" s="11"/>
-      <c r="I153" s="11"/>
-      <c r="J153" s="44"/>
-      <c r="K153" s="44"/>
-      <c r="L153" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="I153" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="J153" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K153" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L153" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="M153" s="30" t="s">
+      <c r="M153" s="34" t="s">
         <v>283</v>
       </c>
       <c r="N153" s="36" t="s">
@@ -14115,14 +14068,13 @@
       <c r="P153" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q153" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="R153" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="S153" s="57"/>
-      <c r="T153" s="57"/>
+      <c r="Q153" s="11"/>
+      <c r="S153" s="58" t="s">
+        <v>401</v>
+      </c>
+      <c r="T153" s="58" t="s">
+        <v>401</v>
+      </c>
       <c r="U153" s="58" t="s">
         <v>2</v>
       </c>
@@ -14131,31 +14083,43 @@
       </c>
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A154" s="15" t="s">
-        <v>858</v>
+      <c r="A154" s="71" t="s">
+        <v>402</v>
       </c>
       <c r="B154" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C154" s="77">
-        <v>305</v>
-      </c>
-      <c r="D154" s="66" t="s">
+        <v>201.2</v>
+      </c>
+      <c r="D154" s="64" t="s">
         <v>58</v>
       </c>
       <c r="E154" s="66" t="s">
-        <v>666</v>
-      </c>
-      <c r="F154" s="11"/>
-      <c r="G154" s="11"/>
-      <c r="H154" s="11"/>
-      <c r="I154" s="11"/>
-      <c r="J154" s="44"/>
-      <c r="K154" s="44"/>
-      <c r="L154" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="I154" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="J154" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K154" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L154" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="M154" s="30" t="s">
+      <c r="M154" s="34" t="s">
         <v>283</v>
       </c>
       <c r="N154" s="36" t="s">
@@ -14167,14 +14131,13 @@
       <c r="P154" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q154" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="R154" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="S154" s="57"/>
-      <c r="T154" s="57"/>
+      <c r="Q154" s="11"/>
+      <c r="S154" s="58" t="s">
+        <v>402</v>
+      </c>
+      <c r="T154" s="58" t="s">
+        <v>421</v>
+      </c>
       <c r="U154" s="58" t="s">
         <v>2</v>
       </c>
@@ -14183,31 +14146,43 @@
       </c>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>859</v>
+      <c r="A155" s="71" t="s">
+        <v>400</v>
       </c>
       <c r="B155" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C155" s="77">
-        <v>306</v>
-      </c>
-      <c r="D155" s="66" t="s">
-        <v>75</v>
+        <v>202</v>
+      </c>
+      <c r="D155" s="64" t="s">
+        <v>58</v>
       </c>
       <c r="E155" s="66" t="s">
-        <v>287</v>
-      </c>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="11"/>
-      <c r="I155" s="11"/>
-      <c r="J155" s="44"/>
-      <c r="K155" s="44"/>
-      <c r="L155" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J155" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K155" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L155" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="M155" s="30" t="s">
+      <c r="M155" s="34" t="s">
         <v>283</v>
       </c>
       <c r="N155" s="36" t="s">
@@ -14219,14 +14194,13 @@
       <c r="P155" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q155" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="R155" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="S155" s="57"/>
-      <c r="T155" s="57"/>
+      <c r="Q155" s="11"/>
+      <c r="S155" s="58" t="s">
+        <v>400</v>
+      </c>
+      <c r="T155" s="58" t="s">
+        <v>422</v>
+      </c>
       <c r="U155" s="58" t="s">
         <v>2</v>
       </c>
@@ -14235,31 +14209,43 @@
       </c>
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A156" s="15" t="s">
-        <v>762</v>
+      <c r="A156" s="71" t="s">
+        <v>409</v>
       </c>
       <c r="B156" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C156" s="77">
-        <v>365</v>
-      </c>
-      <c r="D156" s="66" t="s">
-        <v>57</v>
+        <v>220</v>
+      </c>
+      <c r="D156" s="64" t="s">
+        <v>58</v>
       </c>
       <c r="E156" s="66" t="s">
-        <v>256</v>
-      </c>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="11"/>
-      <c r="I156" s="11"/>
-      <c r="J156" s="44"/>
-      <c r="K156" s="44"/>
-      <c r="L156" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H156" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="I156" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="J156" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K156" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L156" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="M156" s="30" t="s">
+      <c r="M156" s="34" t="s">
         <v>283</v>
       </c>
       <c r="N156" s="36" t="s">
@@ -14271,14 +14257,13 @@
       <c r="P156" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q156" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="R156" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="S156" s="57"/>
-      <c r="T156" s="57"/>
+      <c r="Q156" s="11"/>
+      <c r="S156" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="T156" s="58" t="s">
+        <v>423</v>
+      </c>
       <c r="U156" s="58" t="s">
         <v>2</v>
       </c>
@@ -14287,31 +14272,43 @@
       </c>
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>763</v>
+      <c r="A157" s="71" t="s">
+        <v>408</v>
       </c>
       <c r="B157" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C157" s="77">
-        <v>366</v>
-      </c>
-      <c r="D157" s="66" t="s">
-        <v>75</v>
+        <v>221</v>
+      </c>
+      <c r="D157" s="64" t="s">
+        <v>58</v>
       </c>
       <c r="E157" s="66" t="s">
-        <v>256</v>
-      </c>
-      <c r="F157" s="11"/>
-      <c r="G157" s="11"/>
-      <c r="H157" s="11"/>
-      <c r="I157" s="11"/>
-      <c r="J157" s="44"/>
-      <c r="K157" s="44"/>
-      <c r="L157" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="I157" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="J157" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K157" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L157" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="M157" s="30" t="s">
+      <c r="M157" s="34" t="s">
         <v>283</v>
       </c>
       <c r="N157" s="36" t="s">
@@ -14323,14 +14320,13 @@
       <c r="P157" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q157" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="R157" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="S157" s="57"/>
-      <c r="T157" s="57"/>
+      <c r="Q157" s="11"/>
+      <c r="S157" s="58" t="s">
+        <v>408</v>
+      </c>
+      <c r="T157" s="58" t="s">
+        <v>424</v>
+      </c>
       <c r="U157" s="58" t="s">
         <v>2</v>
       </c>
@@ -14339,20 +14335,20 @@
       </c>
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>860</v>
+      <c r="A158" s="70" t="s">
+        <v>408</v>
       </c>
       <c r="B158" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C158" s="77">
-        <v>368</v>
+        <v>221</v>
       </c>
       <c r="D158" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E158" s="66" t="s">
-        <v>861</v>
+        <v>410</v>
       </c>
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
@@ -14392,19 +14388,19 @@
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="B159" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C159" s="77">
-        <v>370</v>
+        <v>301</v>
       </c>
       <c r="D159" s="66" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E159" s="66" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
@@ -14444,19 +14440,19 @@
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>391</v>
+        <v>854</v>
       </c>
       <c r="B160" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C160" s="77">
-        <v>500</v>
+        <v>302</v>
       </c>
       <c r="D160" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E160" s="66" t="s">
-        <v>864</v>
+        <v>678</v>
       </c>
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
@@ -14495,20 +14491,20 @@
       </c>
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>865</v>
+      <c r="A161" s="15" t="s">
+        <v>855</v>
       </c>
       <c r="B161" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C161" s="77">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="D161" s="66" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E161" s="66" t="s">
-        <v>287</v>
+        <v>668</v>
       </c>
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
@@ -14548,19 +14544,19 @@
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="B162" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C162" s="77">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="D162" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E162" s="66" t="s">
-        <v>691</v>
+        <v>397</v>
       </c>
       <c r="F162" s="11"/>
       <c r="G162" s="11"/>
@@ -14599,20 +14595,20 @@
       </c>
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>867</v>
+      <c r="A163" s="15" t="s">
+        <v>857</v>
       </c>
       <c r="B163" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C163" s="77">
-        <v>85</v>
+        <v>305</v>
       </c>
       <c r="D163" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E163" s="66" t="s">
-        <v>691</v>
+        <v>666</v>
       </c>
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
@@ -14652,13 +14648,13 @@
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="B164" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C164" s="77">
-        <v>86</v>
+        <v>306</v>
       </c>
       <c r="D164" s="66" t="s">
         <v>75</v>
@@ -14703,50 +14699,62 @@
       </c>
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>869</v>
+      <c r="A165" s="58" t="s">
+        <v>762</v>
       </c>
       <c r="B165" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C165" s="77">
-        <v>87</v>
-      </c>
-      <c r="D165" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="E165" s="66" t="s">
-        <v>684</v>
-      </c>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="11"/>
-      <c r="I165" s="11"/>
-      <c r="J165" s="44"/>
-      <c r="K165" s="44"/>
-      <c r="L165" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D165" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E165" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G165" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H165" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J165" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K165" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L165" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="M165" s="30" t="s">
+      <c r="M165" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="N165" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="O165" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="P165" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q165" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="R165" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="S165" s="57"/>
-      <c r="T165" s="57"/>
+      <c r="N165" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="O165" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="P165" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q165" s="32"/>
+      <c r="R165" s="31"/>
+      <c r="S165" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="T165" s="33" t="s">
+        <v>395</v>
+      </c>
       <c r="U165" s="58" t="s">
         <v>2</v>
       </c>
@@ -14755,20 +14763,20 @@
       </c>
     </row>
     <row r="166" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>870</v>
+      <c r="A166" s="15" t="s">
+        <v>762</v>
       </c>
       <c r="B166" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C166" s="77">
-        <v>88</v>
+        <v>365</v>
       </c>
       <c r="D166" s="66" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E166" s="66" t="s">
-        <v>672</v>
+        <v>256</v>
       </c>
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
@@ -14807,50 +14815,62 @@
       </c>
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A167" s="70" t="s">
-        <v>871</v>
+      <c r="A167" s="58" t="s">
+        <v>763</v>
       </c>
       <c r="B167" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C167" s="77">
-        <v>89</v>
-      </c>
-      <c r="D167" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="D167" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="E167" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F167" s="11"/>
-      <c r="G167" s="11"/>
-      <c r="H167" s="11"/>
-      <c r="I167" s="11"/>
-      <c r="J167" s="44"/>
-      <c r="K167" s="44"/>
-      <c r="L167" s="11" t="s">
+      <c r="E167" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H167" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I167" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J167" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K167" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L167" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="M167" s="30" t="s">
+      <c r="M167" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="N167" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="O167" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="P167" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q167" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="R167" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="S167" s="57"/>
-      <c r="T167" s="57"/>
+      <c r="N167" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="O167" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="P167" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q167" s="32"/>
+      <c r="R167" s="31"/>
+      <c r="S167" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="T167" s="61" t="s">
+        <v>396</v>
+      </c>
       <c r="U167" s="58" t="s">
         <v>2</v>
       </c>
@@ -14860,19 +14880,19 @@
     </row>
     <row r="168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>872</v>
+        <v>763</v>
       </c>
       <c r="B168" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C168" s="77">
-        <v>90</v>
+        <v>366</v>
       </c>
       <c r="D168" s="66" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E168" s="66" t="s">
-        <v>70</v>
+        <v>256</v>
       </c>
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
@@ -14912,19 +14932,19 @@
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="B169" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C169" s="77">
-        <v>92</v>
+        <v>368</v>
       </c>
       <c r="D169" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E169" s="66" t="s">
-        <v>747</v>
+        <v>860</v>
       </c>
       <c r="F169" s="11"/>
       <c r="G169" s="11"/>
@@ -14964,19 +14984,19 @@
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="B170" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C170" s="77">
-        <v>93</v>
+        <v>370</v>
       </c>
       <c r="D170" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E170" s="66" t="s">
-        <v>747</v>
+        <v>862</v>
       </c>
       <c r="F170" s="11"/>
       <c r="G170" s="11"/>
@@ -15015,31 +15035,43 @@
       </c>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>875</v>
+      <c r="A171" s="71" t="s">
+        <v>371</v>
       </c>
       <c r="B171" s="58" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="C171" s="77">
-        <v>95</v>
-      </c>
-      <c r="D171" s="66" t="s">
-        <v>58</v>
+        <v>500</v>
+      </c>
+      <c r="D171" s="64" t="s">
+        <v>74</v>
       </c>
       <c r="E171" s="66" t="s">
-        <v>686</v>
-      </c>
-      <c r="F171" s="11"/>
-      <c r="G171" s="11"/>
-      <c r="H171" s="11"/>
-      <c r="I171" s="11"/>
-      <c r="J171" s="44"/>
-      <c r="K171" s="44"/>
-      <c r="L171" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="F171" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="G171" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="H171" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="I171" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="J171" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K171" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L171" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="M171" s="30" t="s">
+      <c r="M171" s="34" t="s">
         <v>283</v>
       </c>
       <c r="N171" s="36" t="s">
@@ -15051,14 +15083,14 @@
       <c r="P171" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q171" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="R171" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="S171" s="57"/>
-      <c r="T171" s="57"/>
+      <c r="Q171" s="11"/>
+      <c r="R171" s="11"/>
+      <c r="S171" t="s">
+        <v>373</v>
+      </c>
+      <c r="T171" t="s">
+        <v>374</v>
+      </c>
       <c r="U171" s="58" t="s">
         <v>2</v>
       </c>
@@ -15067,31 +15099,43 @@
       </c>
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>876</v>
+      <c r="A172" s="71" t="s">
+        <v>372</v>
       </c>
       <c r="B172" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C172" s="77">
-        <v>96</v>
-      </c>
-      <c r="D172" s="66" t="s">
-        <v>58</v>
+        <v>500</v>
+      </c>
+      <c r="D172" s="64" t="s">
+        <v>74</v>
       </c>
       <c r="E172" s="66" t="s">
-        <v>686</v>
-      </c>
-      <c r="F172" s="11"/>
-      <c r="G172" s="11"/>
-      <c r="H172" s="11"/>
-      <c r="I172" s="11"/>
-      <c r="J172" s="44"/>
-      <c r="K172" s="44"/>
-      <c r="L172" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="F172" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="G172" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="H172" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="I172" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="J172" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K172" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L172" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="M172" s="30" t="s">
+      <c r="M172" s="34" t="s">
         <v>283</v>
       </c>
       <c r="N172" s="36" t="s">
@@ -15103,14 +15147,14 @@
       <c r="P172" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q172" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="R172" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="S172" s="57"/>
-      <c r="T172" s="57"/>
+      <c r="Q172" s="11"/>
+      <c r="R172" s="11"/>
+      <c r="S172" t="s">
+        <v>372</v>
+      </c>
+      <c r="T172" t="s">
+        <v>375</v>
+      </c>
       <c r="U172" s="58" t="s">
         <v>2</v>
       </c>
@@ -15119,31 +15163,43 @@
       </c>
     </row>
     <row r="173" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>877</v>
+      <c r="A173" s="71" t="s">
+        <v>391</v>
       </c>
       <c r="B173" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C173" s="77">
-        <v>97</v>
-      </c>
-      <c r="D173" s="66" t="s">
-        <v>58</v>
+        <v>500</v>
+      </c>
+      <c r="D173" s="58" t="s">
+        <v>74</v>
       </c>
       <c r="E173" s="66" t="s">
-        <v>686</v>
-      </c>
-      <c r="F173" s="11"/>
-      <c r="G173" s="11"/>
-      <c r="H173" s="11"/>
-      <c r="I173" s="11"/>
-      <c r="J173" s="44"/>
-      <c r="K173" s="44"/>
-      <c r="L173" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="F173" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="G173" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="H173" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="I173" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="J173" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K173" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L173" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="M173" s="30" t="s">
+      <c r="M173" s="34" t="s">
         <v>283</v>
       </c>
       <c r="N173" s="36" t="s">
@@ -15155,14 +15211,14 @@
       <c r="P173" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Q173" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="R173" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="S173" s="57"/>
-      <c r="T173" s="57"/>
+      <c r="Q173" s="62"/>
+      <c r="R173" s="63"/>
+      <c r="S173" s="63" t="s">
+        <v>391</v>
+      </c>
+      <c r="T173" s="63" t="s">
+        <v>392</v>
+      </c>
       <c r="U173" s="58" t="s">
         <v>2</v>
       </c>
@@ -15172,19 +15228,19 @@
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>878</v>
+        <v>391</v>
       </c>
       <c r="B174" s="58" t="s">
         <v>428</v>
       </c>
       <c r="C174" s="77">
-        <v>99</v>
+        <v>500</v>
       </c>
       <c r="D174" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E174" s="66" t="s">
-        <v>674</v>
+        <v>863</v>
       </c>
       <c r="F174" s="11"/>
       <c r="G174" s="11"/>
@@ -15253,6 +15309,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V174">
+    <sortCondition ref="C2:C174"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE5C523-8E41-E943-AA06-ADA7AC99D619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1969D025-D367-5F42-AAF6-085301F5DEEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17960" yWindow="460" windowWidth="28320" windowHeight="22000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5740" yWindow="4640" windowWidth="28320" windowHeight="22000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimal refset" sheetId="2" r:id="rId1"/>
@@ -4043,9 +4043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W177"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A152" sqref="A53:XFD152"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8855,7 +8855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF26281E-1617-0A4C-8395-7FBC4521B67B}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -15371,8 +15371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961C46CC-B959-6C4F-964A-122A681BFB18}">
   <dimension ref="A1:Y165"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A159" sqref="A142:B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anna/Projects/virus/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65850E5E-1030-E442-8C3C-33F737AB59B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBD8B5E-605D-184E-ACA4-1F36703A0596}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75348EB-78C8-D949-91B3-92CF9DC8B7AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E38D917-E26D-8B42-911D-FB06BF71D4F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10000" yWindow="3140" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="this one" sheetId="3" r:id="rId3"/>
-    <sheet name="Minimal refset" sheetId="2" r:id="rId4"/>
-    <sheet name="out temp" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="this one" sheetId="3" r:id="rId4"/>
+    <sheet name="Minimal refset" sheetId="2" r:id="rId5"/>
+    <sheet name="out temp" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11127" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11228" uniqueCount="521">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -1597,6 +1598,9 @@
   </si>
   <si>
     <t>dependo.192-sarcophilus</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -4224,1214 +4228,1235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DACFF6-840F-D741-97EA-4F87EFFABC86}">
-  <dimension ref="A1:AA65"/>
+  <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="A1:AA65"/>
+      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="8"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="34.6640625" customWidth="1"/>
-    <col min="19" max="19" width="25.5" customWidth="1"/>
-    <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="22.1640625" customWidth="1"/>
-    <col min="22" max="22" width="17.5" customWidth="1"/>
-    <col min="23" max="23" width="26.5" customWidth="1"/>
-    <col min="24" max="24" width="32" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" customWidth="1"/>
-    <col min="27" max="27" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8" style="8" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="8"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="34.6640625" customWidth="1"/>
+    <col min="20" max="20" width="25.5" customWidth="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="22.1640625" customWidth="1"/>
+    <col min="23" max="23" width="17.5" style="8" customWidth="1"/>
+    <col min="24" max="24" width="26.5" customWidth="1"/>
+    <col min="25" max="25" width="32" customWidth="1"/>
+    <col min="26" max="26" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C2" s="51">
+      <c r="D2" s="51">
         <v>0</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="E2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>459</v>
-      </c>
-      <c r="G2" s="59">
-        <v>1</v>
       </c>
       <c r="H2" s="59">
         <v>1</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="59">
+        <v>1</v>
+      </c>
+      <c r="J2" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="S2" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="5">
+      <c r="T2" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="11"/>
+      <c r="W2" s="51">
         <v>27377618</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="Y2" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z2" s="33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>292</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C3" s="51">
+      <c r="D3" s="51">
         <v>1</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="E3" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="F3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="G3" s="51">
+      <c r="H3" s="51">
         <v>23</v>
       </c>
-      <c r="H3" s="51">
+      <c r="I3" s="51">
         <v>24</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="J3" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>68</v>
       </c>
       <c r="S3" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" s="10">
-        <v>62</v>
-      </c>
-      <c r="V3" s="4">
+      <c r="T3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="10">
+        <v>62</v>
+      </c>
+      <c r="W3" s="51">
         <v>32913662</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="Y3" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z3" s="33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="33" t="s">
-        <v>292</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C4" s="51">
-        <v>2</v>
-      </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="51">
+        <v>2</v>
+      </c>
+      <c r="E4" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="F4" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="G4" s="33" t="s">
         <v>459</v>
-      </c>
-      <c r="G4" s="51">
-        <v>8</v>
       </c>
       <c r="H4" s="51">
         <v>8</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="51">
+        <v>8</v>
+      </c>
+      <c r="J4" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>93</v>
+      <c r="Q4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="S4" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="T4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U4" s="10"/>
-      <c r="V4" s="4">
+      <c r="T4" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="10"/>
+      <c r="W4" s="51">
         <v>32913662</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="Y4" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z4" s="33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA4" s="33" t="s">
-        <v>292</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C5" s="51">
-        <v>3</v>
-      </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="51">
+        <v>3</v>
+      </c>
+      <c r="E5" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="F5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="G5" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="G5" s="51">
-        <v>3</v>
-      </c>
       <c r="H5" s="51">
         <v>3</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="51">
+        <v>3</v>
+      </c>
+      <c r="J5" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q5" s="26" t="s">
+      <c r="Q5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R5" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="S5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="T5" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="T5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U5" s="10">
+      <c r="U5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="10">
         <v>51</v>
       </c>
-      <c r="V5" s="4">
+      <c r="W5" s="51">
         <v>32913662</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="Y5" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z5" s="33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA5" s="33" t="s">
-        <v>292</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C6" s="51">
+      <c r="D6" s="51">
         <v>4</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="E6" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="G6" s="40" t="s">
         <v>459</v>
-      </c>
-      <c r="G6" s="59">
-        <v>4</v>
       </c>
       <c r="H6" s="59">
         <v>4</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="59">
+        <v>4</v>
+      </c>
+      <c r="J6" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="R6" s="17" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="S6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="T6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="U6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="11">
+      <c r="V6" s="11">
         <v>27.9</v>
       </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="4" t="s">
+      <c r="W6" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="Y6" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z6" s="33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA6" s="33" t="s">
-        <v>292</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="51">
+      <c r="D7" s="51">
         <v>12</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="E7" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="F7" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="G7" s="38" t="s">
         <v>462</v>
-      </c>
-      <c r="G7" s="51">
-        <v>1</v>
       </c>
       <c r="H7" s="51">
         <v>1</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="51">
+        <v>1</v>
+      </c>
+      <c r="J7" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q7" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R7" s="30" t="s">
-        <v>62</v>
+      <c r="Q7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>158</v>
       </c>
       <c r="S7" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="T7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4" t="s">
+      <c r="T7" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="10"/>
+      <c r="W7" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="Y7" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="Y7" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z7" s="33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA7" s="33" t="s">
-        <v>292</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C8" s="51">
+      <c r="D8" s="51">
         <v>28</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="E8" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="G8" s="59">
+      <c r="H8" s="59">
         <v>1</v>
       </c>
-      <c r="H8" s="59">
-        <v>2</v>
-      </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="59">
+        <v>2</v>
+      </c>
+      <c r="J8" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R8" s="18" t="s">
-        <v>62</v>
+      <c r="Q8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>158</v>
       </c>
       <c r="S8" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="T8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="4" t="s">
+      <c r="T8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="Y8" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z8" s="33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="33" t="s">
-        <v>292</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C9" s="51">
+      <c r="D9" s="51">
         <v>37</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="E9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="F9" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="G9" s="38" t="s">
         <v>459</v>
-      </c>
-      <c r="G9" s="51">
-        <v>1</v>
       </c>
       <c r="H9" s="51">
         <v>1</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="51">
+        <v>1</v>
+      </c>
+      <c r="J9" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="24"/>
+      <c r="Q9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R9" s="28"/>
+      <c r="S9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11" t="s">
+        <v>520</v>
+      </c>
       <c r="X9" s="24"/>
-      <c r="Y9" s="33"/>
+      <c r="Y9" s="24"/>
       <c r="Z9" s="33"/>
-      <c r="AA9" s="33" t="s">
-        <v>292</v>
-      </c>
+      <c r="AA9" s="33"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C10" s="51">
+      <c r="D10" s="51">
         <v>46</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="E10" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="F10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="G10" s="38" t="s">
         <v>462</v>
       </c>
-      <c r="G10" s="51">
+      <c r="H10" s="51">
         <v>1</v>
       </c>
-      <c r="H10" s="51">
-        <v>2</v>
-      </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="51">
+        <v>2</v>
+      </c>
+      <c r="J10" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q10" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>92</v>
+      <c r="Q10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>158</v>
       </c>
       <c r="S10" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="T10" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U10" s="11"/>
-      <c r="V10" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="W10" s="4" t="s">
+      <c r="T10" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="Y10" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z10" s="33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA10" s="33" t="s">
-        <v>292</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C11" s="51">
+      <c r="D11" s="51">
         <v>60</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="E11" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="F11" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="G11" s="38" t="s">
         <v>459</v>
-      </c>
-      <c r="G11" s="51">
-        <v>1</v>
       </c>
       <c r="H11" s="51">
         <v>1</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="51">
+        <v>1</v>
+      </c>
+      <c r="J11" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q11" s="26" t="s">
+      <c r="Q11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R11" s="26" t="s">
         <v>482</v>
-      </c>
-      <c r="R11" s="18" t="s">
-        <v>489</v>
       </c>
       <c r="S11" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="T11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U11" s="8"/>
-      <c r="V11" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="W11" s="33" t="s">
-        <v>293</v>
+      <c r="T11" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" s="8"/>
+      <c r="W11" s="11" t="s">
+        <v>520</v>
       </c>
       <c r="X11" s="33" t="s">
         <v>293</v>
       </c>
       <c r="Y11" s="33" t="s">
-        <v>2</v>
+        <v>293</v>
       </c>
       <c r="Z11" s="33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA11" s="33" t="s">
-        <v>292</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="51">
+      <c r="B12" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="51">
         <v>86</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="E12" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="F12" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="G12" s="40" t="s">
         <v>459</v>
-      </c>
-      <c r="G12" s="51">
-        <v>5</v>
       </c>
       <c r="H12" s="51">
         <v>5</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="51">
+        <v>5</v>
+      </c>
+      <c r="J12" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="55"/>
+      <c r="Q12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R12" s="57"/>
       <c r="S12" s="55"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="56"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="58"/>
       <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
+      <c r="W12" s="11" t="s">
+        <v>520</v>
+      </c>
       <c r="X12" s="56"/>
-      <c r="Y12" s="54"/>
+      <c r="Y12" s="56"/>
       <c r="Z12" s="54"/>
-      <c r="AA12" s="33" t="s">
-        <v>292</v>
-      </c>
+      <c r="AA12" s="54"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="51">
+      <c r="B13" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="51">
         <v>174</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="E13" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="F13" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="G13" s="40" t="s">
         <v>459</v>
-      </c>
-      <c r="G13" s="51">
-        <v>1</v>
       </c>
       <c r="H13" s="51">
         <v>1</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="51">
+        <v>1</v>
+      </c>
+      <c r="J13" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="R13" s="17" t="s">
+      <c r="Q13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="S13" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="S13" s="17" t="s">
+      <c r="T13" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="T13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U13" s="32" t="s">
+      <c r="U13" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V13" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="W13" s="32"/>
+      <c r="W13" s="11" t="s">
+        <v>520</v>
+      </c>
       <c r="X13" s="32"/>
-      <c r="Y13" s="33" t="s">
-        <v>2</v>
-      </c>
+      <c r="Y13" s="32"/>
       <c r="Z13" s="33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA13" s="33" t="s">
-        <v>292</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="B14" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="51">
+      <c r="B14" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="51">
         <v>177</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="E14" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="F14" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="G14" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="G14" s="51">
-        <v>2</v>
-      </c>
       <c r="H14" s="51">
         <v>2</v>
       </c>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="51">
+        <v>2</v>
+      </c>
+      <c r="J14" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="R14" s="18" t="s">
-        <v>62</v>
+      <c r="Q14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="S14" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="T14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U14" s="32" t="s">
+      <c r="T14" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V14" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="W14" s="32"/>
+      <c r="W14" s="11" t="s">
+        <v>520</v>
+      </c>
       <c r="X14" s="32"/>
-      <c r="Y14" s="33" t="s">
-        <v>2</v>
-      </c>
+      <c r="Y14" s="32"/>
       <c r="Z14" s="33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA14" s="33" t="s">
-        <v>292</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C15" s="51">
+      <c r="D15" s="51">
         <v>6</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="E15" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="F15" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="G15" s="38" t="s">
         <v>483</v>
-      </c>
-      <c r="G15" s="51">
-        <v>1</v>
       </c>
       <c r="H15" s="51">
         <v>1</v>
       </c>
-      <c r="I15" s="51" t="s">
+      <c r="I15" s="51">
+        <v>1</v>
+      </c>
+      <c r="J15" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="N15" s="62" t="s">
+      <c r="O15" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="62" t="s">
+      <c r="P15" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="R15" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="R15" s="17" t="s">
+      <c r="S15" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="S15" s="17" t="s">
+      <c r="T15" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="T15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U15" s="10"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4" t="s">
+      <c r="U15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" s="10"/>
+      <c r="W15" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="Y15" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="Y15" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z15" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="33" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5439,1308 +5464,1379 @@
       <c r="A16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C16" s="51">
+      <c r="D16" s="51">
         <v>7</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="E16" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="F16" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="G16" s="38" t="s">
         <v>483</v>
-      </c>
-      <c r="G16" s="51">
-        <v>1</v>
       </c>
       <c r="H16" s="51">
         <v>1</v>
       </c>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="51">
+        <v>1</v>
+      </c>
+      <c r="J16" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="N16" s="62" t="s">
+      <c r="O16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="62" t="s">
+      <c r="P16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q16" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R16" s="17" t="s">
-        <v>92</v>
+      <c r="Q16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R16" s="27" t="s">
+        <v>158</v>
       </c>
       <c r="S16" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U16" s="10"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4" t="s">
+      <c r="T16" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V16" s="10"/>
+      <c r="W16" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="Y16" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="Y16" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z16" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C17" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C17" s="51">
+      <c r="D17" s="51">
         <v>9</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="E17" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="F17" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="G17" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G17" s="51">
-        <v>2</v>
-      </c>
       <c r="H17" s="51">
         <v>2</v>
       </c>
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="51">
+        <v>2</v>
+      </c>
+      <c r="J17" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="N17" s="62" t="s">
+      <c r="O17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="62" t="s">
+      <c r="P17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R17" s="30" t="s">
-        <v>62</v>
+      <c r="Q17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R17" s="27" t="s">
+        <v>158</v>
       </c>
       <c r="S17" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="T17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U17" s="10"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4" t="s">
+      <c r="T17" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V17" s="10"/>
+      <c r="W17" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="X17" s="4" t="s">
+      <c r="Y17" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="Y17" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z17" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C18" s="51">
+      <c r="D18" s="51">
         <v>10</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="E18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="F18" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="G18" s="38" t="s">
         <v>483</v>
-      </c>
-      <c r="G18" s="59">
-        <v>1</v>
       </c>
       <c r="H18" s="59">
         <v>1</v>
       </c>
-      <c r="I18" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="I18" s="59">
+        <v>1</v>
+      </c>
+      <c r="J18" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="N18" s="62" t="s">
+      <c r="O18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="62" t="s">
+      <c r="P18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q18" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R18" s="17" t="s">
-        <v>71</v>
+      <c r="Q18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R18" s="27" t="s">
+        <v>158</v>
       </c>
       <c r="S18" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="T18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U18" s="10"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4" t="s">
+      <c r="T18" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" s="10"/>
+      <c r="W18" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="Y18" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="Y18" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z18" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C19" s="51">
+      <c r="D19" s="51">
         <v>11</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="E19" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="F19" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="G19" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G19" s="61"/>
       <c r="H19" s="61"/>
-      <c r="I19" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="61"/>
+      <c r="J19" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="N19" s="62" t="s">
+      <c r="O19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="62" t="s">
+      <c r="P19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q19" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R19" s="30" t="s">
-        <v>62</v>
+      <c r="Q19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>158</v>
       </c>
       <c r="S19" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="T19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U19" s="10"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4" t="s">
+      <c r="T19" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V19" s="10"/>
+      <c r="W19" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="X19" s="4" t="s">
+      <c r="Y19" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="Y19" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z19" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C20" s="51">
+      <c r="D20" s="51">
         <v>14</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="E20" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="G20" s="38" t="s">
         <v>483</v>
-      </c>
-      <c r="G20" s="59">
-        <v>5</v>
       </c>
       <c r="H20" s="59">
         <v>5</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="59">
+        <v>5</v>
+      </c>
+      <c r="J20" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="N20" s="62" t="s">
+      <c r="O20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="62" t="s">
+      <c r="P20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R20" s="17" t="s">
-        <v>55</v>
+      <c r="Q20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R20" s="27" t="s">
+        <v>158</v>
       </c>
       <c r="S20" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="T20" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U20" s="11">
+      <c r="T20" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V20" s="11">
         <v>19.399999999999999</v>
       </c>
-      <c r="V20" s="5"/>
-      <c r="W20" s="4" t="s">
+      <c r="W20" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="X20" s="4" t="s">
+      <c r="Y20" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="Y20" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z20" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C21" s="51">
+      <c r="D21" s="51">
         <v>15</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="E21" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="G21" s="38" t="s">
         <v>483</v>
-      </c>
-      <c r="G21" s="59">
-        <v>1</v>
       </c>
       <c r="H21" s="59">
         <v>1</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="59">
+        <v>1</v>
+      </c>
+      <c r="J21" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="N21" s="62" t="s">
+      <c r="O21" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="62" t="s">
+      <c r="P21" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q21" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R21" s="17" t="s">
+      <c r="Q21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="S21" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="S21" s="17" t="s">
+      <c r="T21" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U21" s="11">
+      <c r="U21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V21" s="11">
         <v>19.399999999999999</v>
       </c>
-      <c r="V21" s="5"/>
-      <c r="W21" s="4" t="s">
+      <c r="W21" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="X21" s="4" t="s">
+      <c r="Y21" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="Y21" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z21" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C22" s="51">
+      <c r="D22" s="51">
         <v>20</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="E22" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="G22" s="38" t="s">
         <v>483</v>
-      </c>
-      <c r="G22" s="59">
-        <v>13</v>
       </c>
       <c r="H22" s="59">
         <v>13</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="59">
+        <v>13</v>
+      </c>
+      <c r="J22" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="N22" s="62" t="s">
+      <c r="O22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O22" s="62" t="s">
+      <c r="P22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q22" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R22" s="17" t="s">
-        <v>76</v>
+      <c r="Q22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R22" s="27" t="s">
+        <v>158</v>
       </c>
       <c r="S22" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="T22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U22" s="11"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="4" t="s">
+      <c r="T22" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X22" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="Y22" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="Y22" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z22" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C23" s="51">
+      <c r="D23" s="51">
         <v>22</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="E23" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="G23" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G23" s="59">
+      <c r="H23" s="59">
         <v>73</v>
       </c>
-      <c r="H23" s="59">
+      <c r="I23" s="59">
         <v>76</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="J23" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="N23" s="62" t="s">
+      <c r="O23" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="62" t="s">
+      <c r="P23" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q23" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R23" s="17" t="s">
+      <c r="Q23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R23" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="S23" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="S23" s="17" t="s">
+      <c r="T23" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="T23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U23" s="11">
-        <v>62</v>
-      </c>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5" t="s">
+      <c r="U23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V23" s="11">
+        <v>62</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X23" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="X23" s="5" t="s">
+      <c r="Y23" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="Y23" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z23" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C24" s="51">
+      <c r="D24" s="51">
         <v>27</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="E24" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="G24" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G24" s="59">
-        <v>3</v>
-      </c>
       <c r="H24" s="59">
         <v>3</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="59">
+        <v>3</v>
+      </c>
+      <c r="J24" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="N24" s="62" t="s">
+      <c r="O24" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O24" s="62" t="s">
+      <c r="P24" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q24" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R24" s="30" t="s">
-        <v>62</v>
+      <c r="Q24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R24" s="27" t="s">
+        <v>158</v>
       </c>
       <c r="S24" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="T24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U24" s="11"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="4" t="s">
+      <c r="T24" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X24" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="X24" s="4" t="s">
+      <c r="Y24" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z24" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C25" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C25" s="51">
+      <c r="D25" s="51">
         <v>36</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="E25" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="F25" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="G25" s="38" t="s">
         <v>459</v>
-      </c>
-      <c r="G25" s="59">
-        <v>1</v>
       </c>
       <c r="H25" s="59">
         <v>1</v>
       </c>
-      <c r="I25" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="I25" s="59">
+        <v>1</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="P25" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q25" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="R25" s="18" t="s">
+      <c r="Q25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R25" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="S25" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="S25" s="18" t="s">
+      <c r="T25" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="T25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U25" s="11"/>
-      <c r="V25" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="W25" s="24" t="s">
+      <c r="U25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X25" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="X25" s="24" t="s">
+      <c r="Y25" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="Y25" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z25" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C26" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C26" s="51">
+      <c r="D26" s="51">
         <v>42</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="E26" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="F26" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="G26" s="38" t="s">
         <v>483</v>
-      </c>
-      <c r="G26" s="51">
-        <v>1</v>
       </c>
       <c r="H26" s="51">
         <v>1</v>
       </c>
-      <c r="I26" s="51" t="s">
+      <c r="I26" s="51">
+        <v>1</v>
+      </c>
+      <c r="J26" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="K26" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K26" s="34" t="s">
+      <c r="L26" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="M26" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="M26" s="34" t="s">
+      <c r="N26" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="N26" s="62" t="s">
+      <c r="O26" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O26" s="62" t="s">
+      <c r="P26" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="Q26" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="R26" s="30" t="s">
-        <v>62</v>
+      <c r="R26" s="29" t="s">
+        <v>158</v>
       </c>
       <c r="S26" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="T26" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U26" s="10"/>
-      <c r="V26" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="W26" s="4" t="s">
+      <c r="T26" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V26" s="10"/>
+      <c r="W26" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X26" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="X26" s="4" t="s">
+      <c r="Y26" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="Y26" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z26" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C27" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C27" s="51">
+      <c r="D27" s="51">
         <v>43</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="E27" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="F27" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="G27" s="38" t="s">
         <v>483</v>
-      </c>
-      <c r="G27" s="51">
-        <v>5</v>
       </c>
       <c r="H27" s="51">
         <v>5</v>
       </c>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="51">
+        <v>5</v>
+      </c>
+      <c r="J27" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="K27" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="L27" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="L27" s="21" t="s">
+      <c r="M27" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="M27" s="25" t="s">
+      <c r="N27" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="N27" s="62" t="s">
+      <c r="O27" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O27" s="62" t="s">
+      <c r="P27" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="Q27" s="26" t="s">
+      <c r="R27" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="R27" s="30" t="s">
-        <v>62</v>
-      </c>
       <c r="S27" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="T27" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U27" s="11"/>
-      <c r="V27" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="W27" s="33" t="s">
+      <c r="T27" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X27" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="X27" s="33" t="s">
+      <c r="Y27" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="Y27" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z27" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="51">
+      <c r="B28" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="51">
         <v>44</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="E28" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="F28" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="G28" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G28" s="61"/>
       <c r="H28" s="61"/>
-      <c r="I28" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="J28" s="21" t="s">
+      <c r="I28" s="61"/>
+      <c r="J28" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L28" s="21" t="s">
+      <c r="L28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N28" s="62" t="s">
+      <c r="N28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O28" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O28" s="62" t="s">
+      <c r="P28" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P28" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q28" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="R28" s="17" t="s">
+      <c r="Q28" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="R28" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="S28" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="S28" s="17" t="s">
+      <c r="T28" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="T28" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U28" s="11">
+      <c r="U28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V28" s="11">
         <v>34</v>
       </c>
-      <c r="V28" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="W28" s="4" t="s">
+      <c r="W28" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="X28" s="4" t="s">
+      <c r="Y28" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="Y28" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z28" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="B29" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="51">
+      <c r="B29" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="51">
         <v>45</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="E29" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="F29" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="G29" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G29" s="59">
-        <v>2</v>
-      </c>
       <c r="H29" s="59">
         <v>2</v>
       </c>
-      <c r="I29" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="J29" s="21" t="s">
+      <c r="I29" s="59">
+        <v>2</v>
+      </c>
+      <c r="J29" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="K29" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K29" s="25" t="s">
+      <c r="L29" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="L29" s="21" t="s">
+      <c r="M29" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="M29" s="25" t="s">
+      <c r="N29" s="25" t="s">
         <v>148</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="O29" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P29" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q29" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="R29" s="17" t="s">
+      <c r="P29" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="R29" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="S29" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="S29" s="17" t="s">
+      <c r="T29" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="T29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U29" s="11"/>
-      <c r="V29" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="W29" s="4" t="s">
+      <c r="U29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X29" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="X29" s="4" t="s">
+      <c r="Y29" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="Y29" s="33" t="s">
-        <v>2</v>
-      </c>
       <c r="Z29" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C30" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C30" s="51">
+      <c r="D30" s="51">
         <v>51</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="E30" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="F30" s="38" t="s">
         <v>415</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="G30" s="38" t="s">
         <v>483</v>
-      </c>
-      <c r="G30" s="51">
-        <v>4</v>
       </c>
       <c r="H30" s="51">
         <v>4</v>
       </c>
-      <c r="I30" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="J30" s="4"/>
+      <c r="I30" s="51">
+        <v>4</v>
+      </c>
+      <c r="J30" s="61" t="s">
+        <v>121</v>
+      </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="22"/>
+      <c r="N30" s="4"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="17" t="s">
+      <c r="P30" s="22"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="S30" s="17" t="s">
+      <c r="T30" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="T30" s="11"/>
       <c r="U30" s="11"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="4"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11" t="s">
+        <v>520</v>
+      </c>
       <c r="X30" s="4"/>
-      <c r="Y30" s="33"/>
+      <c r="Y30" s="4"/>
       <c r="Z30" s="33"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="33"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C31" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C31" s="51">
+      <c r="D31" s="51">
         <v>53</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="E31" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="G31" s="38" t="s">
         <v>483</v>
-      </c>
-      <c r="G31" s="59">
-        <v>1</v>
       </c>
       <c r="H31" s="59">
         <v>1</v>
       </c>
-      <c r="I31" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="J31" s="21" t="s">
+      <c r="I31" s="59">
+        <v>1</v>
+      </c>
+      <c r="J31" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="K31" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K31" s="25" t="s">
+      <c r="L31" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="L31" s="21" t="s">
+      <c r="M31" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="M31" s="25" t="s">
+      <c r="N31" s="25" t="s">
         <v>148</v>
-      </c>
-      <c r="N31" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="O31" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P31" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q31" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="R31" s="18" t="s">
-        <v>62</v>
+      <c r="P31" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="R31" s="29" t="s">
+        <v>158</v>
       </c>
       <c r="S31" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="T31" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U31" s="11"/>
-      <c r="V31" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="W31" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="X31" s="4" t="s">
-        <v>223</v>
+      <c r="T31" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X31" s="33" t="s">
+        <v>508</v>
       </c>
       <c r="Y31" s="33" t="s">
-        <v>2</v>
+        <v>508</v>
       </c>
       <c r="Z31" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C32" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C32" s="51">
+      <c r="D32" s="51">
         <v>54</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="E32" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="F32" s="63" t="s">
         <v>303</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="G32" s="40" t="s">
         <v>483</v>
       </c>
-      <c r="G32" s="59">
-        <v>3</v>
-      </c>
       <c r="H32" s="59">
         <v>3</v>
       </c>
-      <c r="I32" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="J32" s="21" t="s">
+      <c r="I32" s="59">
+        <v>3</v>
+      </c>
+      <c r="J32" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="L32" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="L32" s="21" t="s">
+      <c r="M32" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="M32" s="25" t="s">
+      <c r="N32" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="N32" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="O32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q32" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="R32" s="17" t="s">
+      <c r="P32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q32" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="R32" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="S32" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="S32" s="17" t="s">
+      <c r="T32" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="T32" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U32" s="11"/>
-      <c r="V32" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="W32" s="33" t="s">
-        <v>249</v>
+      <c r="U32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11" t="s">
+        <v>520</v>
       </c>
       <c r="X32" s="33" t="s">
-        <v>250</v>
+        <v>509</v>
       </c>
       <c r="Y32" s="33" t="s">
-        <v>2</v>
+        <v>509</v>
       </c>
       <c r="Z32" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA32" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C33" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C33" s="51">
+      <c r="D33" s="51">
         <v>55</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="E33" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="G33" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G33" s="59"/>
       <c r="H33" s="59"/>
-      <c r="I33" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>62</v>
+      <c r="I33" s="59"/>
+      <c r="J33" s="64" t="s">
+        <v>121</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>62</v>
@@ -6751,445 +6847,466 @@
       <c r="M33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N33" s="22" t="s">
-        <v>33</v>
+      <c r="N33" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="O33" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P33" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q33" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="R33" s="17" t="s">
+      <c r="P33" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R33" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="S33" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="S33" s="17" t="s">
+      <c r="T33" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="T33" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U33" s="11"/>
-      <c r="V33" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="W33" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="X33" s="23" t="s">
-        <v>251</v>
+      <c r="U33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X33" s="33" t="s">
+        <v>510</v>
       </c>
       <c r="Y33" s="33" t="s">
-        <v>2</v>
+        <v>510</v>
       </c>
       <c r="Z33" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C34" s="51">
+      <c r="D34" s="51">
         <v>56</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="E34" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="G34" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G34" s="59">
-        <v>3</v>
-      </c>
       <c r="H34" s="59">
         <v>3</v>
       </c>
-      <c r="I34" s="59" t="s">
+      <c r="I34" s="59">
+        <v>3</v>
+      </c>
+      <c r="J34" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J34" s="21" t="s">
+      <c r="K34" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="25" t="s">
+      <c r="L34" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="L34" s="21" t="s">
+      <c r="M34" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="M34" s="25" t="s">
+      <c r="N34" s="25" t="s">
         <v>148</v>
-      </c>
-      <c r="N34" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="O34" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P34" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q34" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="R34" s="17" t="s">
+      <c r="P34" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="R34" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="S34" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="S34" s="17" t="s">
+      <c r="T34" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="T34" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U34" s="8"/>
-      <c r="V34" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="X34" s="4" t="s">
-        <v>223</v>
+      <c r="U34" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V34" s="8"/>
+      <c r="W34" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X34" s="33" t="s">
+        <v>511</v>
       </c>
       <c r="Y34" s="33" t="s">
-        <v>2</v>
+        <v>511</v>
       </c>
       <c r="Z34" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA34" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="B35" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="51">
+      <c r="B35" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="51">
         <v>197</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="E35" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="F35" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="G35" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G35" s="61"/>
       <c r="H35" s="61"/>
-      <c r="I35" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="J35" s="2" t="s">
+      <c r="I35" s="61"/>
+      <c r="J35" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="N35" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="O35" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P35" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q35" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="R35" s="18" t="s">
-        <v>62</v>
+      <c r="P35" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="S35" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="T35" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U35" s="10"/>
-      <c r="V35" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="X35" s="5" t="s">
-        <v>191</v>
+      <c r="T35" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U35" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V35" s="10"/>
+      <c r="W35" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X35" s="33" t="s">
+        <v>500</v>
       </c>
       <c r="Y35" s="33" t="s">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="Z35" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="B36" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="51">
+      <c r="B36" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="51">
         <v>198</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="E36" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="F36" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="G36" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G36" s="61"/>
       <c r="H36" s="61"/>
-      <c r="I36" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="J36" s="31" t="s">
+      <c r="I36" s="61"/>
+      <c r="J36" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="K36" s="31" t="s">
+      <c r="L36" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="L36" s="31" t="s">
+      <c r="M36" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="M36" s="31" t="s">
+      <c r="N36" s="31" t="s">
         <v>234</v>
-      </c>
-      <c r="N36" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="O36" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P36" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q36" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="R36" s="18" t="s">
-        <v>62</v>
+      <c r="P36" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R36" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="S36" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="T36" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U36" s="8"/>
-      <c r="V36" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="W36" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="X36" s="4" t="s">
-        <v>192</v>
+      <c r="T36" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U36" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V36" s="8"/>
+      <c r="W36" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X36" s="33" t="s">
+        <v>501</v>
       </c>
       <c r="Y36" s="33" t="s">
-        <v>2</v>
+        <v>501</v>
       </c>
       <c r="Z36" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="B37" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="51">
+      <c r="B37" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="51">
         <v>199</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="E37" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="38" t="s">
+      <c r="F37" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="G37" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G37" s="61"/>
       <c r="H37" s="61"/>
-      <c r="I37" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="J37" s="2" t="s">
+      <c r="I37" s="61"/>
+      <c r="J37" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="N37" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="O37" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P37" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q37" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="R37" s="17" t="s">
+      <c r="P37" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R37" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="S37" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="S37" s="17" t="s">
+      <c r="T37" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="T37" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U37" s="10"/>
-      <c r="V37" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="W37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X37" s="5" t="s">
-        <v>193</v>
+      <c r="U37" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V37" s="10"/>
+      <c r="W37" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X37" s="33" t="s">
+        <v>502</v>
       </c>
       <c r="Y37" s="33" t="s">
-        <v>2</v>
+        <v>502</v>
       </c>
       <c r="Z37" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA37" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C38" s="51">
+      <c r="D38" s="51">
         <v>170</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="E38" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="F38" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="F38" s="38" t="s">
+      <c r="G38" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G38" s="61"/>
       <c r="H38" s="61"/>
-      <c r="I38" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="J38" s="21" t="s">
+      <c r="I38" s="61"/>
+      <c r="J38" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="K38" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K38" s="34" t="s">
+      <c r="L38" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="L38" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="M38" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N38" s="22" t="s">
-        <v>33</v>
+      <c r="N38" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="O38" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P38" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q38" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="R38" s="18" t="s">
-        <v>62</v>
+      <c r="P38" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R38" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="S38" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="T38" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U38" s="4"/>
-      <c r="W38" s="33" t="s">
+      <c r="T38" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U38" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V38" s="4"/>
+      <c r="W38" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X38" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="X38" s="33" t="s">
-        <v>284</v>
-      </c>
       <c r="Y38" s="33" t="s">
-        <v>2</v>
+        <v>271</v>
       </c>
       <c r="Z38" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA38" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C39" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C39" s="51">
+      <c r="D39" s="51">
         <v>202</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="E39" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="F39" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="G39" s="38" t="s">
         <v>483</v>
-      </c>
-      <c r="G39" s="59">
-        <v>1</v>
       </c>
       <c r="H39" s="59">
         <v>1</v>
       </c>
-      <c r="I39" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>62</v>
+      <c r="I39" s="59">
+        <v>1</v>
+      </c>
+      <c r="J39" s="61" t="s">
+        <v>121</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>62</v>
@@ -7200,147 +7317,157 @@
       <c r="M39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N39" s="22" t="s">
-        <v>33</v>
+      <c r="N39" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="O39" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P39" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q39" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="R39" s="18" t="s">
-        <v>62</v>
+      <c r="P39" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R39" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="S39" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="T39" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U39" s="32" t="s">
+      <c r="T39" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U39" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V39" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="W39" s="33" t="s">
+      <c r="W39" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X39" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="X39" s="33" t="s">
-        <v>286</v>
-      </c>
       <c r="Y39" s="33" t="s">
-        <v>2</v>
+        <v>264</v>
       </c>
       <c r="Z39" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="51">
+      <c r="B40" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="51">
         <v>221</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="E40" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="F40" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="G40" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G40" s="64"/>
       <c r="H40" s="64"/>
       <c r="I40" s="64"/>
-      <c r="J40" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="J40" s="64"/>
       <c r="K40" s="4" t="s">
         <v>62</v>
       </c>
       <c r="L40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M40" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="M40" s="31" t="s">
+      <c r="N40" s="31" t="s">
         <v>234</v>
-      </c>
-      <c r="N40" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="O40" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P40" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q40" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="R40" s="17" t="s">
-        <v>472</v>
+      <c r="P40" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R40" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="S40" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="T40" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U40" s="32" t="s">
+      <c r="T40" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="U40" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V40" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
+      <c r="W40" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X40" s="33" t="s">
+        <v>272</v>
+      </c>
       <c r="Y40" s="33" t="s">
-        <v>2</v>
+        <v>272</v>
       </c>
       <c r="Z40" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C41" s="51">
+      <c r="D41" s="51">
         <v>365</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="E41" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="F41" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="G41" s="38" t="s">
         <v>483</v>
-      </c>
-      <c r="G41" s="51">
-        <v>7</v>
       </c>
       <c r="H41" s="51">
         <v>7</v>
       </c>
-      <c r="I41" s="51" t="s">
+      <c r="I41" s="51">
+        <v>7</v>
+      </c>
+      <c r="J41" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="K41" s="4" t="s">
         <v>62</v>
       </c>
@@ -7350,77 +7477,80 @@
       <c r="M41" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N41" s="22" t="s">
-        <v>33</v>
+      <c r="N41" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="O41" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P41" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q41" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="R41" s="17" t="s">
+      <c r="P41" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R41" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="S41" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="S41" s="17" t="s">
+      <c r="T41" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="T41" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="U41" s="32" t="s">
+      <c r="U41" s="14" t="s">
         <v>62</v>
       </c>
       <c r="V41" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="W41" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="X41" s="15" t="s">
-        <v>259</v>
+      <c r="W41" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X41" s="33" t="s">
+        <v>340</v>
       </c>
       <c r="Y41" s="33" t="s">
-        <v>2</v>
+        <v>340</v>
       </c>
       <c r="Z41" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA41" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C42" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C42" s="51">
+      <c r="D42" s="51">
         <v>366</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="E42" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="38" t="s">
+      <c r="F42" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="G42" s="38" t="s">
         <v>483</v>
-      </c>
-      <c r="G42" s="51">
-        <v>20</v>
       </c>
       <c r="H42" s="51">
         <v>20</v>
       </c>
-      <c r="I42" s="51" t="s">
+      <c r="I42" s="51">
+        <v>20</v>
+      </c>
+      <c r="J42" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="K42" s="4" t="s">
         <v>62</v>
       </c>
@@ -7430,981 +7560,1036 @@
       <c r="M42" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N42" s="22" t="s">
-        <v>33</v>
+      <c r="N42" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="O42" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P42" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q42" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="R42" s="17" t="s">
+      <c r="P42" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q42" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R42" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="S42" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="S42" s="17" t="s">
+      <c r="T42" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="T42" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="U42" s="32" t="s">
+      <c r="U42" s="14" t="s">
         <v>62</v>
       </c>
       <c r="V42" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="W42" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="X42" s="36" t="s">
-        <v>260</v>
+      <c r="W42" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X42" s="33" t="s">
+        <v>341</v>
       </c>
       <c r="Y42" s="33" t="s">
-        <v>2</v>
+        <v>341</v>
       </c>
       <c r="Z42" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA42" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C43" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C43" s="51">
+      <c r="D43" s="51">
         <v>500</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="E43" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="F43" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="F43" s="38" t="s">
+      <c r="G43" s="38" t="s">
         <v>483</v>
-      </c>
-      <c r="G43" s="59">
-        <v>1</v>
       </c>
       <c r="H43" s="59">
         <v>1</v>
       </c>
-      <c r="I43" s="59" t="s">
+      <c r="I43" s="59">
+        <v>1</v>
+      </c>
+      <c r="J43" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J43" s="21" t="s">
+      <c r="K43" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="K43" s="21" t="s">
+      <c r="L43" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="L43" s="21" t="s">
+      <c r="M43" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="M43" s="21" t="s">
+      <c r="N43" s="21" t="s">
         <v>240</v>
-      </c>
-      <c r="N43" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="O43" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P43" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q43" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="R43" s="18" t="s">
-        <v>62</v>
+      <c r="P43" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q43" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R43" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="S43" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="T43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U43" s="32" t="s">
+      <c r="T43" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U43" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V43" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="W43" t="s">
-        <v>237</v>
-      </c>
-      <c r="X43" t="s">
-        <v>238</v>
+      <c r="W43" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X43" s="33" t="s">
+        <v>235</v>
       </c>
       <c r="Y43" s="33" t="s">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="Z43" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA43" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C44" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C44" s="51">
+      <c r="D44" s="51">
         <v>500</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="E44" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="F44" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="F44" s="38" t="s">
+      <c r="G44" s="38" t="s">
         <v>483</v>
-      </c>
-      <c r="G44" s="59">
-        <v>1</v>
       </c>
       <c r="H44" s="59">
         <v>1</v>
       </c>
-      <c r="I44" s="59" t="s">
+      <c r="I44" s="59">
+        <v>1</v>
+      </c>
+      <c r="J44" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J44" s="21" t="s">
+      <c r="K44" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="K44" s="21" t="s">
+      <c r="L44" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="L44" s="21" t="s">
+      <c r="M44" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="M44" s="21" t="s">
+      <c r="N44" s="21" t="s">
         <v>240</v>
-      </c>
-      <c r="N44" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="O44" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P44" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q44" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="R44" s="18" t="s">
-        <v>62</v>
+      <c r="P44" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R44" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="S44" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="T44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U44" s="32" t="s">
+      <c r="T44" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U44" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V44" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="W44" t="s">
+      <c r="W44" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X44" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="X44" t="s">
-        <v>239</v>
-      </c>
       <c r="Y44" s="33" t="s">
-        <v>2</v>
+        <v>236</v>
       </c>
       <c r="Z44" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA44" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C45" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C45" s="51">
+      <c r="D45" s="51">
         <v>500</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="E45" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="F45" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="G45" s="38" t="s">
         <v>483</v>
-      </c>
-      <c r="G45" s="59">
-        <v>1</v>
       </c>
       <c r="H45" s="59">
         <v>1</v>
       </c>
-      <c r="I45" s="59" t="s">
+      <c r="I45" s="59">
+        <v>1</v>
+      </c>
+      <c r="J45" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J45" s="21" t="s">
+      <c r="K45" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="K45" s="21" t="s">
+      <c r="L45" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="L45" s="21" t="s">
+      <c r="M45" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="M45" s="21" t="s">
+      <c r="N45" s="21" t="s">
         <v>240</v>
-      </c>
-      <c r="N45" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="O45" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P45" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q45" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="R45" s="18" t="s">
-        <v>62</v>
+      <c r="P45" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R45" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="S45" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="T45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U45" s="32" t="s">
+      <c r="T45" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U45" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V45" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="W45" s="37" t="s">
+      <c r="W45" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X45" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="X45" s="37" t="s">
-        <v>256</v>
-      </c>
       <c r="Y45" s="33" t="s">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="Z45" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA45" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C46" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C46" s="51">
+      <c r="D46" s="51">
         <v>5</v>
       </c>
-      <c r="D46" s="51" t="s">
+      <c r="E46" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="G46" s="59">
-        <v>4</v>
       </c>
       <c r="H46" s="59">
         <v>4</v>
       </c>
-      <c r="I46" s="59" t="s">
+      <c r="I46" s="59">
+        <v>4</v>
+      </c>
+      <c r="J46" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J46" s="21" t="s">
+      <c r="K46" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K46" s="34" t="s">
+      <c r="L46" s="34" t="s">
         <v>245</v>
-      </c>
-      <c r="L46" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="M46" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="N46" s="21" t="s">
+      <c r="N46" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O46" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="O46" s="34" t="s">
+      <c r="P46" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="P46" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q46" s="27" t="s">
+      <c r="Q46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R46" s="27" t="s">
         <v>159</v>
-      </c>
-      <c r="R46" s="17" t="s">
-        <v>91</v>
       </c>
       <c r="S46" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="T46" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U46" s="11">
+      <c r="T46" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="U46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V46" s="11">
         <v>27.9</v>
       </c>
-      <c r="V46" s="5"/>
-      <c r="W46" s="4" t="s">
+      <c r="W46" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X46" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="X46" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="Y46" s="33" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="Z46" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA46" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C47" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C47" s="51">
+      <c r="D47" s="51">
         <v>8</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="E47" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="F47" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F47" s="38" t="s">
+      <c r="G47" s="38" t="s">
         <v>488</v>
-      </c>
-      <c r="G47" s="51">
-        <v>1</v>
       </c>
       <c r="H47" s="51">
         <v>1</v>
       </c>
-      <c r="I47" s="51" t="s">
+      <c r="I47" s="51">
+        <v>1</v>
+      </c>
+      <c r="J47" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="J47" s="21" t="s">
+      <c r="K47" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K47" s="34" t="s">
+      <c r="L47" s="34" t="s">
         <v>245</v>
-      </c>
-      <c r="L47" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="M47" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="N47" s="21" t="s">
+      <c r="N47" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O47" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="O47" s="34" t="s">
+      <c r="P47" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="P47" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q47" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R47" s="17" t="s">
+      <c r="Q47" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R47" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="S47" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="S47" s="17" t="s">
+      <c r="T47" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="T47" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U47" s="10"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4" t="s">
+      <c r="U47" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V47" s="10"/>
+      <c r="W47" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X47" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="X47" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="Y47" s="33" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Z47" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA47" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C48" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C48" s="51">
+      <c r="D48" s="51">
         <v>13</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="E48" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="G48" s="59">
-        <v>3</v>
-      </c>
       <c r="H48" s="59">
         <v>3</v>
       </c>
-      <c r="I48" s="59" t="s">
+      <c r="I48" s="59">
+        <v>3</v>
+      </c>
+      <c r="J48" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J48" s="21" t="s">
+      <c r="K48" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K48" s="21" t="s">
+      <c r="L48" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="L48" s="21" t="s">
+      <c r="M48" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="M48" s="21" t="s">
+      <c r="N48" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="N48" s="21" t="s">
+      <c r="O48" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="O48" s="34" t="s">
+      <c r="P48" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="P48" s="26" t="s">
+      <c r="Q48" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="Q48" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R48" s="17" t="s">
+      <c r="R48" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="S48" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="S48" s="17" t="s">
+      <c r="T48" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="T48" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U48" s="11">
+      <c r="U48" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V48" s="11">
         <v>19.399999999999999</v>
       </c>
-      <c r="V48" s="5"/>
-      <c r="W48" s="4" t="s">
+      <c r="W48" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X48" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="X48" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="Y48" s="33" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Z48" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA48" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C49" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C49" s="51">
+      <c r="D49" s="51">
         <v>16</v>
       </c>
-      <c r="D49" s="51" t="s">
+      <c r="E49" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="G49" s="59">
-        <v>5</v>
       </c>
       <c r="H49" s="59">
         <v>5</v>
       </c>
-      <c r="I49" s="59" t="s">
+      <c r="I49" s="59">
+        <v>5</v>
+      </c>
+      <c r="J49" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="L49" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="M49" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="N49" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="P49" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="P49" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q49" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R49" s="17" t="s">
+      <c r="Q49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R49" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="S49" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="S49" s="17" t="s">
+      <c r="T49" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="T49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U49" s="11"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="20" t="s">
+      <c r="U49" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X49" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="X49" s="20" t="s">
-        <v>180</v>
-      </c>
       <c r="Y49" s="33" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="Z49" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA49" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C50" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C50" s="51">
+      <c r="D50" s="51">
         <v>23</v>
       </c>
-      <c r="D50" s="59" t="s">
+      <c r="E50" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="G50" s="59">
-        <v>5</v>
       </c>
       <c r="H50" s="59">
         <v>5</v>
       </c>
-      <c r="I50" s="59" t="s">
+      <c r="I50" s="59">
+        <v>5</v>
+      </c>
+      <c r="J50" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="L50" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="M50" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="N50" s="2" t="s">
+      <c r="N50" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O50" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="P50" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="P50" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q50" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R50" s="17" t="s">
+      <c r="Q50" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R50" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="S50" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="S50" s="17" t="s">
+      <c r="T50" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="T50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U50" s="11">
+      <c r="U50" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V50" s="11">
         <v>11.7</v>
       </c>
-      <c r="V50" s="5">
+      <c r="W50" s="51">
         <v>26037535</v>
       </c>
-      <c r="W50" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="X50" s="5" t="s">
-        <v>183</v>
+      <c r="X50" s="33" t="s">
+        <v>512</v>
       </c>
       <c r="Y50" s="33" t="s">
-        <v>2</v>
+        <v>512</v>
       </c>
       <c r="Z50" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA50" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="33" t="s">
         <v>513</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C51" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C51" s="51">
+      <c r="D51" s="51">
         <v>26</v>
       </c>
-      <c r="D51" s="59" t="s">
+      <c r="E51" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="G51" s="59">
+      <c r="H51" s="59">
         <v>7</v>
       </c>
-      <c r="H51" s="59">
+      <c r="I51" s="59">
         <v>11</v>
       </c>
-      <c r="I51" s="59" t="s">
+      <c r="J51" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="L51" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="M51" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="N51" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O51" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="P51" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="P51" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q51" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R51" s="17" t="s">
+      <c r="Q51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R51" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="S51" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="S51" s="17" t="s">
+      <c r="T51" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="T51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U51" s="11">
+      <c r="U51" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V51" s="11">
         <v>55</v>
       </c>
-      <c r="V51" s="5">
+      <c r="W51" s="51">
         <v>15085543</v>
       </c>
-      <c r="W51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X51" s="4" t="s">
-        <v>184</v>
+      <c r="X51" s="33" t="s">
+        <v>513</v>
       </c>
       <c r="Y51" s="33" t="s">
-        <v>2</v>
+        <v>513</v>
       </c>
       <c r="Z51" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA51" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C52" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="C52" s="51">
+      <c r="D52" s="51">
         <v>30</v>
       </c>
-      <c r="D52" s="59" t="s">
+      <c r="E52" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="38" t="s">
+      <c r="F52" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="38" t="s">
+      <c r="G52" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="G52" s="51"/>
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="51"/>
+      <c r="K52" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="M52" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M52" s="2" t="s">
+      <c r="N52" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="N52" s="2" t="s">
+      <c r="O52" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="O52" s="2" t="s">
+      <c r="P52" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="P52" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q52" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R52" s="18" t="s">
-        <v>62</v>
+      <c r="Q52" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R52" s="27" t="s">
+        <v>158</v>
       </c>
       <c r="S52" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="T52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U52" s="11"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="X52" s="24" t="s">
-        <v>206</v>
+      <c r="T52" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X52" s="33" t="s">
+        <v>514</v>
       </c>
       <c r="Y52" s="33" t="s">
-        <v>2</v>
+        <v>514</v>
       </c>
       <c r="Z52" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA52" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51">
+      <c r="B53" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51">
         <v>46</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="E53" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="38" t="s">
+      <c r="F53" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="F53" s="38"/>
-      <c r="G53" s="51"/>
+      <c r="G53" s="38" t="s">
+        <v>483</v>
+      </c>
       <c r="H53" s="51"/>
       <c r="I53" s="51"/>
-      <c r="J53" s="21" t="s">
+      <c r="J53" s="51"/>
+      <c r="K53" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K53" s="34" t="s">
+      <c r="L53" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="L53" s="21" t="s">
+      <c r="M53" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="M53" s="34" t="s">
+      <c r="N53" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="N53" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="O53" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P53" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q53" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="R53" s="17" t="s">
-        <v>92</v>
+      <c r="P53" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q53" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="R53" s="29" t="s">
+        <v>158</v>
       </c>
       <c r="S53" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="T53" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U53" s="11"/>
-      <c r="V53" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="W53" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="X53" s="4" t="s">
-        <v>229</v>
+      <c r="T53" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="U53" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X53" s="33" t="s">
+        <v>515</v>
       </c>
       <c r="Y53" s="33" t="s">
-        <v>2</v>
+        <v>515</v>
       </c>
       <c r="Z53" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA53" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51">
+      <c r="B54" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51">
         <v>54</v>
       </c>
-      <c r="D54" s="59" t="s">
+      <c r="E54" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="59"/>
+      <c r="G54" s="38" t="s">
+        <v>483</v>
+      </c>
       <c r="H54" s="59"/>
       <c r="I54" s="59"/>
-      <c r="J54" s="21" t="s">
+      <c r="J54" s="59"/>
+      <c r="K54" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K54" s="25" t="s">
+      <c r="L54" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="L54" s="21" t="s">
+      <c r="M54" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="M54" s="25" t="s">
+      <c r="N54" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="N54" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="O54" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P54" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q54" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="R54" s="17" t="s">
+      <c r="P54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q54" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="R54" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="S54" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="S54" s="17" t="s">
+      <c r="T54" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="T54" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U54" s="11"/>
-      <c r="V54" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="W54" s="33" t="s">
+      <c r="U54" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X54" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="X54" s="33" t="s">
-        <v>250</v>
-      </c>
       <c r="Y54" s="33" t="s">
-        <v>2</v>
+        <v>249</v>
       </c>
       <c r="Z54" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA54" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51">
+      <c r="B55" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51">
         <v>191</v>
       </c>
-      <c r="D55" s="51" t="s">
+      <c r="E55" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="38" t="s">
+      <c r="F55" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F55" s="38"/>
-      <c r="G55" s="51"/>
+      <c r="G55" s="38" t="s">
+        <v>483</v>
+      </c>
       <c r="H55" s="51"/>
       <c r="I55" s="51"/>
-      <c r="J55" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="J55" s="51"/>
       <c r="K55" s="4" t="s">
         <v>62</v>
       </c>
@@ -8421,58 +8606,63 @@
         <v>62</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q55" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="R55" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R55" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="S55" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="S55" s="17" t="s">
+      <c r="T55" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="T55" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U55" s="10"/>
-      <c r="V55" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="W55" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X55" s="4" t="s">
-        <v>194</v>
+      <c r="U55" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V55" s="10"/>
+      <c r="W55" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X55" s="33" t="s">
+        <v>518</v>
       </c>
       <c r="Y55" s="33" t="s">
-        <v>2</v>
+        <v>518</v>
       </c>
       <c r="Z55" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA55" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="33" t="s">
         <v>519</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51">
+      <c r="B56" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51">
         <v>192</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="E56" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="38" t="s">
+      <c r="F56" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F56" s="38"/>
-      <c r="G56" s="51"/>
+      <c r="G56" s="38" t="s">
+        <v>483</v>
+      </c>
       <c r="H56" s="51"/>
       <c r="I56" s="51"/>
-      <c r="J56" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="J56" s="51"/>
       <c r="K56" s="4" t="s">
         <v>62</v>
       </c>
@@ -8489,58 +8679,61 @@
         <v>62</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q56" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="R56" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R56" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="S56" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="S56" s="17" t="s">
+      <c r="T56" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="T56" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U56" s="8"/>
-      <c r="V56" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="W56" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X56" s="4" t="s">
-        <v>195</v>
+      <c r="U56" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V56" s="8"/>
+      <c r="W56" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X56" s="33" t="s">
+        <v>519</v>
       </c>
       <c r="Y56" s="33" t="s">
-        <v>2</v>
+        <v>519</v>
       </c>
       <c r="Z56" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA56" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="55">
+      <c r="B57" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C57" s="51"/>
+      <c r="D57" s="55">
         <v>83</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="E57" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="56" t="s">
+      <c r="F57" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="F57" s="56"/>
-      <c r="G57" s="58"/>
+      <c r="G57" s="38"/>
       <c r="H57" s="58"/>
       <c r="I57" s="58"/>
-      <c r="J57" s="53" t="s">
-        <v>62</v>
-      </c>
+      <c r="J57" s="58"/>
       <c r="K57" s="53" t="s">
         <v>62</v>
       </c>
@@ -8557,91 +8750,111 @@
         <v>62</v>
       </c>
       <c r="P57" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q57" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="R57" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q57" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="R57" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="S57" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="S57" s="17" t="s">
+      <c r="T57" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="T57" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="U57" s="56" t="s">
+      <c r="U57" s="58" t="s">
         <v>62</v>
       </c>
       <c r="V57" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="W57" s="56"/>
-      <c r="X57" s="56"/>
-      <c r="Y57" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z57" s="54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W57" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X57" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y57" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z57" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA57" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51">
+      <c r="B58" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51">
         <v>86</v>
       </c>
-      <c r="D58" s="59" t="s">
+      <c r="E58" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="40" t="s">
+      <c r="F58" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="F58" s="40" t="s">
+      <c r="G58" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="G58" s="58"/>
       <c r="H58" s="58"/>
       <c r="I58" s="58"/>
-      <c r="Q58" s="57"/>
-      <c r="R58" s="17" t="s">
+      <c r="J58" s="58"/>
+      <c r="R58" s="57"/>
+      <c r="S58" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="S58" s="17" t="s">
+      <c r="T58" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="T58" s="58"/>
-      <c r="U58" s="56"/>
+      <c r="U58" s="58"/>
       <c r="V58" s="56"/>
-      <c r="W58" s="56"/>
-      <c r="X58" s="56"/>
-      <c r="Y58" s="54"/>
-      <c r="Z58" s="54"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W58" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X58" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y58" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z58" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA58" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="33" t="s">
         <v>516</v>
       </c>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51">
+      <c r="B59" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51">
         <v>92</v>
       </c>
-      <c r="D59" s="59" t="s">
+      <c r="E59" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="F59" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="F59" s="40"/>
-      <c r="G59" s="59"/>
+      <c r="G59" s="40"/>
       <c r="H59" s="59"/>
       <c r="I59" s="59"/>
-      <c r="J59" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="J59" s="59"/>
       <c r="K59" s="4" t="s">
         <v>62</v>
       </c>
@@ -8658,56 +8871,63 @@
         <v>62</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q59" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R59" s="12" t="s">
         <v>482</v>
-      </c>
-      <c r="R59" s="17" t="s">
-        <v>490</v>
       </c>
       <c r="S59" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="T59" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U59" s="32" t="s">
+      <c r="T59" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="U59" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V59" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="W59" s="32"/>
-      <c r="X59" s="32"/>
+      <c r="W59" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X59" s="33" t="s">
+        <v>516</v>
+      </c>
       <c r="Y59" s="33" t="s">
-        <v>2</v>
+        <v>516</v>
       </c>
       <c r="Z59" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA59" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51">
+      <c r="B60" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51">
         <v>163</v>
       </c>
-      <c r="D60" s="59" t="s">
+      <c r="E60" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E60" s="40" t="s">
+      <c r="F60" s="40" t="s">
         <v>391</v>
       </c>
-      <c r="F60" s="40"/>
-      <c r="G60" s="59"/>
+      <c r="G60" s="40"/>
       <c r="H60" s="59"/>
       <c r="I60" s="59"/>
-      <c r="J60" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="J60" s="59"/>
       <c r="K60" s="4" t="s">
         <v>62</v>
       </c>
@@ -8724,58 +8944,65 @@
         <v>62</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q60" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R60" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="R60" s="17" t="s">
+      <c r="S60" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="S60" s="17" t="s">
+      <c r="T60" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="T60" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U60" s="32" t="s">
+      <c r="U60" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V60" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="W60" s="32"/>
-      <c r="X60" s="32"/>
+      <c r="W60" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X60" s="33" t="s">
+        <v>404</v>
+      </c>
       <c r="Y60" s="33" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="Z60" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA60" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51">
+      <c r="B61" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51">
         <v>174</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="E61" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="40" t="s">
+      <c r="F61" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="F61" s="40" t="s">
+      <c r="G61" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="G61" s="59"/>
       <c r="H61" s="59"/>
       <c r="I61" s="59"/>
-      <c r="J61" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="J61" s="59"/>
       <c r="K61" s="4" t="s">
         <v>62</v>
       </c>
@@ -8792,56 +9019,63 @@
         <v>62</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q61" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R61" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="R61" s="17" t="s">
+      <c r="S61" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="S61" s="17" t="s">
+      <c r="T61" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="T61" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U61" s="32" t="s">
+      <c r="U61" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V61" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="W61" s="32"/>
-      <c r="X61" s="32"/>
+      <c r="W61" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X61" s="33" t="s">
+        <v>411</v>
+      </c>
       <c r="Y61" s="33" t="s">
-        <v>2</v>
+        <v>411</v>
       </c>
       <c r="Z61" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA61" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51">
+      <c r="B62" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51">
         <v>180</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="E62" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="40" t="s">
+      <c r="F62" s="40" t="s">
         <v>455</v>
       </c>
-      <c r="F62" s="40"/>
-      <c r="G62" s="59"/>
+      <c r="G62" s="40"/>
       <c r="H62" s="59"/>
       <c r="I62" s="59"/>
-      <c r="J62" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="J62" s="59"/>
       <c r="K62" s="4" t="s">
         <v>62</v>
       </c>
@@ -8858,56 +9092,63 @@
         <v>62</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q62" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="R62" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R62" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="S62" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="S62" s="17" t="s">
+      <c r="T62" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="T62" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U62" s="32" t="s">
+      <c r="U62" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V62" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="W62" s="32"/>
-      <c r="X62" s="32"/>
+      <c r="W62" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X62" s="33" t="s">
+        <v>417</v>
+      </c>
       <c r="Y62" s="33" t="s">
-        <v>2</v>
+        <v>417</v>
       </c>
       <c r="Z62" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA62" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51">
+      <c r="B63" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51">
         <v>190</v>
       </c>
-      <c r="D63" s="59" t="s">
+      <c r="E63" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="40" t="s">
+      <c r="F63" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="F63" s="40"/>
-      <c r="G63" s="59"/>
+      <c r="G63" s="40"/>
       <c r="H63" s="59"/>
       <c r="I63" s="59"/>
-      <c r="J63" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="J63" s="59"/>
       <c r="K63" s="4" t="s">
         <v>62</v>
       </c>
@@ -8924,56 +9165,65 @@
         <v>62</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q63" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="R63" s="17" t="s">
-        <v>476</v>
+        <v>62</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R63" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="S63" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="T63" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U63" s="32" t="s">
+      <c r="T63" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="U63" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V63" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="W63" s="32"/>
-      <c r="X63" s="32"/>
+      <c r="W63" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X63" s="33" t="s">
+        <v>428</v>
+      </c>
       <c r="Y63" s="33" t="s">
-        <v>2</v>
+        <v>428</v>
       </c>
       <c r="Z63" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AA63" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51">
+      <c r="B64" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51">
         <v>211</v>
       </c>
-      <c r="D64" s="51" t="s">
+      <c r="E64" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="40" t="s">
+      <c r="F64" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="F64" s="40"/>
-      <c r="G64" s="59"/>
+      <c r="G64" s="3" t="s">
+        <v>488</v>
+      </c>
       <c r="H64" s="59"/>
       <c r="I64" s="59"/>
-      <c r="J64" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="J64" s="59"/>
       <c r="K64" s="4" t="s">
         <v>62</v>
       </c>
@@ -8990,54 +9240,40 @@
         <v>62</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q64" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="R64" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R64" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="S64" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="S64" s="17" t="s">
+      <c r="T64" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="T64" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U64" s="32" t="s">
+      <c r="U64" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V64" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="W64" s="32"/>
-      <c r="X64" s="32"/>
+      <c r="W64" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="X64" s="33" t="s">
+        <v>471</v>
+      </c>
       <c r="Y64" s="33" t="s">
-        <v>2</v>
+        <v>471</v>
       </c>
       <c r="Z64" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A65" s="33" t="s">
-        <v>517</v>
-      </c>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51">
-        <v>372</v>
-      </c>
-      <c r="D65" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="40" t="s">
-        <v>492</v>
-      </c>
-      <c r="R65" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="S65" s="17" t="s">
-        <v>494</v>
+        <v>2</v>
+      </c>
+      <c r="AA64" s="33" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9047,6 +9283,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DF64FF-1ACF-3343-9117-8B560D31B897}">
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51">
+        <v>372</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="R1" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>494</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B360C71-AF89-7943-A045-D3B1DD6FD547}">
   <dimension ref="A1:AA178"/>
   <sheetViews>
@@ -21330,7 +21605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961C46CC-B959-6C4F-964A-122A681BFB18}">
   <dimension ref="A1:AA165"/>
   <sheetViews>
@@ -32629,7 +32904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W177"/>
   <sheetViews>
@@ -37441,7 +37716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF26281E-1617-0A4C-8395-7FBC4521B67B}">
   <dimension ref="A1:W100"/>
   <sheetViews>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E38D917-E26D-8B42-911D-FB06BF71D4F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAEFFC6-C5A9-9D42-98D9-264FDF9F7DC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10000" yWindow="3140" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11228" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11256" uniqueCount="523">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -1601,6 +1601,12 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>dependo.160-gymnobelideus</t>
+  </si>
+  <si>
+    <t>dependo.9-hyracoidea</t>
   </si>
 </sst>
 </file>
@@ -4231,16 +4237,16 @@
   <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" style="8" customWidth="1"/>
@@ -4418,11 +4424,11 @@
       <c r="W2" s="51">
         <v>27377618</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="5" t="s">
-        <v>165</v>
+      <c r="Y2" s="33" t="s">
+        <v>5</v>
       </c>
       <c r="Z2" s="33" t="s">
         <v>2</v>
@@ -4501,11 +4507,11 @@
       <c r="W3" s="51">
         <v>32913662</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="4" t="s">
-        <v>166</v>
+      <c r="Y3" s="33" t="s">
+        <v>6</v>
       </c>
       <c r="Z3" s="33" t="s">
         <v>2</v>
@@ -4582,11 +4588,11 @@
       <c r="W4" s="51">
         <v>32913662</v>
       </c>
-      <c r="X4" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>167</v>
+      <c r="X4" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y4" s="33" t="s">
+        <v>503</v>
       </c>
       <c r="Z4" s="33" t="s">
         <v>2</v>
@@ -4665,11 +4671,11 @@
       <c r="W5" s="51">
         <v>32913662</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="4" t="s">
-        <v>168</v>
+      <c r="Y5" s="33" t="s">
+        <v>8</v>
       </c>
       <c r="Z5" s="33" t="s">
         <v>2</v>
@@ -4748,11 +4754,11 @@
       <c r="W6" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="X6" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="Y6" s="4" t="s">
-        <v>169</v>
+      <c r="Y6" s="33" t="s">
+        <v>152</v>
       </c>
       <c r="Z6" s="33" t="s">
         <v>2</v>
@@ -4829,11 +4835,11 @@
       <c r="W7" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="X7" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="Y7" s="4" t="s">
-        <v>175</v>
+      <c r="Y7" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="Z7" s="33" t="s">
         <v>2</v>
@@ -4910,11 +4916,11 @@
       <c r="W8" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="X8" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="Y8" s="4" t="s">
-        <v>186</v>
+      <c r="Y8" s="33" t="s">
+        <v>108</v>
       </c>
       <c r="Z8" s="33" t="s">
         <v>2</v>
@@ -4989,10 +4995,18 @@
       <c r="W9" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
+      <c r="X9" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y9" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z9" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="33" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
@@ -5062,11 +5076,11 @@
       <c r="W10" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X10" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>190</v>
+      <c r="X10" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y10" s="33" t="s">
+        <v>505</v>
       </c>
       <c r="Z10" s="33" t="s">
         <v>2</v>
@@ -5077,7 +5091,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
-        <v>293</v>
+        <v>521</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>292</v>
@@ -5144,10 +5158,10 @@
         <v>520</v>
       </c>
       <c r="X11" s="33" t="s">
-        <v>293</v>
+        <v>521</v>
       </c>
       <c r="Y11" s="33" t="s">
-        <v>293</v>
+        <v>521</v>
       </c>
       <c r="Z11" s="33" t="s">
         <v>2</v>
@@ -5216,10 +5230,18 @@
       <c r="W12" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
+      <c r="X12" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y12" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z12" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="33" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
@@ -5291,8 +5313,12 @@
       <c r="W13" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
+      <c r="X13" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y13" s="33" t="s">
+        <v>411</v>
+      </c>
       <c r="Z13" s="33" t="s">
         <v>2</v>
       </c>
@@ -5370,8 +5396,12 @@
       <c r="W14" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
+      <c r="X14" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y14" s="33" t="s">
+        <v>413</v>
+      </c>
       <c r="Z14" s="33" t="s">
         <v>2</v>
       </c>
@@ -5447,11 +5477,11 @@
       <c r="W15" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="X15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="Y15" s="4" t="s">
-        <v>171</v>
+      <c r="Y15" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="Z15" s="33" t="s">
         <v>2</v>
@@ -5528,11 +5558,11 @@
       <c r="W16" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="X16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="Y16" s="4" t="s">
-        <v>172</v>
+      <c r="Y16" s="33" t="s">
+        <v>12</v>
       </c>
       <c r="Z16" s="33" t="s">
         <v>2</v>
@@ -5543,7 +5573,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
-        <v>114</v>
+        <v>522</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>292</v>
@@ -5609,11 +5639,11 @@
       <c r="W17" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X17" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>244</v>
+      <c r="X17" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y17" s="33" t="s">
+        <v>522</v>
       </c>
       <c r="Z17" s="33" t="s">
         <v>2</v>
@@ -5690,11 +5720,11 @@
       <c r="W18" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="X18" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="4" t="s">
-        <v>174</v>
+      <c r="Y18" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="Z18" s="33" t="s">
         <v>2</v>
@@ -5767,11 +5797,11 @@
       <c r="W19" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X19" s="4" t="s">
+      <c r="X19" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="Y19" s="4" t="s">
-        <v>176</v>
+      <c r="Y19" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="Z19" s="33" t="s">
         <v>2</v>
@@ -5850,11 +5880,11 @@
       <c r="W20" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X20" s="4" t="s">
+      <c r="X20" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="Y20" s="4" t="s">
-        <v>178</v>
+      <c r="Y20" s="33" t="s">
+        <v>44</v>
       </c>
       <c r="Z20" s="33" t="s">
         <v>2</v>
@@ -5933,11 +5963,11 @@
       <c r="W21" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>179</v>
+      <c r="X21" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y21" s="33" t="s">
+        <v>115</v>
       </c>
       <c r="Z21" s="33" t="s">
         <v>2</v>
@@ -6014,11 +6044,11 @@
       <c r="W22" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="X22" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="Y22" s="4" t="s">
-        <v>181</v>
+      <c r="Y22" s="33" t="s">
+        <v>201</v>
       </c>
       <c r="Z22" s="33" t="s">
         <v>2</v>
@@ -6097,11 +6127,11 @@
       <c r="W23" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X23" s="5" t="s">
+      <c r="X23" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="Y23" s="5" t="s">
-        <v>182</v>
+      <c r="Y23" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="Z23" s="33" t="s">
         <v>2</v>
@@ -6178,11 +6208,11 @@
       <c r="W24" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X24" s="4" t="s">
+      <c r="X24" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="Y24" s="4" t="s">
-        <v>185</v>
+      <c r="Y24" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="Z24" s="33" t="s">
         <v>2</v>
@@ -6259,11 +6289,11 @@
       <c r="W25" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X25" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y25" s="24" t="s">
-        <v>205</v>
+      <c r="X25" s="33" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y25" s="33" t="s">
+        <v>506</v>
       </c>
       <c r="Z25" s="33" t="s">
         <v>2</v>
@@ -6340,11 +6370,11 @@
       <c r="W26" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X26" s="4" t="s">
+      <c r="X26" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="Y26" s="4" t="s">
-        <v>253</v>
+      <c r="Y26" s="33" t="s">
+        <v>199</v>
       </c>
       <c r="Z26" s="33" t="s">
         <v>2</v>
@@ -6425,7 +6455,7 @@
         <v>198</v>
       </c>
       <c r="Y27" s="33" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="Z27" s="33" t="s">
         <v>2</v>
@@ -6500,11 +6530,11 @@
       <c r="W28" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X28" s="4" t="s">
+      <c r="X28" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="Y28" s="4" t="s">
-        <v>189</v>
+      <c r="Y28" s="33" t="s">
+        <v>41</v>
       </c>
       <c r="Z28" s="33" t="s">
         <v>2</v>
@@ -6581,11 +6611,11 @@
       <c r="W29" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X29" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y29" s="4" t="s">
-        <v>215</v>
+      <c r="X29" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y29" s="33" t="s">
+        <v>507</v>
       </c>
       <c r="Z29" s="33" t="s">
         <v>2</v>
@@ -6625,10 +6655,18 @@
       <c r="J30" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="K30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
       <c r="Q30" s="13"/>
@@ -6644,10 +6682,18 @@
       <c r="W30" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
+      <c r="X30" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y30" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z30" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA30" s="33" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
@@ -8809,7 +8855,30 @@
       <c r="H58" s="58"/>
       <c r="I58" s="58"/>
       <c r="J58" s="58"/>
-      <c r="R58" s="57"/>
+      <c r="K58" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="L58" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="M58" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="N58" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="O58" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="P58" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q58" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="R58" s="57" t="s">
+        <v>158</v>
+      </c>
       <c r="S58" s="17" t="s">
         <v>498</v>
       </c>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAEFFC6-C5A9-9D42-98D9-264FDF9F7DC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C40E38-5E70-3340-8791-462BAABCE4CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10000" yWindow="3140" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4237,10 +4237,10 @@
   <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="W51" sqref="W51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C40E38-5E70-3340-8791-462BAABCE4CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0A89E8-5198-C24E-92F6-89200B5D8975}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10000" yWindow="3140" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11256" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11264" uniqueCount="524">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -1607,6 +1607,9 @@
   </si>
   <si>
     <t>dependo.9-hyracoidea</t>
+  </si>
+  <si>
+    <t>dependo.370-pelecanus</t>
   </si>
 </sst>
 </file>
@@ -4237,10 +4240,10 @@
   <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W51" sqref="W51"/>
+      <selection pane="bottomRight" activeCell="T19" sqref="A1:AA64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4266,7 +4269,7 @@
     <col min="19" max="19" width="34.6640625" customWidth="1"/>
     <col min="20" max="20" width="25.5" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="22.1640625" customWidth="1"/>
+    <col min="22" max="22" width="22.1640625" style="8" customWidth="1"/>
     <col min="23" max="23" width="17.5" style="8" customWidth="1"/>
     <col min="24" max="24" width="26.5" customWidth="1"/>
     <col min="25" max="25" width="32" customWidth="1"/>
@@ -5153,7 +5156,6 @@
       <c r="U11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V11" s="8"/>
       <c r="W11" s="11" t="s">
         <v>520</v>
       </c>
@@ -5226,7 +5228,7 @@
       <c r="S12" s="55"/>
       <c r="T12" s="55"/>
       <c r="U12" s="58"/>
-      <c r="V12" s="56"/>
+      <c r="V12" s="58"/>
       <c r="W12" s="11" t="s">
         <v>520</v>
       </c>
@@ -5307,7 +5309,7 @@
       <c r="U13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V13" s="32" t="s">
+      <c r="V13" s="11" t="s">
         <v>62</v>
       </c>
       <c r="W13" s="11" t="s">
@@ -5390,7 +5392,7 @@
       <c r="U14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V14" s="32" t="s">
+      <c r="V14" s="11" t="s">
         <v>62</v>
       </c>
       <c r="W14" s="11" t="s">
@@ -6667,17 +6669,27 @@
       <c r="N30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="16"/>
+      <c r="O30" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="R30" s="29" t="s">
+        <v>158</v>
+      </c>
       <c r="S30" s="17" t="s">
         <v>474</v>
       </c>
       <c r="T30" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="U30" s="11"/>
+      <c r="U30" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="V30" s="11"/>
       <c r="W30" s="11" t="s">
         <v>520</v>
@@ -6998,7 +7010,6 @@
       <c r="U34" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V34" s="8"/>
       <c r="W34" s="11" t="s">
         <v>520</v>
       </c>
@@ -7152,7 +7163,6 @@
       <c r="U36" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V36" s="8"/>
       <c r="W36" s="11" t="s">
         <v>520</v>
       </c>
@@ -7248,7 +7258,7 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
-        <v>271</v>
+        <v>523</v>
       </c>
       <c r="B38" s="33" t="s">
         <v>292</v>
@@ -7257,7 +7267,7 @@
         <v>482</v>
       </c>
       <c r="D38" s="51">
-        <v>170</v>
+        <v>370</v>
       </c>
       <c r="E38" s="51" t="s">
         <v>18</v>
@@ -7306,15 +7316,15 @@
       <c r="U38" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V38" s="4"/>
+      <c r="V38" s="10"/>
       <c r="W38" s="11" t="s">
         <v>520</v>
       </c>
       <c r="X38" s="33" t="s">
-        <v>271</v>
+        <v>523</v>
       </c>
       <c r="Y38" s="33" t="s">
-        <v>271</v>
+        <v>523</v>
       </c>
       <c r="Z38" s="33" t="s">
         <v>2</v>
@@ -7387,7 +7397,7 @@
       <c r="U39" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V39" s="32" t="s">
+      <c r="V39" s="11" t="s">
         <v>62</v>
       </c>
       <c r="W39" s="11" t="s">
@@ -7464,7 +7474,7 @@
       <c r="U40" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V40" s="32" t="s">
+      <c r="V40" s="11" t="s">
         <v>62</v>
       </c>
       <c r="W40" s="11" t="s">
@@ -7547,7 +7557,7 @@
       <c r="U41" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="V41" s="32" t="s">
+      <c r="V41" s="11" t="s">
         <v>62</v>
       </c>
       <c r="W41" s="11" t="s">
@@ -7630,7 +7640,7 @@
       <c r="U42" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="V42" s="32" t="s">
+      <c r="V42" s="11" t="s">
         <v>62</v>
       </c>
       <c r="W42" s="11" t="s">
@@ -7713,7 +7723,7 @@
       <c r="U43" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V43" s="32" t="s">
+      <c r="V43" s="11" t="s">
         <v>62</v>
       </c>
       <c r="W43" s="11" t="s">
@@ -7796,7 +7806,7 @@
       <c r="U44" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V44" s="32" t="s">
+      <c r="V44" s="11" t="s">
         <v>62</v>
       </c>
       <c r="W44" s="11" t="s">
@@ -7879,7 +7889,7 @@
       <c r="U45" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V45" s="32" t="s">
+      <c r="V45" s="11" t="s">
         <v>62</v>
       </c>
       <c r="W45" s="11" t="s">
@@ -8742,7 +8752,6 @@
       <c r="U56" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V56" s="8"/>
       <c r="W56" s="11" t="s">
         <v>520</v>
       </c>
@@ -8813,7 +8822,7 @@
       <c r="U57" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="V57" s="56" t="s">
+      <c r="V57" s="58" t="s">
         <v>62</v>
       </c>
       <c r="W57" s="11" t="s">
@@ -8885,8 +8894,12 @@
       <c r="T58" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="U58" s="58"/>
-      <c r="V58" s="56"/>
+      <c r="U58" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="V58" s="58" t="s">
+        <v>62</v>
+      </c>
       <c r="W58" s="11" t="s">
         <v>520</v>
       </c>
@@ -8920,7 +8933,9 @@
       <c r="F59" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="G59" s="40"/>
+      <c r="G59" s="38" t="s">
+        <v>483</v>
+      </c>
       <c r="H59" s="59"/>
       <c r="I59" s="59"/>
       <c r="J59" s="59"/>
@@ -8957,7 +8972,7 @@
       <c r="U59" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V59" s="32" t="s">
+      <c r="V59" s="11" t="s">
         <v>62</v>
       </c>
       <c r="W59" s="11" t="s">
@@ -9030,7 +9045,7 @@
       <c r="U60" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V60" s="32" t="s">
+      <c r="V60" s="11" t="s">
         <v>62</v>
       </c>
       <c r="W60" s="11" t="s">
@@ -9105,7 +9120,7 @@
       <c r="U61" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V61" s="32" t="s">
+      <c r="V61" s="11" t="s">
         <v>62</v>
       </c>
       <c r="W61" s="11" t="s">
@@ -9178,7 +9193,7 @@
       <c r="U62" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V62" s="32" t="s">
+      <c r="V62" s="11" t="s">
         <v>62</v>
       </c>
       <c r="W62" s="11" t="s">
@@ -9251,7 +9266,7 @@
       <c r="U63" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V63" s="32" t="s">
+      <c r="V63" s="11" t="s">
         <v>62</v>
       </c>
       <c r="W63" s="11" t="s">
@@ -9326,7 +9341,7 @@
       <c r="U64" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="V64" s="32" t="s">
+      <c r="V64" s="11" t="s">
         <v>62</v>
       </c>
       <c r="W64" s="11" t="s">

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0A89E8-5198-C24E-92F6-89200B5D8975}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4D8737-361B-4A45-BDA5-DC2285BF4F6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10000" yWindow="3140" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11264" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11264" uniqueCount="526">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -1579,9 +1579,6 @@
     <t>dependo.23-camelidae</t>
   </si>
   <si>
-    <t>dependo.26-strepsirhines</t>
-  </si>
-  <si>
     <t>dependo.30-chiroptera*</t>
   </si>
   <si>
@@ -1610,6 +1607,15 @@
   </si>
   <si>
     <t>dependo.370-pelecanus</t>
+  </si>
+  <si>
+    <t>dependo.203-gekko</t>
+  </si>
+  <si>
+    <t>dependo.26-strepsirrhini</t>
+  </si>
+  <si>
+    <t>strepsirrhini</t>
   </si>
 </sst>
 </file>
@@ -4240,10 +4246,10 @@
   <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T19" sqref="A1:AA64"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4755,7 +4761,7 @@
         <v>27.9</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X6" s="33" t="s">
         <v>152</v>
@@ -4836,7 +4842,7 @@
       </c>
       <c r="V7" s="10"/>
       <c r="W7" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X7" s="33" t="s">
         <v>89</v>
@@ -4917,7 +4923,7 @@
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X8" s="33" t="s">
         <v>108</v>
@@ -4996,7 +5002,7 @@
       </c>
       <c r="V9" s="11"/>
       <c r="W9" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X9" s="33" t="s">
         <v>504</v>
@@ -5077,7 +5083,7 @@
       </c>
       <c r="V10" s="11"/>
       <c r="W10" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X10" s="33" t="s">
         <v>505</v>
@@ -5094,7 +5100,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>292</v>
@@ -5157,13 +5163,13 @@
         <v>62</v>
       </c>
       <c r="W11" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="X11" s="33" t="s">
         <v>520</v>
       </c>
-      <c r="X11" s="33" t="s">
-        <v>521</v>
-      </c>
       <c r="Y11" s="33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Z11" s="33" t="s">
         <v>2</v>
@@ -5230,7 +5236,7 @@
       <c r="U12" s="58"/>
       <c r="V12" s="58"/>
       <c r="W12" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X12" s="33" t="s">
         <v>463</v>
@@ -5313,7 +5319,7 @@
         <v>62</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X13" s="33" t="s">
         <v>411</v>
@@ -5396,7 +5402,7 @@
         <v>62</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X14" s="33" t="s">
         <v>413</v>
@@ -5477,7 +5483,7 @@
       </c>
       <c r="V15" s="10"/>
       <c r="W15" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X15" s="33" t="s">
         <v>11</v>
@@ -5558,7 +5564,7 @@
       </c>
       <c r="V16" s="10"/>
       <c r="W16" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X16" s="33" t="s">
         <v>12</v>
@@ -5575,7 +5581,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>292</v>
@@ -5639,13 +5645,13 @@
       </c>
       <c r="V17" s="10"/>
       <c r="W17" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X17" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Y17" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Z17" s="33" t="s">
         <v>2</v>
@@ -5720,7 +5726,7 @@
       </c>
       <c r="V18" s="10"/>
       <c r="W18" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X18" s="33" t="s">
         <v>58</v>
@@ -5797,7 +5803,7 @@
       </c>
       <c r="V19" s="10"/>
       <c r="W19" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X19" s="33" t="s">
         <v>14</v>
@@ -5880,7 +5886,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X20" s="33" t="s">
         <v>44</v>
@@ -5963,7 +5969,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X21" s="33" t="s">
         <v>115</v>
@@ -6044,7 +6050,7 @@
       </c>
       <c r="V22" s="11"/>
       <c r="W22" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X22" s="33" t="s">
         <v>201</v>
@@ -6127,7 +6133,7 @@
         <v>62</v>
       </c>
       <c r="W23" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X23" s="33" t="s">
         <v>117</v>
@@ -6208,7 +6214,7 @@
       </c>
       <c r="V24" s="11"/>
       <c r="W24" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X24" s="33" t="s">
         <v>86</v>
@@ -6289,7 +6295,7 @@
       </c>
       <c r="V25" s="11"/>
       <c r="W25" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X25" s="33" t="s">
         <v>506</v>
@@ -6370,7 +6376,7 @@
       </c>
       <c r="V26" s="10"/>
       <c r="W26" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X26" s="33" t="s">
         <v>199</v>
@@ -6451,7 +6457,7 @@
       </c>
       <c r="V27" s="11"/>
       <c r="W27" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X27" s="33" t="s">
         <v>198</v>
@@ -6530,7 +6536,7 @@
         <v>34</v>
       </c>
       <c r="W28" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X28" s="33" t="s">
         <v>41</v>
@@ -6611,7 +6617,7 @@
       </c>
       <c r="V29" s="11"/>
       <c r="W29" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X29" s="33" t="s">
         <v>507</v>
@@ -6692,7 +6698,7 @@
       </c>
       <c r="V30" s="11"/>
       <c r="W30" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X30" s="33" t="s">
         <v>217</v>
@@ -6773,7 +6779,7 @@
       </c>
       <c r="V31" s="11"/>
       <c r="W31" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X31" s="33" t="s">
         <v>508</v>
@@ -6854,7 +6860,7 @@
       </c>
       <c r="V32" s="11"/>
       <c r="W32" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X32" s="33" t="s">
         <v>509</v>
@@ -6931,7 +6937,7 @@
       </c>
       <c r="V33" s="11"/>
       <c r="W33" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X33" s="33" t="s">
         <v>510</v>
@@ -7011,7 +7017,7 @@
         <v>62</v>
       </c>
       <c r="W34" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X34" s="33" t="s">
         <v>511</v>
@@ -7088,7 +7094,7 @@
       </c>
       <c r="V35" s="10"/>
       <c r="W35" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X35" s="33" t="s">
         <v>500</v>
@@ -7164,7 +7170,7 @@
         <v>62</v>
       </c>
       <c r="W36" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X36" s="33" t="s">
         <v>501</v>
@@ -7241,7 +7247,7 @@
       </c>
       <c r="V37" s="10"/>
       <c r="W37" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X37" s="33" t="s">
         <v>502</v>
@@ -7258,7 +7264,7 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B38" s="33" t="s">
         <v>292</v>
@@ -7318,13 +7324,13 @@
       </c>
       <c r="V38" s="10"/>
       <c r="W38" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X38" s="33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Y38" s="33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Z38" s="33" t="s">
         <v>2</v>
@@ -7335,7 +7341,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="33" t="s">
-        <v>264</v>
+        <v>523</v>
       </c>
       <c r="B39" s="33" t="s">
         <v>292</v>
@@ -7401,13 +7407,13 @@
         <v>62</v>
       </c>
       <c r="W39" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X39" s="33" t="s">
-        <v>264</v>
+        <v>523</v>
       </c>
       <c r="Y39" s="33" t="s">
-        <v>264</v>
+        <v>523</v>
       </c>
       <c r="Z39" s="33" t="s">
         <v>2</v>
@@ -7478,7 +7484,7 @@
         <v>62</v>
       </c>
       <c r="W40" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X40" s="33" t="s">
         <v>272</v>
@@ -7561,7 +7567,7 @@
         <v>62</v>
       </c>
       <c r="W41" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X41" s="33" t="s">
         <v>340</v>
@@ -7644,7 +7650,7 @@
         <v>62</v>
       </c>
       <c r="W42" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X42" s="33" t="s">
         <v>341</v>
@@ -7727,7 +7733,7 @@
         <v>62</v>
       </c>
       <c r="W43" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X43" s="33" t="s">
         <v>235</v>
@@ -7810,7 +7816,7 @@
         <v>62</v>
       </c>
       <c r="W44" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X44" s="33" t="s">
         <v>236</v>
@@ -7893,7 +7899,7 @@
         <v>62</v>
       </c>
       <c r="W45" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X45" s="33" t="s">
         <v>255</v>
@@ -7976,7 +7982,7 @@
         <v>27.9</v>
       </c>
       <c r="W46" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X46" s="33" t="s">
         <v>151</v>
@@ -8057,7 +8063,7 @@
       </c>
       <c r="V47" s="10"/>
       <c r="W47" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X47" s="33" t="s">
         <v>13</v>
@@ -8140,7 +8146,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="W48" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X48" s="33" t="s">
         <v>10</v>
@@ -8221,7 +8227,7 @@
       </c>
       <c r="V49" s="11"/>
       <c r="W49" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X49" s="33" t="s">
         <v>103</v>
@@ -8321,7 +8327,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="33" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="B51" s="33" t="s">
         <v>292</v>
@@ -8336,7 +8342,7 @@
         <v>336</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>335</v>
+        <v>525</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>488</v>
@@ -8390,10 +8396,10 @@
         <v>15085543</v>
       </c>
       <c r="X51" s="33" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="Y51" s="33" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="Z51" s="33" t="s">
         <v>2</v>
@@ -8404,7 +8410,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B52" s="33" t="s">
         <v>292</v>
@@ -8462,13 +8468,13 @@
       </c>
       <c r="V52" s="11"/>
       <c r="W52" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X52" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Y52" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Z52" s="33" t="s">
         <v>2</v>
@@ -8479,7 +8485,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B53" s="33" t="s">
         <v>292</v>
@@ -8535,13 +8541,13 @@
       </c>
       <c r="V53" s="11"/>
       <c r="W53" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X53" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Y53" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Z53" s="33" t="s">
         <v>2</v>
@@ -8608,7 +8614,7 @@
       </c>
       <c r="V54" s="11"/>
       <c r="W54" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X54" s="33" t="s">
         <v>249</v>
@@ -8625,7 +8631,7 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B55" s="33" t="s">
         <v>292</v>
@@ -8681,13 +8687,13 @@
       </c>
       <c r="V55" s="10"/>
       <c r="W55" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X55" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Y55" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Z55" s="33" t="s">
         <v>2</v>
@@ -8698,7 +8704,7 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B56" s="33" t="s">
         <v>292</v>
@@ -8753,13 +8759,13 @@
         <v>62</v>
       </c>
       <c r="W56" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X56" s="33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Y56" s="33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Z56" s="33" t="s">
         <v>2</v>
@@ -8826,7 +8832,7 @@
         <v>62</v>
       </c>
       <c r="W57" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X57" s="33" t="s">
         <v>441</v>
@@ -8901,7 +8907,7 @@
         <v>62</v>
       </c>
       <c r="W58" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X58" s="33" t="s">
         <v>463</v>
@@ -8918,7 +8924,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B59" s="33" t="s">
         <v>292</v>
@@ -8976,13 +8982,13 @@
         <v>62</v>
       </c>
       <c r="W59" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X59" s="33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Y59" s="33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Z59" s="33" t="s">
         <v>2</v>
@@ -9049,7 +9055,7 @@
         <v>62</v>
       </c>
       <c r="W60" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X60" s="33" t="s">
         <v>404</v>
@@ -9124,7 +9130,7 @@
         <v>62</v>
       </c>
       <c r="W61" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X61" s="33" t="s">
         <v>411</v>
@@ -9197,7 +9203,7 @@
         <v>62</v>
       </c>
       <c r="W62" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X62" s="33" t="s">
         <v>417</v>
@@ -9270,7 +9276,7 @@
         <v>62</v>
       </c>
       <c r="W63" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X63" s="33" t="s">
         <v>428</v>
@@ -9345,7 +9351,7 @@
         <v>62</v>
       </c>
       <c r="W64" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="X64" s="33" t="s">
         <v>471</v>
@@ -9378,7 +9384,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51">

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30B932C-8E29-234F-A156-C7D328244448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E322DA84-32BB-9E45-8E9D-8018FA110431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10000" yWindow="3140" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11183" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11183" uniqueCount="529">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -1619,6 +1619,12 @@
   </si>
   <si>
     <t>dependo.30-chiroptera</t>
+  </si>
+  <si>
+    <t>dependo.48-mus</t>
+  </si>
+  <si>
+    <t>dependo.63-rodent</t>
   </si>
 </sst>
 </file>
@@ -4258,10 +4264,10 @@
   <dimension ref="A1:FH82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A56" sqref="A1:AA60"/>
+      <selection pane="bottomRight" activeCell="X41" sqref="A1:AA60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10738,11 +10744,11 @@
     </row>
     <row r="33" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A33" s="33" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="B33" s="51"/>
       <c r="C33" s="51">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D33" s="59" t="s">
         <v>18</v>
@@ -12033,61 +12039,51 @@
     </row>
     <row r="39" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A39" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="B39" s="51" t="s">
-        <v>121</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="B39" s="51"/>
       <c r="C39" s="51">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D39" s="59" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="G39" s="51">
-        <v>5</v>
-      </c>
-      <c r="H39" s="51">
-        <v>5</v>
-      </c>
-      <c r="I39" s="59" t="s">
-        <v>482</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q39" s="76" t="s">
-        <v>158</v>
+        <v>391</v>
+      </c>
+      <c r="F39" s="40"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q39" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="R39" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="T39" s="11" t="s">
         <v>62</v>
@@ -12099,10 +12095,10 @@
         <v>519</v>
       </c>
       <c r="W39" s="33" t="s">
-        <v>463</v>
+        <v>528</v>
       </c>
       <c r="X39" s="33" t="s">
-        <v>463</v>
+        <v>528</v>
       </c>
       <c r="Y39" s="33" t="s">
         <v>2</v>
@@ -12253,53 +12249,61 @@
     </row>
     <row r="40" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A40" s="33" t="s">
-        <v>515</v>
-      </c>
-      <c r="B40" s="51"/>
+        <v>463</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>121</v>
+      </c>
       <c r="C40" s="51">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D40" s="59" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q40" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="G40" s="51">
+        <v>5</v>
+      </c>
+      <c r="H40" s="51">
+        <v>5</v>
+      </c>
+      <c r="I40" s="59" t="s">
         <v>482</v>
       </c>
+      <c r="J40" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q40" s="76" t="s">
+        <v>158</v>
+      </c>
       <c r="R40" s="17" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="S40" s="17" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="T40" s="11" t="s">
         <v>62</v>
@@ -12311,10 +12315,10 @@
         <v>519</v>
       </c>
       <c r="W40" s="33" t="s">
-        <v>515</v>
+        <v>463</v>
       </c>
       <c r="X40" s="33" t="s">
-        <v>515</v>
+        <v>463</v>
       </c>
       <c r="Y40" s="33" t="s">
         <v>2</v>
@@ -12465,73 +12469,68 @@
     </row>
     <row r="41" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
-        <v>520</v>
-      </c>
-      <c r="B41" s="51" t="s">
+        <v>515</v>
+      </c>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51">
+        <v>92</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q41" s="77" t="s">
         <v>482</v>
       </c>
-      <c r="C41" s="51">
-        <v>160</v>
-      </c>
-      <c r="D41" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="G41" s="51">
-        <v>1</v>
-      </c>
-      <c r="H41" s="51">
-        <v>1</v>
-      </c>
-      <c r="I41" s="59" t="s">
-        <v>482</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q41" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="R41" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="S41" s="18" t="s">
-        <v>489</v>
+      <c r="R41" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="S41" s="17" t="s">
+        <v>490</v>
       </c>
       <c r="T41" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U41" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V41" s="11" t="s">
         <v>519</v>
       </c>
       <c r="W41" s="33" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="X41" s="33" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="Y41" s="33" t="s">
         <v>2</v>
@@ -12682,66 +12681,73 @@
     </row>
     <row r="42" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A42" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="B42" s="51"/>
+        <v>520</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>482</v>
+      </c>
       <c r="C42" s="51">
-        <v>163</v>
-      </c>
-      <c r="D42" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="40" t="s">
-        <v>391</v>
-      </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P42" s="4" t="s">
+      <c r="E42" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="G42" s="51">
+        <v>1</v>
+      </c>
+      <c r="H42" s="51">
+        <v>1</v>
+      </c>
+      <c r="I42" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P42" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q42" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="R42" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="S42" s="17" t="s">
-        <v>497</v>
+        <v>482</v>
+      </c>
+      <c r="R42" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="S42" s="18" t="s">
+        <v>489</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U42" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V42" s="11" t="s">
         <v>519</v>
       </c>
       <c r="W42" s="33" t="s">
-        <v>404</v>
+        <v>520</v>
       </c>
       <c r="X42" s="33" t="s">
-        <v>404</v>
+        <v>520</v>
       </c>
       <c r="Y42" s="33" t="s">
         <v>2</v>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E322DA84-32BB-9E45-8E9D-8018FA110431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A535EB-6644-B34C-BB2F-A2AF89FA3ABE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10000" yWindow="3140" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11183" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11184" uniqueCount="530">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -1625,6 +1625,9 @@
   </si>
   <si>
     <t>dependo.63-rodent</t>
+  </si>
+  <si>
+    <t>dependo.180-rhinolophus</t>
   </si>
 </sst>
 </file>
@@ -4267,7 +4270,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X41" sqref="A1:AA60"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13336,7 +13339,7 @@
     </row>
     <row r="45" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A45" s="33" t="s">
-        <v>417</v>
+        <v>529</v>
       </c>
       <c r="B45" s="51"/>
       <c r="C45" s="51">
@@ -13348,9 +13351,15 @@
       <c r="E45" s="40" t="s">
         <v>455</v>
       </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
+      <c r="F45" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="G45" s="59">
+        <v>2</v>
+      </c>
+      <c r="H45" s="59">
+        <v>2</v>
+      </c>
       <c r="I45" s="59"/>
       <c r="J45" s="4" t="s">
         <v>62</v>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A535EB-6644-B34C-BB2F-A2AF89FA3ABE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87048A0-6AC8-394C-A218-C62A83460DF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10000" yWindow="3140" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="4040" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11184" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11231" uniqueCount="533">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -1628,6 +1628,15 @@
   </si>
   <si>
     <t>dependo.180-rhinolophus</t>
+  </si>
+  <si>
+    <t>dependo.29-felidae</t>
+  </si>
+  <si>
+    <t>Felidae</t>
+  </si>
+  <si>
+    <t>phyllostomidae</t>
   </si>
 </sst>
 </file>
@@ -4264,13 +4273,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DACFF6-840F-D741-97EA-4F87EFFABC86}">
-  <dimension ref="A1:FH82"/>
+  <dimension ref="A1:FH83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9007,45 +9016,51 @@
     </row>
     <row r="25" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B25" s="51" t="s">
         <v>482</v>
       </c>
       <c r="C25" s="51">
-        <v>30</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="2" t="s">
+      <c r="G25" s="59">
+        <v>1</v>
+      </c>
+      <c r="H25" s="59">
+        <v>2</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="N25" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="P25" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q25" s="76" t="s">
@@ -9065,10 +9080,10 @@
         <v>519</v>
       </c>
       <c r="W25" s="33" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="X25" s="33" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="Y25" s="33" t="s">
         <v>2</v>
@@ -9219,61 +9234,55 @@
     </row>
     <row r="26" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="B26" s="51" t="s">
         <v>482</v>
       </c>
       <c r="C26" s="51">
-        <v>36</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>17</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="F26" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="G26" s="59">
-        <v>1</v>
-      </c>
-      <c r="H26" s="59">
-        <v>1</v>
-      </c>
-      <c r="I26" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="P26" s="3" t="s">
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P26" s="4" t="s">
         <v>121</v>
       </c>
       <c r="Q26" s="76" t="s">
         <v>158</v>
       </c>
       <c r="R26" s="18" t="s">
-        <v>467</v>
+        <v>62</v>
       </c>
       <c r="S26" s="18" t="s">
-        <v>468</v>
+        <v>62</v>
       </c>
       <c r="T26" s="11" t="s">
         <v>62</v>
@@ -9283,10 +9292,10 @@
         <v>519</v>
       </c>
       <c r="W26" s="33" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="X26" s="33" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="Y26" s="33" t="s">
         <v>2</v>
@@ -9437,49 +9446,49 @@
     </row>
     <row r="27" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B27" s="51" t="s">
         <v>482</v>
       </c>
       <c r="C27" s="51">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="60" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>297</v>
+        <v>163</v>
       </c>
       <c r="F27" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="G27" s="51">
+      <c r="G27" s="59">
         <v>1</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="59">
         <v>1</v>
       </c>
-      <c r="I27" s="59" t="s">
-        <v>482</v>
+      <c r="I27" s="61" t="s">
+        <v>121</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>121</v>
@@ -9487,11 +9496,11 @@
       <c r="Q27" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="R27" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="S27" s="18" t="s">
-        <v>62</v>
+      <c r="R27" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="S27" s="17" t="s">
+        <v>468</v>
       </c>
       <c r="T27" s="11" t="s">
         <v>62</v>
@@ -9501,10 +9510,10 @@
         <v>519</v>
       </c>
       <c r="W27" s="33" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="X27" s="33" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Y27" s="33" t="s">
         <v>2</v>
@@ -9655,22 +9664,22 @@
     </row>
     <row r="28" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
-        <v>199</v>
+        <v>504</v>
       </c>
       <c r="B28" s="51" t="s">
         <v>482</v>
       </c>
       <c r="C28" s="51">
-        <v>42</v>
-      </c>
-      <c r="D28" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="60" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>133</v>
+        <v>297</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="G28" s="51">
         <v>1</v>
@@ -9678,51 +9687,51 @@
       <c r="H28" s="51">
         <v>1</v>
       </c>
-      <c r="I28" s="51" t="s">
+      <c r="I28" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J28" s="21" t="s">
+      <c r="J28" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K28" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="L28" s="21" t="s">
+      <c r="K28" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M28" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="N28" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="O28" s="22" t="s">
-        <v>33</v>
+      <c r="M28" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="Q28" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="R28" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="S28" s="30" t="s">
+      <c r="R28" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="S28" s="18" t="s">
         <v>62</v>
       </c>
       <c r="T28" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="U28" s="10"/>
+      <c r="U28" s="11"/>
       <c r="V28" s="11" t="s">
         <v>519</v>
       </c>
       <c r="W28" s="33" t="s">
-        <v>199</v>
+        <v>504</v>
       </c>
       <c r="X28" s="33" t="s">
-        <v>199</v>
+        <v>504</v>
       </c>
       <c r="Y28" s="33" t="s">
         <v>2</v>
@@ -9873,82 +9882,84 @@
     </row>
     <row r="29" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="B29" s="51" t="s">
         <v>482</v>
       </c>
       <c r="C29" s="51">
-        <v>43</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>200</v>
+        <v>40</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>532</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="G29" s="51">
-        <v>5</v>
-      </c>
-      <c r="H29" s="51">
-        <v>5</v>
-      </c>
-      <c r="I29" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G29" s="59">
+        <v>1</v>
+      </c>
+      <c r="H29" s="59">
+        <v>2</v>
+      </c>
+      <c r="I29" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="J29" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="K29" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="M29" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q29" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="R29" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="S29" s="30" t="s">
+      <c r="J29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="R29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="S29" s="18" t="s">
         <v>62</v>
       </c>
       <c r="T29" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11" t="s">
+      <c r="U29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V29" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="W29" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="X29" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y29" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z29" s="33" t="s">
+      <c r="W29" t="s">
+        <v>162</v>
+      </c>
+      <c r="X29" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z29" t="s">
         <v>292</v>
       </c>
-      <c r="AA29" s="33" t="s">
+      <c r="AA29" t="s">
         <v>3</v>
       </c>
       <c r="AB29" s="48"/>
@@ -10091,43 +10102,43 @@
     </row>
     <row r="30" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>121</v>
+        <v>482</v>
       </c>
       <c r="C30" s="51">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F30" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G30" s="59">
-        <v>2</v>
-      </c>
-      <c r="H30" s="59">
-        <v>2</v>
-      </c>
-      <c r="I30" s="61" t="s">
-        <v>121</v>
+      <c r="G30" s="51">
+        <v>1</v>
+      </c>
+      <c r="H30" s="51">
+        <v>1</v>
+      </c>
+      <c r="I30" s="51" t="s">
+        <v>482</v>
       </c>
       <c r="J30" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>62</v>
+      <c r="K30" s="34" t="s">
+        <v>245</v>
       </c>
       <c r="L30" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="M30" s="4" t="s">
-        <v>62</v>
+      <c r="M30" s="34" t="s">
+        <v>245</v>
       </c>
       <c r="N30" s="22" t="s">
         <v>33</v>
@@ -10135,32 +10146,30 @@
       <c r="O30" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P30" s="23" t="s">
-        <v>121</v>
+      <c r="P30" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="Q30" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="R30" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="S30" s="17" t="s">
-        <v>77</v>
+      <c r="R30" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="S30" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="T30" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="U30" s="11">
-        <v>34</v>
-      </c>
+      <c r="U30" s="10"/>
       <c r="V30" s="11" t="s">
         <v>519</v>
       </c>
       <c r="W30" s="33" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="X30" s="33" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="Y30" s="33" t="s">
         <v>2</v>
@@ -10311,31 +10320,31 @@
     </row>
     <row r="31" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
-        <v>507</v>
+        <v>198</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>121</v>
+        <v>482</v>
       </c>
       <c r="C31" s="51">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31" s="59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="F31" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G31" s="59">
-        <v>2</v>
-      </c>
-      <c r="H31" s="59">
-        <v>2</v>
-      </c>
-      <c r="I31" s="61" t="s">
-        <v>121</v>
+      <c r="G31" s="51">
+        <v>5</v>
+      </c>
+      <c r="H31" s="51">
+        <v>5</v>
+      </c>
+      <c r="I31" s="51" t="s">
+        <v>482</v>
       </c>
       <c r="J31" s="21" t="s">
         <v>224</v>
@@ -10355,17 +10364,17 @@
       <c r="O31" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P31" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q31" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="R31" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="S31" s="17" t="s">
-        <v>77</v>
+      <c r="P31" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="R31" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="S31" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="T31" s="11" t="s">
         <v>62</v>
@@ -10375,10 +10384,10 @@
         <v>519</v>
       </c>
       <c r="W31" s="33" t="s">
-        <v>507</v>
+        <v>198</v>
       </c>
       <c r="X31" s="33" t="s">
-        <v>507</v>
+        <v>198</v>
       </c>
       <c r="Y31" s="33" t="s">
         <v>2</v>
@@ -10529,74 +10538,76 @@
     </row>
     <row r="32" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A32" s="33" t="s">
-        <v>505</v>
+        <v>41</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>482</v>
+        <v>121</v>
       </c>
       <c r="C32" s="51">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="59" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="G32" s="51">
-        <v>1</v>
-      </c>
-      <c r="H32" s="51">
-        <v>2</v>
-      </c>
-      <c r="I32" s="59" t="s">
-        <v>482</v>
-      </c>
-      <c r="J32" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="G32" s="59">
+        <v>2</v>
+      </c>
+      <c r="H32" s="59">
+        <v>2</v>
+      </c>
+      <c r="I32" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="J32" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="L32" s="3" t="s">
+      <c r="K32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L32" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="P32" s="3" t="s">
+      <c r="M32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O32" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P32" s="23" t="s">
         <v>121</v>
       </c>
       <c r="Q32" s="76" t="s">
         <v>158</v>
       </c>
       <c r="R32" s="17" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="S32" s="17" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="T32" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="U32" s="11"/>
+      <c r="U32" s="11">
+        <v>34</v>
+      </c>
       <c r="V32" s="11" t="s">
         <v>519</v>
       </c>
       <c r="W32" s="33" t="s">
-        <v>505</v>
+        <v>41</v>
       </c>
       <c r="X32" s="33" t="s">
-        <v>505</v>
+        <v>41</v>
       </c>
       <c r="Y32" s="33" t="s">
         <v>2</v>
@@ -10747,41 +10758,49 @@
     </row>
     <row r="33" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A33" s="33" t="s">
-        <v>527</v>
-      </c>
-      <c r="B33" s="51"/>
+        <v>507</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>121</v>
+      </c>
       <c r="C33" s="51">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F33" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
+      <c r="G33" s="59">
+        <v>2</v>
+      </c>
+      <c r="H33" s="59">
+        <v>2</v>
+      </c>
+      <c r="I33" s="61" t="s">
+        <v>121</v>
+      </c>
       <c r="J33" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K33" s="34" t="s">
-        <v>245</v>
+      <c r="K33" s="25" t="s">
+        <v>148</v>
       </c>
       <c r="L33" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="M33" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>62</v>
+      <c r="M33" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="N33" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="P33" s="23" t="s">
         <v>121</v>
@@ -10790,10 +10809,10 @@
         <v>158</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="S33" s="17" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="T33" s="11" t="s">
         <v>62</v>
@@ -10803,10 +10822,10 @@
         <v>519</v>
       </c>
       <c r="W33" s="33" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X33" s="33" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="Y33" s="33" t="s">
         <v>2</v>
@@ -10957,61 +10976,61 @@
     </row>
     <row r="34" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A34" s="33" t="s">
-        <v>217</v>
+        <v>505</v>
       </c>
       <c r="B34" s="51" t="s">
         <v>482</v>
       </c>
       <c r="C34" s="51">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D34" s="59" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>415</v>
+        <v>22</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="G34" s="51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34" s="51">
-        <v>4</v>
-      </c>
-      <c r="I34" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N34" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="O34" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="P34" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="P34" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q34" s="76" t="s">
         <v>158</v>
       </c>
       <c r="R34" s="17" t="s">
-        <v>474</v>
+        <v>92</v>
       </c>
       <c r="S34" s="17" t="s">
-        <v>475</v>
+        <v>92</v>
       </c>
       <c r="T34" s="11" t="s">
         <v>62</v>
@@ -11021,10 +11040,10 @@
         <v>519</v>
       </c>
       <c r="W34" s="33" t="s">
-        <v>217</v>
+        <v>505</v>
       </c>
       <c r="X34" s="33" t="s">
-        <v>217</v>
+        <v>505</v>
       </c>
       <c r="Y34" s="33" t="s">
         <v>2</v>
@@ -11175,49 +11194,41 @@
     </row>
     <row r="35" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A35" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="B35" s="51" t="s">
-        <v>482</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="B35" s="51"/>
       <c r="C35" s="51">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D35" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>339</v>
+      <c r="E35" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="F35" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G35" s="59">
-        <v>1</v>
-      </c>
-      <c r="H35" s="59">
-        <v>1</v>
-      </c>
-      <c r="I35" s="64" t="s">
-        <v>121</v>
-      </c>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
       <c r="J35" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K35" s="25" t="s">
-        <v>148</v>
+      <c r="K35" s="34" t="s">
+        <v>245</v>
       </c>
       <c r="L35" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="M35" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="N35" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="O35" s="22" t="s">
-        <v>33</v>
+      <c r="M35" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="P35" s="23" t="s">
         <v>121</v>
@@ -11225,11 +11236,11 @@
       <c r="Q35" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="R35" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="S35" s="18" t="s">
-        <v>62</v>
+      <c r="R35" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="S35" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="T35" s="11" t="s">
         <v>62</v>
@@ -11239,10 +11250,10 @@
         <v>519</v>
       </c>
       <c r="W35" s="33" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="X35" s="33" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="Y35" s="33" t="s">
         <v>2</v>
@@ -11393,49 +11404,49 @@
     </row>
     <row r="36" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
-        <v>509</v>
+        <v>217</v>
       </c>
       <c r="B36" s="51" t="s">
         <v>482</v>
       </c>
       <c r="C36" s="51">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D36" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="F36" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="F36" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G36" s="59">
-        <v>3</v>
-      </c>
-      <c r="H36" s="59">
-        <v>3</v>
-      </c>
-      <c r="I36" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="K36" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="L36" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="M36" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>62</v>
+      <c r="G36" s="51">
+        <v>4</v>
+      </c>
+      <c r="H36" s="51">
+        <v>4</v>
+      </c>
+      <c r="I36" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N36" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="P36" s="23" t="s">
         <v>121</v>
@@ -11444,10 +11455,10 @@
         <v>158</v>
       </c>
       <c r="R36" s="17" t="s">
-        <v>67</v>
+        <v>474</v>
       </c>
       <c r="S36" s="17" t="s">
-        <v>60</v>
+        <v>475</v>
       </c>
       <c r="T36" s="11" t="s">
         <v>62</v>
@@ -11457,10 +11468,10 @@
         <v>519</v>
       </c>
       <c r="W36" s="33" t="s">
-        <v>509</v>
+        <v>217</v>
       </c>
       <c r="X36" s="33" t="s">
-        <v>509</v>
+        <v>217</v>
       </c>
       <c r="Y36" s="33" t="s">
         <v>2</v>
@@ -11611,39 +11622,43 @@
     </row>
     <row r="37" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A37" s="33" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B37" s="51" t="s">
         <v>482</v>
       </c>
       <c r="C37" s="51">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D37" s="59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>22</v>
+        <v>339</v>
       </c>
       <c r="F37" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
+      <c r="G37" s="59">
+        <v>1</v>
+      </c>
+      <c r="H37" s="59">
+        <v>1</v>
+      </c>
       <c r="I37" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>62</v>
+      <c r="J37" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M37" s="25" t="s">
+        <v>148</v>
       </c>
       <c r="N37" s="22" t="s">
         <v>33</v>
@@ -11651,17 +11666,17 @@
       <c r="O37" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P37" s="13" t="s">
+      <c r="P37" s="23" t="s">
         <v>121</v>
       </c>
       <c r="Q37" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="R37" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="S37" s="17" t="s">
-        <v>139</v>
+      <c r="R37" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="S37" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="T37" s="11" t="s">
         <v>62</v>
@@ -11671,10 +11686,10 @@
         <v>519</v>
       </c>
       <c r="W37" s="33" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="X37" s="33" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Y37" s="33" t="s">
         <v>2</v>
@@ -11825,21 +11840,21 @@
     </row>
     <row r="38" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B38" s="51" t="s">
         <v>482</v>
       </c>
       <c r="C38" s="51">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D38" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F38" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="F38" s="40" t="s">
         <v>483</v>
       </c>
       <c r="G38" s="59">
@@ -11848,26 +11863,26 @@
       <c r="H38" s="59">
         <v>3</v>
       </c>
-      <c r="I38" s="59" t="s">
-        <v>482</v>
+      <c r="I38" s="64" t="s">
+        <v>121</v>
       </c>
       <c r="J38" s="21" t="s">
         <v>224</v>
       </c>
       <c r="K38" s="25" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L38" s="21" t="s">
         <v>224</v>
       </c>
       <c r="M38" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="N38" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="O38" s="22" t="s">
-        <v>33</v>
+        <v>153</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="P38" s="23" t="s">
         <v>121</v>
@@ -11876,22 +11891,23 @@
         <v>158</v>
       </c>
       <c r="R38" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="S38" s="17" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="T38" s="11" t="s">
         <v>62</v>
       </c>
+      <c r="U38" s="11"/>
       <c r="V38" s="11" t="s">
         <v>519</v>
       </c>
       <c r="W38" s="33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="X38" s="33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Y38" s="33" t="s">
         <v>2</v>
@@ -12042,22 +12058,28 @@
     </row>
     <row r="39" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A39" s="33" t="s">
-        <v>528</v>
-      </c>
-      <c r="B39" s="51"/>
+        <v>510</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>482</v>
+      </c>
       <c r="C39" s="51">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D39" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="40" t="s">
-        <v>391</v>
-      </c>
-      <c r="F39" s="40"/>
+      <c r="E39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>483</v>
+      </c>
       <c r="G39" s="59"/>
       <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
+      <c r="I39" s="64" t="s">
+        <v>121</v>
+      </c>
       <c r="J39" s="4" t="s">
         <v>62</v>
       </c>
@@ -12070,38 +12092,36 @@
       <c r="M39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q39" s="17" t="s">
-        <v>157</v>
+      <c r="N39" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P39" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q39" s="76" t="s">
+        <v>158</v>
       </c>
       <c r="R39" s="17" t="s">
-        <v>496</v>
+        <v>138</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>497</v>
+        <v>139</v>
       </c>
       <c r="T39" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="U39" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="U39" s="11"/>
       <c r="V39" s="11" t="s">
         <v>519</v>
       </c>
       <c r="W39" s="33" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="X39" s="33" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="Y39" s="33" t="s">
         <v>2</v>
@@ -12252,76 +12272,73 @@
     </row>
     <row r="40" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A40" s="33" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="B40" s="51" t="s">
-        <v>121</v>
+        <v>482</v>
       </c>
       <c r="C40" s="51">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D40" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="F40" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="G40" s="51">
-        <v>5</v>
-      </c>
-      <c r="H40" s="51">
-        <v>5</v>
+      <c r="E40" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="G40" s="59">
+        <v>3</v>
+      </c>
+      <c r="H40" s="59">
+        <v>3</v>
       </c>
       <c r="I40" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="P40" s="3" t="s">
+      <c r="J40" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="N40" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O40" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P40" s="23" t="s">
         <v>121</v>
       </c>
       <c r="Q40" s="76" t="s">
         <v>158</v>
       </c>
       <c r="R40" s="17" t="s">
-        <v>498</v>
+        <v>80</v>
       </c>
       <c r="S40" s="17" t="s">
-        <v>499</v>
+        <v>81</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U40" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V40" s="11" t="s">
         <v>519</v>
       </c>
       <c r="W40" s="33" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="X40" s="33" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="Y40" s="33" t="s">
         <v>2</v>
@@ -12472,21 +12489,19 @@
     </row>
     <row r="41" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="B41" s="51"/>
       <c r="C41" s="51">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D41" s="59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>483</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="F41" s="40"/>
       <c r="G41" s="59"/>
       <c r="H41" s="59"/>
       <c r="I41" s="59"/>
@@ -12511,14 +12526,14 @@
       <c r="P41" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Q41" s="77" t="s">
-        <v>482</v>
+      <c r="Q41" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="R41" s="17" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="S41" s="17" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="T41" s="11" t="s">
         <v>62</v>
@@ -12530,10 +12545,10 @@
         <v>519</v>
       </c>
       <c r="W41" s="33" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="X41" s="33" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="Y41" s="33" t="s">
         <v>2</v>
@@ -12684,73 +12699,76 @@
     </row>
     <row r="42" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A42" s="33" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="B42" s="51" t="s">
-        <v>482</v>
+        <v>121</v>
       </c>
       <c r="C42" s="51">
-        <v>160</v>
-      </c>
-      <c r="D42" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42" s="40" t="s">
         <v>459</v>
       </c>
       <c r="G42" s="51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H42" s="51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42" s="59" t="s">
         <v>482</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q42" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="R42" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="S42" s="18" t="s">
-        <v>489</v>
+      <c r="Q42" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="R42" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="S42" s="17" t="s">
+        <v>499</v>
       </c>
       <c r="T42" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U42" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V42" s="11" t="s">
         <v>519</v>
       </c>
       <c r="W42" s="33" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="X42" s="33" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="Y42" s="33" t="s">
         <v>2</v>
@@ -12901,59 +12919,53 @@
     </row>
     <row r="43" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A43" s="33" t="s">
-        <v>411</v>
+        <v>515</v>
       </c>
       <c r="B43" s="51"/>
       <c r="C43" s="51">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="D43" s="59" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="F43" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="G43" s="59">
-        <v>1</v>
-      </c>
-      <c r="H43" s="59">
-        <v>1</v>
-      </c>
-      <c r="I43" s="59" t="s">
+        <v>327</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q43" s="77" t="s">
         <v>482</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q43" s="76" t="s">
-        <v>158</v>
-      </c>
       <c r="R43" s="17" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="T43" s="11" t="s">
         <v>62</v>
@@ -12965,10 +12977,10 @@
         <v>519</v>
       </c>
       <c r="W43" s="33" t="s">
-        <v>411</v>
+        <v>515</v>
       </c>
       <c r="X43" s="33" t="s">
-        <v>411</v>
+        <v>515</v>
       </c>
       <c r="Y43" s="33" t="s">
         <v>2</v>
@@ -13119,76 +13131,73 @@
     </row>
     <row r="44" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A44" s="33" t="s">
-        <v>413</v>
+        <v>520</v>
       </c>
       <c r="B44" s="51" t="s">
-        <v>121</v>
+        <v>482</v>
       </c>
       <c r="C44" s="51">
-        <v>177</v>
-      </c>
-      <c r="D44" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="F44" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="38" t="s">
         <v>459</v>
       </c>
       <c r="G44" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="59" t="s">
         <v>482</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q44" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="R44" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="S44" s="18" t="s">
-        <v>62</v>
+      <c r="Q44" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="R44" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="S44" s="17" t="s">
+        <v>489</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U44" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V44" s="11" t="s">
         <v>519</v>
       </c>
       <c r="W44" s="33" t="s">
-        <v>413</v>
+        <v>520</v>
       </c>
       <c r="X44" s="33" t="s">
-        <v>413</v>
+        <v>520</v>
       </c>
       <c r="Y44" s="33" t="s">
         <v>2</v>
@@ -13339,28 +13348,30 @@
     </row>
     <row r="45" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A45" s="33" t="s">
-        <v>529</v>
+        <v>411</v>
       </c>
       <c r="B45" s="51"/>
       <c r="C45" s="51">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D45" s="59" t="s">
         <v>18</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="F45" s="40" t="s">
         <v>459</v>
       </c>
       <c r="G45" s="59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="59">
-        <v>2</v>
-      </c>
-      <c r="I45" s="59"/>
+        <v>1</v>
+      </c>
+      <c r="I45" s="59" t="s">
+        <v>482</v>
+      </c>
       <c r="J45" s="4" t="s">
         <v>62</v>
       </c>
@@ -13386,10 +13397,10 @@
         <v>158</v>
       </c>
       <c r="R45" s="17" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="S45" s="17" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="T45" s="11" t="s">
         <v>62</v>
@@ -13401,10 +13412,10 @@
         <v>519</v>
       </c>
       <c r="W45" s="33" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="X45" s="33" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="Y45" s="33" t="s">
         <v>2</v>
@@ -13555,51 +13566,61 @@
     </row>
     <row r="46" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A46" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="B46" s="51"/>
+        <v>413</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>121</v>
+      </c>
       <c r="C46" s="51">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D46" s="59" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="F46" s="40"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P46" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="G46" s="51">
+        <v>2</v>
+      </c>
+      <c r="H46" s="51">
+        <v>2</v>
+      </c>
+      <c r="I46" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P46" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q46" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="R46" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="S46" s="17" t="s">
-        <v>476</v>
+      <c r="R46" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="S46" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="T46" s="11" t="s">
         <v>62</v>
@@ -13611,10 +13632,10 @@
         <v>519</v>
       </c>
       <c r="W46" s="33" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="X46" s="33" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="Y46" s="33" t="s">
         <v>2</v>
@@ -13765,24 +13786,28 @@
     </row>
     <row r="47" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A47" s="33" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="B47" s="51"/>
       <c r="C47" s="51">
-        <v>191</v>
-      </c>
-      <c r="D47" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
+        <v>180</v>
+      </c>
+      <c r="D47" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="F47" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="G47" s="59">
+        <v>2</v>
+      </c>
+      <c r="H47" s="59">
+        <v>2</v>
+      </c>
+      <c r="I47" s="59"/>
       <c r="J47" s="4" t="s">
         <v>62</v>
       </c>
@@ -13808,23 +13833,25 @@
         <v>158</v>
       </c>
       <c r="R47" s="17" t="s">
-        <v>100</v>
+        <v>477</v>
       </c>
       <c r="S47" s="17" t="s">
-        <v>101</v>
+        <v>478</v>
       </c>
       <c r="T47" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="U47" s="10"/>
+      <c r="U47" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="V47" s="11" t="s">
         <v>519</v>
       </c>
       <c r="W47" s="33" t="s">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="X47" s="33" t="s">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="Y47" s="33" t="s">
         <v>2</v>
@@ -13975,24 +14002,22 @@
     </row>
     <row r="48" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A48" s="33" t="s">
-        <v>518</v>
+        <v>428</v>
       </c>
       <c r="B48" s="51"/>
       <c r="C48" s="51">
-        <v>192</v>
-      </c>
-      <c r="D48" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
+        <v>190</v>
+      </c>
+      <c r="D48" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="40"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
       <c r="J48" s="4" t="s">
         <v>62</v>
       </c>
@@ -14018,22 +14043,25 @@
         <v>158</v>
       </c>
       <c r="R48" s="17" t="s">
-        <v>82</v>
+        <v>476</v>
       </c>
       <c r="S48" s="17" t="s">
-        <v>99</v>
+        <v>476</v>
       </c>
       <c r="T48" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U48" s="11" t="s">
         <v>62</v>
       </c>
       <c r="V48" s="11" t="s">
         <v>519</v>
       </c>
       <c r="W48" s="33" t="s">
-        <v>518</v>
+        <v>428</v>
       </c>
       <c r="X48" s="33" t="s">
-        <v>518</v>
+        <v>428</v>
       </c>
       <c r="Y48" s="33" t="s">
         <v>2</v>
@@ -14184,45 +14212,41 @@
     </row>
     <row r="49" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
-        <v>500</v>
-      </c>
-      <c r="B49" s="51" t="s">
-        <v>121</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="B49" s="51"/>
       <c r="C49" s="51">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D49" s="51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="F49" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="N49" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="O49" s="22" t="s">
-        <v>33</v>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>121</v>
@@ -14230,11 +14254,11 @@
       <c r="Q49" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="R49" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="S49" s="18" t="s">
-        <v>62</v>
+      <c r="R49" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="S49" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="T49" s="11" t="s">
         <v>62</v>
@@ -14244,10 +14268,10 @@
         <v>519</v>
       </c>
       <c r="W49" s="33" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="X49" s="33" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="Y49" s="33" t="s">
         <v>2</v>
@@ -14398,45 +14422,41 @@
     </row>
     <row r="50" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A50" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="B50" s="51" t="s">
-        <v>121</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="B50" s="51"/>
       <c r="C50" s="51">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D50" s="51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="F50" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="J50" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="K50" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="L50" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="M50" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="N50" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="O50" s="22" t="s">
-        <v>33</v>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>121</v>
@@ -14444,11 +14464,11 @@
       <c r="Q50" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="R50" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="S50" s="18" t="s">
-        <v>62</v>
+      <c r="R50" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="S50" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="T50" s="11" t="s">
         <v>62</v>
@@ -14457,10 +14477,10 @@
         <v>519</v>
       </c>
       <c r="W50" s="33" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="X50" s="33" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="Y50" s="33" t="s">
         <v>2</v>
@@ -14611,13 +14631,13 @@
     </row>
     <row r="51" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A51" s="33" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B51" s="51" t="s">
         <v>121</v>
       </c>
       <c r="C51" s="51">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D51" s="51" t="s">
         <v>18</v>
@@ -14657,11 +14677,11 @@
       <c r="Q51" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="R51" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="S51" s="17" t="s">
-        <v>73</v>
+      <c r="R51" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="S51" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="T51" s="11" t="s">
         <v>62</v>
@@ -14671,10 +14691,10 @@
         <v>519</v>
       </c>
       <c r="W51" s="33" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="X51" s="33" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Y51" s="33" t="s">
         <v>2</v>
@@ -14823,45 +14843,41 @@
       <c r="FG51" s="48"/>
       <c r="FH51" s="48"/>
     </row>
-    <row r="52" spans="1:164" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A52" s="33" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="B52" s="51" t="s">
-        <v>482</v>
+        <v>121</v>
       </c>
       <c r="C52" s="51">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D52" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="40" t="s">
-        <v>263</v>
+      <c r="E52" s="38" t="s">
+        <v>131</v>
       </c>
       <c r="F52" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G52" s="59">
-        <v>1</v>
-      </c>
-      <c r="H52" s="59">
-        <v>1</v>
-      </c>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
       <c r="I52" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>62</v>
+      <c r="J52" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K52" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L52" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="M52" s="31" t="s">
+        <v>234</v>
       </c>
       <c r="N52" s="22" t="s">
         <v>33</v>
@@ -14884,17 +14900,14 @@
       <c r="T52" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="U52" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="V52" s="11" t="s">
         <v>519</v>
       </c>
       <c r="W52" s="33" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="X52" s="33" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="Y52" s="33" t="s">
         <v>2</v>
@@ -15045,41 +15058,45 @@
     </row>
     <row r="53" spans="1:164" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="B53" s="51"/>
+        <v>502</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>121</v>
+      </c>
       <c r="C53" s="51">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D53" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>62</v>
+      <c r="E53" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N53" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O53" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>121</v>
@@ -15088,25 +15105,23 @@
         <v>158</v>
       </c>
       <c r="R53" s="17" t="s">
-        <v>469</v>
+        <v>72</v>
       </c>
       <c r="S53" s="17" t="s">
-        <v>470</v>
+        <v>73</v>
       </c>
       <c r="T53" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="U53" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="U53" s="10"/>
       <c r="V53" s="11" t="s">
         <v>519</v>
       </c>
       <c r="W53" s="33" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="X53" s="33" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="Y53" s="33" t="s">
         <v>2</v>
@@ -15255,28 +15270,34 @@
       <c r="FG53" s="48"/>
       <c r="FH53" s="48"/>
     </row>
-    <row r="54" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:164" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33" t="s">
-        <v>272</v>
+        <v>523</v>
       </c>
       <c r="B54" s="51" t="s">
-        <v>121</v>
+        <v>482</v>
       </c>
       <c r="C54" s="51">
-        <v>221</v>
-      </c>
-      <c r="D54" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="51" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F54" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
+      <c r="G54" s="59">
+        <v>1</v>
+      </c>
+      <c r="H54" s="59">
+        <v>1</v>
+      </c>
+      <c r="I54" s="61" t="s">
+        <v>121</v>
+      </c>
       <c r="J54" s="4" t="s">
         <v>62</v>
       </c>
@@ -15284,10 +15305,10 @@
         <v>62</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="M54" s="31" t="s">
-        <v>234</v>
+        <v>62</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="N54" s="22" t="s">
         <v>33</v>
@@ -15301,11 +15322,11 @@
       <c r="Q54" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="R54" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="S54" s="17" t="s">
-        <v>472</v>
+      <c r="R54" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="S54" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="T54" s="11" t="s">
         <v>62</v>
@@ -15317,10 +15338,10 @@
         <v>519</v>
       </c>
       <c r="W54" s="33" t="s">
-        <v>272</v>
+        <v>523</v>
       </c>
       <c r="X54" s="33" t="s">
-        <v>272</v>
+        <v>523</v>
       </c>
       <c r="Y54" s="33" t="s">
         <v>2</v>
@@ -15471,32 +15492,24 @@
     </row>
     <row r="55" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A55" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="B55" s="51" t="s">
-        <v>482</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="B55" s="51"/>
       <c r="C55" s="51">
-        <v>365</v>
+        <v>211</v>
       </c>
       <c r="D55" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="F55" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="G55" s="51">
-        <v>7</v>
-      </c>
-      <c r="H55" s="51">
-        <v>7</v>
-      </c>
-      <c r="I55" s="51" t="s">
-        <v>482</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
       <c r="J55" s="4" t="s">
         <v>62</v>
       </c>
@@ -15509,11 +15522,11 @@
       <c r="M55" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N55" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="O55" s="22" t="s">
-        <v>33</v>
+      <c r="N55" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>121</v>
@@ -15522,10 +15535,10 @@
         <v>158</v>
       </c>
       <c r="R55" s="17" t="s">
-        <v>268</v>
+        <v>469</v>
       </c>
       <c r="S55" s="17" t="s">
-        <v>267</v>
+        <v>470</v>
       </c>
       <c r="T55" s="11" t="s">
         <v>62</v>
@@ -15537,10 +15550,10 @@
         <v>519</v>
       </c>
       <c r="W55" s="33" t="s">
-        <v>340</v>
+        <v>471</v>
       </c>
       <c r="X55" s="33" t="s">
-        <v>340</v>
+        <v>471</v>
       </c>
       <c r="Y55" s="33" t="s">
         <v>2</v>
@@ -15689,34 +15702,28 @@
       <c r="FG55" s="48"/>
       <c r="FH55" s="48"/>
     </row>
-    <row r="56" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A56" s="33" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>482</v>
+        <v>121</v>
       </c>
       <c r="C56" s="51">
-        <v>366</v>
-      </c>
-      <c r="D56" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>132</v>
+        <v>221</v>
+      </c>
+      <c r="D56" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>274</v>
       </c>
       <c r="F56" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G56" s="51">
-        <v>20</v>
-      </c>
-      <c r="H56" s="51">
-        <v>20</v>
-      </c>
-      <c r="I56" s="51" t="s">
-        <v>482</v>
-      </c>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
       <c r="J56" s="4" t="s">
         <v>62</v>
       </c>
@@ -15724,10 +15731,10 @@
         <v>62</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>62</v>
+        <v>233</v>
+      </c>
+      <c r="M56" s="31" t="s">
+        <v>234</v>
       </c>
       <c r="N56" s="22" t="s">
         <v>33</v>
@@ -15742,10 +15749,10 @@
         <v>158</v>
       </c>
       <c r="R56" s="17" t="s">
-        <v>270</v>
+        <v>472</v>
       </c>
       <c r="S56" s="17" t="s">
-        <v>269</v>
+        <v>472</v>
       </c>
       <c r="T56" s="11" t="s">
         <v>62</v>
@@ -15757,10 +15764,10 @@
         <v>519</v>
       </c>
       <c r="W56" s="33" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="X56" s="33" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="Y56" s="33" t="s">
         <v>2</v>
@@ -15909,35 +15916,39 @@
       <c r="FG56" s="48"/>
       <c r="FH56" s="48"/>
     </row>
-    <row r="57" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33" t="s">
-        <v>522</v>
+        <v>340</v>
       </c>
       <c r="B57" s="51" t="s">
         <v>482</v>
       </c>
       <c r="C57" s="51">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D57" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="40" t="s">
-        <v>261</v>
+        <v>17</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>132</v>
       </c>
       <c r="F57" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="J57" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="K57" s="34" t="s">
-        <v>245</v>
+      <c r="G57" s="51">
+        <v>7</v>
+      </c>
+      <c r="H57" s="51">
+        <v>7</v>
+      </c>
+      <c r="I57" s="51" t="s">
+        <v>482</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>62</v>
@@ -15957,24 +15968,26 @@
       <c r="Q57" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="R57" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="S57" s="18" t="s">
-        <v>62</v>
+      <c r="R57" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="S57" s="17" t="s">
+        <v>267</v>
       </c>
       <c r="T57" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="U57" s="10"/>
+      <c r="U57" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="V57" s="11" t="s">
         <v>519</v>
       </c>
       <c r="W57" s="33" t="s">
-        <v>522</v>
+        <v>340</v>
       </c>
       <c r="X57" s="33" t="s">
-        <v>522</v>
+        <v>340</v>
       </c>
       <c r="Y57" s="33" t="s">
         <v>2</v>
@@ -16125,43 +16138,43 @@
     </row>
     <row r="58" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A58" s="33" t="s">
-        <v>235</v>
+        <v>341</v>
       </c>
       <c r="B58" s="51" t="s">
         <v>482</v>
       </c>
       <c r="C58" s="51">
-        <v>500</v>
+        <v>366</v>
       </c>
       <c r="D58" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>240</v>
+        <v>17</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>132</v>
       </c>
       <c r="F58" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G58" s="59">
-        <v>1</v>
-      </c>
-      <c r="H58" s="59">
-        <v>1</v>
-      </c>
-      <c r="I58" s="59" t="s">
+      <c r="G58" s="51">
+        <v>20</v>
+      </c>
+      <c r="H58" s="51">
+        <v>20</v>
+      </c>
+      <c r="I58" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="J58" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="K58" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="L58" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="M58" s="21" t="s">
-        <v>240</v>
+      <c r="J58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="N58" s="22" t="s">
         <v>33</v>
@@ -16175,11 +16188,11 @@
       <c r="Q58" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="R58" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="S58" s="18" t="s">
-        <v>62</v>
+      <c r="R58" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="S58" s="17" t="s">
+        <v>269</v>
       </c>
       <c r="T58" s="11" t="s">
         <v>62</v>
@@ -16191,16 +16204,16 @@
         <v>519</v>
       </c>
       <c r="W58" s="33" t="s">
-        <v>235</v>
+        <v>341</v>
       </c>
       <c r="X58" s="33" t="s">
-        <v>235</v>
+        <v>341</v>
       </c>
       <c r="Y58" s="33" t="s">
         <v>2</v>
       </c>
       <c r="Z58" s="33" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="AA58" s="33" t="s">
         <v>3</v>
@@ -16345,43 +16358,39 @@
     </row>
     <row r="59" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A59" s="33" t="s">
-        <v>236</v>
+        <v>522</v>
       </c>
       <c r="B59" s="51" t="s">
         <v>482</v>
       </c>
       <c r="C59" s="51">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="D59" s="51" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="F59" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G59" s="59">
-        <v>1</v>
-      </c>
-      <c r="H59" s="59">
-        <v>1</v>
-      </c>
-      <c r="I59" s="59" t="s">
-        <v>482</v>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61" t="s">
+        <v>121</v>
       </c>
       <c r="J59" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="K59" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="L59" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="M59" s="21" t="s">
-        <v>240</v>
+        <v>224</v>
+      </c>
+      <c r="K59" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="N59" s="22" t="s">
         <v>33</v>
@@ -16404,17 +16413,15 @@
       <c r="T59" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="U59" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="U59" s="10"/>
       <c r="V59" s="11" t="s">
         <v>519</v>
       </c>
       <c r="W59" s="33" t="s">
-        <v>236</v>
+        <v>522</v>
       </c>
       <c r="X59" s="33" t="s">
-        <v>236</v>
+        <v>522</v>
       </c>
       <c r="Y59" s="33" t="s">
         <v>2</v>
@@ -16565,7 +16572,7 @@
     </row>
     <row r="60" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A60" s="33" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B60" s="51" t="s">
         <v>482</v>
@@ -16631,16 +16638,16 @@
         <v>519</v>
       </c>
       <c r="W60" s="33" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="X60" s="33" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="Y60" s="33" t="s">
         <v>2</v>
       </c>
       <c r="Z60" s="33" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="AA60" s="33" t="s">
         <v>3</v>
@@ -16784,6 +16791,87 @@
       <c r="FH60" s="48"/>
     </row>
     <row r="61" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="A61" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" s="51" t="s">
+        <v>482</v>
+      </c>
+      <c r="C61" s="51">
+        <v>500</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="G61" s="59">
+        <v>1</v>
+      </c>
+      <c r="H61" s="59">
+        <v>1</v>
+      </c>
+      <c r="I61" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="J61" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="L61" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="M61" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="N61" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O61" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q61" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="R61" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="S61" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T61" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U61" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V61" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="W61" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="X61" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y61" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z61" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA61" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="AB61" s="48"/>
       <c r="AC61" s="48"/>
       <c r="AD61" s="48"/>
@@ -16923,6 +17011,87 @@
       <c r="FH61" s="48"/>
     </row>
     <row r="62" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="A62" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" s="51" t="s">
+        <v>482</v>
+      </c>
+      <c r="C62" s="51">
+        <v>500</v>
+      </c>
+      <c r="D62" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="G62" s="59">
+        <v>1</v>
+      </c>
+      <c r="H62" s="59">
+        <v>1</v>
+      </c>
+      <c r="I62" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="J62" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="K62" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="L62" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="M62" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="N62" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O62" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q62" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="R62" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="S62" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T62" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U62" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V62" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="W62" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="X62" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y62" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z62" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA62" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="AB62" s="48"/>
       <c r="AC62" s="48"/>
       <c r="AD62" s="48"/>
@@ -19841,9 +20010,148 @@
       <c r="FG82" s="48"/>
       <c r="FH82" s="48"/>
     </row>
+    <row r="83" spans="28:164" x14ac:dyDescent="0.2">
+      <c r="AB83" s="48"/>
+      <c r="AC83" s="48"/>
+      <c r="AD83" s="48"/>
+      <c r="AE83" s="48"/>
+      <c r="AF83" s="48"/>
+      <c r="AG83" s="48"/>
+      <c r="AH83" s="48"/>
+      <c r="AI83" s="48"/>
+      <c r="AJ83" s="48"/>
+      <c r="AK83" s="48"/>
+      <c r="AL83" s="48"/>
+      <c r="AM83" s="48"/>
+      <c r="AN83" s="48"/>
+      <c r="AO83" s="48"/>
+      <c r="AP83" s="48"/>
+      <c r="AQ83" s="48"/>
+      <c r="AR83" s="48"/>
+      <c r="AS83" s="48"/>
+      <c r="AT83" s="48"/>
+      <c r="AU83" s="48"/>
+      <c r="AV83" s="48"/>
+      <c r="AW83" s="48"/>
+      <c r="AX83" s="48"/>
+      <c r="AY83" s="48"/>
+      <c r="AZ83" s="48"/>
+      <c r="BA83" s="48"/>
+      <c r="BB83" s="48"/>
+      <c r="BC83" s="48"/>
+      <c r="BD83" s="48"/>
+      <c r="BE83" s="48"/>
+      <c r="BF83" s="48"/>
+      <c r="BG83" s="48"/>
+      <c r="BH83" s="48"/>
+      <c r="BI83" s="48"/>
+      <c r="BJ83" s="48"/>
+      <c r="BK83" s="48"/>
+      <c r="BL83" s="48"/>
+      <c r="BM83" s="48"/>
+      <c r="BN83" s="48"/>
+      <c r="BO83" s="48"/>
+      <c r="BP83" s="48"/>
+      <c r="BQ83" s="48"/>
+      <c r="BR83" s="48"/>
+      <c r="BS83" s="48"/>
+      <c r="BT83" s="48"/>
+      <c r="BU83" s="48"/>
+      <c r="BV83" s="48"/>
+      <c r="BW83" s="48"/>
+      <c r="BX83" s="48"/>
+      <c r="BY83" s="48"/>
+      <c r="BZ83" s="48"/>
+      <c r="CA83" s="48"/>
+      <c r="CB83" s="48"/>
+      <c r="CC83" s="48"/>
+      <c r="CD83" s="48"/>
+      <c r="CE83" s="48"/>
+      <c r="CF83" s="48"/>
+      <c r="CG83" s="48"/>
+      <c r="CH83" s="48"/>
+      <c r="CI83" s="48"/>
+      <c r="CJ83" s="48"/>
+      <c r="CK83" s="48"/>
+      <c r="CL83" s="48"/>
+      <c r="CM83" s="48"/>
+      <c r="CN83" s="48"/>
+      <c r="CO83" s="48"/>
+      <c r="CP83" s="48"/>
+      <c r="CQ83" s="48"/>
+      <c r="CR83" s="48"/>
+      <c r="CS83" s="48"/>
+      <c r="CT83" s="48"/>
+      <c r="CU83" s="48"/>
+      <c r="CV83" s="48"/>
+      <c r="CW83" s="48"/>
+      <c r="CX83" s="48"/>
+      <c r="CY83" s="48"/>
+      <c r="CZ83" s="48"/>
+      <c r="DA83" s="48"/>
+      <c r="DB83" s="48"/>
+      <c r="DC83" s="48"/>
+      <c r="DD83" s="48"/>
+      <c r="DE83" s="48"/>
+      <c r="DF83" s="48"/>
+      <c r="DG83" s="48"/>
+      <c r="DH83" s="48"/>
+      <c r="DI83" s="48"/>
+      <c r="DJ83" s="48"/>
+      <c r="DK83" s="48"/>
+      <c r="DL83" s="48"/>
+      <c r="DM83" s="48"/>
+      <c r="DN83" s="48"/>
+      <c r="DO83" s="48"/>
+      <c r="DP83" s="48"/>
+      <c r="DQ83" s="48"/>
+      <c r="DR83" s="48"/>
+      <c r="DS83" s="48"/>
+      <c r="DT83" s="48"/>
+      <c r="DU83" s="48"/>
+      <c r="DV83" s="48"/>
+      <c r="DW83" s="48"/>
+      <c r="DX83" s="48"/>
+      <c r="DY83" s="48"/>
+      <c r="DZ83" s="48"/>
+      <c r="EA83" s="48"/>
+      <c r="EB83" s="48"/>
+      <c r="EC83" s="48"/>
+      <c r="ED83" s="48"/>
+      <c r="EE83" s="48"/>
+      <c r="EF83" s="48"/>
+      <c r="EG83" s="48"/>
+      <c r="EH83" s="48"/>
+      <c r="EI83" s="48"/>
+      <c r="EJ83" s="48"/>
+      <c r="EK83" s="48"/>
+      <c r="EL83" s="48"/>
+      <c r="EM83" s="48"/>
+      <c r="EN83" s="48"/>
+      <c r="EO83" s="48"/>
+      <c r="EP83" s="48"/>
+      <c r="EQ83" s="48"/>
+      <c r="ER83" s="48"/>
+      <c r="ES83" s="48"/>
+      <c r="ET83" s="48"/>
+      <c r="EU83" s="48"/>
+      <c r="EV83" s="48"/>
+      <c r="EW83" s="48"/>
+      <c r="EX83" s="48"/>
+      <c r="EY83" s="48"/>
+      <c r="EZ83" s="48"/>
+      <c r="FA83" s="48"/>
+      <c r="FB83" s="48"/>
+      <c r="FC83" s="48"/>
+      <c r="FD83" s="48"/>
+      <c r="FE83" s="48"/>
+      <c r="FF83" s="48"/>
+      <c r="FG83" s="48"/>
+      <c r="FH83" s="48"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA60">
-    <sortCondition ref="C2:C60"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA62">
+    <sortCondition ref="C2:C62"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87048A0-6AC8-394C-A218-C62A83460DF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213D1F67-5C02-2742-9AEC-A98B7834AC02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="4040" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="3040" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11231" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11239" uniqueCount="533">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -4276,10 +4276,10 @@
   <dimension ref="A1:FH83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="L37" sqref="A1:AA62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5328,7 +5328,7 @@
       <c r="I8" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="21" t="s">
         <v>224</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -5546,7 +5546,7 @@
       <c r="I9" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="21" t="s">
         <v>224</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -5982,7 +5982,7 @@
       <c r="I11" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="21" t="s">
         <v>224</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -6414,7 +6414,7 @@
       <c r="I13" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="21" t="s">
         <v>224</v>
       </c>
       <c r="K13" s="3" t="s">
@@ -6632,7 +6632,7 @@
       <c r="I14" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="21" t="s">
         <v>224</v>
       </c>
       <c r="K14" s="3" t="s">
@@ -7070,7 +7070,7 @@
       <c r="I16" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="21" t="s">
         <v>224</v>
       </c>
       <c r="K16" s="3" t="s">
@@ -7290,7 +7290,7 @@
       <c r="I17" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="21" t="s">
         <v>224</v>
       </c>
       <c r="K17" s="3" t="s">
@@ -8606,7 +8606,7 @@
       <c r="I23" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="21" t="s">
         <v>224</v>
       </c>
       <c r="K23" s="3" t="s">
@@ -9063,8 +9063,8 @@
       <c r="P25" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q25" s="76" t="s">
-        <v>158</v>
+      <c r="Q25" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="R25" s="18" t="s">
         <v>62</v>
@@ -9690,7 +9690,7 @@
       <c r="I28" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="21" t="s">
         <v>224</v>
       </c>
       <c r="K28" s="3" t="s">
@@ -9905,26 +9905,26 @@
       <c r="H29" s="59">
         <v>2</v>
       </c>
-      <c r="I29" s="33" t="s">
+      <c r="I29" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>62</v>
+      <c r="J29" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="P29" t="s">
         <v>121</v>
@@ -9947,19 +9947,19 @@
       <c r="V29" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W29" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="X29" t="s">
+      <c r="X29" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="Y29" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z29" t="s">
+      <c r="Y29" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AA29" s="33" t="s">
         <v>3</v>
       </c>
       <c r="AB29" s="48"/>
@@ -11196,7 +11196,9 @@
       <c r="A35" s="33" t="s">
         <v>527</v>
       </c>
-      <c r="B35" s="51"/>
+      <c r="B35" s="51" t="s">
+        <v>482</v>
+      </c>
       <c r="C35" s="51">
         <v>48</v>
       </c>
@@ -12491,7 +12493,9 @@
       <c r="A41" s="33" t="s">
         <v>528</v>
       </c>
-      <c r="B41" s="51"/>
+      <c r="B41" s="51" t="s">
+        <v>482</v>
+      </c>
       <c r="C41" s="51">
         <v>63</v>
       </c>
@@ -12523,7 +12527,7 @@
       <c r="O41" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P41" s="4" t="s">
+      <c r="P41" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q41" s="17" t="s">
@@ -12702,7 +12706,7 @@
         <v>463</v>
       </c>
       <c r="B42" s="51" t="s">
-        <v>121</v>
+        <v>482</v>
       </c>
       <c r="C42" s="51">
         <v>86</v>
@@ -12921,7 +12925,9 @@
       <c r="A43" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="B43" s="51"/>
+      <c r="B43" s="51" t="s">
+        <v>482</v>
+      </c>
       <c r="C43" s="51">
         <v>92</v>
       </c>
@@ -12934,8 +12940,12 @@
       <c r="F43" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
+      <c r="G43" s="59">
+        <v>1</v>
+      </c>
+      <c r="H43" s="59">
+        <v>1</v>
+      </c>
       <c r="I43" s="59"/>
       <c r="J43" s="4" t="s">
         <v>62</v>
@@ -12955,7 +12965,7 @@
       <c r="O43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P43" s="4" t="s">
+      <c r="P43" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q43" s="77" t="s">
@@ -13157,7 +13167,7 @@
       <c r="I44" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="21" t="s">
         <v>224</v>
       </c>
       <c r="K44" s="3" t="s">
@@ -13350,7 +13360,9 @@
       <c r="A45" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="B45" s="51"/>
+      <c r="B45" s="51" t="s">
+        <v>482</v>
+      </c>
       <c r="C45" s="51">
         <v>174</v>
       </c>
@@ -13390,7 +13402,7 @@
       <c r="O45" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P45" s="4" t="s">
+      <c r="P45" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q45" s="76" t="s">
@@ -13569,7 +13581,7 @@
         <v>413</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>121</v>
+        <v>482</v>
       </c>
       <c r="C46" s="51">
         <v>177</v>
@@ -13788,7 +13800,9 @@
       <c r="A47" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="B47" s="51"/>
+      <c r="B47" s="51" t="s">
+        <v>482</v>
+      </c>
       <c r="C47" s="51">
         <v>180</v>
       </c>
@@ -13826,7 +13840,7 @@
       <c r="O47" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="P47" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q47" s="76" t="s">
@@ -14036,7 +14050,7 @@
       <c r="O48" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P48" s="4" t="s">
+      <c r="P48" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q48" s="76" t="s">
@@ -14214,7 +14228,9 @@
       <c r="A49" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="B49" s="51"/>
+      <c r="B49" s="51" t="s">
+        <v>482</v>
+      </c>
       <c r="C49" s="51">
         <v>191</v>
       </c>
@@ -14248,7 +14264,7 @@
       <c r="O49" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P49" s="4" t="s">
+      <c r="P49" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q49" s="76" t="s">
@@ -14424,7 +14440,9 @@
       <c r="A50" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="B50" s="51"/>
+      <c r="B50" s="51" t="s">
+        <v>482</v>
+      </c>
       <c r="C50" s="51">
         <v>192</v>
       </c>
@@ -14458,7 +14476,7 @@
       <c r="O50" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P50" s="4" t="s">
+      <c r="P50" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q50" s="76" t="s">
@@ -14671,7 +14689,7 @@
       <c r="O51" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P51" s="4" t="s">
+      <c r="P51" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q51" s="76" t="s">
@@ -14867,16 +14885,16 @@
       <c r="I52" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="J52" s="31" t="s">
+      <c r="J52" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="K52" s="31" t="s">
+      <c r="K52" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="L52" s="31" t="s">
+      <c r="L52" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="M52" s="31" t="s">
+      <c r="M52" s="3" t="s">
         <v>234</v>
       </c>
       <c r="N52" s="22" t="s">
@@ -14885,7 +14903,7 @@
       <c r="O52" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P52" s="4" t="s">
+      <c r="P52" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q52" s="76" t="s">
@@ -15098,7 +15116,7 @@
       <c r="O53" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P53" s="4" t="s">
+      <c r="P53" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q53" s="76" t="s">
@@ -15316,7 +15334,7 @@
       <c r="O54" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P54" s="4" t="s">
+      <c r="P54" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q54" s="76" t="s">
@@ -15494,7 +15512,9 @@
       <c r="A55" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="B55" s="51"/>
+      <c r="B55" s="51" t="s">
+        <v>482</v>
+      </c>
       <c r="C55" s="51">
         <v>211</v>
       </c>
@@ -15528,7 +15548,7 @@
       <c r="O55" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P55" s="4" t="s">
+      <c r="P55" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q55" s="76" t="s">
@@ -15742,7 +15762,7 @@
       <c r="O56" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P56" s="4" t="s">
+      <c r="P56" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q56" s="76" t="s">
@@ -15962,7 +15982,7 @@
       <c r="O57" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P57" s="4" t="s">
+      <c r="P57" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q57" s="76" t="s">
@@ -16182,7 +16202,7 @@
       <c r="O58" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P58" s="4" t="s">
+      <c r="P58" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q58" s="76" t="s">
@@ -16398,7 +16418,7 @@
       <c r="O59" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P59" s="4" t="s">
+      <c r="P59" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q59" s="76" t="s">
@@ -16616,7 +16636,7 @@
       <c r="O60" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P60" s="4" t="s">
+      <c r="P60" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q60" s="76" t="s">
@@ -16836,7 +16856,7 @@
       <c r="O61" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P61" s="4" t="s">
+      <c r="P61" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q61" s="76" t="s">
@@ -17056,7 +17076,7 @@
       <c r="O62" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P62" s="4" t="s">
+      <c r="P62" s="3" t="s">
         <v>121</v>
       </c>
       <c r="Q62" s="76" t="s">

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0B9144-EBFA-C746-A052-AEC7A481B009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4630CDDD-0920-9C4E-AE81-DB03C29B3BE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7340" yWindow="2660" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3254,10 +3254,10 @@
   <dimension ref="A1:FH83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4630CDDD-0920-9C4E-AE81-DB03C29B3BE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17073FC4-7BEC-E645-911D-93258E0BEAFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="2660" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9520" yWindow="1240" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="5" r:id="rId1"/>
@@ -3254,10 +3254,10 @@
   <dimension ref="A1:FH83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4108,8 +4108,8 @@
       <c r="P7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" s="33" t="s">
-        <v>120</v>
+      <c r="Q7" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="R7" s="10" t="s">
         <v>67</v>
@@ -5200,8 +5200,8 @@
       <c r="P12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="33" t="s">
-        <v>119</v>
+      <c r="Q12" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="R12" s="10" t="s">
         <v>53</v>
@@ -5388,8 +5388,12 @@
       <c r="F13" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="G13" s="27">
+        <v>3</v>
+      </c>
+      <c r="H13" s="27">
+        <v>3</v>
+      </c>
       <c r="I13" s="29" t="s">
         <v>85</v>
       </c>
@@ -6070,8 +6074,8 @@
       <c r="P16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q16" s="33" t="s">
-        <v>119</v>
+      <c r="Q16" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="R16" s="10" t="s">
         <v>37</v>
@@ -6728,8 +6732,8 @@
       <c r="P19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q19" s="33" t="s">
-        <v>119</v>
+      <c r="Q19" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="R19" s="10" t="s">
         <v>56</v>

--- a/tabular/eve/epv-dependo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-dependo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17073FC4-7BEC-E645-911D-93258E0BEAFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FE31E1-2C4B-8E4D-8EE0-F5BF44556E3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="1240" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6880" yWindow="2520" windowWidth="35600" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="255">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Lagomorpha</t>
   </si>
   <si>
-    <t>Chiroptera</t>
-  </si>
-  <si>
     <t>Rodents</t>
   </si>
   <si>
@@ -542,9 +539,6 @@
     <t>dependo.174-Pipistrellus-pipistrellus</t>
   </si>
   <si>
-    <t>dependo.177-Pteronotus-parnellii</t>
-  </si>
-  <si>
     <t>Muridae</t>
   </si>
   <si>
@@ -713,9 +707,6 @@
     <t>strepsirrhini</t>
   </si>
   <si>
-    <t>dependo.30-chiroptera</t>
-  </si>
-  <si>
     <t>dependo.48-mus</t>
   </si>
   <si>
@@ -725,12 +716,6 @@
     <t>dependo.180-rhinolophus</t>
   </si>
   <si>
-    <t>dependo.29-felidae</t>
-  </si>
-  <si>
-    <t>Felidae</t>
-  </si>
-  <si>
     <t>phyllostomidae</t>
   </si>
   <si>
@@ -752,9 +737,6 @@
     <t>ENSODET00000026911</t>
   </si>
   <si>
-    <t>NYH9</t>
-  </si>
-  <si>
     <t>GRM7</t>
   </si>
   <si>
@@ -762,6 +744,60 @@
   </si>
   <si>
     <t>hystricomorpha</t>
+  </si>
+  <si>
+    <t>dependo.187.Glis</t>
+  </si>
+  <si>
+    <t>STPG2</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>Glis glis</t>
+  </si>
+  <si>
+    <t>ENSRFEG00010011765</t>
+  </si>
+  <si>
+    <t>FLRT2</t>
+  </si>
+  <si>
+    <t>MYH9</t>
+  </si>
+  <si>
+    <t>dependo.69-Megaderma</t>
+  </si>
+  <si>
+    <t>Megaderma lytra</t>
+  </si>
+  <si>
+    <t>ACVR1</t>
+  </si>
+  <si>
+    <t>ACVR1C</t>
+  </si>
+  <si>
+    <t>dependo.190-sarcophilus</t>
+  </si>
+  <si>
+    <t>ZNF385D</t>
+  </si>
+  <si>
+    <t>SGO1</t>
+  </si>
+  <si>
+    <t>dependo.47-pedetes</t>
+  </si>
+  <si>
+    <t>Pedetes capensis</t>
+  </si>
+  <si>
+    <t>ENSCLAG00000029159</t>
+  </si>
+  <si>
+    <t>TLE4</t>
   </si>
 </sst>
 </file>
@@ -3251,13 +3287,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DACFF6-840F-D741-97EA-4F87EFFABC86}">
-  <dimension ref="A1:FH83"/>
+  <dimension ref="A1:FH80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3293,82 +3329,82 @@
   <sheetData>
     <row r="1" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="T1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>1</v>
@@ -3379,7 +3415,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C2" s="25">
         <v>0</v>
@@ -3388,10 +3424,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G2" s="27">
         <v>1</v>
@@ -3400,40 +3436,40 @@
         <v>1</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="25">
@@ -3449,7 +3485,7 @@
         <v>2</v>
       </c>
       <c r="Z2" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA2" s="20" t="s">
         <v>3</v>
@@ -3460,19 +3496,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C3" s="25">
         <v>1</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G3" s="25">
         <v>23</v>
@@ -3481,40 +3517,40 @@
         <v>24</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U3" s="7">
         <v>62</v>
@@ -3532,7 +3568,7 @@
         <v>2</v>
       </c>
       <c r="Z3" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA3" s="20" t="s">
         <v>3</v>
@@ -3540,22 +3576,22 @@
     </row>
     <row r="4" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C4" s="25">
         <v>2</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G4" s="25">
         <v>8</v>
@@ -3564,56 +3600,56 @@
         <v>8</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="25">
         <v>32913662</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z4" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA4" s="20" t="s">
         <v>3</v>
@@ -3624,7 +3660,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" s="25">
         <v>3</v>
@@ -3636,7 +3672,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G5" s="25">
         <v>3</v>
@@ -3645,40 +3681,40 @@
         <v>3</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="S5" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="T5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U5" s="7">
         <v>51</v>
@@ -3696,7 +3732,7 @@
         <v>2</v>
       </c>
       <c r="Z5" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA5" s="20" t="s">
         <v>3</v>
@@ -3841,22 +3877,22 @@
     </row>
     <row r="6" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" s="25">
         <v>4</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G6" s="27">
         <v>4</v>
@@ -3865,58 +3901,58 @@
         <v>4</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="T6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U6" s="8">
         <v>27.9</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X6" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z6" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA6" s="20" t="s">
         <v>3</v>
@@ -4061,22 +4097,22 @@
     </row>
     <row r="7" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C7" s="25">
         <v>5</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G7" s="27">
         <v>4</v>
@@ -4085,58 +4121,58 @@
         <v>4</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U7" s="8">
         <v>27.9</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W7" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X7" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z7" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA7" s="20" t="s">
         <v>3</v>
@@ -4284,7 +4320,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C8" s="25">
         <v>6</v>
@@ -4293,10 +4329,10 @@
         <v>15</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G8" s="25">
         <v>1</v>
@@ -4305,44 +4341,44 @@
         <v>1</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="S8" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="T8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U8" s="7"/>
       <c r="V8" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W8" s="20" t="s">
         <v>9</v>
@@ -4354,7 +4390,7 @@
         <v>2</v>
       </c>
       <c r="Z8" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA8" s="20" t="s">
         <v>3</v>
@@ -4502,7 +4538,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C9" s="25">
         <v>7</v>
@@ -4511,10 +4547,10 @@
         <v>15</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G9" s="25">
         <v>1</v>
@@ -4523,44 +4559,44 @@
         <v>1</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U9" s="7"/>
       <c r="V9" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W9" s="20" t="s">
         <v>10</v>
@@ -4572,7 +4608,7 @@
         <v>2</v>
       </c>
       <c r="Z9" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA9" s="20" t="s">
         <v>3</v>
@@ -4720,7 +4756,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C10" s="25">
         <v>8</v>
@@ -4729,10 +4765,10 @@
         <v>15</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G10" s="25">
         <v>1</v>
@@ -4741,44 +4777,44 @@
         <v>1</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="S10" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="T10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W10" s="20" t="s">
         <v>11</v>
@@ -4790,7 +4826,7 @@
         <v>2</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA10" s="20" t="s">
         <v>3</v>
@@ -4935,22 +4971,22 @@
     </row>
     <row r="11" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C11" s="25">
         <v>9</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G11" s="25">
         <v>2</v>
@@ -4959,56 +4995,56 @@
         <v>2</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S11" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U11" s="7"/>
       <c r="V11" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="W11" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="W11" s="20" t="s">
-        <v>221</v>
-      </c>
       <c r="X11" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Y11" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA11" s="20" t="s">
         <v>3</v>
@@ -5153,22 +5189,22 @@
     </row>
     <row r="12" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C12" s="25">
         <v>10</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G12" s="27">
         <v>1</v>
@@ -5177,56 +5213,56 @@
         <v>1</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="L12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="N12" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W12" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X12" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y12" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z12" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA12" s="20" t="s">
         <v>3</v>
@@ -5374,19 +5410,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C13" s="25">
         <v>11</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G13" s="27">
         <v>3</v>
@@ -5395,44 +5431,44 @@
         <v>3</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R13" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W13" s="20" t="s">
         <v>12</v>
@@ -5444,7 +5480,7 @@
         <v>2</v>
       </c>
       <c r="Z13" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA13" s="20" t="s">
         <v>3</v>
@@ -5589,10 +5625,10 @@
     </row>
     <row r="14" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C14" s="25">
         <v>12</v>
@@ -5601,10 +5637,10 @@
         <v>15</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G14" s="25">
         <v>1</v>
@@ -5613,56 +5649,56 @@
         <v>1</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R14" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S14" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W14" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X14" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y14" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z14" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA14" s="20" t="s">
         <v>3</v>
@@ -5810,19 +5846,19 @@
         <v>8</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C15" s="25">
         <v>13</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G15" s="27">
         <v>3</v>
@@ -5831,46 +5867,46 @@
         <v>3</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S15" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="T15" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U15" s="8">
         <v>19.399999999999999</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W15" s="20" t="s">
         <v>8</v>
@@ -5882,7 +5918,7 @@
         <v>2</v>
       </c>
       <c r="Z15" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA15" s="20" t="s">
         <v>3</v>
@@ -6027,22 +6063,22 @@
     </row>
     <row r="16" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C16" s="25">
         <v>14</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G16" s="27">
         <v>5</v>
@@ -6051,58 +6087,58 @@
         <v>5</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U16" s="8">
         <v>19.399999999999999</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W16" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X16" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y16" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z16" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA16" s="20" t="s">
         <v>3</v>
@@ -6247,10 +6283,10 @@
     </row>
     <row r="17" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C17" s="25">
         <v>15</v>
@@ -6259,10 +6295,10 @@
         <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G17" s="27">
         <v>1</v>
@@ -6271,58 +6307,58 @@
         <v>1</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U17" s="8">
         <v>19.399999999999999</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W17" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X17" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y17" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z17" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA17" s="20" t="s">
         <v>3</v>
@@ -6467,22 +6503,22 @@
     </row>
     <row r="18" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C18" s="25">
         <v>16</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G18" s="27">
         <v>5</v>
@@ -6491,56 +6527,56 @@
         <v>5</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="S18" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="T18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U18" s="8"/>
       <c r="V18" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W18" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X18" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y18" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z18" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA18" s="20" t="s">
         <v>3</v>
@@ -6685,22 +6721,22 @@
     </row>
     <row r="19" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C19" s="25">
         <v>20</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G19" s="27">
         <v>13</v>
@@ -6709,56 +6745,56 @@
         <v>13</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="L19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="N19" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U19" s="8"/>
       <c r="V19" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W19" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X19" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y19" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z19" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA19" s="20" t="s">
         <v>3</v>
@@ -6903,22 +6939,22 @@
     </row>
     <row r="20" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C20" s="25">
         <v>22</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G20" s="27">
         <v>73</v>
@@ -6927,58 +6963,58 @@
         <v>76</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="L20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="N20" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="S20" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="T20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U20" s="8">
         <v>62</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W20" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X20" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y20" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z20" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA20" s="20" t="s">
         <v>3</v>
@@ -7123,22 +7159,22 @@
     </row>
     <row r="21" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C21" s="25">
         <v>23</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G21" s="27">
         <v>5</v>
@@ -7147,40 +7183,40 @@
         <v>5</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="S21" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="T21" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U21" s="8">
         <v>11.7</v>
@@ -7189,16 +7225,16 @@
         <v>26037535</v>
       </c>
       <c r="W21" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X21" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Y21" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z21" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA21" s="20" t="s">
         <v>3</v>
@@ -7343,22 +7379,22 @@
     </row>
     <row r="22" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C22" s="25">
         <v>26</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G22" s="27">
         <v>7</v>
@@ -7367,40 +7403,40 @@
         <v>11</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="S22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="S22" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="T22" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U22" s="8">
         <v>55</v>
@@ -7409,16 +7445,16 @@
         <v>15085543</v>
       </c>
       <c r="W22" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="X22" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Y22" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z22" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA22" s="20" t="s">
         <v>3</v>
@@ -7563,22 +7599,22 @@
     </row>
     <row r="23" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C23" s="25">
         <v>27</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G23" s="27">
         <v>3</v>
@@ -7587,56 +7623,56 @@
         <v>3</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R23" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S23" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U23" s="8"/>
       <c r="V23" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W23" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X23" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y23" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z23" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA23" s="20" t="s">
         <v>3</v>
@@ -7781,22 +7817,22 @@
     </row>
     <row r="24" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C24" s="25">
         <v>28</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G24" s="27">
         <v>1</v>
@@ -7805,56 +7841,56 @@
         <v>2</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U24" s="8"/>
       <c r="V24" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W24" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X24" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y24" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z24" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA24" s="20" t="s">
         <v>3</v>
@@ -7999,80 +8035,80 @@
     </row>
     <row r="25" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C25" s="25">
-        <v>29</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>175</v>
+        <v>36</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="G25" s="27">
         <v>1</v>
       </c>
       <c r="H25" s="27">
-        <v>2</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>194</v>
+        <v>1</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>132</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>132</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>132</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="33" t="s">
         <v>118</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U25" s="8"/>
       <c r="V25" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W25" s="20" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="X25" s="20" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="Y25" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z25" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA25" s="20" t="s">
         <v>3</v>
@@ -8217,74 +8253,80 @@
     </row>
     <row r="26" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C26" s="25">
-        <v>30</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>85</v>
+        <v>173</v>
+      </c>
+      <c r="G26" s="25">
+        <v>1</v>
+      </c>
+      <c r="H26" s="25">
+        <v>1</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="Q26" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="S26" s="11" t="s">
-        <v>44</v>
+        <v>118</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U26" s="8"/>
       <c r="V26" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W26" s="20" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="X26" s="20" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="Y26" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z26" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA26" s="20" t="s">
         <v>3</v>
@@ -8429,80 +8471,82 @@
     </row>
     <row r="27" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>208</v>
+        <v>121</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C27" s="25">
-        <v>36</v>
-      </c>
-      <c r="D27" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>123</v>
+      <c r="E27" s="23" t="s">
+        <v>227</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G27" s="27">
         <v>1</v>
       </c>
       <c r="H27" s="27">
-        <v>1</v>
-      </c>
-      <c r="I27" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="L27" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="P27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q27" s="33" t="s">
-        <v>119</v>
+      <c r="P27" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8" t="s">
-        <v>219</v>
+        <v>43</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="W27" s="20" t="s">
-        <v>208</v>
+        <v>121</v>
       </c>
       <c r="X27" s="20" t="s">
-        <v>208</v>
+        <v>121</v>
       </c>
       <c r="Y27" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z27" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA27" s="20" t="s">
         <v>3</v>
@@ -8647,22 +8691,22 @@
     </row>
     <row r="28" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C28" s="25">
-        <v>37</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>21</v>
+        <v>42</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="G28" s="25">
         <v>1</v>
@@ -8670,57 +8714,57 @@
       <c r="H28" s="25">
         <v>1</v>
       </c>
-      <c r="I28" s="27" t="s">
-        <v>194</v>
+      <c r="I28" s="25" t="s">
+        <v>192</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="Q28" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="R28" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="S28" s="10" t="s">
-        <v>236</v>
+        <v>118</v>
+      </c>
+      <c r="R28" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S28" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U28" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="U28" s="7"/>
       <c r="V28" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W28" s="20" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="X28" s="20" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="Y28" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z28" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA28" s="20" t="s">
         <v>3</v>
@@ -8865,82 +8909,80 @@
     </row>
     <row r="29" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C29" s="25">
-        <v>40</v>
-      </c>
-      <c r="D29" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="25">
+        <v>5</v>
+      </c>
+      <c r="H29" s="25">
+        <v>5</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="N29" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G29" s="27">
-        <v>1</v>
-      </c>
-      <c r="H29" s="27">
-        <v>2</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P29" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="S29" s="11" t="s">
-        <v>44</v>
+      <c r="O29" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="R29" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="V29" s="5" t="s">
-        <v>219</v>
+        <v>43</v>
+      </c>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="W29" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="X29" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Y29" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z29" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA29" s="20" t="s">
         <v>3</v>
@@ -9085,80 +9127,82 @@
     </row>
     <row r="30" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="C30" s="25">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G30" s="25">
-        <v>1</v>
-      </c>
-      <c r="H30" s="25">
-        <v>1</v>
-      </c>
-      <c r="I30" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="G30" s="27">
+        <v>2</v>
+      </c>
+      <c r="H30" s="27">
+        <v>2</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>140</v>
+        <v>130</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="M30" s="21" t="s">
-        <v>140</v>
+        <v>130</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>116</v>
+        <v>22</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="Q30" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="R30" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="S30" s="18" t="s">
-        <v>44</v>
+        <v>118</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U30" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="U30" s="8">
+        <v>34</v>
+      </c>
       <c r="V30" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W30" s="20" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="X30" s="20" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="Y30" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z30" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA30" s="20" t="s">
         <v>3</v>
@@ -9303,80 +9347,80 @@
     </row>
     <row r="31" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="C31" s="25">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G31" s="25">
-        <v>5</v>
-      </c>
-      <c r="H31" s="25">
-        <v>5</v>
-      </c>
-      <c r="I31" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="G31" s="27">
+        <v>2</v>
+      </c>
+      <c r="H31" s="27">
+        <v>2</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M31" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q31" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R31" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="S31" s="18" t="s">
-        <v>44</v>
+      <c r="R31" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U31" s="8"/>
       <c r="V31" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W31" s="20" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="X31" s="20" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="Y31" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z31" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA31" s="20" t="s">
         <v>3</v>
@@ -9521,82 +9565,80 @@
     </row>
     <row r="32" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="C32" s="25">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G32" s="27">
+        <v>175</v>
+      </c>
+      <c r="G32" s="25">
+        <v>1</v>
+      </c>
+      <c r="H32" s="25">
         <v>2</v>
       </c>
-      <c r="H32" s="27">
-        <v>2</v>
-      </c>
-      <c r="I32" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O32" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P32" s="15" t="s">
-        <v>85</v>
+      <c r="I32" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="Q32" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U32" s="8">
-        <v>34</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="U32" s="8"/>
       <c r="V32" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W32" s="20" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="X32" s="20" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="Y32" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z32" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA32" s="20" t="s">
         <v>3</v>
@@ -9741,80 +9783,74 @@
     </row>
     <row r="33" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="C33" s="25">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>105</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G33" s="27">
-        <v>2</v>
-      </c>
-      <c r="H33" s="27">
-        <v>2</v>
-      </c>
-      <c r="I33" s="29" t="s">
-        <v>85</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
       <c r="J33" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>109</v>
+        <v>130</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="M33" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="N33" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O33" s="14" t="s">
-        <v>23</v>
+        <v>130</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q33" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="S33" s="10" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="T33" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U33" s="8"/>
       <c r="V33" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W33" s="20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="X33" s="20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Y33" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z33" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA33" s="20" t="s">
         <v>3</v>
@@ -9959,80 +9995,80 @@
     </row>
     <row r="34" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C34" s="25">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D34" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" s="25">
+        <v>4</v>
+      </c>
+      <c r="H34" s="25">
+        <v>4</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N34" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="G34" s="25">
-        <v>1</v>
-      </c>
-      <c r="H34" s="25">
-        <v>2</v>
-      </c>
-      <c r="I34" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>85</v>
+      <c r="O34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="Q34" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="T34" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U34" s="8"/>
       <c r="V34" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W34" s="20" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="X34" s="20" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="Y34" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z34" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA34" s="20" t="s">
         <v>3</v>
@@ -10177,74 +10213,80 @@
     </row>
     <row r="35" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C35" s="25">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="22" t="s">
-        <v>106</v>
+      <c r="E35" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
+        <v>193</v>
+      </c>
+      <c r="G35" s="27">
+        <v>1</v>
+      </c>
+      <c r="H35" s="27">
+        <v>1</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="J35" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>140</v>
+        <v>130</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="M35" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>44</v>
+        <v>130</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P35" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q35" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="R35" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="S35" s="10" t="s">
-        <v>68</v>
+        <v>118</v>
+      </c>
+      <c r="R35" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S35" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U35" s="8"/>
       <c r="V35" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W35" s="20" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="X35" s="20" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Y35" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z35" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA35" s="20" t="s">
         <v>3</v>
@@ -10389,80 +10431,80 @@
     </row>
     <row r="36" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="25">
+        <v>54</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" s="27">
+        <v>3</v>
+      </c>
+      <c r="H36" s="27">
+        <v>3</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J36" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="25">
-        <v>51</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G36" s="25">
-        <v>4</v>
-      </c>
-      <c r="H36" s="25">
-        <v>4</v>
-      </c>
-      <c r="I36" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N36" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O36" s="14" t="s">
-        <v>23</v>
+      <c r="K36" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q36" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U36" s="8"/>
       <c r="V36" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W36" s="20" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="X36" s="20" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="Y36" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z36" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA36" s="20" t="s">
         <v>3</v>
@@ -10610,65 +10652,61 @@
         <v>210</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C37" s="25">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G37" s="27">
-        <v>1</v>
-      </c>
-      <c r="H37" s="27">
-        <v>1</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="M37" s="16" t="s">
-        <v>109</v>
+        <v>84</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P37" s="15" t="s">
-        <v>85</v>
+        <v>22</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="Q37" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="R37" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="S37" s="11" t="s">
-        <v>44</v>
+        <v>118</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U37" s="8"/>
       <c r="V37" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W37" s="20" t="s">
         <v>210</v>
@@ -10680,7 +10718,7 @@
         <v>2</v>
       </c>
       <c r="Z37" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA37" s="20" t="s">
         <v>3</v>
@@ -10828,19 +10866,19 @@
         <v>211</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C38" s="25">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>195</v>
+      <c r="E38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="G38" s="27">
         <v>3</v>
@@ -10848,45 +10886,44 @@
       <c r="H38" s="27">
         <v>3</v>
       </c>
-      <c r="I38" s="31" t="s">
-        <v>85</v>
+      <c r="I38" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>44</v>
+        <v>108</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P38" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q38" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U38" s="8"/>
+        <v>43</v>
+      </c>
       <c r="V38" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W38" s="20" t="s">
         <v>211</v>
@@ -10898,7 +10935,7 @@
         <v>2</v>
       </c>
       <c r="Z38" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA38" s="20" t="s">
         <v>3</v>
@@ -11043,76 +11080,71 @@
     </row>
     <row r="39" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>194</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B39" s="25"/>
       <c r="C39" s="25">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
-      <c r="I39" s="31" t="s">
-        <v>85</v>
-      </c>
+      <c r="I39" s="27"/>
       <c r="J39" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O39" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P39" s="9" t="s">
-        <v>85</v>
+        <v>43</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="Q39" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="S39" s="10" t="s">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U39" s="8"/>
+        <v>43</v>
+      </c>
       <c r="V39" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W39" s="20" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="X39" s="20" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="Y39" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z39" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA39" s="20" t="s">
         <v>3</v>
@@ -11257,79 +11289,76 @@
     </row>
     <row r="40" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C40" s="25">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>108</v>
+        <v>14</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>166</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G40" s="27">
-        <v>3</v>
-      </c>
-      <c r="H40" s="27">
-        <v>3</v>
-      </c>
-      <c r="I40" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="M40" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="N40" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O40" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P40" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q40" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="T40" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="U40" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="V40" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W40" s="20" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="X40" s="20" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="Y40" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z40" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA40" s="20" t="s">
         <v>3</v>
@@ -11474,71 +11503,80 @@
     </row>
     <row r="41" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="25">
-        <v>59</v>
-      </c>
-      <c r="D41" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" s="25">
+        <v>1</v>
+      </c>
+      <c r="H41" s="25">
+        <v>1</v>
+      </c>
+      <c r="I41" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
       <c r="J41" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P41" s="15" t="s">
-        <v>85</v>
+        <v>43</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O41" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="Q41" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="U41" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="V41" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W41" s="20" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="X41" s="20" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Y41" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z41" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA41" s="20" t="s">
         <v>3</v>
@@ -11683,48 +11721,54 @@
     </row>
     <row r="42" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C42" s="25">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>44</v>
+        <v>120</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42" s="25">
+        <v>5</v>
+      </c>
+      <c r="H42" s="25">
+        <v>5</v>
+      </c>
+      <c r="I42" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q42" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q42" s="33" t="s">
         <v>118</v>
       </c>
       <c r="R42" s="10" t="s">
@@ -11734,25 +11778,25 @@
         <v>199</v>
       </c>
       <c r="T42" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U42" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V42" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W42" s="20" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="X42" s="20" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="Y42" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z42" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA42" s="20" t="s">
         <v>3</v>
@@ -11897,82 +11941,80 @@
     </row>
     <row r="43" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C43" s="25">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="G43" s="25">
-        <v>5</v>
-      </c>
-      <c r="H43" s="25">
-        <v>5</v>
-      </c>
-      <c r="I43" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>86</v>
+        <v>159</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G43" s="27">
+        <v>1</v>
+      </c>
+      <c r="H43" s="27">
+        <v>1</v>
+      </c>
+      <c r="I43" s="27"/>
+      <c r="J43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q43" s="33" t="s">
-        <v>119</v>
+        <v>84</v>
+      </c>
+      <c r="Q43" s="34" t="s">
+        <v>192</v>
       </c>
       <c r="R43" s="10" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="T43" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U43" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W43" s="20" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="X43" s="20" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="Y43" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z43" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA43" s="20" t="s">
         <v>3</v>
@@ -12117,80 +12159,79 @@
     </row>
     <row r="44" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C44" s="25">
-        <v>92</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="23" t="s">
         <v>160</v>
       </c>
+      <c r="D44" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="F44" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="25">
+        <v>1</v>
+      </c>
+      <c r="H44" s="25">
+        <v>1</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="R44" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="G44" s="27">
-        <v>1</v>
-      </c>
-      <c r="H44" s="27">
-        <v>1</v>
-      </c>
-      <c r="I44" s="27"/>
-      <c r="J44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q44" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="R44" s="10" t="s">
-        <v>240</v>
-      </c>
       <c r="S44" s="10" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="T44" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U44" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W44" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="X44" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Y44" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z44" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA44" s="20" t="s">
         <v>3</v>
@@ -12335,79 +12376,82 @@
     </row>
     <row r="45" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C45" s="25">
-        <v>160</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G45" s="25">
+        <v>174</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G45" s="27">
         <v>1</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="27">
         <v>1</v>
       </c>
       <c r="I45" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O45" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O45" s="4" t="s">
         <v>43</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q45" s="10" t="s">
-        <v>194</v>
+        <v>84</v>
+      </c>
+      <c r="Q45" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="R45" s="10" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="T45" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="U45" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="V45" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W45" s="20" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="X45" s="20" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="Y45" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z45" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA45" s="20" t="s">
         <v>3</v>
@@ -12552,82 +12596,80 @@
     </row>
     <row r="46" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C46" s="25">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D46" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G46" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" s="27">
-        <v>1</v>
-      </c>
-      <c r="I46" s="27" t="s">
-        <v>194</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I46" s="27"/>
       <c r="J46" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q46" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="T46" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U46" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W46" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X46" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y46" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z46" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA46" s="20" t="s">
         <v>3</v>
@@ -12772,82 +12814,82 @@
     </row>
     <row r="47" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C47" s="25">
-        <v>177</v>
-      </c>
-      <c r="D47" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>175</v>
+      <c r="E47" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="G47" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" s="25">
-        <v>2</v>
-      </c>
-      <c r="I47" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>86</v>
+        <v>1</v>
+      </c>
+      <c r="I47" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N47" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O47" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q47" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="R47" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="S47" s="11" t="s">
-        <v>44</v>
+        <v>118</v>
+      </c>
+      <c r="R47" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="S47" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="T47" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U47" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V47" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W47" s="20" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="X47" s="20" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="Y47" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z47" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA47" s="20" t="s">
         <v>3</v>
@@ -12992,80 +13034,78 @@
     </row>
     <row r="48" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C48" s="25">
-        <v>180</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="G48" s="27">
-        <v>2</v>
-      </c>
-      <c r="H48" s="27">
-        <v>2</v>
-      </c>
-      <c r="I48" s="27"/>
+        <v>190</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G48" s="25">
+        <v>1</v>
+      </c>
+      <c r="H48" s="25">
+        <v>1</v>
+      </c>
+      <c r="I48" s="25"/>
       <c r="J48" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q48" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="T48" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U48" s="8" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="U48" s="7"/>
       <c r="V48" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W48" s="20" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="X48" s="20" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="Y48" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z48" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA48" s="20" t="s">
         <v>3</v>
@@ -13210,10 +13250,10 @@
     </row>
     <row r="49" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C49" s="25">
         <v>191</v>
@@ -13222,62 +13262,62 @@
         <v>14</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q49" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R49" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S49" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="S49" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="T49" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U49" s="7"/>
       <c r="V49" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W49" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="X49" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Y49" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z49" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA49" s="20" t="s">
         <v>3</v>
@@ -13420,12 +13460,12 @@
       <c r="FG49" s="24"/>
       <c r="FH49" s="24"/>
     </row>
-    <row r="50" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C50" s="25">
         <v>192</v>
@@ -13434,61 +13474,62 @@
         <v>14</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q50" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T50" s="8" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="U50" s="5"/>
       <c r="V50" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W50" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="X50" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Y50" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z50" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA50" s="20" t="s">
         <v>3</v>
@@ -13631,12 +13672,12 @@
       <c r="FG50" s="24"/>
       <c r="FH50" s="24"/>
     </row>
-    <row r="51" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" s="25">
         <v>197</v>
@@ -13645,64 +13686,68 @@
         <v>15</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
+        <v>193</v>
+      </c>
+      <c r="G51" s="29">
+        <v>1</v>
+      </c>
+      <c r="H51" s="29">
+        <v>1</v>
+      </c>
       <c r="I51" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="L51" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N51" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q51" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R51" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S51" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T51" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U51" s="7"/>
       <c r="V51" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W51" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="X51" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Y51" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z51" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA51" s="20" t="s">
         <v>3</v>
@@ -13847,10 +13892,10 @@
     </row>
     <row r="52" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C52" s="25">
         <v>198</v>
@@ -13859,63 +13904,67 @@
         <v>15</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
+        <v>193</v>
+      </c>
+      <c r="G52" s="29">
+        <v>1</v>
+      </c>
+      <c r="H52" s="29">
+        <v>1</v>
+      </c>
       <c r="I52" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="L52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="N52" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q52" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R52" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T52" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V52" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W52" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="X52" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Y52" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z52" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA52" s="20" t="s">
         <v>3</v>
@@ -14058,12 +14107,12 @@
       <c r="FG52" s="24"/>
       <c r="FH52" s="24"/>
     </row>
-    <row r="53" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" s="25">
         <v>199</v>
@@ -14072,64 +14121,68 @@
         <v>15</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
+        <v>193</v>
+      </c>
+      <c r="G53" s="29">
+        <v>1</v>
+      </c>
+      <c r="H53" s="29">
+        <v>1</v>
+      </c>
       <c r="I53" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="L53" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N53" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q53" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R53" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S53" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="S53" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="T53" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U53" s="7"/>
       <c r="V53" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W53" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X53" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y53" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z53" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA53" s="20" t="s">
         <v>3</v>
@@ -14272,12 +14325,12 @@
       <c r="FG53" s="24"/>
       <c r="FH53" s="24"/>
     </row>
-    <row r="54" spans="1:164" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C54" s="25">
         <v>202</v>
@@ -14286,10 +14339,10 @@
         <v>15</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G54" s="27">
         <v>1</v>
@@ -14298,58 +14351,58 @@
         <v>1</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N54" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q54" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R54" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S54" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T54" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U54" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V54" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W54" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="X54" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Y54" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z54" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA54" s="20" t="s">
         <v>3</v>
@@ -14494,10 +14547,10 @@
     </row>
     <row r="55" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C55" s="25">
         <v>211</v>
@@ -14506,64 +14559,68 @@
         <v>15</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
+        <v>194</v>
+      </c>
+      <c r="G55" s="27">
+        <v>1</v>
+      </c>
+      <c r="H55" s="27">
+        <v>1</v>
+      </c>
       <c r="I55" s="27"/>
       <c r="J55" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q55" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R55" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="S55" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="T55" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U55" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V55" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="W55" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="S55" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="T55" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U55" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="V55" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="W55" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="X55" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y55" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z55" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA55" s="20" t="s">
         <v>3</v>
@@ -14706,12 +14763,12 @@
       <c r="FG55" s="24"/>
       <c r="FH55" s="24"/>
     </row>
-    <row r="56" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" s="25">
         <v>221</v>
@@ -14720,64 +14777,68 @@
         <v>15</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
+        <v>193</v>
+      </c>
+      <c r="G56" s="31">
+        <v>1</v>
+      </c>
+      <c r="H56" s="31">
+        <v>1</v>
+      </c>
       <c r="I56" s="31"/>
       <c r="J56" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L56" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M56" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="M56" s="19" t="s">
-        <v>134</v>
-      </c>
       <c r="N56" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q56" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R56" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S56" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T56" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U56" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V56" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W56" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X56" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y56" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z56" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA56" s="20" t="s">
         <v>3</v>
@@ -14920,12 +14981,12 @@
       <c r="FG56" s="24"/>
       <c r="FH56" s="24"/>
     </row>
-    <row r="57" spans="1:164" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C57" s="25">
         <v>365</v>
@@ -14934,10 +14995,10 @@
         <v>14</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G57" s="25">
         <v>7</v>
@@ -14946,58 +15007,58 @@
         <v>7</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N57" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q57" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R57" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S57" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T57" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U57" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V57" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W57" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X57" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y57" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z57" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA57" s="20" t="s">
         <v>3</v>
@@ -15142,10 +15203,10 @@
     </row>
     <row r="58" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C58" s="25">
         <v>366</v>
@@ -15154,10 +15215,10 @@
         <v>14</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G58" s="25">
         <v>20</v>
@@ -15166,58 +15227,58 @@
         <v>20</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N58" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q58" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R58" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S58" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T58" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U58" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V58" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W58" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X58" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y58" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z58" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA58" s="20" t="s">
         <v>3</v>
@@ -15362,10 +15423,10 @@
     </row>
     <row r="59" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C59" s="25">
         <v>370</v>
@@ -15374,64 +15435,64 @@
         <v>15</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
       <c r="I59" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K59" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N59" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O59" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q59" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R59" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S59" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T59" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U59" s="7"/>
       <c r="V59" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W59" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="X59" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y59" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z59" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA59" s="20" t="s">
         <v>3</v>
@@ -15576,22 +15637,22 @@
     </row>
     <row r="60" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C60" s="25">
         <v>500</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G60" s="27">
         <v>1</v>
@@ -15600,58 +15661,58 @@
         <v>1</v>
       </c>
       <c r="I60" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L60" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N60" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q60" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R60" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S60" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T60" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U60" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V60" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W60" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X60" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y60" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z60" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA60" s="20" t="s">
         <v>3</v>
@@ -15796,22 +15857,22 @@
     </row>
     <row r="61" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C61" s="25">
         <v>500</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G61" s="27">
         <v>1</v>
@@ -15820,58 +15881,58 @@
         <v>1</v>
       </c>
       <c r="I61" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L61" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N61" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O61" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q61" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R61" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S61" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T61" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U61" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V61" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X61" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y61" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z61" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA61" s="20" t="s">
         <v>3</v>
@@ -16016,22 +16077,22 @@
     </row>
     <row r="62" spans="1:164" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C62" s="25">
         <v>500</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G62" s="27">
         <v>1</v>
@@ -16040,58 +16101,58 @@
         <v>1</v>
       </c>
       <c r="I62" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L62" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M62" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N62" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q62" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R62" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S62" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U62" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V62" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W62" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X62" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y62" s="20" t="s">
         <v>2</v>
       </c>
       <c r="Z62" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA62" s="20" t="s">
         <v>3</v>
@@ -16235,6 +16296,87 @@
       <c r="FH62" s="24"/>
     </row>
     <row r="63" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="25">
+        <v>47</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G63" s="27">
+        <v>1</v>
+      </c>
+      <c r="H63" s="27">
+        <v>1</v>
+      </c>
+      <c r="I63" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q63" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R63" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="S63" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="T63" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U63" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V63" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="W63" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="X63" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y63" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z63" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA63" s="20" t="s">
+        <v>3</v>
+      </c>
       <c r="AB63" s="24"/>
       <c r="AC63" s="24"/>
       <c r="AD63" s="24"/>
@@ -18736,423 +18878,6 @@
       <c r="FG80" s="24"/>
       <c r="FH80" s="24"/>
     </row>
-    <row r="81" spans="28:164" x14ac:dyDescent="0.2">
-      <c r="AB81" s="24"/>
-      <c r="AC81" s="24"/>
-      <c r="AD81" s="24"/>
-      <c r="AE81" s="24"/>
-      <c r="AF81" s="24"/>
-      <c r="AG81" s="24"/>
-      <c r="AH81" s="24"/>
-      <c r="AI81" s="24"/>
-      <c r="AJ81" s="24"/>
-      <c r="AK81" s="24"/>
-      <c r="AL81" s="24"/>
-      <c r="AM81" s="24"/>
-      <c r="AN81" s="24"/>
-      <c r="AO81" s="24"/>
-      <c r="AP81" s="24"/>
-      <c r="AQ81" s="24"/>
-      <c r="AR81" s="24"/>
-      <c r="AS81" s="24"/>
-      <c r="AT81" s="24"/>
-      <c r="AU81" s="24"/>
-      <c r="AV81" s="24"/>
-      <c r="AW81" s="24"/>
-      <c r="AX81" s="24"/>
-      <c r="AY81" s="24"/>
-      <c r="AZ81" s="24"/>
-      <c r="BA81" s="24"/>
-      <c r="BB81" s="24"/>
-      <c r="BC81" s="24"/>
-      <c r="BD81" s="24"/>
-      <c r="BE81" s="24"/>
-      <c r="BF81" s="24"/>
-      <c r="BG81" s="24"/>
-      <c r="BH81" s="24"/>
-      <c r="BI81" s="24"/>
-      <c r="BJ81" s="24"/>
-      <c r="BK81" s="24"/>
-      <c r="BL81" s="24"/>
-      <c r="BM81" s="24"/>
-      <c r="BN81" s="24"/>
-      <c r="BO81" s="24"/>
-      <c r="BP81" s="24"/>
-      <c r="BQ81" s="24"/>
-      <c r="BR81" s="24"/>
-      <c r="BS81" s="24"/>
-      <c r="BT81" s="24"/>
-      <c r="BU81" s="24"/>
-      <c r="BV81" s="24"/>
-      <c r="BW81" s="24"/>
-      <c r="BX81" s="24"/>
-      <c r="BY81" s="24"/>
-      <c r="BZ81" s="24"/>
-      <c r="CA81" s="24"/>
-      <c r="CB81" s="24"/>
-      <c r="CC81" s="24"/>
-      <c r="CD81" s="24"/>
-      <c r="CE81" s="24"/>
-      <c r="CF81" s="24"/>
-      <c r="CG81" s="24"/>
-      <c r="CH81" s="24"/>
-      <c r="CI81" s="24"/>
-      <c r="CJ81" s="24"/>
-      <c r="CK81" s="24"/>
-      <c r="CL81" s="24"/>
-      <c r="CM81" s="24"/>
-      <c r="CN81" s="24"/>
-      <c r="CO81" s="24"/>
-      <c r="CP81" s="24"/>
-      <c r="CQ81" s="24"/>
-      <c r="CR81" s="24"/>
-      <c r="CS81" s="24"/>
-      <c r="CT81" s="24"/>
-      <c r="CU81" s="24"/>
-      <c r="CV81" s="24"/>
-      <c r="CW81" s="24"/>
-      <c r="CX81" s="24"/>
-      <c r="CY81" s="24"/>
-      <c r="CZ81" s="24"/>
-      <c r="DA81" s="24"/>
-      <c r="DB81" s="24"/>
-      <c r="DC81" s="24"/>
-      <c r="DD81" s="24"/>
-      <c r="DE81" s="24"/>
-      <c r="DF81" s="24"/>
-      <c r="DG81" s="24"/>
-      <c r="DH81" s="24"/>
-      <c r="DI81" s="24"/>
-      <c r="DJ81" s="24"/>
-      <c r="DK81" s="24"/>
-      <c r="DL81" s="24"/>
-      <c r="DM81" s="24"/>
-      <c r="DN81" s="24"/>
-      <c r="DO81" s="24"/>
-      <c r="DP81" s="24"/>
-      <c r="DQ81" s="24"/>
-      <c r="DR81" s="24"/>
-      <c r="DS81" s="24"/>
-      <c r="DT81" s="24"/>
-      <c r="DU81" s="24"/>
-      <c r="DV81" s="24"/>
-      <c r="DW81" s="24"/>
-      <c r="DX81" s="24"/>
-      <c r="DY81" s="24"/>
-      <c r="DZ81" s="24"/>
-      <c r="EA81" s="24"/>
-      <c r="EB81" s="24"/>
-      <c r="EC81" s="24"/>
-      <c r="ED81" s="24"/>
-      <c r="EE81" s="24"/>
-      <c r="EF81" s="24"/>
-      <c r="EG81" s="24"/>
-      <c r="EH81" s="24"/>
-      <c r="EI81" s="24"/>
-      <c r="EJ81" s="24"/>
-      <c r="EK81" s="24"/>
-      <c r="EL81" s="24"/>
-      <c r="EM81" s="24"/>
-      <c r="EN81" s="24"/>
-      <c r="EO81" s="24"/>
-      <c r="EP81" s="24"/>
-      <c r="EQ81" s="24"/>
-      <c r="ER81" s="24"/>
-      <c r="ES81" s="24"/>
-      <c r="ET81" s="24"/>
-      <c r="EU81" s="24"/>
-      <c r="EV81" s="24"/>
-      <c r="EW81" s="24"/>
-      <c r="EX81" s="24"/>
-      <c r="EY81" s="24"/>
-      <c r="EZ81" s="24"/>
-      <c r="FA81" s="24"/>
-      <c r="FB81" s="24"/>
-      <c r="FC81" s="24"/>
-      <c r="FD81" s="24"/>
-      <c r="FE81" s="24"/>
-      <c r="FF81" s="24"/>
-      <c r="FG81" s="24"/>
-      <c r="FH81" s="24"/>
-    </row>
-    <row r="82" spans="28:164" x14ac:dyDescent="0.2">
-      <c r="AB82" s="24"/>
-      <c r="AC82" s="24"/>
-      <c r="AD82" s="24"/>
-      <c r="AE82" s="24"/>
-      <c r="AF82" s="24"/>
-      <c r="AG82" s="24"/>
-      <c r="AH82" s="24"/>
-      <c r="AI82" s="24"/>
-      <c r="AJ82" s="24"/>
-      <c r="AK82" s="24"/>
-      <c r="AL82" s="24"/>
-      <c r="AM82" s="24"/>
-      <c r="AN82" s="24"/>
-      <c r="AO82" s="24"/>
-      <c r="AP82" s="24"/>
-      <c r="AQ82" s="24"/>
-      <c r="AR82" s="24"/>
-      <c r="AS82" s="24"/>
-      <c r="AT82" s="24"/>
-      <c r="AU82" s="24"/>
-      <c r="AV82" s="24"/>
-      <c r="AW82" s="24"/>
-      <c r="AX82" s="24"/>
-      <c r="AY82" s="24"/>
-      <c r="AZ82" s="24"/>
-      <c r="BA82" s="24"/>
-      <c r="BB82" s="24"/>
-      <c r="BC82" s="24"/>
-      <c r="BD82" s="24"/>
-      <c r="BE82" s="24"/>
-      <c r="BF82" s="24"/>
-      <c r="BG82" s="24"/>
-      <c r="BH82" s="24"/>
-      <c r="BI82" s="24"/>
-      <c r="BJ82" s="24"/>
-      <c r="BK82" s="24"/>
-      <c r="BL82" s="24"/>
-      <c r="BM82" s="24"/>
-      <c r="BN82" s="24"/>
-      <c r="BO82" s="24"/>
-      <c r="BP82" s="24"/>
-      <c r="BQ82" s="24"/>
-      <c r="BR82" s="24"/>
-      <c r="BS82" s="24"/>
-      <c r="BT82" s="24"/>
-      <c r="BU82" s="24"/>
-      <c r="BV82" s="24"/>
-      <c r="BW82" s="24"/>
-      <c r="BX82" s="24"/>
-      <c r="BY82" s="24"/>
-      <c r="BZ82" s="24"/>
-      <c r="CA82" s="24"/>
-      <c r="CB82" s="24"/>
-      <c r="CC82" s="24"/>
-      <c r="CD82" s="24"/>
-      <c r="CE82" s="24"/>
-      <c r="CF82" s="24"/>
-      <c r="CG82" s="24"/>
-      <c r="CH82" s="24"/>
-      <c r="CI82" s="24"/>
-      <c r="CJ82" s="24"/>
-      <c r="CK82" s="24"/>
-      <c r="CL82" s="24"/>
-      <c r="CM82" s="24"/>
-      <c r="CN82" s="24"/>
-      <c r="CO82" s="24"/>
-      <c r="CP82" s="24"/>
-      <c r="CQ82" s="24"/>
-      <c r="CR82" s="24"/>
-      <c r="CS82" s="24"/>
-      <c r="CT82" s="24"/>
-      <c r="CU82" s="24"/>
-      <c r="CV82" s="24"/>
-      <c r="CW82" s="24"/>
-      <c r="CX82" s="24"/>
-      <c r="CY82" s="24"/>
-      <c r="CZ82" s="24"/>
-      <c r="DA82" s="24"/>
-      <c r="DB82" s="24"/>
-      <c r="DC82" s="24"/>
-      <c r="DD82" s="24"/>
-      <c r="DE82" s="24"/>
-      <c r="DF82" s="24"/>
-      <c r="DG82" s="24"/>
-      <c r="DH82" s="24"/>
-      <c r="DI82" s="24"/>
-      <c r="DJ82" s="24"/>
-      <c r="DK82" s="24"/>
-      <c r="DL82" s="24"/>
-      <c r="DM82" s="24"/>
-      <c r="DN82" s="24"/>
-      <c r="DO82" s="24"/>
-      <c r="DP82" s="24"/>
-      <c r="DQ82" s="24"/>
-      <c r="DR82" s="24"/>
-      <c r="DS82" s="24"/>
-      <c r="DT82" s="24"/>
-      <c r="DU82" s="24"/>
-      <c r="DV82" s="24"/>
-      <c r="DW82" s="24"/>
-      <c r="DX82" s="24"/>
-      <c r="DY82" s="24"/>
-      <c r="DZ82" s="24"/>
-      <c r="EA82" s="24"/>
-      <c r="EB82" s="24"/>
-      <c r="EC82" s="24"/>
-      <c r="ED82" s="24"/>
-      <c r="EE82" s="24"/>
-      <c r="EF82" s="24"/>
-      <c r="EG82" s="24"/>
-      <c r="EH82" s="24"/>
-      <c r="EI82" s="24"/>
-      <c r="EJ82" s="24"/>
-      <c r="EK82" s="24"/>
-      <c r="EL82" s="24"/>
-      <c r="EM82" s="24"/>
-      <c r="EN82" s="24"/>
-      <c r="EO82" s="24"/>
-      <c r="EP82" s="24"/>
-      <c r="EQ82" s="24"/>
-      <c r="ER82" s="24"/>
-      <c r="ES82" s="24"/>
-      <c r="ET82" s="24"/>
-      <c r="EU82" s="24"/>
-      <c r="EV82" s="24"/>
-      <c r="EW82" s="24"/>
-      <c r="EX82" s="24"/>
-      <c r="EY82" s="24"/>
-      <c r="EZ82" s="24"/>
-      <c r="FA82" s="24"/>
-      <c r="FB82" s="24"/>
-      <c r="FC82" s="24"/>
-      <c r="FD82" s="24"/>
-      <c r="FE82" s="24"/>
-      <c r="FF82" s="24"/>
-      <c r="FG82" s="24"/>
-      <c r="FH82" s="24"/>
-    </row>
-    <row r="83" spans="28:164" x14ac:dyDescent="0.2">
-      <c r="AB83" s="24"/>
-      <c r="AC83" s="24"/>
-      <c r="AD83" s="24"/>
-      <c r="AE83" s="24"/>
-      <c r="AF83" s="24"/>
-      <c r="AG83" s="24"/>
-      <c r="AH83" s="24"/>
-      <c r="AI83" s="24"/>
-      <c r="AJ83" s="24"/>
-      <c r="AK83" s="24"/>
-      <c r="AL83" s="24"/>
-      <c r="AM83" s="24"/>
-      <c r="AN83" s="24"/>
-      <c r="AO83" s="24"/>
-      <c r="AP83" s="24"/>
-      <c r="AQ83" s="24"/>
-      <c r="AR83" s="24"/>
-      <c r="AS83" s="24"/>
-      <c r="AT83" s="24"/>
-      <c r="AU83" s="24"/>
-      <c r="AV83" s="24"/>
-      <c r="AW83" s="24"/>
-      <c r="AX83" s="24"/>
-      <c r="AY83" s="24"/>
-      <c r="AZ83" s="24"/>
-      <c r="BA83" s="24"/>
-      <c r="BB83" s="24"/>
-      <c r="BC83" s="24"/>
-      <c r="BD83" s="24"/>
-      <c r="BE83" s="24"/>
-      <c r="BF83" s="24"/>
-      <c r="BG83" s="24"/>
-      <c r="BH83" s="24"/>
-      <c r="BI83" s="24"/>
-      <c r="BJ83" s="24"/>
-      <c r="BK83" s="24"/>
-      <c r="BL83" s="24"/>
-      <c r="BM83" s="24"/>
-      <c r="BN83" s="24"/>
-      <c r="BO83" s="24"/>
-      <c r="BP83" s="24"/>
-      <c r="BQ83" s="24"/>
-      <c r="BR83" s="24"/>
-      <c r="BS83" s="24"/>
-      <c r="BT83" s="24"/>
-      <c r="BU83" s="24"/>
-      <c r="BV83" s="24"/>
-      <c r="BW83" s="24"/>
-      <c r="BX83" s="24"/>
-      <c r="BY83" s="24"/>
-      <c r="BZ83" s="24"/>
-      <c r="CA83" s="24"/>
-      <c r="CB83" s="24"/>
-      <c r="CC83" s="24"/>
-      <c r="CD83" s="24"/>
-      <c r="CE83" s="24"/>
-      <c r="CF83" s="24"/>
-      <c r="CG83" s="24"/>
-      <c r="CH83" s="24"/>
-      <c r="CI83" s="24"/>
-      <c r="CJ83" s="24"/>
-      <c r="CK83" s="24"/>
-      <c r="CL83" s="24"/>
-      <c r="CM83" s="24"/>
-      <c r="CN83" s="24"/>
-      <c r="CO83" s="24"/>
-      <c r="CP83" s="24"/>
-      <c r="CQ83" s="24"/>
-      <c r="CR83" s="24"/>
-      <c r="CS83" s="24"/>
-      <c r="CT83" s="24"/>
-      <c r="CU83" s="24"/>
-      <c r="CV83" s="24"/>
-      <c r="CW83" s="24"/>
-      <c r="CX83" s="24"/>
-      <c r="CY83" s="24"/>
-      <c r="CZ83" s="24"/>
-      <c r="DA83" s="24"/>
-      <c r="DB83" s="24"/>
-      <c r="DC83" s="24"/>
-      <c r="DD83" s="24"/>
-      <c r="DE83" s="24"/>
-      <c r="DF83" s="24"/>
-      <c r="DG83" s="24"/>
-      <c r="DH83" s="24"/>
-      <c r="DI83" s="24"/>
-      <c r="DJ83" s="24"/>
-      <c r="DK83" s="24"/>
-      <c r="DL83" s="24"/>
-      <c r="DM83" s="24"/>
-      <c r="DN83" s="24"/>
-      <c r="DO83" s="24"/>
-      <c r="DP83" s="24"/>
-      <c r="DQ83" s="24"/>
-      <c r="DR83" s="24"/>
-      <c r="DS83" s="24"/>
-      <c r="DT83" s="24"/>
-      <c r="DU83" s="24"/>
-      <c r="DV83" s="24"/>
-      <c r="DW83" s="24"/>
-      <c r="DX83" s="24"/>
-      <c r="DY83" s="24"/>
-      <c r="DZ83" s="24"/>
-      <c r="EA83" s="24"/>
-      <c r="EB83" s="24"/>
-      <c r="EC83" s="24"/>
-      <c r="ED83" s="24"/>
-      <c r="EE83" s="24"/>
-      <c r="EF83" s="24"/>
-      <c r="EG83" s="24"/>
-      <c r="EH83" s="24"/>
-      <c r="EI83" s="24"/>
-      <c r="EJ83" s="24"/>
-      <c r="EK83" s="24"/>
-      <c r="EL83" s="24"/>
-      <c r="EM83" s="24"/>
-      <c r="EN83" s="24"/>
-      <c r="EO83" s="24"/>
-      <c r="EP83" s="24"/>
-      <c r="EQ83" s="24"/>
-      <c r="ER83" s="24"/>
-      <c r="ES83" s="24"/>
-      <c r="ET83" s="24"/>
-      <c r="EU83" s="24"/>
-      <c r="EV83" s="24"/>
-      <c r="EW83" s="24"/>
-      <c r="EX83" s="24"/>
-      <c r="EY83" s="24"/>
-      <c r="EZ83" s="24"/>
-      <c r="FA83" s="24"/>
-      <c r="FB83" s="24"/>
-      <c r="FC83" s="24"/>
-      <c r="FD83" s="24"/>
-      <c r="FE83" s="24"/>
-      <c r="FF83" s="24"/>
-      <c r="FG83" s="24"/>
-      <c r="FH83" s="24"/>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA62">
     <sortCondition ref="C2:C62"/>
